--- a/docs/planningdocuments/gannt/GanttChart_POS_9.xlsx
+++ b/docs/planningdocuments/gannt/GanttChart_POS_9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CPS353-POS\docs\planningdocuments\gannt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80A6F0C5-1585-4926-AE52-E031CB0CABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB277CE-D411-462B-B8AA-F68179E6CC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="141">
   <si>
     <t>GANTT CHART</t>
   </si>
@@ -398,9 +398,6 @@
   </si>
   <si>
     <t>W5 10/6/2022</t>
-  </si>
-  <si>
-    <t>W9 11/3/2022</t>
   </si>
   <si>
     <t>Financial</t>
@@ -463,9 +460,6 @@
     <t xml:space="preserve">Create password hashing function </t>
   </si>
   <si>
-    <t>Change DB Connector to PDO</t>
-  </si>
-  <si>
     <t>Integrate Security and User Classes</t>
   </si>
   <si>
@@ -523,25 +517,28 @@
     <t>W8 10/24/2022</t>
   </si>
   <si>
-    <t>W10 10/31/2022</t>
-  </si>
-  <si>
-    <t>W11 11/7/2022</t>
-  </si>
-  <si>
-    <t>W12 11/14/2022</t>
-  </si>
-  <si>
-    <t>W13 11/21/2022</t>
-  </si>
-  <si>
-    <t>W14 11/28/2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">Add Data Validation to Admin Invetory </t>
   </si>
   <si>
     <t>Get Admin Page Connected to DB</t>
+  </si>
+  <si>
+    <t>W9 10/31/2022</t>
+  </si>
+  <si>
+    <t>W10  11/7/22</t>
+  </si>
+  <si>
+    <t>W11 11/14/2022</t>
+  </si>
+  <si>
+    <t>W12 11/21/2022</t>
+  </si>
+  <si>
+    <t>W13 11/28/2022</t>
+  </si>
+  <si>
+    <t>W14 12/5/2022</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1545,27 +1542,6 @@
     <xf numFmtId="0" fontId="27" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1580,9 +1556,14 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1591,6 +1572,25 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1911,10 +1911,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BZ115"/>
+  <dimension ref="A1:BZ116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2012,38 +2012,38 @@
     </row>
     <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="165"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="165"/>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="165"/>
-      <c r="AD2" s="165"/>
-      <c r="AE2" s="165"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="156"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="154"/>
+      <c r="AD2" s="154"/>
+      <c r="AE2" s="154"/>
       <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
@@ -2178,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="158"/>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="159" t="s">
         <v>66</v>
       </c>
       <c r="E4" s="160"/>
@@ -2194,7 +2194,7 @@
       <c r="M4" s="158"/>
       <c r="N4" s="158"/>
       <c r="O4" s="158"/>
-      <c r="P4" s="169" t="s">
+      <c r="P4" s="161" t="s">
         <v>2</v>
       </c>
       <c r="Q4" s="160"/>
@@ -2266,7 +2266,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="158"/>
-      <c r="D5" s="159" t="s">
+      <c r="D5" s="171" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="160"/>
@@ -2282,7 +2282,7 @@
       <c r="M5" s="158"/>
       <c r="N5" s="158"/>
       <c r="O5" s="158"/>
-      <c r="P5" s="161">
+      <c r="P5" s="172">
         <v>44858</v>
       </c>
       <c r="Q5" s="160"/>
@@ -2598,205 +2598,205 @@
     </row>
     <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
-      <c r="B9" s="162" t="s">
+      <c r="B9" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="162" t="s">
+      <c r="C9" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="162" t="s">
+      <c r="D9" s="151" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="162" t="s">
+      <c r="E9" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="162" t="s">
+      <c r="F9" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="162" t="s">
+      <c r="G9" s="151" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="170" t="s">
+      <c r="H9" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="172"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="152"/>
-      <c r="L9" s="152"/>
-      <c r="M9" s="152"/>
-      <c r="N9" s="152"/>
-      <c r="O9" s="152"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="152"/>
-      <c r="R9" s="152"/>
-      <c r="S9" s="152"/>
-      <c r="T9" s="152"/>
-      <c r="U9" s="152"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="151"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="152"/>
-      <c r="AA9" s="152"/>
-      <c r="AB9" s="152"/>
-      <c r="AC9" s="152"/>
-      <c r="AD9" s="152"/>
-      <c r="AE9" s="152"/>
-      <c r="AF9" s="152"/>
-      <c r="AG9" s="152"/>
-      <c r="AH9" s="152"/>
-      <c r="AI9" s="152"/>
-      <c r="AJ9" s="152"/>
-      <c r="AK9" s="152"/>
-      <c r="AL9" s="152"/>
-      <c r="AM9" s="151"/>
-      <c r="AN9" s="152"/>
-      <c r="AO9" s="152"/>
-      <c r="AP9" s="152"/>
-      <c r="AQ9" s="152"/>
-      <c r="AR9" s="152"/>
-      <c r="AS9" s="152"/>
-      <c r="AT9" s="152"/>
-      <c r="AU9" s="152"/>
-      <c r="AV9" s="152"/>
-      <c r="AW9" s="152"/>
-      <c r="AX9" s="152"/>
-      <c r="AY9" s="152"/>
-      <c r="AZ9" s="152"/>
-      <c r="BA9" s="152"/>
-      <c r="BB9" s="151"/>
-      <c r="BC9" s="152"/>
-      <c r="BD9" s="152"/>
-      <c r="BE9" s="152"/>
-      <c r="BF9" s="152"/>
-      <c r="BG9" s="152"/>
-      <c r="BH9" s="152"/>
-      <c r="BI9" s="152"/>
-      <c r="BJ9" s="152"/>
-      <c r="BK9" s="152"/>
-      <c r="BL9" s="152"/>
-      <c r="BM9" s="152"/>
-      <c r="BN9" s="152"/>
-      <c r="BO9" s="152"/>
-      <c r="BP9" s="152"/>
-      <c r="BQ9" s="152"/>
-      <c r="BR9" s="152"/>
-      <c r="BS9" s="152"/>
-      <c r="BT9" s="152"/>
-      <c r="BU9" s="152"/>
-      <c r="BV9" s="152"/>
-      <c r="BW9" s="152"/>
-      <c r="BX9" s="152"/>
-      <c r="BY9" s="152"/>
-      <c r="BZ9" s="153"/>
+      <c r="I9" s="164"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="165"/>
+      <c r="Q9" s="165"/>
+      <c r="R9" s="165"/>
+      <c r="S9" s="165"/>
+      <c r="T9" s="165"/>
+      <c r="U9" s="165"/>
+      <c r="V9" s="165"/>
+      <c r="W9" s="165"/>
+      <c r="X9" s="166"/>
+      <c r="Y9" s="165"/>
+      <c r="Z9" s="165"/>
+      <c r="AA9" s="165"/>
+      <c r="AB9" s="165"/>
+      <c r="AC9" s="165"/>
+      <c r="AD9" s="165"/>
+      <c r="AE9" s="165"/>
+      <c r="AF9" s="165"/>
+      <c r="AG9" s="165"/>
+      <c r="AH9" s="165"/>
+      <c r="AI9" s="165"/>
+      <c r="AJ9" s="165"/>
+      <c r="AK9" s="165"/>
+      <c r="AL9" s="165"/>
+      <c r="AM9" s="166"/>
+      <c r="AN9" s="165"/>
+      <c r="AO9" s="165"/>
+      <c r="AP9" s="165"/>
+      <c r="AQ9" s="165"/>
+      <c r="AR9" s="165"/>
+      <c r="AS9" s="165"/>
+      <c r="AT9" s="165"/>
+      <c r="AU9" s="165"/>
+      <c r="AV9" s="165"/>
+      <c r="AW9" s="165"/>
+      <c r="AX9" s="165"/>
+      <c r="AY9" s="165"/>
+      <c r="AZ9" s="165"/>
+      <c r="BA9" s="165"/>
+      <c r="BB9" s="166"/>
+      <c r="BC9" s="165"/>
+      <c r="BD9" s="165"/>
+      <c r="BE9" s="165"/>
+      <c r="BF9" s="165"/>
+      <c r="BG9" s="165"/>
+      <c r="BH9" s="165"/>
+      <c r="BI9" s="165"/>
+      <c r="BJ9" s="165"/>
+      <c r="BK9" s="165"/>
+      <c r="BL9" s="165"/>
+      <c r="BM9" s="165"/>
+      <c r="BN9" s="165"/>
+      <c r="BO9" s="165"/>
+      <c r="BP9" s="165"/>
+      <c r="BQ9" s="165"/>
+      <c r="BR9" s="165"/>
+      <c r="BS9" s="165"/>
+      <c r="BT9" s="165"/>
+      <c r="BU9" s="165"/>
+      <c r="BV9" s="165"/>
+      <c r="BW9" s="165"/>
+      <c r="BX9" s="165"/>
+      <c r="BY9" s="165"/>
+      <c r="BZ9" s="170"/>
     </row>
     <row r="10" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="154" t="s">
+      <c r="B10" s="152"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="155"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="155"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="154" t="s">
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="167" t="s">
         <v>96</v>
       </c>
-      <c r="O10" s="155"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="156"/>
-      <c r="S10" s="154" t="s">
+      <c r="O10" s="168"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="T10" s="155"/>
-      <c r="U10" s="155"/>
-      <c r="V10" s="155"/>
-      <c r="W10" s="156"/>
-      <c r="X10" s="154" t="s">
+      <c r="T10" s="168"/>
+      <c r="U10" s="168"/>
+      <c r="V10" s="168"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="167" t="s">
         <v>103</v>
       </c>
-      <c r="Y10" s="155"/>
-      <c r="Z10" s="155"/>
-      <c r="AA10" s="155"/>
-      <c r="AB10" s="156"/>
-      <c r="AC10" s="154" t="s">
+      <c r="Y10" s="168"/>
+      <c r="Z10" s="168"/>
+      <c r="AA10" s="168"/>
+      <c r="AB10" s="169"/>
+      <c r="AC10" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="AD10" s="155"/>
-      <c r="AE10" s="155"/>
-      <c r="AF10" s="155"/>
-      <c r="AG10" s="156"/>
-      <c r="AH10" s="154" t="s">
+      <c r="AD10" s="168"/>
+      <c r="AE10" s="168"/>
+      <c r="AF10" s="168"/>
+      <c r="AG10" s="169"/>
+      <c r="AH10" s="167" t="s">
         <v>81</v>
       </c>
-      <c r="AI10" s="155"/>
-      <c r="AJ10" s="155"/>
-      <c r="AK10" s="155"/>
-      <c r="AL10" s="156"/>
-      <c r="AM10" s="154" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN10" s="155"/>
-      <c r="AO10" s="155"/>
-      <c r="AP10" s="155"/>
-      <c r="AQ10" s="156"/>
-      <c r="AR10" s="154" t="s">
-        <v>134</v>
-      </c>
-      <c r="AS10" s="155"/>
-      <c r="AT10" s="155"/>
-      <c r="AU10" s="155"/>
-      <c r="AV10" s="156"/>
-      <c r="AW10" s="154" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX10" s="155"/>
-      <c r="AY10" s="155"/>
-      <c r="AZ10" s="155"/>
-      <c r="BA10" s="156"/>
-      <c r="BB10" s="154" t="s">
+      <c r="AI10" s="168"/>
+      <c r="AJ10" s="168"/>
+      <c r="AK10" s="168"/>
+      <c r="AL10" s="169"/>
+      <c r="AM10" s="167" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN10" s="168"/>
+      <c r="AO10" s="168"/>
+      <c r="AP10" s="168"/>
+      <c r="AQ10" s="169"/>
+      <c r="AR10" s="167" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS10" s="168"/>
+      <c r="AT10" s="168"/>
+      <c r="AU10" s="168"/>
+      <c r="AV10" s="169"/>
+      <c r="AW10" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="BC10" s="155"/>
-      <c r="BD10" s="155"/>
-      <c r="BE10" s="155"/>
-      <c r="BF10" s="156"/>
-      <c r="BG10" s="154" t="s">
+      <c r="AX10" s="168"/>
+      <c r="AY10" s="168"/>
+      <c r="AZ10" s="168"/>
+      <c r="BA10" s="169"/>
+      <c r="BB10" s="167" t="s">
         <v>136</v>
       </c>
-      <c r="BH10" s="155"/>
-      <c r="BI10" s="155"/>
-      <c r="BJ10" s="155"/>
-      <c r="BK10" s="156"/>
-      <c r="BL10" s="154" t="s">
+      <c r="BC10" s="168"/>
+      <c r="BD10" s="168"/>
+      <c r="BE10" s="168"/>
+      <c r="BF10" s="169"/>
+      <c r="BG10" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="BM10" s="155"/>
-      <c r="BN10" s="155"/>
-      <c r="BO10" s="155"/>
-      <c r="BP10" s="156"/>
-      <c r="BQ10" s="154" t="s">
+      <c r="BH10" s="168"/>
+      <c r="BI10" s="168"/>
+      <c r="BJ10" s="168"/>
+      <c r="BK10" s="169"/>
+      <c r="BL10" s="167" t="s">
         <v>138</v>
       </c>
-      <c r="BR10" s="155"/>
-      <c r="BS10" s="155"/>
-      <c r="BT10" s="155"/>
-      <c r="BU10" s="156"/>
-      <c r="BV10" s="154" t="s">
+      <c r="BM10" s="168"/>
+      <c r="BN10" s="168"/>
+      <c r="BO10" s="168"/>
+      <c r="BP10" s="169"/>
+      <c r="BQ10" s="167" t="s">
         <v>139</v>
       </c>
-      <c r="BW10" s="155"/>
-      <c r="BX10" s="155"/>
-      <c r="BY10" s="155"/>
-      <c r="BZ10" s="156"/>
+      <c r="BR10" s="168"/>
+      <c r="BS10" s="168"/>
+      <c r="BT10" s="168"/>
+      <c r="BU10" s="169"/>
+      <c r="BV10" s="167" t="s">
+        <v>140</v>
+      </c>
+      <c r="BW10" s="168"/>
+      <c r="BX10" s="168"/>
+      <c r="BY10" s="168"/>
+      <c r="BZ10" s="169"/>
     </row>
     <row r="11" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
@@ -5274,7 +5274,7 @@
       <c r="A37" s="134"/>
       <c r="B37" s="135"/>
       <c r="C37" s="136" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="137"/>
       <c r="E37" s="137"/>
@@ -5438,7 +5438,7 @@
       <c r="A39" s="21"/>
       <c r="B39" s="85"/>
       <c r="C39" s="120" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D39" s="87"/>
       <c r="E39" s="87"/>
@@ -5519,7 +5519,7 @@
       <c r="A40" s="21"/>
       <c r="B40" s="85"/>
       <c r="C40" s="120" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="87"/>
       <c r="E40" s="87"/>
@@ -5601,7 +5601,7 @@
       <c r="A41" s="21"/>
       <c r="B41" s="85"/>
       <c r="C41" s="120" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D41" s="87"/>
       <c r="E41" s="87"/>
@@ -5683,7 +5683,7 @@
       <c r="A42" s="21"/>
       <c r="B42" s="85"/>
       <c r="C42" s="120" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D42" s="87"/>
       <c r="E42" s="87"/>
@@ -6089,7 +6089,7 @@
       <c r="A47" s="21"/>
       <c r="B47" s="85"/>
       <c r="C47" s="120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" s="87"/>
       <c r="E47" s="87"/>
@@ -6171,7 +6171,7 @@
       <c r="A48" s="21"/>
       <c r="B48" s="85"/>
       <c r="C48" s="120" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" s="87"/>
       <c r="E48" s="87"/>
@@ -6210,25 +6210,25 @@
       <c r="AL48" s="88"/>
       <c r="AM48" s="88"/>
       <c r="AN48" s="88"/>
-      <c r="AO48" s="121"/>
-      <c r="AP48" s="121"/>
-      <c r="AQ48" s="121"/>
-      <c r="AR48" s="122"/>
-      <c r="AS48" s="88"/>
-      <c r="AT48" s="88"/>
-      <c r="AU48" s="88"/>
-      <c r="AV48" s="88"/>
-      <c r="AW48" s="88"/>
-      <c r="AX48" s="88"/>
-      <c r="AY48" s="88"/>
-      <c r="AZ48" s="88"/>
-      <c r="BA48" s="88"/>
-      <c r="BB48" s="88"/>
-      <c r="BC48" s="88"/>
-      <c r="BD48" s="88"/>
-      <c r="BE48" s="88"/>
-      <c r="BF48" s="88"/>
-      <c r="BG48" s="88"/>
+      <c r="AO48" s="173"/>
+      <c r="AP48" s="173"/>
+      <c r="AQ48" s="173"/>
+      <c r="AR48" s="173"/>
+      <c r="AS48" s="173"/>
+      <c r="AT48" s="173"/>
+      <c r="AU48" s="173"/>
+      <c r="AV48" s="173"/>
+      <c r="AW48" s="121"/>
+      <c r="AX48" s="121"/>
+      <c r="AY48" s="121"/>
+      <c r="AZ48" s="121"/>
+      <c r="BA48" s="121"/>
+      <c r="BB48" s="121"/>
+      <c r="BC48" s="121"/>
+      <c r="BD48" s="121"/>
+      <c r="BE48" s="121"/>
+      <c r="BF48" s="121"/>
+      <c r="BG48" s="122"/>
       <c r="BH48" s="88"/>
       <c r="BI48" s="88"/>
       <c r="BJ48" s="88"/>
@@ -6252,9 +6252,7 @@
     <row r="49" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="85"/>
-      <c r="C49" s="120" t="s">
-        <v>116</v>
-      </c>
+      <c r="C49" s="120"/>
       <c r="D49" s="87"/>
       <c r="E49" s="87"/>
       <c r="F49" s="87"/>
@@ -6292,14 +6290,14 @@
       <c r="AL49" s="88"/>
       <c r="AM49" s="88"/>
       <c r="AN49" s="88"/>
-      <c r="AO49" s="121"/>
-      <c r="AP49" s="121"/>
-      <c r="AQ49" s="121"/>
-      <c r="AR49" s="121"/>
-      <c r="AS49" s="121"/>
-      <c r="AT49" s="122"/>
-      <c r="AU49" s="122"/>
-      <c r="AV49" s="122"/>
+      <c r="AO49" s="173"/>
+      <c r="AP49" s="173"/>
+      <c r="AQ49" s="173"/>
+      <c r="AR49" s="173"/>
+      <c r="AS49" s="173"/>
+      <c r="AT49" s="173"/>
+      <c r="AU49" s="173"/>
+      <c r="AV49" s="173"/>
       <c r="AW49" s="88"/>
       <c r="AX49" s="88"/>
       <c r="AY49" s="88"/>
@@ -6334,7 +6332,7 @@
     <row r="50" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="85"/>
-      <c r="C50" s="86"/>
+      <c r="C50" s="120"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="F50" s="87"/>
@@ -6372,14 +6370,14 @@
       <c r="AL50" s="88"/>
       <c r="AM50" s="88"/>
       <c r="AN50" s="88"/>
-      <c r="AO50" s="88"/>
-      <c r="AP50" s="88"/>
-      <c r="AQ50" s="88"/>
-      <c r="AR50" s="88"/>
-      <c r="AS50" s="88"/>
-      <c r="AT50" s="88"/>
-      <c r="AU50" s="88"/>
-      <c r="AV50" s="88"/>
+      <c r="AO50" s="173"/>
+      <c r="AP50" s="173"/>
+      <c r="AQ50" s="173"/>
+      <c r="AR50" s="173"/>
+      <c r="AS50" s="173"/>
+      <c r="AT50" s="173"/>
+      <c r="AU50" s="173"/>
+      <c r="AV50" s="173"/>
       <c r="AW50" s="88"/>
       <c r="AX50" s="88"/>
       <c r="AY50" s="88"/>
@@ -6491,169 +6489,167 @@
       <c r="BY51" s="88"/>
       <c r="BZ51" s="88"/>
     </row>
-    <row r="52" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="72"/>
-      <c r="B52" s="73"/>
-      <c r="C52" s="76" t="s">
+    <row r="52" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="88"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="90"/>
+      <c r="L52" s="90"/>
+      <c r="M52" s="88"/>
+      <c r="N52" s="88"/>
+      <c r="O52" s="88"/>
+      <c r="P52" s="88"/>
+      <c r="Q52" s="88"/>
+      <c r="R52" s="88"/>
+      <c r="S52" s="88"/>
+      <c r="T52" s="88"/>
+      <c r="U52" s="88"/>
+      <c r="V52" s="88"/>
+      <c r="W52" s="88"/>
+      <c r="X52" s="88"/>
+      <c r="Y52" s="88"/>
+      <c r="Z52" s="88"/>
+      <c r="AA52" s="88"/>
+      <c r="AB52" s="88"/>
+      <c r="AC52" s="88"/>
+      <c r="AD52" s="88"/>
+      <c r="AE52" s="88"/>
+      <c r="AF52" s="88"/>
+      <c r="AG52" s="88"/>
+      <c r="AH52" s="88"/>
+      <c r="AI52" s="88"/>
+      <c r="AJ52" s="88"/>
+      <c r="AK52" s="88"/>
+      <c r="AL52" s="88"/>
+      <c r="AM52" s="88"/>
+      <c r="AN52" s="88"/>
+      <c r="AO52" s="88"/>
+      <c r="AP52" s="88"/>
+      <c r="AQ52" s="88"/>
+      <c r="AR52" s="88"/>
+      <c r="AS52" s="88"/>
+      <c r="AT52" s="88"/>
+      <c r="AU52" s="88"/>
+      <c r="AV52" s="88"/>
+      <c r="AW52" s="88"/>
+      <c r="AX52" s="88"/>
+      <c r="AY52" s="88"/>
+      <c r="AZ52" s="88"/>
+      <c r="BA52" s="88"/>
+      <c r="BB52" s="88"/>
+      <c r="BC52" s="88"/>
+      <c r="BD52" s="88"/>
+      <c r="BE52" s="88"/>
+      <c r="BF52" s="88"/>
+      <c r="BG52" s="88"/>
+      <c r="BH52" s="88"/>
+      <c r="BI52" s="88"/>
+      <c r="BJ52" s="88"/>
+      <c r="BK52" s="88"/>
+      <c r="BL52" s="88"/>
+      <c r="BM52" s="88"/>
+      <c r="BN52" s="88"/>
+      <c r="BO52" s="88"/>
+      <c r="BP52" s="88"/>
+      <c r="BQ52" s="88"/>
+      <c r="BR52" s="88"/>
+      <c r="BS52" s="88"/>
+      <c r="BT52" s="88"/>
+      <c r="BU52" s="88"/>
+      <c r="BV52" s="88"/>
+      <c r="BW52" s="88"/>
+      <c r="BX52" s="88"/>
+      <c r="BY52" s="88"/>
+      <c r="BZ52" s="88"/>
+    </row>
+    <row r="53" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="72"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="74"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="65"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="67"/>
-      <c r="M52" s="67"/>
-      <c r="N52" s="68"/>
-      <c r="O52" s="68"/>
-      <c r="P52" s="68"/>
-      <c r="Q52" s="68"/>
-      <c r="R52" s="68"/>
-      <c r="S52" s="67"/>
-      <c r="T52" s="67"/>
-      <c r="U52" s="67"/>
-      <c r="V52" s="67"/>
-      <c r="W52" s="67"/>
-      <c r="X52" s="67"/>
-      <c r="Y52" s="67"/>
-      <c r="Z52" s="67"/>
-      <c r="AA52" s="67"/>
-      <c r="AB52" s="67"/>
-      <c r="AC52" s="69"/>
-      <c r="AD52" s="69"/>
-      <c r="AE52" s="69"/>
-      <c r="AF52" s="69"/>
-      <c r="AG52" s="69"/>
-      <c r="AH52" s="67"/>
-      <c r="AI52" s="67"/>
-      <c r="AJ52" s="67"/>
-      <c r="AK52" s="67"/>
-      <c r="AL52" s="67"/>
-      <c r="AM52" s="67"/>
-      <c r="AN52" s="67"/>
-      <c r="AO52" s="67"/>
-      <c r="AP52" s="67"/>
-      <c r="AQ52" s="67"/>
-      <c r="AR52" s="70"/>
-      <c r="AS52" s="70"/>
-      <c r="AT52" s="70"/>
-      <c r="AU52" s="70"/>
-      <c r="AV52" s="70"/>
-      <c r="AW52" s="67"/>
-      <c r="AX52" s="67"/>
-      <c r="AY52" s="67"/>
-      <c r="AZ52" s="67"/>
-      <c r="BA52" s="67"/>
-      <c r="BB52" s="67"/>
-      <c r="BC52" s="67"/>
-      <c r="BD52" s="67"/>
-      <c r="BE52" s="67"/>
-      <c r="BF52" s="67"/>
-      <c r="BG52" s="71"/>
-      <c r="BH52" s="71"/>
-      <c r="BI52" s="71"/>
-      <c r="BJ52" s="71"/>
-      <c r="BK52" s="71"/>
-      <c r="BL52" s="67"/>
-      <c r="BM52" s="67"/>
-      <c r="BN52" s="67"/>
-      <c r="BO52" s="67"/>
-      <c r="BP52" s="67"/>
-      <c r="BQ52" s="67"/>
-      <c r="BR52" s="67"/>
-      <c r="BS52" s="67"/>
-      <c r="BT52" s="67"/>
-      <c r="BU52" s="67"/>
-      <c r="BV52" s="67"/>
-      <c r="BW52" s="67"/>
-      <c r="BX52" s="67"/>
-      <c r="BY52" s="67"/>
-      <c r="BZ52" s="67"/>
-    </row>
-    <row r="53" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="54"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="129"/>
-      <c r="L53" s="129"/>
-      <c r="M53" s="129"/>
-      <c r="N53" s="129"/>
-      <c r="O53" s="129"/>
-      <c r="P53" s="129"/>
-      <c r="Q53" s="129"/>
-      <c r="R53" s="129"/>
-      <c r="S53" s="129"/>
-      <c r="T53" s="129"/>
-      <c r="U53" s="129"/>
-      <c r="V53" s="129"/>
-      <c r="W53" s="129"/>
-      <c r="X53" s="129"/>
-      <c r="Y53" s="129"/>
-      <c r="Z53" s="129"/>
-      <c r="AA53" s="129"/>
-      <c r="AB53" s="129"/>
-      <c r="AC53" s="129"/>
-      <c r="AD53" s="129"/>
-      <c r="AE53" s="129"/>
-      <c r="AF53" s="129"/>
-      <c r="AG53" s="129"/>
-      <c r="AH53" s="38"/>
-      <c r="AI53" s="38"/>
-      <c r="AJ53" s="124"/>
-      <c r="AK53" s="124"/>
-      <c r="AL53" s="124"/>
-      <c r="AM53" s="58"/>
-      <c r="AN53" s="38"/>
-      <c r="AO53" s="38"/>
-      <c r="AP53" s="38"/>
-      <c r="AQ53" s="38"/>
-      <c r="AR53" s="40"/>
-      <c r="AS53" s="40"/>
-      <c r="AT53" s="40"/>
-      <c r="AU53" s="40"/>
-      <c r="AV53" s="40"/>
-      <c r="AW53" s="38"/>
-      <c r="AX53" s="38"/>
-      <c r="AY53" s="38"/>
-      <c r="AZ53" s="38"/>
-      <c r="BA53" s="38"/>
-      <c r="BB53" s="38"/>
-      <c r="BC53" s="38"/>
-      <c r="BD53" s="38"/>
-      <c r="BE53" s="38"/>
-      <c r="BF53" s="38"/>
-      <c r="BG53" s="41"/>
-      <c r="BH53" s="41"/>
-      <c r="BI53" s="41"/>
-      <c r="BJ53" s="41"/>
-      <c r="BK53" s="41"/>
-      <c r="BL53" s="38"/>
-      <c r="BM53" s="38"/>
-      <c r="BN53" s="38"/>
-      <c r="BO53" s="38"/>
-      <c r="BP53" s="38"/>
-      <c r="BQ53" s="38"/>
-      <c r="BR53" s="38"/>
-      <c r="BS53" s="38"/>
-      <c r="BT53" s="38"/>
-      <c r="BU53" s="38"/>
-      <c r="BV53" s="38"/>
-      <c r="BW53" s="38"/>
-      <c r="BX53" s="38"/>
-      <c r="BY53" s="38"/>
-      <c r="BZ53" s="38"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="67"/>
+      <c r="N53" s="68"/>
+      <c r="O53" s="68"/>
+      <c r="P53" s="68"/>
+      <c r="Q53" s="68"/>
+      <c r="R53" s="68"/>
+      <c r="S53" s="67"/>
+      <c r="T53" s="67"/>
+      <c r="U53" s="67"/>
+      <c r="V53" s="67"/>
+      <c r="W53" s="67"/>
+      <c r="X53" s="67"/>
+      <c r="Y53" s="67"/>
+      <c r="Z53" s="67"/>
+      <c r="AA53" s="67"/>
+      <c r="AB53" s="67"/>
+      <c r="AC53" s="69"/>
+      <c r="AD53" s="69"/>
+      <c r="AE53" s="69"/>
+      <c r="AF53" s="69"/>
+      <c r="AG53" s="69"/>
+      <c r="AH53" s="67"/>
+      <c r="AI53" s="67"/>
+      <c r="AJ53" s="67"/>
+      <c r="AK53" s="67"/>
+      <c r="AL53" s="67"/>
+      <c r="AM53" s="67"/>
+      <c r="AN53" s="67"/>
+      <c r="AO53" s="67"/>
+      <c r="AP53" s="67"/>
+      <c r="AQ53" s="67"/>
+      <c r="AR53" s="70"/>
+      <c r="AS53" s="70"/>
+      <c r="AT53" s="70"/>
+      <c r="AU53" s="70"/>
+      <c r="AV53" s="70"/>
+      <c r="AW53" s="67"/>
+      <c r="AX53" s="67"/>
+      <c r="AY53" s="67"/>
+      <c r="AZ53" s="67"/>
+      <c r="BA53" s="67"/>
+      <c r="BB53" s="67"/>
+      <c r="BC53" s="67"/>
+      <c r="BD53" s="67"/>
+      <c r="BE53" s="67"/>
+      <c r="BF53" s="67"/>
+      <c r="BG53" s="71"/>
+      <c r="BH53" s="71"/>
+      <c r="BI53" s="71"/>
+      <c r="BJ53" s="71"/>
+      <c r="BK53" s="71"/>
+      <c r="BL53" s="67"/>
+      <c r="BM53" s="67"/>
+      <c r="BN53" s="67"/>
+      <c r="BO53" s="67"/>
+      <c r="BP53" s="67"/>
+      <c r="BQ53" s="67"/>
+      <c r="BR53" s="67"/>
+      <c r="BS53" s="67"/>
+      <c r="BT53" s="67"/>
+      <c r="BU53" s="67"/>
+      <c r="BV53" s="67"/>
+      <c r="BW53" s="67"/>
+      <c r="BX53" s="67"/>
+      <c r="BY53" s="67"/>
+      <c r="BZ53" s="67"/>
     </row>
     <row r="54" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="32"/>
@@ -6779,7 +6775,7 @@
       <c r="AK55" s="124"/>
       <c r="AL55" s="124"/>
       <c r="AM55" s="58"/>
-      <c r="AN55" s="131"/>
+      <c r="AN55" s="38"/>
       <c r="AO55" s="38"/>
       <c r="AP55" s="38"/>
       <c r="AQ55" s="38"/>
@@ -6823,7 +6819,7 @@
       <c r="A56" s="32"/>
       <c r="B56" s="53"/>
       <c r="C56" s="56" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D56" s="54"/>
       <c r="E56" s="35"/>
@@ -6857,11 +6853,11 @@
       <c r="AG56" s="129"/>
       <c r="AH56" s="38"/>
       <c r="AI56" s="38"/>
-      <c r="AJ56" s="38"/>
-      <c r="AK56" s="38"/>
-      <c r="AL56" s="38"/>
-      <c r="AM56" s="38"/>
-      <c r="AN56" s="130"/>
+      <c r="AJ56" s="124"/>
+      <c r="AK56" s="124"/>
+      <c r="AL56" s="124"/>
+      <c r="AM56" s="58"/>
+      <c r="AN56" s="131"/>
       <c r="AO56" s="38"/>
       <c r="AP56" s="38"/>
       <c r="AQ56" s="38"/>
@@ -6905,7 +6901,7 @@
       <c r="A57" s="32"/>
       <c r="B57" s="53"/>
       <c r="C57" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D57" s="54"/>
       <c r="E57" s="35"/>
@@ -6943,7 +6939,7 @@
       <c r="AK57" s="38"/>
       <c r="AL57" s="38"/>
       <c r="AM57" s="38"/>
-      <c r="AN57" s="38"/>
+      <c r="AN57" s="130"/>
       <c r="AO57" s="38"/>
       <c r="AP57" s="38"/>
       <c r="AQ57" s="38"/>
@@ -6987,7 +6983,7 @@
       <c r="A58" s="32"/>
       <c r="B58" s="53"/>
       <c r="C58" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58" s="54"/>
       <c r="E58" s="35"/>
@@ -7024,16 +7020,17 @@
       <c r="AJ58" s="38"/>
       <c r="AK58" s="38"/>
       <c r="AL58" s="38"/>
+      <c r="AM58" s="38"/>
       <c r="AN58" s="38"/>
       <c r="AO58" s="38"/>
       <c r="AP58" s="38"/>
       <c r="AQ58" s="38"/>
-      <c r="AR58" s="150"/>
-      <c r="AS58" s="150"/>
-      <c r="AT58" s="150"/>
-      <c r="AU58" s="150"/>
-      <c r="AV58" s="150"/>
-      <c r="AW58" s="58"/>
+      <c r="AR58" s="40"/>
+      <c r="AS58" s="40"/>
+      <c r="AT58" s="40"/>
+      <c r="AU58" s="40"/>
+      <c r="AV58" s="40"/>
+      <c r="AW58" s="38"/>
       <c r="AX58" s="38"/>
       <c r="AY58" s="38"/>
       <c r="AZ58" s="38"/>
@@ -7068,7 +7065,7 @@
       <c r="A59" s="32"/>
       <c r="B59" s="53"/>
       <c r="C59" s="56" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="D59" s="54"/>
       <c r="E59" s="35"/>
@@ -7105,17 +7102,16 @@
       <c r="AJ59" s="38"/>
       <c r="AK59" s="38"/>
       <c r="AL59" s="38"/>
-      <c r="AM59" s="38"/>
       <c r="AN59" s="38"/>
       <c r="AO59" s="38"/>
       <c r="AP59" s="38"/>
       <c r="AQ59" s="38"/>
-      <c r="AR59" s="40"/>
-      <c r="AS59" s="40"/>
-      <c r="AT59" s="40"/>
-      <c r="AU59" s="40"/>
-      <c r="AV59" s="40"/>
-      <c r="AW59" s="38"/>
+      <c r="AR59" s="150"/>
+      <c r="AS59" s="150"/>
+      <c r="AT59" s="150"/>
+      <c r="AU59" s="150"/>
+      <c r="AV59" s="150"/>
+      <c r="AW59" s="58"/>
       <c r="AX59" s="38"/>
       <c r="AY59" s="38"/>
       <c r="AZ59" s="38"/>
@@ -7150,38 +7146,38 @@
       <c r="A60" s="32"/>
       <c r="B60" s="53"/>
       <c r="C60" s="56" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D60" s="54"/>
       <c r="E60" s="35"/>
       <c r="F60" s="35"/>
       <c r="G60" s="36"/>
       <c r="H60" s="37"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="44"/>
-      <c r="O60" s="44"/>
-      <c r="P60" s="44"/>
-      <c r="Q60" s="44"/>
-      <c r="R60" s="44"/>
-      <c r="S60" s="38"/>
-      <c r="T60" s="38"/>
-      <c r="U60" s="38"/>
-      <c r="V60" s="38"/>
-      <c r="W60" s="38"/>
-      <c r="X60" s="38"/>
-      <c r="Y60" s="38"/>
-      <c r="Z60" s="38"/>
-      <c r="AA60" s="38"/>
-      <c r="AB60" s="38"/>
-      <c r="AC60" s="39"/>
-      <c r="AD60" s="39"/>
-      <c r="AE60" s="39"/>
-      <c r="AF60" s="39"/>
-      <c r="AG60" s="39"/>
+      <c r="I60" s="129"/>
+      <c r="J60" s="129"/>
+      <c r="K60" s="129"/>
+      <c r="L60" s="129"/>
+      <c r="M60" s="129"/>
+      <c r="N60" s="129"/>
+      <c r="O60" s="129"/>
+      <c r="P60" s="129"/>
+      <c r="Q60" s="129"/>
+      <c r="R60" s="129"/>
+      <c r="S60" s="129"/>
+      <c r="T60" s="129"/>
+      <c r="U60" s="129"/>
+      <c r="V60" s="129"/>
+      <c r="W60" s="129"/>
+      <c r="X60" s="129"/>
+      <c r="Y60" s="129"/>
+      <c r="Z60" s="129"/>
+      <c r="AA60" s="129"/>
+      <c r="AB60" s="129"/>
+      <c r="AC60" s="129"/>
+      <c r="AD60" s="129"/>
+      <c r="AE60" s="129"/>
+      <c r="AF60" s="129"/>
+      <c r="AG60" s="129"/>
       <c r="AH60" s="38"/>
       <c r="AI60" s="38"/>
       <c r="AJ60" s="38"/>
@@ -7232,7 +7228,7 @@
       <c r="A61" s="32"/>
       <c r="B61" s="53"/>
       <c r="C61" s="56" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D61" s="54"/>
       <c r="E61" s="35"/>
@@ -7314,7 +7310,7 @@
       <c r="A62" s="32"/>
       <c r="B62" s="53"/>
       <c r="C62" s="56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D62" s="54"/>
       <c r="E62" s="35"/>
@@ -7396,7 +7392,7 @@
       <c r="A63" s="32"/>
       <c r="B63" s="53"/>
       <c r="C63" s="56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D63" s="54"/>
       <c r="E63" s="35"/>
@@ -7478,7 +7474,7 @@
       <c r="A64" s="32"/>
       <c r="B64" s="53"/>
       <c r="C64" s="56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D64" s="54"/>
       <c r="E64" s="35"/>
@@ -7560,7 +7556,7 @@
       <c r="A65" s="32"/>
       <c r="B65" s="53"/>
       <c r="C65" s="56" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D65" s="54"/>
       <c r="E65" s="35"/>
@@ -7604,12 +7600,12 @@
       <c r="AQ65" s="38"/>
       <c r="AR65" s="40"/>
       <c r="AS65" s="40"/>
-      <c r="AT65" s="124"/>
-      <c r="AU65" s="124"/>
-      <c r="AV65" s="124"/>
-      <c r="AW65" s="124"/>
-      <c r="AX65" s="124"/>
-      <c r="AY65" s="58"/>
+      <c r="AT65" s="40"/>
+      <c r="AU65" s="40"/>
+      <c r="AV65" s="40"/>
+      <c r="AW65" s="38"/>
+      <c r="AX65" s="38"/>
+      <c r="AY65" s="38"/>
       <c r="AZ65" s="38"/>
       <c r="BA65" s="38"/>
       <c r="BB65" s="38"/>
@@ -7641,7 +7637,9 @@
     <row r="66" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
       <c r="B66" s="53"/>
-      <c r="C66" s="56"/>
+      <c r="C66" s="56" t="s">
+        <v>125</v>
+      </c>
       <c r="D66" s="54"/>
       <c r="E66" s="35"/>
       <c r="F66" s="35"/>
@@ -7684,12 +7682,12 @@
       <c r="AQ66" s="38"/>
       <c r="AR66" s="40"/>
       <c r="AS66" s="40"/>
-      <c r="AT66" s="40"/>
-      <c r="AU66" s="40"/>
-      <c r="AV66" s="40"/>
-      <c r="AW66" s="38"/>
-      <c r="AX66" s="38"/>
-      <c r="AY66" s="38"/>
+      <c r="AT66" s="124"/>
+      <c r="AU66" s="124"/>
+      <c r="AV66" s="124"/>
+      <c r="AW66" s="124"/>
+      <c r="AX66" s="124"/>
+      <c r="AY66" s="58"/>
       <c r="AZ66" s="38"/>
       <c r="BA66" s="38"/>
       <c r="BB66" s="38"/>
@@ -7800,173 +7798,171 @@
     </row>
     <row r="68" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" s="61"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="64"/>
-      <c r="I68" s="65"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="67"/>
-      <c r="L68" s="67"/>
-      <c r="M68" s="67"/>
-      <c r="N68" s="68"/>
-      <c r="O68" s="68"/>
-      <c r="P68" s="68"/>
-      <c r="Q68" s="68"/>
-      <c r="R68" s="68"/>
-      <c r="S68" s="67"/>
-      <c r="T68" s="67"/>
-      <c r="U68" s="67"/>
-      <c r="V68" s="67"/>
-      <c r="W68" s="67"/>
-      <c r="X68" s="67"/>
-      <c r="Y68" s="67"/>
-      <c r="Z68" s="67"/>
-      <c r="AA68" s="67"/>
-      <c r="AB68" s="67"/>
-      <c r="AC68" s="69"/>
-      <c r="AD68" s="69"/>
-      <c r="AE68" s="69"/>
-      <c r="AF68" s="69"/>
-      <c r="AG68" s="69"/>
-      <c r="AH68" s="67"/>
-      <c r="AI68" s="67"/>
-      <c r="AJ68" s="67"/>
-      <c r="AK68" s="67"/>
-      <c r="AL68" s="67"/>
-      <c r="AM68" s="67"/>
-      <c r="AN68" s="67"/>
-      <c r="AO68" s="67"/>
-      <c r="AP68" s="67"/>
-      <c r="AQ68" s="67"/>
-      <c r="AR68" s="70"/>
-      <c r="AS68" s="70"/>
-      <c r="AT68" s="70"/>
-      <c r="AU68" s="70"/>
-      <c r="AV68" s="70"/>
-      <c r="AW68" s="67"/>
-      <c r="AX68" s="67"/>
-      <c r="AY68" s="67"/>
-      <c r="AZ68" s="67"/>
-      <c r="BA68" s="67"/>
-      <c r="BB68" s="67"/>
-      <c r="BC68" s="67"/>
-      <c r="BD68" s="67"/>
-      <c r="BE68" s="67"/>
-      <c r="BF68" s="67"/>
-      <c r="BG68" s="71"/>
-      <c r="BH68" s="71"/>
-      <c r="BI68" s="71"/>
-      <c r="BJ68" s="71"/>
-      <c r="BK68" s="71"/>
-      <c r="BL68" s="67"/>
-      <c r="BM68" s="67"/>
-      <c r="BN68" s="67"/>
-      <c r="BO68" s="67"/>
-      <c r="BP68" s="67"/>
-      <c r="BQ68" s="67"/>
-      <c r="BR68" s="67"/>
-      <c r="BS68" s="67"/>
-      <c r="BT68" s="67"/>
-      <c r="BU68" s="67"/>
-      <c r="BV68" s="67"/>
-      <c r="BW68" s="67"/>
-      <c r="BX68" s="67"/>
-      <c r="BY68" s="67"/>
-      <c r="BZ68" s="67"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="38"/>
+      <c r="T68" s="38"/>
+      <c r="U68" s="38"/>
+      <c r="V68" s="38"/>
+      <c r="W68" s="38"/>
+      <c r="X68" s="38"/>
+      <c r="Y68" s="38"/>
+      <c r="Z68" s="38"/>
+      <c r="AA68" s="38"/>
+      <c r="AB68" s="38"/>
+      <c r="AC68" s="39"/>
+      <c r="AD68" s="39"/>
+      <c r="AE68" s="39"/>
+      <c r="AF68" s="39"/>
+      <c r="AG68" s="39"/>
+      <c r="AH68" s="38"/>
+      <c r="AI68" s="38"/>
+      <c r="AJ68" s="38"/>
+      <c r="AK68" s="38"/>
+      <c r="AL68" s="38"/>
+      <c r="AM68" s="38"/>
+      <c r="AN68" s="38"/>
+      <c r="AO68" s="38"/>
+      <c r="AP68" s="38"/>
+      <c r="AQ68" s="38"/>
+      <c r="AR68" s="40"/>
+      <c r="AS68" s="40"/>
+      <c r="AT68" s="40"/>
+      <c r="AU68" s="40"/>
+      <c r="AV68" s="40"/>
+      <c r="AW68" s="38"/>
+      <c r="AX68" s="38"/>
+      <c r="AY68" s="38"/>
+      <c r="AZ68" s="38"/>
+      <c r="BA68" s="38"/>
+      <c r="BB68" s="38"/>
+      <c r="BC68" s="38"/>
+      <c r="BD68" s="38"/>
+      <c r="BE68" s="38"/>
+      <c r="BF68" s="38"/>
+      <c r="BG68" s="41"/>
+      <c r="BH68" s="41"/>
+      <c r="BI68" s="41"/>
+      <c r="BJ68" s="41"/>
+      <c r="BK68" s="41"/>
+      <c r="BL68" s="38"/>
+      <c r="BM68" s="38"/>
+      <c r="BN68" s="38"/>
+      <c r="BO68" s="38"/>
+      <c r="BP68" s="38"/>
+      <c r="BQ68" s="38"/>
+      <c r="BR68" s="38"/>
+      <c r="BS68" s="38"/>
+      <c r="BT68" s="38"/>
+      <c r="BU68" s="38"/>
+      <c r="BV68" s="38"/>
+      <c r="BW68" s="38"/>
+      <c r="BX68" s="38"/>
+      <c r="BY68" s="38"/>
+      <c r="BZ68" s="38"/>
     </row>
     <row r="69" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="D69" s="54"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="36"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="44"/>
-      <c r="O69" s="44"/>
-      <c r="P69" s="44"/>
-      <c r="Q69" s="44"/>
-      <c r="R69" s="44"/>
-      <c r="S69" s="38"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38"/>
-      <c r="V69" s="38"/>
-      <c r="W69" s="38"/>
-      <c r="X69" s="38"/>
-      <c r="Y69" s="38"/>
-      <c r="Z69" s="38"/>
-      <c r="AA69" s="38"/>
-      <c r="AB69" s="38"/>
-      <c r="AC69" s="39"/>
-      <c r="AD69" s="39"/>
-      <c r="AE69" s="39"/>
-      <c r="AF69" s="39"/>
-      <c r="AG69" s="39"/>
-      <c r="AH69" s="38"/>
-      <c r="AI69" s="124"/>
-      <c r="AJ69" s="124"/>
-      <c r="AK69" s="124"/>
-      <c r="AL69" s="124"/>
-      <c r="AM69" s="58"/>
-      <c r="AN69" s="38"/>
-      <c r="AO69" s="38"/>
-      <c r="AP69" s="38"/>
-      <c r="AQ69" s="38"/>
-      <c r="AR69" s="40"/>
-      <c r="AS69" s="40"/>
-      <c r="AT69" s="40"/>
-      <c r="AU69" s="40"/>
-      <c r="AV69" s="40"/>
-      <c r="AW69" s="38"/>
-      <c r="AX69" s="38"/>
-      <c r="AY69" s="38"/>
-      <c r="AZ69" s="38"/>
-      <c r="BA69" s="38"/>
-      <c r="BB69" s="38"/>
-      <c r="BC69" s="38"/>
-      <c r="BD69" s="38"/>
-      <c r="BE69" s="38"/>
-      <c r="BF69" s="38"/>
-      <c r="BG69" s="41"/>
-      <c r="BH69" s="41"/>
-      <c r="BI69" s="41"/>
-      <c r="BJ69" s="41"/>
-      <c r="BK69" s="41"/>
-      <c r="BL69" s="38"/>
-      <c r="BM69" s="38"/>
-      <c r="BN69" s="38"/>
-      <c r="BO69" s="38"/>
-      <c r="BP69" s="38"/>
-      <c r="BQ69" s="38"/>
-      <c r="BR69" s="38"/>
-      <c r="BS69" s="38"/>
-      <c r="BT69" s="38"/>
-      <c r="BU69" s="38"/>
-      <c r="BV69" s="38"/>
-      <c r="BW69" s="38"/>
-      <c r="BX69" s="38"/>
-      <c r="BY69" s="38"/>
-      <c r="BZ69" s="38"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="61"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="67"/>
+      <c r="N69" s="68"/>
+      <c r="O69" s="68"/>
+      <c r="P69" s="68"/>
+      <c r="Q69" s="68"/>
+      <c r="R69" s="68"/>
+      <c r="S69" s="67"/>
+      <c r="T69" s="67"/>
+      <c r="U69" s="67"/>
+      <c r="V69" s="67"/>
+      <c r="W69" s="67"/>
+      <c r="X69" s="67"/>
+      <c r="Y69" s="67"/>
+      <c r="Z69" s="67"/>
+      <c r="AA69" s="67"/>
+      <c r="AB69" s="67"/>
+      <c r="AC69" s="69"/>
+      <c r="AD69" s="69"/>
+      <c r="AE69" s="69"/>
+      <c r="AF69" s="69"/>
+      <c r="AG69" s="69"/>
+      <c r="AH69" s="67"/>
+      <c r="AI69" s="67"/>
+      <c r="AJ69" s="67"/>
+      <c r="AK69" s="67"/>
+      <c r="AL69" s="67"/>
+      <c r="AM69" s="67"/>
+      <c r="AN69" s="67"/>
+      <c r="AO69" s="67"/>
+      <c r="AP69" s="67"/>
+      <c r="AQ69" s="67"/>
+      <c r="AR69" s="70"/>
+      <c r="AS69" s="70"/>
+      <c r="AT69" s="70"/>
+      <c r="AU69" s="70"/>
+      <c r="AV69" s="70"/>
+      <c r="AW69" s="67"/>
+      <c r="AX69" s="67"/>
+      <c r="AY69" s="67"/>
+      <c r="AZ69" s="67"/>
+      <c r="BA69" s="67"/>
+      <c r="BB69" s="67"/>
+      <c r="BC69" s="67"/>
+      <c r="BD69" s="67"/>
+      <c r="BE69" s="67"/>
+      <c r="BF69" s="67"/>
+      <c r="BG69" s="71"/>
+      <c r="BH69" s="71"/>
+      <c r="BI69" s="71"/>
+      <c r="BJ69" s="71"/>
+      <c r="BK69" s="71"/>
+      <c r="BL69" s="67"/>
+      <c r="BM69" s="67"/>
+      <c r="BN69" s="67"/>
+      <c r="BO69" s="67"/>
+      <c r="BP69" s="67"/>
+      <c r="BQ69" s="67"/>
+      <c r="BR69" s="67"/>
+      <c r="BS69" s="67"/>
+      <c r="BT69" s="67"/>
+      <c r="BU69" s="67"/>
+      <c r="BV69" s="67"/>
+      <c r="BW69" s="67"/>
+      <c r="BX69" s="67"/>
+      <c r="BY69" s="67"/>
+      <c r="BZ69" s="67"/>
     </row>
     <row r="70" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32"/>
       <c r="B70" s="53"/>
       <c r="C70" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D70" s="54"/>
       <c r="E70" s="35"/>
@@ -7993,11 +7989,11 @@
       <c r="Z70" s="38"/>
       <c r="AA70" s="38"/>
       <c r="AB70" s="38"/>
-      <c r="AC70" s="38"/>
-      <c r="AD70" s="38"/>
-      <c r="AE70" s="38"/>
-      <c r="AF70" s="38"/>
-      <c r="AG70" s="38"/>
+      <c r="AC70" s="39"/>
+      <c r="AD70" s="39"/>
+      <c r="AE70" s="39"/>
+      <c r="AF70" s="39"/>
+      <c r="AG70" s="39"/>
       <c r="AH70" s="38"/>
       <c r="AI70" s="124"/>
       <c r="AJ70" s="124"/>
@@ -8048,7 +8044,7 @@
       <c r="A71" s="32"/>
       <c r="B71" s="53"/>
       <c r="C71" s="56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D71" s="54"/>
       <c r="E71" s="35"/>
@@ -8130,7 +8126,7 @@
       <c r="A72" s="32"/>
       <c r="B72" s="53"/>
       <c r="C72" s="56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D72" s="54"/>
       <c r="E72" s="35"/>
@@ -8157,11 +8153,11 @@
       <c r="Z72" s="38"/>
       <c r="AA72" s="38"/>
       <c r="AB72" s="38"/>
-      <c r="AC72" s="39"/>
-      <c r="AD72" s="39"/>
-      <c r="AE72" s="39"/>
-      <c r="AF72" s="39"/>
-      <c r="AG72" s="39"/>
+      <c r="AC72" s="38"/>
+      <c r="AD72" s="38"/>
+      <c r="AE72" s="38"/>
+      <c r="AF72" s="38"/>
+      <c r="AG72" s="38"/>
       <c r="AH72" s="38"/>
       <c r="AI72" s="124"/>
       <c r="AJ72" s="124"/>
@@ -8212,7 +8208,7 @@
       <c r="A73" s="32"/>
       <c r="B73" s="53"/>
       <c r="C73" s="56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D73" s="54"/>
       <c r="E73" s="35"/>
@@ -8294,7 +8290,7 @@
       <c r="A74" s="32"/>
       <c r="B74" s="53"/>
       <c r="C74" s="56" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="D74" s="54"/>
       <c r="E74" s="35"/>
@@ -8327,11 +8323,11 @@
       <c r="AF74" s="39"/>
       <c r="AG74" s="39"/>
       <c r="AH74" s="38"/>
-      <c r="AI74" s="132"/>
-      <c r="AJ74" s="132"/>
-      <c r="AK74" s="132"/>
-      <c r="AL74" s="132"/>
-      <c r="AM74" s="133"/>
+      <c r="AI74" s="124"/>
+      <c r="AJ74" s="124"/>
+      <c r="AK74" s="124"/>
+      <c r="AL74" s="124"/>
+      <c r="AM74" s="58"/>
       <c r="AN74" s="38"/>
       <c r="AO74" s="38"/>
       <c r="AP74" s="38"/>
@@ -8376,7 +8372,7 @@
       <c r="A75" s="32"/>
       <c r="B75" s="53"/>
       <c r="C75" s="56" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="D75" s="54"/>
       <c r="E75" s="35"/>
@@ -8409,17 +8405,17 @@
       <c r="AF75" s="39"/>
       <c r="AG75" s="39"/>
       <c r="AH75" s="38"/>
-      <c r="AI75" s="38"/>
-      <c r="AJ75" s="38"/>
-      <c r="AK75" s="38"/>
-      <c r="AL75" s="38"/>
-      <c r="AM75" s="38"/>
+      <c r="AI75" s="132"/>
+      <c r="AJ75" s="132"/>
+      <c r="AK75" s="132"/>
+      <c r="AL75" s="132"/>
+      <c r="AM75" s="133"/>
       <c r="AN75" s="38"/>
       <c r="AO75" s="38"/>
       <c r="AP75" s="38"/>
-      <c r="AQ75" s="124"/>
-      <c r="AR75" s="150"/>
-      <c r="AS75" s="147"/>
+      <c r="AQ75" s="38"/>
+      <c r="AR75" s="40"/>
+      <c r="AS75" s="40"/>
       <c r="AT75" s="40"/>
       <c r="AU75" s="40"/>
       <c r="AV75" s="40"/>
@@ -8458,7 +8454,7 @@
       <c r="A76" s="32"/>
       <c r="B76" s="53"/>
       <c r="C76" s="56" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D76" s="54"/>
       <c r="E76" s="35"/>
@@ -8499,13 +8495,13 @@
       <c r="AN76" s="38"/>
       <c r="AO76" s="38"/>
       <c r="AP76" s="38"/>
-      <c r="AQ76" s="38"/>
-      <c r="AR76" s="38"/>
-      <c r="AS76" s="40"/>
+      <c r="AQ76" s="124"/>
+      <c r="AR76" s="150"/>
+      <c r="AS76" s="147"/>
       <c r="AT76" s="40"/>
-      <c r="AU76" s="150"/>
-      <c r="AV76" s="150"/>
-      <c r="AW76" s="58"/>
+      <c r="AU76" s="40"/>
+      <c r="AV76" s="40"/>
+      <c r="AW76" s="38"/>
       <c r="AX76" s="38"/>
       <c r="AY76" s="38"/>
       <c r="AZ76" s="38"/>
@@ -8539,7 +8535,9 @@
     <row r="77" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
       <c r="B77" s="53"/>
-      <c r="C77" s="56"/>
+      <c r="C77" s="56" t="s">
+        <v>126</v>
+      </c>
       <c r="D77" s="54"/>
       <c r="E77" s="35"/>
       <c r="F77" s="35"/>
@@ -8580,12 +8578,12 @@
       <c r="AO77" s="38"/>
       <c r="AP77" s="38"/>
       <c r="AQ77" s="38"/>
-      <c r="AR77" s="40"/>
+      <c r="AR77" s="38"/>
       <c r="AS77" s="40"/>
       <c r="AT77" s="40"/>
-      <c r="AU77" s="40"/>
-      <c r="AV77" s="40"/>
-      <c r="AW77" s="38"/>
+      <c r="AU77" s="150"/>
+      <c r="AV77" s="150"/>
+      <c r="AW77" s="58"/>
       <c r="AX77" s="38"/>
       <c r="AY77" s="38"/>
       <c r="AZ77" s="38"/>
@@ -8616,257 +8614,255 @@
       <c r="BY77" s="38"/>
       <c r="BZ77" s="38"/>
     </row>
-    <row r="78" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="72"/>
-      <c r="B78" s="59"/>
-      <c r="C78" s="60" t="s">
+    <row r="78" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="32"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
+      <c r="M78" s="38"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="44"/>
+      <c r="P78" s="44"/>
+      <c r="Q78" s="44"/>
+      <c r="R78" s="44"/>
+      <c r="S78" s="38"/>
+      <c r="T78" s="38"/>
+      <c r="U78" s="38"/>
+      <c r="V78" s="38"/>
+      <c r="W78" s="38"/>
+      <c r="X78" s="38"/>
+      <c r="Y78" s="38"/>
+      <c r="Z78" s="38"/>
+      <c r="AA78" s="38"/>
+      <c r="AB78" s="38"/>
+      <c r="AC78" s="39"/>
+      <c r="AD78" s="39"/>
+      <c r="AE78" s="39"/>
+      <c r="AF78" s="39"/>
+      <c r="AG78" s="39"/>
+      <c r="AH78" s="38"/>
+      <c r="AI78" s="38"/>
+      <c r="AJ78" s="38"/>
+      <c r="AK78" s="38"/>
+      <c r="AL78" s="38"/>
+      <c r="AM78" s="38"/>
+      <c r="AN78" s="38"/>
+      <c r="AO78" s="38"/>
+      <c r="AP78" s="38"/>
+      <c r="AQ78" s="38"/>
+      <c r="AR78" s="40"/>
+      <c r="AS78" s="40"/>
+      <c r="AT78" s="40"/>
+      <c r="AU78" s="40"/>
+      <c r="AV78" s="40"/>
+      <c r="AW78" s="38"/>
+      <c r="AX78" s="38"/>
+      <c r="AY78" s="38"/>
+      <c r="AZ78" s="38"/>
+      <c r="BA78" s="38"/>
+      <c r="BB78" s="38"/>
+      <c r="BC78" s="38"/>
+      <c r="BD78" s="38"/>
+      <c r="BE78" s="38"/>
+      <c r="BF78" s="38"/>
+      <c r="BG78" s="41"/>
+      <c r="BH78" s="41"/>
+      <c r="BI78" s="41"/>
+      <c r="BJ78" s="41"/>
+      <c r="BK78" s="41"/>
+      <c r="BL78" s="38"/>
+      <c r="BM78" s="38"/>
+      <c r="BN78" s="38"/>
+      <c r="BO78" s="38"/>
+      <c r="BP78" s="38"/>
+      <c r="BQ78" s="38"/>
+      <c r="BR78" s="38"/>
+      <c r="BS78" s="38"/>
+      <c r="BT78" s="38"/>
+      <c r="BU78" s="38"/>
+      <c r="BV78" s="38"/>
+      <c r="BW78" s="38"/>
+      <c r="BX78" s="38"/>
+      <c r="BY78" s="38"/>
+      <c r="BZ78" s="38"/>
+    </row>
+    <row r="79" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="72"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="D78" s="61"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="64"/>
-      <c r="I78" s="65"/>
-      <c r="J78" s="66"/>
-      <c r="K78" s="67"/>
-      <c r="L78" s="67"/>
-      <c r="M78" s="67"/>
-      <c r="N78" s="68"/>
-      <c r="O78" s="68"/>
-      <c r="P78" s="68"/>
-      <c r="Q78" s="68"/>
-      <c r="R78" s="68"/>
-      <c r="S78" s="67"/>
-      <c r="T78" s="67"/>
-      <c r="U78" s="67"/>
-      <c r="V78" s="67"/>
-      <c r="W78" s="67"/>
-      <c r="X78" s="67"/>
-      <c r="Y78" s="67"/>
-      <c r="Z78" s="67"/>
-      <c r="AA78" s="67"/>
-      <c r="AB78" s="67"/>
-      <c r="AC78" s="69"/>
-      <c r="AD78" s="69"/>
-      <c r="AE78" s="69"/>
-      <c r="AF78" s="69"/>
-      <c r="AG78" s="69"/>
-      <c r="AH78" s="67"/>
-      <c r="AI78" s="67"/>
-      <c r="AJ78" s="69"/>
-      <c r="AK78" s="67"/>
-      <c r="AL78" s="67"/>
-      <c r="AM78" s="67"/>
-      <c r="AN78" s="67"/>
-      <c r="AO78" s="67"/>
-      <c r="AP78" s="67"/>
-      <c r="AQ78" s="67"/>
-      <c r="AR78" s="70"/>
-      <c r="AS78" s="70"/>
-      <c r="AT78" s="70"/>
-      <c r="AU78" s="70"/>
-      <c r="AV78" s="70"/>
-      <c r="AW78" s="67"/>
-      <c r="AX78" s="67"/>
-      <c r="AY78" s="67"/>
-      <c r="AZ78" s="67"/>
-      <c r="BA78" s="67"/>
-      <c r="BB78" s="67"/>
-      <c r="BC78" s="67"/>
-      <c r="BD78" s="67"/>
-      <c r="BE78" s="67"/>
-      <c r="BF78" s="67"/>
-      <c r="BG78" s="71"/>
-      <c r="BH78" s="71"/>
-      <c r="BI78" s="71"/>
-      <c r="BJ78" s="71"/>
-      <c r="BK78" s="71"/>
-      <c r="BL78" s="67"/>
-      <c r="BM78" s="67"/>
-      <c r="BN78" s="67"/>
-      <c r="BO78" s="67"/>
-      <c r="BP78" s="67"/>
-      <c r="BQ78" s="67"/>
-      <c r="BR78" s="67"/>
-      <c r="BS78" s="67"/>
-      <c r="BT78" s="67"/>
-      <c r="BU78" s="67"/>
-      <c r="BV78" s="67"/>
-      <c r="BW78" s="67"/>
-      <c r="BX78" s="67"/>
-      <c r="BY78" s="67"/>
-      <c r="BZ78" s="67"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="65"/>
+      <c r="J79" s="66"/>
+      <c r="K79" s="67"/>
+      <c r="L79" s="67"/>
+      <c r="M79" s="67"/>
+      <c r="N79" s="68"/>
+      <c r="O79" s="68"/>
+      <c r="P79" s="68"/>
+      <c r="Q79" s="68"/>
+      <c r="R79" s="68"/>
+      <c r="S79" s="67"/>
+      <c r="T79" s="67"/>
+      <c r="U79" s="67"/>
+      <c r="V79" s="67"/>
+      <c r="W79" s="67"/>
+      <c r="X79" s="67"/>
+      <c r="Y79" s="67"/>
+      <c r="Z79" s="67"/>
+      <c r="AA79" s="67"/>
+      <c r="AB79" s="67"/>
+      <c r="AC79" s="69"/>
+      <c r="AD79" s="69"/>
+      <c r="AE79" s="69"/>
+      <c r="AF79" s="69"/>
+      <c r="AG79" s="69"/>
+      <c r="AH79" s="67"/>
+      <c r="AI79" s="67"/>
+      <c r="AJ79" s="69"/>
+      <c r="AK79" s="67"/>
+      <c r="AL79" s="67"/>
+      <c r="AM79" s="67"/>
+      <c r="AN79" s="67"/>
+      <c r="AO79" s="67"/>
+      <c r="AP79" s="67"/>
+      <c r="AQ79" s="67"/>
+      <c r="AR79" s="70"/>
+      <c r="AS79" s="70"/>
+      <c r="AT79" s="70"/>
+      <c r="AU79" s="70"/>
+      <c r="AV79" s="70"/>
+      <c r="AW79" s="67"/>
+      <c r="AX79" s="67"/>
+      <c r="AY79" s="67"/>
+      <c r="AZ79" s="67"/>
+      <c r="BA79" s="67"/>
+      <c r="BB79" s="67"/>
+      <c r="BC79" s="67"/>
+      <c r="BD79" s="67"/>
+      <c r="BE79" s="67"/>
+      <c r="BF79" s="67"/>
+      <c r="BG79" s="71"/>
+      <c r="BH79" s="71"/>
+      <c r="BI79" s="71"/>
+      <c r="BJ79" s="71"/>
+      <c r="BK79" s="71"/>
+      <c r="BL79" s="67"/>
+      <c r="BM79" s="67"/>
+      <c r="BN79" s="67"/>
+      <c r="BO79" s="67"/>
+      <c r="BP79" s="67"/>
+      <c r="BQ79" s="67"/>
+      <c r="BR79" s="67"/>
+      <c r="BS79" s="67"/>
+      <c r="BT79" s="67"/>
+      <c r="BU79" s="67"/>
+      <c r="BV79" s="67"/>
+      <c r="BW79" s="67"/>
+      <c r="BX79" s="67"/>
+      <c r="BY79" s="67"/>
+      <c r="BZ79" s="67"/>
     </row>
-    <row r="79" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="91"/>
-      <c r="B79" s="92"/>
-      <c r="C79" s="93" t="s">
+    <row r="80" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="91"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="94"/>
-      <c r="E79" s="95"/>
-      <c r="F79" s="95"/>
-      <c r="G79" s="96"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="98"/>
-      <c r="J79" s="99"/>
-      <c r="K79" s="100"/>
-      <c r="L79" s="100"/>
-      <c r="M79" s="100"/>
-      <c r="N79" s="101"/>
-      <c r="O79" s="101"/>
-      <c r="P79" s="101"/>
-      <c r="Q79" s="101"/>
-      <c r="R79" s="101"/>
-      <c r="S79" s="100"/>
-      <c r="T79" s="100"/>
-      <c r="U79" s="100"/>
-      <c r="V79" s="100"/>
-      <c r="W79" s="100"/>
-      <c r="X79" s="100"/>
-      <c r="Y79" s="100"/>
-      <c r="Z79" s="100"/>
-      <c r="AA79" s="100"/>
-      <c r="AB79" s="100"/>
-      <c r="AC79" s="102"/>
-      <c r="AD79" s="102"/>
-      <c r="AE79" s="102"/>
-      <c r="AF79" s="102"/>
-      <c r="AG79" s="102"/>
-      <c r="AH79" s="100"/>
-      <c r="AI79" s="100"/>
-      <c r="AJ79" s="102"/>
-      <c r="AK79" s="100"/>
-      <c r="AL79" s="100"/>
-      <c r="AM79" s="100"/>
-      <c r="AN79" s="100"/>
-      <c r="AO79" s="100"/>
-      <c r="AP79" s="100"/>
-      <c r="AQ79" s="100"/>
-      <c r="AR79" s="103"/>
-      <c r="AS79" s="103"/>
-      <c r="AT79" s="103"/>
-      <c r="AU79" s="103"/>
-      <c r="AV79" s="103"/>
-      <c r="AW79" s="100"/>
-      <c r="AX79" s="100"/>
-      <c r="AY79" s="100"/>
-      <c r="AZ79" s="100"/>
-      <c r="BA79" s="100"/>
-      <c r="BB79" s="100"/>
-      <c r="BC79" s="100"/>
-      <c r="BD79" s="100"/>
-      <c r="BE79" s="100"/>
-      <c r="BF79" s="100"/>
-      <c r="BG79" s="104"/>
-      <c r="BH79" s="104"/>
-      <c r="BI79" s="104"/>
-      <c r="BJ79" s="104"/>
-      <c r="BK79" s="104"/>
-      <c r="BL79" s="100"/>
-      <c r="BM79" s="100"/>
-      <c r="BN79" s="100"/>
-      <c r="BO79" s="100"/>
-      <c r="BP79" s="100"/>
-      <c r="BQ79" s="100"/>
-      <c r="BR79" s="100"/>
-      <c r="BS79" s="100"/>
-      <c r="BT79" s="100"/>
-      <c r="BU79" s="100"/>
-      <c r="BV79" s="100"/>
-      <c r="BW79" s="100"/>
-      <c r="BX79" s="100"/>
-      <c r="BY79" s="100"/>
-      <c r="BZ79" s="100"/>
-    </row>
-    <row r="80" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="D80" s="54"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="36"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="38"/>
-      <c r="M80" s="38"/>
-      <c r="N80" s="44"/>
-      <c r="O80" s="44"/>
-      <c r="P80" s="44"/>
-      <c r="Q80" s="44"/>
-      <c r="R80" s="44"/>
-      <c r="S80" s="38"/>
-      <c r="T80" s="38"/>
-      <c r="U80" s="38"/>
-      <c r="V80" s="38"/>
-      <c r="W80" s="38"/>
-      <c r="X80" s="38"/>
-      <c r="Y80" s="38"/>
-      <c r="Z80" s="38"/>
-      <c r="AA80" s="38"/>
-      <c r="AB80" s="38"/>
-      <c r="AC80" s="38"/>
-      <c r="AD80" s="38"/>
-      <c r="AE80" s="38"/>
-      <c r="AF80" s="38"/>
-      <c r="AG80" s="38"/>
-      <c r="AH80" s="123"/>
-      <c r="AI80" s="123"/>
-      <c r="AJ80" s="123"/>
-      <c r="AK80" s="123"/>
-      <c r="AL80" s="123"/>
-      <c r="AM80" s="58"/>
-      <c r="AN80" s="38"/>
-      <c r="AO80" s="38"/>
-      <c r="AP80" s="38"/>
-      <c r="AQ80" s="38"/>
-      <c r="AR80" s="40"/>
-      <c r="AS80" s="40"/>
-      <c r="AT80" s="40"/>
-      <c r="AU80" s="40"/>
-      <c r="AV80" s="40"/>
-      <c r="AW80" s="38"/>
-      <c r="AX80" s="38"/>
-      <c r="AY80" s="38"/>
-      <c r="AZ80" s="38"/>
-      <c r="BA80" s="38"/>
-      <c r="BB80" s="38"/>
-      <c r="BC80" s="38"/>
-      <c r="BD80" s="38"/>
-      <c r="BE80" s="38"/>
-      <c r="BF80" s="38"/>
-      <c r="BG80" s="41"/>
-      <c r="BH80" s="41"/>
-      <c r="BI80" s="41"/>
-      <c r="BJ80" s="41"/>
-      <c r="BK80" s="41"/>
-      <c r="BL80" s="38"/>
-      <c r="BM80" s="38"/>
-      <c r="BN80" s="38"/>
-      <c r="BO80" s="38"/>
-      <c r="BP80" s="38"/>
-      <c r="BQ80" s="38"/>
-      <c r="BR80" s="38"/>
-      <c r="BS80" s="38"/>
-      <c r="BT80" s="38"/>
-      <c r="BU80" s="38"/>
-      <c r="BV80" s="38"/>
-      <c r="BW80" s="38"/>
-      <c r="BX80" s="38"/>
-      <c r="BY80" s="38"/>
-      <c r="BZ80" s="38"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="95"/>
+      <c r="F80" s="95"/>
+      <c r="G80" s="96"/>
+      <c r="H80" s="97"/>
+      <c r="I80" s="98"/>
+      <c r="J80" s="99"/>
+      <c r="K80" s="100"/>
+      <c r="L80" s="100"/>
+      <c r="M80" s="100"/>
+      <c r="N80" s="101"/>
+      <c r="O80" s="101"/>
+      <c r="P80" s="101"/>
+      <c r="Q80" s="101"/>
+      <c r="R80" s="101"/>
+      <c r="S80" s="100"/>
+      <c r="T80" s="100"/>
+      <c r="U80" s="100"/>
+      <c r="V80" s="100"/>
+      <c r="W80" s="100"/>
+      <c r="X80" s="100"/>
+      <c r="Y80" s="100"/>
+      <c r="Z80" s="100"/>
+      <c r="AA80" s="100"/>
+      <c r="AB80" s="100"/>
+      <c r="AC80" s="102"/>
+      <c r="AD80" s="102"/>
+      <c r="AE80" s="102"/>
+      <c r="AF80" s="102"/>
+      <c r="AG80" s="102"/>
+      <c r="AH80" s="100"/>
+      <c r="AI80" s="100"/>
+      <c r="AJ80" s="102"/>
+      <c r="AK80" s="100"/>
+      <c r="AL80" s="100"/>
+      <c r="AM80" s="100"/>
+      <c r="AN80" s="100"/>
+      <c r="AO80" s="100"/>
+      <c r="AP80" s="100"/>
+      <c r="AQ80" s="100"/>
+      <c r="AR80" s="103"/>
+      <c r="AS80" s="103"/>
+      <c r="AT80" s="103"/>
+      <c r="AU80" s="103"/>
+      <c r="AV80" s="103"/>
+      <c r="AW80" s="100"/>
+      <c r="AX80" s="100"/>
+      <c r="AY80" s="100"/>
+      <c r="AZ80" s="100"/>
+      <c r="BA80" s="100"/>
+      <c r="BB80" s="100"/>
+      <c r="BC80" s="100"/>
+      <c r="BD80" s="100"/>
+      <c r="BE80" s="100"/>
+      <c r="BF80" s="100"/>
+      <c r="BG80" s="104"/>
+      <c r="BH80" s="104"/>
+      <c r="BI80" s="104"/>
+      <c r="BJ80" s="104"/>
+      <c r="BK80" s="104"/>
+      <c r="BL80" s="100"/>
+      <c r="BM80" s="100"/>
+      <c r="BN80" s="100"/>
+      <c r="BO80" s="100"/>
+      <c r="BP80" s="100"/>
+      <c r="BQ80" s="100"/>
+      <c r="BR80" s="100"/>
+      <c r="BS80" s="100"/>
+      <c r="BT80" s="100"/>
+      <c r="BU80" s="100"/>
+      <c r="BV80" s="100"/>
+      <c r="BW80" s="100"/>
+      <c r="BX80" s="100"/>
+      <c r="BY80" s="100"/>
+      <c r="BZ80" s="100"/>
     </row>
     <row r="81" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
       <c r="B81" s="53"/>
       <c r="C81" s="56" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="D81" s="54"/>
       <c r="E81" s="35"/>
@@ -8898,12 +8894,12 @@
       <c r="AE81" s="38"/>
       <c r="AF81" s="38"/>
       <c r="AG81" s="38"/>
-      <c r="AH81" s="38"/>
-      <c r="AI81" s="38"/>
-      <c r="AJ81" s="38"/>
-      <c r="AK81" s="38"/>
-      <c r="AL81" s="38"/>
-      <c r="AM81" s="38"/>
+      <c r="AH81" s="123"/>
+      <c r="AI81" s="123"/>
+      <c r="AJ81" s="123"/>
+      <c r="AK81" s="123"/>
+      <c r="AL81" s="123"/>
+      <c r="AM81" s="58"/>
       <c r="AN81" s="38"/>
       <c r="AO81" s="38"/>
       <c r="AP81" s="38"/>
@@ -8948,7 +8944,7 @@
       <c r="A82" s="32"/>
       <c r="B82" s="53"/>
       <c r="C82" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D82" s="54"/>
       <c r="E82" s="35"/>
@@ -8992,9 +8988,9 @@
       <c r="AQ82" s="38"/>
       <c r="AR82" s="40"/>
       <c r="AS82" s="40"/>
-      <c r="AT82" s="150"/>
-      <c r="AU82" s="150"/>
-      <c r="AV82" s="147"/>
+      <c r="AT82" s="40"/>
+      <c r="AU82" s="40"/>
+      <c r="AV82" s="40"/>
       <c r="AW82" s="38"/>
       <c r="AX82" s="38"/>
       <c r="AY82" s="38"/>
@@ -9026,11 +9022,11 @@
       <c r="BY82" s="38"/>
       <c r="BZ82" s="38"/>
     </row>
-    <row r="83" spans="1:78" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
       <c r="B83" s="53"/>
       <c r="C83" s="56" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D83" s="54"/>
       <c r="E83" s="35"/>
@@ -9065,18 +9061,18 @@
       <c r="AH83" s="38"/>
       <c r="AI83" s="38"/>
       <c r="AJ83" s="38"/>
-      <c r="AK83" s="123"/>
-      <c r="AL83" s="123"/>
-      <c r="AM83" s="58"/>
+      <c r="AK83" s="38"/>
+      <c r="AL83" s="38"/>
+      <c r="AM83" s="38"/>
       <c r="AN83" s="38"/>
       <c r="AO83" s="38"/>
       <c r="AP83" s="38"/>
       <c r="AQ83" s="38"/>
       <c r="AR83" s="40"/>
       <c r="AS83" s="40"/>
-      <c r="AT83" s="40"/>
-      <c r="AU83" s="40"/>
-      <c r="AV83" s="40"/>
+      <c r="AT83" s="150"/>
+      <c r="AU83" s="150"/>
+      <c r="AV83" s="147"/>
       <c r="AW83" s="38"/>
       <c r="AX83" s="38"/>
       <c r="AY83" s="38"/>
@@ -9108,11 +9104,11 @@
       <c r="BY83" s="38"/>
       <c r="BZ83" s="38"/>
     </row>
-    <row r="84" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:78" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
       <c r="B84" s="53"/>
       <c r="C84" s="56" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D84" s="54"/>
       <c r="E84" s="35"/>
@@ -9194,7 +9190,7 @@
       <c r="A85" s="32"/>
       <c r="B85" s="53"/>
       <c r="C85" s="56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D85" s="54"/>
       <c r="E85" s="35"/>
@@ -9276,7 +9272,7 @@
       <c r="A86" s="32"/>
       <c r="B86" s="53"/>
       <c r="C86" s="56" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D86" s="54"/>
       <c r="E86" s="35"/>
@@ -9311,19 +9307,19 @@
       <c r="AH86" s="38"/>
       <c r="AI86" s="38"/>
       <c r="AJ86" s="38"/>
-      <c r="AK86" s="38"/>
-      <c r="AL86" s="38"/>
-      <c r="AM86" s="38"/>
+      <c r="AK86" s="123"/>
+      <c r="AL86" s="123"/>
+      <c r="AM86" s="58"/>
       <c r="AN86" s="38"/>
-      <c r="AO86" s="124"/>
-      <c r="AP86" s="124"/>
-      <c r="AQ86" s="124"/>
-      <c r="AR86" s="150"/>
-      <c r="AS86" s="150"/>
-      <c r="AT86" s="150"/>
-      <c r="AU86" s="150"/>
-      <c r="AV86" s="150"/>
-      <c r="AW86" s="58"/>
+      <c r="AO86" s="38"/>
+      <c r="AP86" s="38"/>
+      <c r="AQ86" s="38"/>
+      <c r="AR86" s="40"/>
+      <c r="AS86" s="40"/>
+      <c r="AT86" s="40"/>
+      <c r="AU86" s="40"/>
+      <c r="AV86" s="40"/>
+      <c r="AW86" s="38"/>
       <c r="AX86" s="38"/>
       <c r="AY86" s="38"/>
       <c r="AZ86" s="38"/>
@@ -9400,12 +9396,12 @@
       <c r="AO87" s="124"/>
       <c r="AP87" s="124"/>
       <c r="AQ87" s="124"/>
-      <c r="AR87" s="147"/>
-      <c r="AS87" s="40"/>
-      <c r="AT87" s="40"/>
-      <c r="AU87" s="40"/>
-      <c r="AV87" s="40"/>
-      <c r="AW87" s="38"/>
+      <c r="AR87" s="150"/>
+      <c r="AS87" s="150"/>
+      <c r="AT87" s="150"/>
+      <c r="AU87" s="150"/>
+      <c r="AV87" s="150"/>
+      <c r="AW87" s="58"/>
       <c r="AX87" s="38"/>
       <c r="AY87" s="38"/>
       <c r="AZ87" s="38"/>
@@ -9439,8 +9435,8 @@
     <row r="88" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32"/>
       <c r="B88" s="53"/>
-      <c r="C88" s="57" t="s">
-        <v>130</v>
+      <c r="C88" s="56" t="s">
+        <v>119</v>
       </c>
       <c r="D88" s="54"/>
       <c r="E88" s="35"/>
@@ -9479,9 +9475,9 @@
       <c r="AL88" s="38"/>
       <c r="AM88" s="38"/>
       <c r="AN88" s="38"/>
-      <c r="AO88" s="38"/>
-      <c r="AP88" s="38"/>
-      <c r="AQ88" s="38"/>
+      <c r="AO88" s="124"/>
+      <c r="AP88" s="124"/>
+      <c r="AQ88" s="124"/>
       <c r="AR88" s="147"/>
       <c r="AS88" s="40"/>
       <c r="AT88" s="40"/>
@@ -9521,8 +9517,8 @@
     <row r="89" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="53"/>
-      <c r="C89" s="56" t="s">
-        <v>129</v>
+      <c r="C89" s="57" t="s">
+        <v>128</v>
       </c>
       <c r="D89" s="54"/>
       <c r="E89" s="35"/>
@@ -9549,11 +9545,11 @@
       <c r="Z89" s="38"/>
       <c r="AA89" s="38"/>
       <c r="AB89" s="38"/>
-      <c r="AC89" s="39"/>
-      <c r="AD89" s="39"/>
-      <c r="AE89" s="39"/>
-      <c r="AF89" s="39"/>
-      <c r="AG89" s="39"/>
+      <c r="AC89" s="38"/>
+      <c r="AD89" s="38"/>
+      <c r="AE89" s="38"/>
+      <c r="AF89" s="38"/>
+      <c r="AG89" s="38"/>
       <c r="AH89" s="38"/>
       <c r="AI89" s="38"/>
       <c r="AJ89" s="38"/>
@@ -9564,11 +9560,11 @@
       <c r="AO89" s="38"/>
       <c r="AP89" s="38"/>
       <c r="AQ89" s="38"/>
-      <c r="AR89" s="150"/>
-      <c r="AS89" s="150"/>
-      <c r="AT89" s="150"/>
-      <c r="AU89" s="150"/>
-      <c r="AV89" s="147"/>
+      <c r="AR89" s="147"/>
+      <c r="AS89" s="40"/>
+      <c r="AT89" s="40"/>
+      <c r="AU89" s="40"/>
+      <c r="AV89" s="40"/>
       <c r="AW89" s="38"/>
       <c r="AX89" s="38"/>
       <c r="AY89" s="38"/>
@@ -9604,7 +9600,7 @@
       <c r="A90" s="32"/>
       <c r="B90" s="53"/>
       <c r="C90" s="56" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D90" s="54"/>
       <c r="E90" s="35"/>
@@ -9686,7 +9682,7 @@
       <c r="A91" s="32"/>
       <c r="B91" s="53"/>
       <c r="C91" s="56" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D91" s="54"/>
       <c r="E91" s="35"/>
@@ -9768,7 +9764,7 @@
       <c r="A92" s="32"/>
       <c r="B92" s="53"/>
       <c r="C92" s="56" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D92" s="54"/>
       <c r="E92" s="35"/>
@@ -9846,175 +9842,175 @@
       <c r="BY92" s="38"/>
       <c r="BZ92" s="38"/>
     </row>
-    <row r="93" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="91"/>
-      <c r="B93" s="92"/>
-      <c r="C93" s="93" t="s">
+    <row r="93" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="32"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D93" s="54"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="38"/>
+      <c r="M93" s="38"/>
+      <c r="N93" s="44"/>
+      <c r="O93" s="44"/>
+      <c r="P93" s="44"/>
+      <c r="Q93" s="44"/>
+      <c r="R93" s="44"/>
+      <c r="S93" s="38"/>
+      <c r="T93" s="38"/>
+      <c r="U93" s="38"/>
+      <c r="V93" s="38"/>
+      <c r="W93" s="38"/>
+      <c r="X93" s="38"/>
+      <c r="Y93" s="38"/>
+      <c r="Z93" s="38"/>
+      <c r="AA93" s="38"/>
+      <c r="AB93" s="38"/>
+      <c r="AC93" s="39"/>
+      <c r="AD93" s="39"/>
+      <c r="AE93" s="39"/>
+      <c r="AF93" s="39"/>
+      <c r="AG93" s="39"/>
+      <c r="AH93" s="38"/>
+      <c r="AI93" s="38"/>
+      <c r="AJ93" s="38"/>
+      <c r="AK93" s="38"/>
+      <c r="AL93" s="38"/>
+      <c r="AM93" s="38"/>
+      <c r="AN93" s="38"/>
+      <c r="AO93" s="38"/>
+      <c r="AP93" s="38"/>
+      <c r="AQ93" s="38"/>
+      <c r="AR93" s="150"/>
+      <c r="AS93" s="150"/>
+      <c r="AT93" s="150"/>
+      <c r="AU93" s="150"/>
+      <c r="AV93" s="147"/>
+      <c r="AW93" s="38"/>
+      <c r="AX93" s="38"/>
+      <c r="AY93" s="38"/>
+      <c r="AZ93" s="38"/>
+      <c r="BA93" s="38"/>
+      <c r="BB93" s="38"/>
+      <c r="BC93" s="38"/>
+      <c r="BD93" s="38"/>
+      <c r="BE93" s="38"/>
+      <c r="BF93" s="38"/>
+      <c r="BG93" s="41"/>
+      <c r="BH93" s="41"/>
+      <c r="BI93" s="41"/>
+      <c r="BJ93" s="41"/>
+      <c r="BK93" s="41"/>
+      <c r="BL93" s="38"/>
+      <c r="BM93" s="38"/>
+      <c r="BN93" s="38"/>
+      <c r="BO93" s="38"/>
+      <c r="BP93" s="38"/>
+      <c r="BQ93" s="38"/>
+      <c r="BR93" s="38"/>
+      <c r="BS93" s="38"/>
+      <c r="BT93" s="38"/>
+      <c r="BU93" s="38"/>
+      <c r="BV93" s="38"/>
+      <c r="BW93" s="38"/>
+      <c r="BX93" s="38"/>
+      <c r="BY93" s="38"/>
+      <c r="BZ93" s="38"/>
+    </row>
+    <row r="94" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="91"/>
+      <c r="B94" s="92"/>
+      <c r="C94" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="D93" s="94"/>
-      <c r="E93" s="95"/>
-      <c r="F93" s="95"/>
-      <c r="G93" s="96"/>
-      <c r="H93" s="97"/>
-      <c r="I93" s="98"/>
-      <c r="J93" s="99"/>
-      <c r="K93" s="100"/>
-      <c r="L93" s="100"/>
-      <c r="M93" s="100"/>
-      <c r="N93" s="101"/>
-      <c r="O93" s="101"/>
-      <c r="P93" s="101"/>
-      <c r="Q93" s="101"/>
-      <c r="R93" s="101"/>
-      <c r="S93" s="100"/>
-      <c r="T93" s="100"/>
-      <c r="U93" s="100"/>
-      <c r="V93" s="100"/>
-      <c r="W93" s="100"/>
-      <c r="X93" s="100"/>
-      <c r="Y93" s="100"/>
-      <c r="Z93" s="100"/>
-      <c r="AA93" s="100"/>
-      <c r="AB93" s="100"/>
-      <c r="AC93" s="102"/>
-      <c r="AD93" s="102"/>
-      <c r="AE93" s="102"/>
-      <c r="AF93" s="102"/>
-      <c r="AG93" s="102"/>
-      <c r="AH93" s="100"/>
-      <c r="AI93" s="100"/>
-      <c r="AJ93" s="100"/>
-      <c r="AK93" s="100"/>
-      <c r="AL93" s="100"/>
-      <c r="AM93" s="100"/>
-      <c r="AN93" s="100"/>
-      <c r="AO93" s="100"/>
-      <c r="AP93" s="100"/>
-      <c r="AQ93" s="100"/>
-      <c r="AR93" s="103"/>
-      <c r="AS93" s="103"/>
-      <c r="AT93" s="103"/>
-      <c r="AU93" s="103"/>
-      <c r="AV93" s="103"/>
-      <c r="AW93" s="100"/>
-      <c r="AX93" s="100"/>
-      <c r="AY93" s="100"/>
-      <c r="AZ93" s="100"/>
-      <c r="BA93" s="100"/>
-      <c r="BB93" s="100"/>
-      <c r="BC93" s="100"/>
-      <c r="BD93" s="100"/>
-      <c r="BE93" s="100"/>
-      <c r="BF93" s="100"/>
-      <c r="BG93" s="104"/>
-      <c r="BH93" s="104"/>
-      <c r="BI93" s="104"/>
-      <c r="BJ93" s="104"/>
-      <c r="BK93" s="104"/>
-      <c r="BL93" s="100"/>
-      <c r="BM93" s="100"/>
-      <c r="BN93" s="100"/>
-      <c r="BO93" s="100"/>
-      <c r="BP93" s="100"/>
-      <c r="BQ93" s="100"/>
-      <c r="BR93" s="100"/>
-      <c r="BS93" s="100"/>
-      <c r="BT93" s="100"/>
-      <c r="BU93" s="100"/>
-      <c r="BV93" s="100"/>
-      <c r="BW93" s="100"/>
-      <c r="BX93" s="100"/>
-      <c r="BY93" s="100"/>
-      <c r="BZ93" s="100"/>
-    </row>
-    <row r="94" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D94" s="54"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="42"/>
-      <c r="J94" s="43"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="38"/>
-      <c r="M94" s="38"/>
-      <c r="N94" s="38"/>
-      <c r="O94" s="38"/>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="38"/>
-      <c r="R94" s="38"/>
-      <c r="S94" s="38"/>
-      <c r="T94" s="38"/>
-      <c r="U94" s="38"/>
-      <c r="V94" s="38"/>
-      <c r="W94" s="38"/>
-      <c r="X94" s="38"/>
-      <c r="Y94" s="38"/>
-      <c r="Z94" s="38"/>
-      <c r="AA94" s="38"/>
-      <c r="AB94" s="38"/>
-      <c r="AC94" s="38"/>
-      <c r="AD94" s="38"/>
-      <c r="AE94" s="38"/>
-      <c r="AF94" s="38"/>
-      <c r="AG94" s="38"/>
-      <c r="AH94" s="38"/>
-      <c r="AI94" s="124"/>
-      <c r="AJ94" s="124"/>
-      <c r="AK94" s="124"/>
-      <c r="AL94" s="124"/>
-      <c r="AM94" s="58"/>
-      <c r="AN94" s="38"/>
-      <c r="AO94" s="38"/>
-      <c r="AP94" s="38"/>
-      <c r="AQ94" s="38"/>
-      <c r="AR94" s="38"/>
-      <c r="AS94" s="38"/>
-      <c r="AT94" s="38"/>
-      <c r="AU94" s="38"/>
-      <c r="AV94" s="38"/>
-      <c r="AW94" s="38"/>
-      <c r="AX94" s="38"/>
-      <c r="AY94" s="38"/>
-      <c r="AZ94" s="38"/>
-      <c r="BA94" s="38"/>
-      <c r="BB94" s="38"/>
-      <c r="BC94" s="38"/>
-      <c r="BD94" s="38"/>
-      <c r="BE94" s="38"/>
-      <c r="BF94" s="38"/>
-      <c r="BG94" s="38"/>
-      <c r="BH94" s="38"/>
-      <c r="BI94" s="38"/>
-      <c r="BJ94" s="38"/>
-      <c r="BK94" s="38"/>
-      <c r="BL94" s="38"/>
-      <c r="BM94" s="38"/>
-      <c r="BN94" s="38"/>
-      <c r="BO94" s="38"/>
-      <c r="BP94" s="38"/>
-      <c r="BQ94" s="38"/>
-      <c r="BR94" s="38"/>
-      <c r="BS94" s="38"/>
-      <c r="BT94" s="38"/>
-      <c r="BU94" s="38"/>
-      <c r="BV94" s="38"/>
-      <c r="BW94" s="38"/>
-      <c r="BX94" s="38"/>
-      <c r="BY94" s="38"/>
-      <c r="BZ94" s="38"/>
+      <c r="D94" s="94"/>
+      <c r="E94" s="95"/>
+      <c r="F94" s="95"/>
+      <c r="G94" s="96"/>
+      <c r="H94" s="97"/>
+      <c r="I94" s="98"/>
+      <c r="J94" s="99"/>
+      <c r="K94" s="100"/>
+      <c r="L94" s="100"/>
+      <c r="M94" s="100"/>
+      <c r="N94" s="101"/>
+      <c r="O94" s="101"/>
+      <c r="P94" s="101"/>
+      <c r="Q94" s="101"/>
+      <c r="R94" s="101"/>
+      <c r="S94" s="100"/>
+      <c r="T94" s="100"/>
+      <c r="U94" s="100"/>
+      <c r="V94" s="100"/>
+      <c r="W94" s="100"/>
+      <c r="X94" s="100"/>
+      <c r="Y94" s="100"/>
+      <c r="Z94" s="100"/>
+      <c r="AA94" s="100"/>
+      <c r="AB94" s="100"/>
+      <c r="AC94" s="102"/>
+      <c r="AD94" s="102"/>
+      <c r="AE94" s="102"/>
+      <c r="AF94" s="102"/>
+      <c r="AG94" s="102"/>
+      <c r="AH94" s="100"/>
+      <c r="AI94" s="100"/>
+      <c r="AJ94" s="100"/>
+      <c r="AK94" s="100"/>
+      <c r="AL94" s="100"/>
+      <c r="AM94" s="100"/>
+      <c r="AN94" s="100"/>
+      <c r="AO94" s="100"/>
+      <c r="AP94" s="100"/>
+      <c r="AQ94" s="100"/>
+      <c r="AR94" s="103"/>
+      <c r="AS94" s="103"/>
+      <c r="AT94" s="103"/>
+      <c r="AU94" s="103"/>
+      <c r="AV94" s="103"/>
+      <c r="AW94" s="100"/>
+      <c r="AX94" s="100"/>
+      <c r="AY94" s="100"/>
+      <c r="AZ94" s="100"/>
+      <c r="BA94" s="100"/>
+      <c r="BB94" s="100"/>
+      <c r="BC94" s="100"/>
+      <c r="BD94" s="100"/>
+      <c r="BE94" s="100"/>
+      <c r="BF94" s="100"/>
+      <c r="BG94" s="104"/>
+      <c r="BH94" s="104"/>
+      <c r="BI94" s="104"/>
+      <c r="BJ94" s="104"/>
+      <c r="BK94" s="104"/>
+      <c r="BL94" s="100"/>
+      <c r="BM94" s="100"/>
+      <c r="BN94" s="100"/>
+      <c r="BO94" s="100"/>
+      <c r="BP94" s="100"/>
+      <c r="BQ94" s="100"/>
+      <c r="BR94" s="100"/>
+      <c r="BS94" s="100"/>
+      <c r="BT94" s="100"/>
+      <c r="BU94" s="100"/>
+      <c r="BV94" s="100"/>
+      <c r="BW94" s="100"/>
+      <c r="BX94" s="100"/>
+      <c r="BY94" s="100"/>
+      <c r="BZ94" s="100"/>
     </row>
     <row r="95" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
       <c r="B95" s="53"/>
       <c r="C95" s="56" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D95" s="54"/>
       <c r="E95" s="35"/>
@@ -10047,11 +10043,11 @@
       <c r="AF95" s="38"/>
       <c r="AG95" s="38"/>
       <c r="AH95" s="38"/>
-      <c r="AI95" s="38"/>
-      <c r="AJ95" s="38"/>
-      <c r="AK95" s="38"/>
-      <c r="AL95" s="38"/>
-      <c r="AM95" s="38"/>
+      <c r="AI95" s="124"/>
+      <c r="AJ95" s="124"/>
+      <c r="AK95" s="124"/>
+      <c r="AL95" s="124"/>
+      <c r="AM95" s="58"/>
       <c r="AN95" s="38"/>
       <c r="AO95" s="38"/>
       <c r="AP95" s="38"/>
@@ -10096,7 +10092,7 @@
       <c r="A96" s="32"/>
       <c r="B96" s="53"/>
       <c r="C96" s="56" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="D96" s="54"/>
       <c r="E96" s="35"/>
@@ -10138,12 +10134,12 @@
       <c r="AO96" s="38"/>
       <c r="AP96" s="38"/>
       <c r="AQ96" s="38"/>
-      <c r="AR96" s="124"/>
-      <c r="AS96" s="124"/>
-      <c r="AT96" s="124"/>
-      <c r="AU96" s="124"/>
-      <c r="AV96" s="124"/>
-      <c r="AW96" s="58"/>
+      <c r="AR96" s="38"/>
+      <c r="AS96" s="38"/>
+      <c r="AT96" s="38"/>
+      <c r="AU96" s="38"/>
+      <c r="AV96" s="38"/>
+      <c r="AW96" s="38"/>
       <c r="AX96" s="38"/>
       <c r="AY96" s="38"/>
       <c r="AZ96" s="38"/>
@@ -10177,7 +10173,9 @@
     <row r="97" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="32"/>
       <c r="B97" s="53"/>
-      <c r="C97" s="56"/>
+      <c r="C97" s="56" t="s">
+        <v>129</v>
+      </c>
       <c r="D97" s="54"/>
       <c r="E97" s="35"/>
       <c r="F97" s="35"/>
@@ -10218,12 +10216,12 @@
       <c r="AO97" s="38"/>
       <c r="AP97" s="38"/>
       <c r="AQ97" s="38"/>
-      <c r="AR97" s="38"/>
-      <c r="AS97" s="38"/>
-      <c r="AT97" s="38"/>
-      <c r="AU97" s="38"/>
-      <c r="AV97" s="38"/>
-      <c r="AW97" s="38"/>
+      <c r="AR97" s="124"/>
+      <c r="AS97" s="124"/>
+      <c r="AT97" s="124"/>
+      <c r="AU97" s="124"/>
+      <c r="AV97" s="124"/>
+      <c r="AW97" s="58"/>
       <c r="AX97" s="38"/>
       <c r="AY97" s="38"/>
       <c r="AZ97" s="38"/>
@@ -10254,175 +10252,173 @@
       <c r="BY97" s="38"/>
       <c r="BZ97" s="38"/>
     </row>
-    <row r="98" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="72"/>
-      <c r="B98" s="59"/>
-      <c r="C98" s="77" t="s">
+    <row r="98" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="32"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="56"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="43"/>
+      <c r="K98" s="38"/>
+      <c r="L98" s="38"/>
+      <c r="M98" s="38"/>
+      <c r="N98" s="38"/>
+      <c r="O98" s="38"/>
+      <c r="P98" s="38"/>
+      <c r="Q98" s="38"/>
+      <c r="R98" s="38"/>
+      <c r="S98" s="38"/>
+      <c r="T98" s="38"/>
+      <c r="U98" s="38"/>
+      <c r="V98" s="38"/>
+      <c r="W98" s="38"/>
+      <c r="X98" s="38"/>
+      <c r="Y98" s="38"/>
+      <c r="Z98" s="38"/>
+      <c r="AA98" s="38"/>
+      <c r="AB98" s="38"/>
+      <c r="AC98" s="38"/>
+      <c r="AD98" s="38"/>
+      <c r="AE98" s="38"/>
+      <c r="AF98" s="38"/>
+      <c r="AG98" s="38"/>
+      <c r="AH98" s="38"/>
+      <c r="AI98" s="38"/>
+      <c r="AJ98" s="38"/>
+      <c r="AK98" s="38"/>
+      <c r="AL98" s="38"/>
+      <c r="AM98" s="38"/>
+      <c r="AN98" s="38"/>
+      <c r="AO98" s="38"/>
+      <c r="AP98" s="38"/>
+      <c r="AQ98" s="38"/>
+      <c r="AR98" s="38"/>
+      <c r="AS98" s="38"/>
+      <c r="AT98" s="38"/>
+      <c r="AU98" s="38"/>
+      <c r="AV98" s="38"/>
+      <c r="AW98" s="38"/>
+      <c r="AX98" s="38"/>
+      <c r="AY98" s="38"/>
+      <c r="AZ98" s="38"/>
+      <c r="BA98" s="38"/>
+      <c r="BB98" s="38"/>
+      <c r="BC98" s="38"/>
+      <c r="BD98" s="38"/>
+      <c r="BE98" s="38"/>
+      <c r="BF98" s="38"/>
+      <c r="BG98" s="38"/>
+      <c r="BH98" s="38"/>
+      <c r="BI98" s="38"/>
+      <c r="BJ98" s="38"/>
+      <c r="BK98" s="38"/>
+      <c r="BL98" s="38"/>
+      <c r="BM98" s="38"/>
+      <c r="BN98" s="38"/>
+      <c r="BO98" s="38"/>
+      <c r="BP98" s="38"/>
+      <c r="BQ98" s="38"/>
+      <c r="BR98" s="38"/>
+      <c r="BS98" s="38"/>
+      <c r="BT98" s="38"/>
+      <c r="BU98" s="38"/>
+      <c r="BV98" s="38"/>
+      <c r="BW98" s="38"/>
+      <c r="BX98" s="38"/>
+      <c r="BY98" s="38"/>
+      <c r="BZ98" s="38"/>
+    </row>
+    <row r="99" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="72"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="D98" s="61"/>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="63"/>
-      <c r="H98" s="64"/>
-      <c r="I98" s="65"/>
-      <c r="J98" s="66"/>
-      <c r="K98" s="67"/>
-      <c r="L98" s="67"/>
-      <c r="M98" s="67"/>
-      <c r="N98" s="68"/>
-      <c r="O98" s="68"/>
-      <c r="P98" s="68"/>
-      <c r="Q98" s="68"/>
-      <c r="R98" s="68"/>
-      <c r="S98" s="67"/>
-      <c r="T98" s="67"/>
-      <c r="U98" s="67"/>
-      <c r="V98" s="67"/>
-      <c r="W98" s="67"/>
-      <c r="X98" s="67"/>
-      <c r="Y98" s="67"/>
-      <c r="Z98" s="67"/>
-      <c r="AA98" s="67"/>
-      <c r="AB98" s="67"/>
-      <c r="AC98" s="69"/>
-      <c r="AD98" s="69"/>
-      <c r="AE98" s="69"/>
-      <c r="AF98" s="69"/>
-      <c r="AG98" s="69"/>
-      <c r="AH98" s="67"/>
-      <c r="AI98" s="67"/>
-      <c r="AJ98" s="67"/>
-      <c r="AK98" s="67"/>
-      <c r="AL98" s="67"/>
-      <c r="AM98" s="67"/>
-      <c r="AN98" s="67"/>
-      <c r="AO98" s="67"/>
-      <c r="AP98" s="67"/>
-      <c r="AQ98" s="67"/>
-      <c r="AR98" s="70"/>
-      <c r="AS98" s="70"/>
-      <c r="AT98" s="70"/>
-      <c r="AU98" s="70"/>
-      <c r="AV98" s="70"/>
-      <c r="AW98" s="67"/>
-      <c r="AX98" s="67"/>
-      <c r="AY98" s="67"/>
-      <c r="AZ98" s="67"/>
-      <c r="BA98" s="67"/>
-      <c r="BB98" s="67"/>
-      <c r="BC98" s="67"/>
-      <c r="BD98" s="67"/>
-      <c r="BE98" s="67"/>
-      <c r="BF98" s="67"/>
-      <c r="BG98" s="71"/>
-      <c r="BH98" s="71"/>
-      <c r="BI98" s="71"/>
-      <c r="BJ98" s="71"/>
-      <c r="BK98" s="71"/>
-      <c r="BL98" s="67"/>
-      <c r="BM98" s="67"/>
-      <c r="BN98" s="67"/>
-      <c r="BO98" s="67"/>
-      <c r="BP98" s="67"/>
-      <c r="BQ98" s="67"/>
-      <c r="BR98" s="67"/>
-      <c r="BS98" s="67"/>
-      <c r="BT98" s="67"/>
-      <c r="BU98" s="67"/>
-      <c r="BV98" s="67"/>
-      <c r="BW98" s="67"/>
-      <c r="BX98" s="67"/>
-      <c r="BY98" s="67"/>
-      <c r="BZ98" s="67"/>
-    </row>
-    <row r="99" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="32"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D99" s="54"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="37"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="43"/>
-      <c r="K99" s="38"/>
-      <c r="L99" s="38"/>
-      <c r="M99" s="38"/>
-      <c r="N99" s="44"/>
-      <c r="O99" s="44"/>
-      <c r="P99" s="44"/>
-      <c r="Q99" s="44"/>
-      <c r="R99" s="44"/>
-      <c r="S99" s="38"/>
-      <c r="T99" s="38"/>
-      <c r="U99" s="38"/>
-      <c r="V99" s="38"/>
-      <c r="W99" s="38"/>
-      <c r="X99" s="38"/>
-      <c r="Y99" s="38"/>
-      <c r="Z99" s="38"/>
-      <c r="AA99" s="38"/>
-      <c r="AB99" s="38"/>
-      <c r="AC99" s="39"/>
-      <c r="AD99" s="39"/>
-      <c r="AE99" s="39"/>
-      <c r="AF99" s="39"/>
-      <c r="AG99" s="39"/>
-      <c r="AH99" s="124"/>
-      <c r="AI99" s="124"/>
-      <c r="AJ99" s="124"/>
-      <c r="AK99" s="124"/>
-      <c r="AL99" s="124"/>
-      <c r="AM99" s="58"/>
-      <c r="AN99" s="38"/>
-      <c r="AO99" s="38"/>
-      <c r="AP99" s="38"/>
-      <c r="AQ99" s="38"/>
-      <c r="AR99" s="40"/>
-      <c r="AS99" s="40"/>
-      <c r="AT99" s="40"/>
-      <c r="AU99" s="40"/>
-      <c r="AV99" s="40"/>
-      <c r="AW99" s="38"/>
-      <c r="AX99" s="38"/>
-      <c r="AY99" s="38"/>
-      <c r="AZ99" s="38"/>
-      <c r="BA99" s="38"/>
-      <c r="BB99" s="38"/>
-      <c r="BC99" s="38"/>
-      <c r="BD99" s="38"/>
-      <c r="BE99" s="38"/>
-      <c r="BF99" s="38"/>
-      <c r="BG99" s="41"/>
-      <c r="BH99" s="41"/>
-      <c r="BI99" s="41"/>
-      <c r="BJ99" s="41"/>
-      <c r="BK99" s="41"/>
-      <c r="BL99" s="38"/>
-      <c r="BM99" s="38"/>
-      <c r="BN99" s="38"/>
-      <c r="BO99" s="38"/>
-      <c r="BP99" s="38"/>
-      <c r="BQ99" s="38"/>
-      <c r="BR99" s="38"/>
-      <c r="BS99" s="38"/>
-      <c r="BT99" s="38"/>
-      <c r="BU99" s="38"/>
-      <c r="BV99" s="38"/>
-      <c r="BW99" s="38"/>
-      <c r="BX99" s="38"/>
-      <c r="BY99" s="38"/>
-      <c r="BZ99" s="38"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="62"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="63"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="65"/>
+      <c r="J99" s="66"/>
+      <c r="K99" s="67"/>
+      <c r="L99" s="67"/>
+      <c r="M99" s="67"/>
+      <c r="N99" s="68"/>
+      <c r="O99" s="68"/>
+      <c r="P99" s="68"/>
+      <c r="Q99" s="68"/>
+      <c r="R99" s="68"/>
+      <c r="S99" s="67"/>
+      <c r="T99" s="67"/>
+      <c r="U99" s="67"/>
+      <c r="V99" s="67"/>
+      <c r="W99" s="67"/>
+      <c r="X99" s="67"/>
+      <c r="Y99" s="67"/>
+      <c r="Z99" s="67"/>
+      <c r="AA99" s="67"/>
+      <c r="AB99" s="67"/>
+      <c r="AC99" s="69"/>
+      <c r="AD99" s="69"/>
+      <c r="AE99" s="69"/>
+      <c r="AF99" s="69"/>
+      <c r="AG99" s="69"/>
+      <c r="AH99" s="67"/>
+      <c r="AI99" s="67"/>
+      <c r="AJ99" s="67"/>
+      <c r="AK99" s="67"/>
+      <c r="AL99" s="67"/>
+      <c r="AM99" s="67"/>
+      <c r="AN99" s="67"/>
+      <c r="AO99" s="67"/>
+      <c r="AP99" s="67"/>
+      <c r="AQ99" s="67"/>
+      <c r="AR99" s="70"/>
+      <c r="AS99" s="70"/>
+      <c r="AT99" s="70"/>
+      <c r="AU99" s="70"/>
+      <c r="AV99" s="70"/>
+      <c r="AW99" s="67"/>
+      <c r="AX99" s="67"/>
+      <c r="AY99" s="67"/>
+      <c r="AZ99" s="67"/>
+      <c r="BA99" s="67"/>
+      <c r="BB99" s="67"/>
+      <c r="BC99" s="67"/>
+      <c r="BD99" s="67"/>
+      <c r="BE99" s="67"/>
+      <c r="BF99" s="67"/>
+      <c r="BG99" s="71"/>
+      <c r="BH99" s="71"/>
+      <c r="BI99" s="71"/>
+      <c r="BJ99" s="71"/>
+      <c r="BK99" s="71"/>
+      <c r="BL99" s="67"/>
+      <c r="BM99" s="67"/>
+      <c r="BN99" s="67"/>
+      <c r="BO99" s="67"/>
+      <c r="BP99" s="67"/>
+      <c r="BQ99" s="67"/>
+      <c r="BR99" s="67"/>
+      <c r="BS99" s="67"/>
+      <c r="BT99" s="67"/>
+      <c r="BU99" s="67"/>
+      <c r="BV99" s="67"/>
+      <c r="BW99" s="67"/>
+      <c r="BX99" s="67"/>
+      <c r="BY99" s="67"/>
+      <c r="BZ99" s="67"/>
     </row>
     <row r="100" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="32"/>
       <c r="B100" s="53"/>
       <c r="C100" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D100" s="54"/>
       <c r="E100" s="35"/>
@@ -10504,7 +10500,7 @@
       <c r="A101" s="32"/>
       <c r="B101" s="53"/>
       <c r="C101" s="56" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D101" s="54"/>
       <c r="E101" s="35"/>
@@ -10536,17 +10532,17 @@
       <c r="AE101" s="39"/>
       <c r="AF101" s="39"/>
       <c r="AG101" s="39"/>
-      <c r="AH101" s="38"/>
-      <c r="AI101" s="38"/>
-      <c r="AJ101" s="38"/>
-      <c r="AK101" s="38"/>
-      <c r="AL101" s="38"/>
-      <c r="AM101" s="38"/>
+      <c r="AH101" s="124"/>
+      <c r="AI101" s="124"/>
+      <c r="AJ101" s="124"/>
+      <c r="AK101" s="124"/>
+      <c r="AL101" s="124"/>
+      <c r="AM101" s="58"/>
       <c r="AN101" s="38"/>
-      <c r="AO101" s="149"/>
-      <c r="AP101" s="149"/>
-      <c r="AQ101" s="149"/>
-      <c r="AR101" s="147"/>
+      <c r="AO101" s="38"/>
+      <c r="AP101" s="38"/>
+      <c r="AQ101" s="38"/>
+      <c r="AR101" s="40"/>
       <c r="AS101" s="40"/>
       <c r="AT101" s="40"/>
       <c r="AU101" s="40"/>
@@ -10586,7 +10582,7 @@
       <c r="A102" s="32"/>
       <c r="B102" s="53"/>
       <c r="C102" s="56" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D102" s="54"/>
       <c r="E102" s="35"/>
@@ -10628,12 +10624,12 @@
       <c r="AO102" s="149"/>
       <c r="AP102" s="149"/>
       <c r="AQ102" s="149"/>
-      <c r="AR102" s="149"/>
-      <c r="AS102" s="149"/>
-      <c r="AT102" s="149"/>
-      <c r="AU102" s="149"/>
-      <c r="AV102" s="149"/>
-      <c r="AW102" s="58"/>
+      <c r="AR102" s="147"/>
+      <c r="AS102" s="40"/>
+      <c r="AT102" s="40"/>
+      <c r="AU102" s="40"/>
+      <c r="AV102" s="40"/>
+      <c r="AW102" s="38"/>
       <c r="AX102" s="38"/>
       <c r="AY102" s="38"/>
       <c r="AZ102" s="38"/>
@@ -10668,7 +10664,7 @@
       <c r="A103" s="32"/>
       <c r="B103" s="53"/>
       <c r="C103" s="56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D103" s="54"/>
       <c r="E103" s="35"/>
@@ -10707,15 +10703,15 @@
       <c r="AL103" s="38"/>
       <c r="AM103" s="38"/>
       <c r="AN103" s="38"/>
-      <c r="AO103" s="124"/>
-      <c r="AP103" s="124"/>
-      <c r="AQ103" s="150"/>
-      <c r="AR103" s="147"/>
-      <c r="AS103" s="40"/>
-      <c r="AT103" s="40"/>
-      <c r="AU103" s="40"/>
-      <c r="AV103" s="40"/>
-      <c r="AW103" s="38"/>
+      <c r="AO103" s="149"/>
+      <c r="AP103" s="149"/>
+      <c r="AQ103" s="149"/>
+      <c r="AR103" s="149"/>
+      <c r="AS103" s="149"/>
+      <c r="AT103" s="149"/>
+      <c r="AU103" s="149"/>
+      <c r="AV103" s="149"/>
+      <c r="AW103" s="58"/>
       <c r="AX103" s="38"/>
       <c r="AY103" s="38"/>
       <c r="AZ103" s="38"/>
@@ -10749,7 +10745,9 @@
     <row r="104" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A104" s="32"/>
       <c r="B104" s="53"/>
-      <c r="C104" s="56"/>
+      <c r="C104" s="56" t="s">
+        <v>130</v>
+      </c>
       <c r="D104" s="54"/>
       <c r="E104" s="35"/>
       <c r="F104" s="35"/>
@@ -10787,10 +10785,10 @@
       <c r="AL104" s="38"/>
       <c r="AM104" s="38"/>
       <c r="AN104" s="38"/>
-      <c r="AO104" s="38"/>
-      <c r="AP104" s="38"/>
-      <c r="AQ104" s="38"/>
-      <c r="AR104" s="40"/>
+      <c r="AO104" s="124"/>
+      <c r="AP104" s="124"/>
+      <c r="AQ104" s="150"/>
+      <c r="AR104" s="147"/>
       <c r="AS104" s="40"/>
       <c r="AT104" s="40"/>
       <c r="AU104" s="40"/>
@@ -10829,7 +10827,7 @@
     <row r="105" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="32"/>
       <c r="B105" s="53"/>
-      <c r="C105" s="57"/>
+      <c r="C105" s="56"/>
       <c r="D105" s="54"/>
       <c r="E105" s="35"/>
       <c r="F105" s="35"/>
@@ -10906,189 +10904,175 @@
       <c r="BY105" s="38"/>
       <c r="BZ105" s="38"/>
     </row>
-    <row r="106" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="26">
-        <v>4</v>
-      </c>
-      <c r="C106" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="29"/>
-      <c r="J106" s="30"/>
-      <c r="K106" s="31"/>
-      <c r="L106" s="31"/>
-      <c r="M106" s="29"/>
-      <c r="N106" s="29"/>
-      <c r="O106" s="29"/>
-      <c r="P106" s="29"/>
-      <c r="Q106" s="29"/>
-      <c r="R106" s="29"/>
-      <c r="S106" s="29"/>
-      <c r="T106" s="29"/>
-      <c r="U106" s="29"/>
-      <c r="V106" s="29"/>
-      <c r="W106" s="29"/>
-      <c r="X106" s="29"/>
-      <c r="Y106" s="29"/>
-      <c r="Z106" s="29"/>
-      <c r="AA106" s="29"/>
-      <c r="AB106" s="29"/>
-      <c r="AC106" s="29"/>
-      <c r="AD106" s="29"/>
-      <c r="AE106" s="29"/>
-      <c r="AF106" s="29"/>
-      <c r="AG106" s="29"/>
-      <c r="AH106" s="29"/>
-      <c r="AI106" s="29"/>
-      <c r="AJ106" s="29"/>
-      <c r="AK106" s="29"/>
-      <c r="AL106" s="29"/>
-      <c r="AM106" s="29"/>
-      <c r="AN106" s="29"/>
-      <c r="AO106" s="29"/>
-      <c r="AP106" s="29"/>
-      <c r="AQ106" s="29"/>
-      <c r="AR106" s="29"/>
-      <c r="AS106" s="29"/>
-      <c r="AT106" s="29"/>
-      <c r="AU106" s="29"/>
-      <c r="AV106" s="29"/>
-      <c r="AW106" s="29"/>
-      <c r="AX106" s="29"/>
-      <c r="AY106" s="29"/>
-      <c r="AZ106" s="29"/>
-      <c r="BA106" s="29"/>
-      <c r="BB106" s="29"/>
-      <c r="BC106" s="29"/>
-      <c r="BD106" s="29"/>
-      <c r="BE106" s="29"/>
-      <c r="BF106" s="29"/>
-      <c r="BG106" s="29"/>
-      <c r="BH106" s="29"/>
-      <c r="BI106" s="29"/>
-      <c r="BJ106" s="29"/>
-      <c r="BK106" s="29"/>
-      <c r="BL106" s="29"/>
-      <c r="BM106" s="29"/>
-      <c r="BN106" s="29"/>
-      <c r="BO106" s="29"/>
-      <c r="BP106" s="29"/>
-      <c r="BQ106" s="29"/>
-      <c r="BR106" s="29"/>
-      <c r="BS106" s="29"/>
-      <c r="BT106" s="29"/>
-      <c r="BU106" s="29"/>
-      <c r="BV106" s="29"/>
-      <c r="BW106" s="29"/>
-      <c r="BX106" s="29"/>
-      <c r="BY106" s="29"/>
-      <c r="BZ106" s="29"/>
+    <row r="106" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="32"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="35"/>
+      <c r="F106" s="35"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="43"/>
+      <c r="K106" s="38"/>
+      <c r="L106" s="38"/>
+      <c r="M106" s="38"/>
+      <c r="N106" s="44"/>
+      <c r="O106" s="44"/>
+      <c r="P106" s="44"/>
+      <c r="Q106" s="44"/>
+      <c r="R106" s="44"/>
+      <c r="S106" s="38"/>
+      <c r="T106" s="38"/>
+      <c r="U106" s="38"/>
+      <c r="V106" s="38"/>
+      <c r="W106" s="38"/>
+      <c r="X106" s="38"/>
+      <c r="Y106" s="38"/>
+      <c r="Z106" s="38"/>
+      <c r="AA106" s="38"/>
+      <c r="AB106" s="38"/>
+      <c r="AC106" s="39"/>
+      <c r="AD106" s="39"/>
+      <c r="AE106" s="39"/>
+      <c r="AF106" s="39"/>
+      <c r="AG106" s="39"/>
+      <c r="AH106" s="38"/>
+      <c r="AI106" s="38"/>
+      <c r="AJ106" s="38"/>
+      <c r="AK106" s="38"/>
+      <c r="AL106" s="38"/>
+      <c r="AM106" s="38"/>
+      <c r="AN106" s="38"/>
+      <c r="AO106" s="38"/>
+      <c r="AP106" s="38"/>
+      <c r="AQ106" s="38"/>
+      <c r="AR106" s="40"/>
+      <c r="AS106" s="40"/>
+      <c r="AT106" s="40"/>
+      <c r="AU106" s="40"/>
+      <c r="AV106" s="40"/>
+      <c r="AW106" s="38"/>
+      <c r="AX106" s="38"/>
+      <c r="AY106" s="38"/>
+      <c r="AZ106" s="38"/>
+      <c r="BA106" s="38"/>
+      <c r="BB106" s="38"/>
+      <c r="BC106" s="38"/>
+      <c r="BD106" s="38"/>
+      <c r="BE106" s="38"/>
+      <c r="BF106" s="38"/>
+      <c r="BG106" s="41"/>
+      <c r="BH106" s="41"/>
+      <c r="BI106" s="41"/>
+      <c r="BJ106" s="41"/>
+      <c r="BK106" s="41"/>
+      <c r="BL106" s="38"/>
+      <c r="BM106" s="38"/>
+      <c r="BN106" s="38"/>
+      <c r="BO106" s="38"/>
+      <c r="BP106" s="38"/>
+      <c r="BQ106" s="38"/>
+      <c r="BR106" s="38"/>
+      <c r="BS106" s="38"/>
+      <c r="BT106" s="38"/>
+      <c r="BU106" s="38"/>
+      <c r="BV106" s="38"/>
+      <c r="BW106" s="38"/>
+      <c r="BX106" s="38"/>
+      <c r="BY106" s="38"/>
+      <c r="BZ106" s="38"/>
     </row>
     <row r="107" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="33">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C107" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="D107" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E107" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F107" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G107" s="36" t="e">
-        <f>DAYS360(E107,F107)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H107" s="37">
-        <v>1</v>
-      </c>
-      <c r="I107" s="42"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="38"/>
-      <c r="L107" s="38"/>
-      <c r="M107" s="38"/>
-      <c r="N107" s="44"/>
-      <c r="O107" s="44"/>
-      <c r="P107" s="44"/>
-      <c r="Q107" s="44"/>
-      <c r="R107" s="44"/>
-      <c r="S107" s="38"/>
-      <c r="T107" s="38"/>
-      <c r="U107" s="38"/>
-      <c r="V107" s="38"/>
-      <c r="W107" s="38"/>
-      <c r="X107" s="38"/>
-      <c r="Y107" s="38"/>
-      <c r="Z107" s="38"/>
-      <c r="AA107" s="38"/>
-      <c r="AB107" s="38"/>
-      <c r="AC107" s="39"/>
-      <c r="AD107" s="39"/>
-      <c r="AE107" s="39"/>
-      <c r="AF107" s="39"/>
-      <c r="AG107" s="39"/>
-      <c r="AH107" s="38"/>
-      <c r="AI107" s="38"/>
-      <c r="AJ107" s="38"/>
-      <c r="AK107" s="38"/>
-      <c r="AL107" s="38"/>
-      <c r="AM107" s="38"/>
-      <c r="AN107" s="38"/>
-      <c r="AO107" s="38"/>
-      <c r="AP107" s="38"/>
-      <c r="AQ107" s="38"/>
-      <c r="AR107" s="40"/>
-      <c r="AS107" s="40"/>
-      <c r="AT107" s="40"/>
-      <c r="AU107" s="40"/>
-      <c r="AV107" s="40"/>
-      <c r="AW107" s="38"/>
-      <c r="AX107" s="38"/>
-      <c r="AY107" s="38"/>
-      <c r="AZ107" s="38"/>
-      <c r="BA107" s="38"/>
-      <c r="BB107" s="38"/>
-      <c r="BC107" s="38"/>
-      <c r="BD107" s="38"/>
-      <c r="BE107" s="38"/>
-      <c r="BF107" s="38"/>
-      <c r="BG107" s="41"/>
-      <c r="BH107" s="41"/>
-      <c r="BI107" s="41"/>
-      <c r="BJ107" s="41"/>
-      <c r="BK107" s="41"/>
-      <c r="BL107" s="38"/>
-      <c r="BM107" s="38"/>
-      <c r="BN107" s="38"/>
-      <c r="BO107" s="38"/>
-      <c r="BP107" s="38"/>
-      <c r="BQ107" s="38"/>
-      <c r="BR107" s="38"/>
-      <c r="BS107" s="38"/>
-      <c r="BT107" s="38"/>
-      <c r="BU107" s="38"/>
-      <c r="BV107" s="38"/>
-      <c r="BW107" s="38"/>
-      <c r="BX107" s="38"/>
-      <c r="BY107" s="38"/>
-      <c r="BZ107" s="38"/>
+      <c r="B107" s="26">
+        <v>4</v>
+      </c>
+      <c r="C107" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="31"/>
+      <c r="L107" s="31"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="29"/>
+      <c r="O107" s="29"/>
+      <c r="P107" s="29"/>
+      <c r="Q107" s="29"/>
+      <c r="R107" s="29"/>
+      <c r="S107" s="29"/>
+      <c r="T107" s="29"/>
+      <c r="U107" s="29"/>
+      <c r="V107" s="29"/>
+      <c r="W107" s="29"/>
+      <c r="X107" s="29"/>
+      <c r="Y107" s="29"/>
+      <c r="Z107" s="29"/>
+      <c r="AA107" s="29"/>
+      <c r="AB107" s="29"/>
+      <c r="AC107" s="29"/>
+      <c r="AD107" s="29"/>
+      <c r="AE107" s="29"/>
+      <c r="AF107" s="29"/>
+      <c r="AG107" s="29"/>
+      <c r="AH107" s="29"/>
+      <c r="AI107" s="29"/>
+      <c r="AJ107" s="29"/>
+      <c r="AK107" s="29"/>
+      <c r="AL107" s="29"/>
+      <c r="AM107" s="29"/>
+      <c r="AN107" s="29"/>
+      <c r="AO107" s="29"/>
+      <c r="AP107" s="29"/>
+      <c r="AQ107" s="29"/>
+      <c r="AR107" s="29"/>
+      <c r="AS107" s="29"/>
+      <c r="AT107" s="29"/>
+      <c r="AU107" s="29"/>
+      <c r="AV107" s="29"/>
+      <c r="AW107" s="29"/>
+      <c r="AX107" s="29"/>
+      <c r="AY107" s="29"/>
+      <c r="AZ107" s="29"/>
+      <c r="BA107" s="29"/>
+      <c r="BB107" s="29"/>
+      <c r="BC107" s="29"/>
+      <c r="BD107" s="29"/>
+      <c r="BE107" s="29"/>
+      <c r="BF107" s="29"/>
+      <c r="BG107" s="29"/>
+      <c r="BH107" s="29"/>
+      <c r="BI107" s="29"/>
+      <c r="BJ107" s="29"/>
+      <c r="BK107" s="29"/>
+      <c r="BL107" s="29"/>
+      <c r="BM107" s="29"/>
+      <c r="BN107" s="29"/>
+      <c r="BO107" s="29"/>
+      <c r="BP107" s="29"/>
+      <c r="BQ107" s="29"/>
+      <c r="BR107" s="29"/>
+      <c r="BS107" s="29"/>
+      <c r="BT107" s="29"/>
+      <c r="BU107" s="29"/>
+      <c r="BV107" s="29"/>
+      <c r="BW107" s="29"/>
+      <c r="BX107" s="29"/>
+      <c r="BY107" s="29"/>
+      <c r="BZ107" s="29"/>
     </row>
     <row r="108" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="33">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C108" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D108" s="34" t="s">
         <v>18</v>
@@ -11099,8 +11083,9 @@
       <c r="F108" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="G108" s="36">
-        <v>0</v>
+      <c r="G108" s="36" t="e">
+        <f>DAYS360(E108,F108)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="H108" s="37">
         <v>1</v>
@@ -11177,23 +11162,22 @@
       <c r="BZ108" s="38"/>
     </row>
     <row r="109" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="33" t="s">
-        <v>47</v>
+      <c r="B109" s="33">
+        <v>4.2</v>
       </c>
       <c r="C109" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D109" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E109" s="35">
-        <v>44823</v>
-      </c>
-      <c r="F109" s="35">
-        <v>44823</v>
+      <c r="E109" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F109" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="G109" s="36">
-        <f t="shared" ref="G109:G113" si="4">DAYS360(E109,F109)</f>
         <v>0</v>
       </c>
       <c r="H109" s="37">
@@ -11272,25 +11256,25 @@
     </row>
     <row r="110" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C110" s="47" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D110" s="34" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E110" s="35">
-        <v>44829</v>
+        <v>44823</v>
       </c>
       <c r="F110" s="35">
-        <v>44829</v>
+        <v>44823</v>
       </c>
       <c r="G110" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G110:G114" si="4">DAYS360(E110,F110)</f>
         <v>0</v>
       </c>
-      <c r="H110" s="52">
+      <c r="H110" s="37">
         <v>1</v>
       </c>
       <c r="I110" s="42"/>
@@ -11366,25 +11350,25 @@
     </row>
     <row r="111" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C111" s="47" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E111" s="35">
-        <v>44830</v>
+        <v>44829</v>
       </c>
       <c r="F111" s="35">
-        <v>44830</v>
+        <v>44829</v>
       </c>
       <c r="G111" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H111" s="37">
+      <c r="H111" s="52">
         <v>1</v>
       </c>
       <c r="I111" s="42"/>
@@ -11460,19 +11444,19 @@
     </row>
     <row r="112" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="33" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C112" s="47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D112" s="34" t="s">
         <v>18</v>
       </c>
       <c r="E112" s="35">
-        <v>44837</v>
+        <v>44830</v>
       </c>
       <c r="F112" s="35">
-        <v>44837</v>
+        <v>44830</v>
       </c>
       <c r="G112" s="36">
         <f t="shared" si="4"/>
@@ -11553,18 +11537,20 @@
       <c r="BZ112" s="38"/>
     </row>
     <row r="113" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="33"/>
+      <c r="B113" s="33" t="s">
+        <v>62</v>
+      </c>
       <c r="C113" s="47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D113" s="34" t="s">
         <v>18</v>
       </c>
       <c r="E113" s="35">
-        <v>44844</v>
+        <v>44837</v>
       </c>
       <c r="F113" s="35">
-        <v>44844</v>
+        <v>44837</v>
       </c>
       <c r="G113" s="36">
         <f t="shared" si="4"/>
@@ -11645,11 +11631,9 @@
       <c r="BZ113" s="38"/>
     </row>
     <row r="114" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C114" s="106" t="s">
-        <v>92</v>
+      <c r="B114" s="33"/>
+      <c r="C114" s="47" t="s">
+        <v>65</v>
       </c>
       <c r="D114" s="34" t="s">
         <v>18</v>
@@ -11661,7 +11645,7 @@
         <v>44844</v>
       </c>
       <c r="G114" s="36">
-        <f t="shared" ref="G114" si="5">DAYS360(E114,F114)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H114" s="37">
@@ -11739,106 +11723,180 @@
       <c r="BZ114" s="38"/>
     </row>
     <row r="115" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="107"/>
-      <c r="C115" s="108"/>
-      <c r="D115" s="109"/>
-      <c r="E115" s="110"/>
-      <c r="F115" s="110"/>
-      <c r="G115" s="111"/>
-      <c r="H115" s="112"/>
-      <c r="I115" s="113"/>
-      <c r="J115" s="114"/>
-      <c r="K115" s="115"/>
-      <c r="L115" s="115"/>
-      <c r="M115" s="115"/>
-      <c r="N115" s="116"/>
-      <c r="O115" s="116"/>
-      <c r="P115" s="116"/>
-      <c r="Q115" s="116"/>
-      <c r="R115" s="116"/>
-      <c r="S115" s="115"/>
-      <c r="T115" s="115"/>
-      <c r="U115" s="115"/>
-      <c r="V115" s="115"/>
-      <c r="W115" s="115"/>
-      <c r="X115" s="115"/>
-      <c r="Y115" s="115"/>
-      <c r="Z115" s="115"/>
-      <c r="AA115" s="115"/>
-      <c r="AB115" s="115"/>
-      <c r="AC115" s="117"/>
-      <c r="AD115" s="117"/>
-      <c r="AE115" s="117"/>
-      <c r="AF115" s="117"/>
-      <c r="AG115" s="117"/>
-      <c r="AH115" s="115"/>
-      <c r="AI115" s="115"/>
-      <c r="AJ115" s="115"/>
-      <c r="AK115" s="115"/>
-      <c r="AL115" s="115"/>
-      <c r="AM115" s="115"/>
-      <c r="AN115" s="115"/>
-      <c r="AO115" s="115"/>
-      <c r="AP115" s="115"/>
-      <c r="AQ115" s="115"/>
-      <c r="AR115" s="118"/>
-      <c r="AS115" s="118"/>
-      <c r="AT115" s="118"/>
-      <c r="AU115" s="118"/>
-      <c r="AV115" s="118"/>
-      <c r="AW115" s="115"/>
-      <c r="AX115" s="115"/>
-      <c r="AY115" s="115"/>
-      <c r="AZ115" s="115"/>
-      <c r="BA115" s="115"/>
-      <c r="BB115" s="115"/>
-      <c r="BC115" s="115"/>
-      <c r="BD115" s="115"/>
-      <c r="BE115" s="115"/>
-      <c r="BF115" s="115"/>
-      <c r="BG115" s="119"/>
-      <c r="BH115" s="119"/>
-      <c r="BI115" s="119"/>
-      <c r="BJ115" s="119"/>
-      <c r="BK115" s="119"/>
-      <c r="BL115" s="115"/>
-      <c r="BM115" s="115"/>
-      <c r="BN115" s="115"/>
-      <c r="BO115" s="115"/>
-      <c r="BP115" s="115"/>
-      <c r="BQ115" s="115"/>
-      <c r="BR115" s="115"/>
-      <c r="BS115" s="115"/>
-      <c r="BT115" s="115"/>
-      <c r="BU115" s="115"/>
-      <c r="BV115" s="115"/>
-      <c r="BW115" s="115"/>
-      <c r="BX115" s="115"/>
-      <c r="BY115" s="115"/>
-      <c r="BZ115" s="115"/>
+      <c r="B115" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="D115" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" s="35">
+        <v>44844</v>
+      </c>
+      <c r="F115" s="35">
+        <v>44844</v>
+      </c>
+      <c r="G115" s="36">
+        <f t="shared" ref="G115" si="5">DAYS360(E115,F115)</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="37">
+        <v>1</v>
+      </c>
+      <c r="I115" s="42"/>
+      <c r="J115" s="43"/>
+      <c r="K115" s="38"/>
+      <c r="L115" s="38"/>
+      <c r="M115" s="38"/>
+      <c r="N115" s="44"/>
+      <c r="O115" s="44"/>
+      <c r="P115" s="44"/>
+      <c r="Q115" s="44"/>
+      <c r="R115" s="44"/>
+      <c r="S115" s="38"/>
+      <c r="T115" s="38"/>
+      <c r="U115" s="38"/>
+      <c r="V115" s="38"/>
+      <c r="W115" s="38"/>
+      <c r="X115" s="38"/>
+      <c r="Y115" s="38"/>
+      <c r="Z115" s="38"/>
+      <c r="AA115" s="38"/>
+      <c r="AB115" s="38"/>
+      <c r="AC115" s="39"/>
+      <c r="AD115" s="39"/>
+      <c r="AE115" s="39"/>
+      <c r="AF115" s="39"/>
+      <c r="AG115" s="39"/>
+      <c r="AH115" s="38"/>
+      <c r="AI115" s="38"/>
+      <c r="AJ115" s="38"/>
+      <c r="AK115" s="38"/>
+      <c r="AL115" s="38"/>
+      <c r="AM115" s="38"/>
+      <c r="AN115" s="38"/>
+      <c r="AO115" s="38"/>
+      <c r="AP115" s="38"/>
+      <c r="AQ115" s="38"/>
+      <c r="AR115" s="40"/>
+      <c r="AS115" s="40"/>
+      <c r="AT115" s="40"/>
+      <c r="AU115" s="40"/>
+      <c r="AV115" s="40"/>
+      <c r="AW115" s="38"/>
+      <c r="AX115" s="38"/>
+      <c r="AY115" s="38"/>
+      <c r="AZ115" s="38"/>
+      <c r="BA115" s="38"/>
+      <c r="BB115" s="38"/>
+      <c r="BC115" s="38"/>
+      <c r="BD115" s="38"/>
+      <c r="BE115" s="38"/>
+      <c r="BF115" s="38"/>
+      <c r="BG115" s="41"/>
+      <c r="BH115" s="41"/>
+      <c r="BI115" s="41"/>
+      <c r="BJ115" s="41"/>
+      <c r="BK115" s="41"/>
+      <c r="BL115" s="38"/>
+      <c r="BM115" s="38"/>
+      <c r="BN115" s="38"/>
+      <c r="BO115" s="38"/>
+      <c r="BP115" s="38"/>
+      <c r="BQ115" s="38"/>
+      <c r="BR115" s="38"/>
+      <c r="BS115" s="38"/>
+      <c r="BT115" s="38"/>
+      <c r="BU115" s="38"/>
+      <c r="BV115" s="38"/>
+      <c r="BW115" s="38"/>
+      <c r="BX115" s="38"/>
+      <c r="BY115" s="38"/>
+      <c r="BZ115" s="38"/>
+    </row>
+    <row r="116" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="107"/>
+      <c r="C116" s="108"/>
+      <c r="D116" s="109"/>
+      <c r="E116" s="110"/>
+      <c r="F116" s="110"/>
+      <c r="G116" s="111"/>
+      <c r="H116" s="112"/>
+      <c r="I116" s="113"/>
+      <c r="J116" s="114"/>
+      <c r="K116" s="115"/>
+      <c r="L116" s="115"/>
+      <c r="M116" s="115"/>
+      <c r="N116" s="116"/>
+      <c r="O116" s="116"/>
+      <c r="P116" s="116"/>
+      <c r="Q116" s="116"/>
+      <c r="R116" s="116"/>
+      <c r="S116" s="115"/>
+      <c r="T116" s="115"/>
+      <c r="U116" s="115"/>
+      <c r="V116" s="115"/>
+      <c r="W116" s="115"/>
+      <c r="X116" s="115"/>
+      <c r="Y116" s="115"/>
+      <c r="Z116" s="115"/>
+      <c r="AA116" s="115"/>
+      <c r="AB116" s="115"/>
+      <c r="AC116" s="117"/>
+      <c r="AD116" s="117"/>
+      <c r="AE116" s="117"/>
+      <c r="AF116" s="117"/>
+      <c r="AG116" s="117"/>
+      <c r="AH116" s="115"/>
+      <c r="AI116" s="115"/>
+      <c r="AJ116" s="115"/>
+      <c r="AK116" s="115"/>
+      <c r="AL116" s="115"/>
+      <c r="AM116" s="115"/>
+      <c r="AN116" s="115"/>
+      <c r="AO116" s="115"/>
+      <c r="AP116" s="115"/>
+      <c r="AQ116" s="115"/>
+      <c r="AR116" s="118"/>
+      <c r="AS116" s="118"/>
+      <c r="AT116" s="118"/>
+      <c r="AU116" s="118"/>
+      <c r="AV116" s="118"/>
+      <c r="AW116" s="115"/>
+      <c r="AX116" s="115"/>
+      <c r="AY116" s="115"/>
+      <c r="AZ116" s="115"/>
+      <c r="BA116" s="115"/>
+      <c r="BB116" s="115"/>
+      <c r="BC116" s="115"/>
+      <c r="BD116" s="115"/>
+      <c r="BE116" s="115"/>
+      <c r="BF116" s="115"/>
+      <c r="BG116" s="119"/>
+      <c r="BH116" s="119"/>
+      <c r="BI116" s="119"/>
+      <c r="BJ116" s="119"/>
+      <c r="BK116" s="119"/>
+      <c r="BL116" s="115"/>
+      <c r="BM116" s="115"/>
+      <c r="BN116" s="115"/>
+      <c r="BO116" s="115"/>
+      <c r="BP116" s="115"/>
+      <c r="BQ116" s="115"/>
+      <c r="BR116" s="115"/>
+      <c r="BS116" s="115"/>
+      <c r="BT116" s="115"/>
+      <c r="BU116" s="115"/>
+      <c r="BV116" s="115"/>
+      <c r="BW116" s="115"/>
+      <c r="BX116" s="115"/>
+      <c r="BY116" s="115"/>
+      <c r="BZ116" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:W9"/>
-    <mergeCell ref="X9:AL9"/>
-    <mergeCell ref="AM9:BA9"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AL10"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AR10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="BB9:BZ9"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="N10:R10"/>
@@ -11855,10 +11913,30 @@
     <mergeCell ref="BQ10:BU10"/>
     <mergeCell ref="BV10:BZ10"/>
     <mergeCell ref="S10:W10"/>
+    <mergeCell ref="AM9:BA9"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AH10:AL10"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="AR10:AV10"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:W9"/>
+    <mergeCell ref="X9:AL9"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
-  <conditionalFormatting sqref="H12:H21 H23:H115">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="H12:H21 H23:H116">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11867,8 +11945,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H21 H23:H115">
-    <cfRule type="colorScale" priority="13">
+  <conditionalFormatting sqref="H12:H21 H23:H116">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11883,6 +11961,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7EF2104F2CEFE4DACFBF5BA7D93FB4D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb0ed258f694207805e211ca255f9b46">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6b71f768-6d8b-468c-a986-1e1afc74f0e3" xmlns:ns4="d07d918a-d172-4450-8f4a-7b087689ff85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c03c9fe975be0719773112499dde791" ns3:_="" ns4:_="">
     <xsd:import namespace="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
@@ -12111,36 +12204,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABC364-430D-422C-AD85-145699D2125C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
-    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12163,9 +12230,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABC364-430D-422C-AD85-145699D2125C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
+    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/planningdocuments/gannt/GanttChart_POS_9.xlsx
+++ b/docs/planningdocuments/gannt/GanttChart_POS_9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CPS353-POS\docs\planningdocuments\gannt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/planningdocuments/gannt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB277CE-D411-462B-B8AA-F68179E6CC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B54FF2F-C912-DA4B-947B-7B852691CD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31080" yWindow="1780" windowWidth="23260" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="142">
   <si>
     <t>GANTT CHART</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>W14 12/5/2022</t>
+  </si>
+  <si>
+    <t>Meet with Denizard to Discuss Tables in XAMPP</t>
   </si>
 </sst>
 </file>
@@ -1542,6 +1545,30 @@
     <xf numFmtId="0" fontId="27" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1556,14 +1583,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1572,25 +1594,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1913,24 +1916,24 @@
   </sheetPr>
   <dimension ref="A1:BZ116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="33" width="3.44140625" hidden="1" customWidth="1"/>
-    <col min="34" max="78" width="3.44140625" customWidth="1"/>
+    <col min="9" max="33" width="3.5" hidden="1" customWidth="1"/>
+    <col min="34" max="78" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2010,40 +2013,40 @@
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
-    <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="154"/>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="168"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="166"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
       <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
@@ -2092,7 +2095,7 @@
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
-    <row r="3" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -2172,43 +2175,43 @@
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
     </row>
-    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="159" t="s">
+      <c r="C4" s="159"/>
+      <c r="D4" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="157" t="s">
+      <c r="I4" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="158"/>
-      <c r="P4" s="161" t="s">
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
+      <c r="P4" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="160"/>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="160"/>
-      <c r="Z4" s="160"/>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="160"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161"/>
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -2260,42 +2263,42 @@
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
     </row>
-    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="158" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="158"/>
-      <c r="D5" s="171" t="s">
+      <c r="C5" s="159"/>
+      <c r="D5" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="157" t="s">
+      <c r="I5" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="158"/>
-      <c r="K5" s="158"/>
-      <c r="L5" s="158"/>
-      <c r="M5" s="158"/>
-      <c r="N5" s="158"/>
-      <c r="O5" s="158"/>
-      <c r="P5" s="172">
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="162">
         <v>44858</v>
       </c>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="160"/>
-      <c r="S5" s="160"/>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
-      <c r="X5" s="160"/>
-      <c r="Y5" s="160"/>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="160"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="161"/>
+      <c r="S5" s="161"/>
+      <c r="T5" s="161"/>
+      <c r="U5" s="161"/>
+      <c r="V5" s="161"/>
+      <c r="W5" s="161"/>
+      <c r="X5" s="161"/>
+      <c r="Y5" s="161"/>
+      <c r="Z5" s="161"/>
+      <c r="AA5" s="161"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -2348,7 +2351,7 @@
       <c r="BY5" s="1"/>
       <c r="BZ5" s="1"/>
     </row>
-    <row r="6" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21"/>
       <c r="B6" s="48" t="s">
         <v>44</v>
@@ -2432,7 +2435,7 @@
       <c r="BY6" s="21"/>
       <c r="BZ6" s="21"/>
     </row>
-    <row r="7" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="s">
         <v>45</v>
@@ -2516,7 +2519,7 @@
       <c r="BY7" s="21"/>
       <c r="BZ7" s="21"/>
     </row>
-    <row r="8" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -2596,209 +2599,209 @@
       <c r="BY8" s="21"/>
       <c r="BZ8" s="21"/>
     </row>
-    <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="24"/>
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="151" t="s">
+      <c r="D9" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="151" t="s">
+      <c r="E9" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="151" t="s">
+      <c r="F9" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="151" t="s">
+      <c r="G9" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="162" t="s">
+      <c r="H9" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="164"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="165"/>
-      <c r="N9" s="165"/>
-      <c r="O9" s="165"/>
-      <c r="P9" s="165"/>
-      <c r="Q9" s="165"/>
-      <c r="R9" s="165"/>
-      <c r="S9" s="165"/>
-      <c r="T9" s="165"/>
-      <c r="U9" s="165"/>
-      <c r="V9" s="165"/>
-      <c r="W9" s="165"/>
-      <c r="X9" s="166"/>
-      <c r="Y9" s="165"/>
-      <c r="Z9" s="165"/>
-      <c r="AA9" s="165"/>
-      <c r="AB9" s="165"/>
-      <c r="AC9" s="165"/>
-      <c r="AD9" s="165"/>
-      <c r="AE9" s="165"/>
-      <c r="AF9" s="165"/>
-      <c r="AG9" s="165"/>
-      <c r="AH9" s="165"/>
-      <c r="AI9" s="165"/>
-      <c r="AJ9" s="165"/>
-      <c r="AK9" s="165"/>
-      <c r="AL9" s="165"/>
-      <c r="AM9" s="166"/>
-      <c r="AN9" s="165"/>
-      <c r="AO9" s="165"/>
-      <c r="AP9" s="165"/>
-      <c r="AQ9" s="165"/>
-      <c r="AR9" s="165"/>
-      <c r="AS9" s="165"/>
-      <c r="AT9" s="165"/>
-      <c r="AU9" s="165"/>
-      <c r="AV9" s="165"/>
-      <c r="AW9" s="165"/>
-      <c r="AX9" s="165"/>
-      <c r="AY9" s="165"/>
-      <c r="AZ9" s="165"/>
-      <c r="BA9" s="165"/>
-      <c r="BB9" s="166"/>
-      <c r="BC9" s="165"/>
-      <c r="BD9" s="165"/>
-      <c r="BE9" s="165"/>
-      <c r="BF9" s="165"/>
-      <c r="BG9" s="165"/>
-      <c r="BH9" s="165"/>
-      <c r="BI9" s="165"/>
-      <c r="BJ9" s="165"/>
-      <c r="BK9" s="165"/>
-      <c r="BL9" s="165"/>
-      <c r="BM9" s="165"/>
-      <c r="BN9" s="165"/>
-      <c r="BO9" s="165"/>
-      <c r="BP9" s="165"/>
-      <c r="BQ9" s="165"/>
-      <c r="BR9" s="165"/>
-      <c r="BS9" s="165"/>
-      <c r="BT9" s="165"/>
-      <c r="BU9" s="165"/>
-      <c r="BV9" s="165"/>
-      <c r="BW9" s="165"/>
-      <c r="BX9" s="165"/>
-      <c r="BY9" s="165"/>
-      <c r="BZ9" s="170"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="153"/>
+      <c r="O9" s="153"/>
+      <c r="P9" s="153"/>
+      <c r="Q9" s="153"/>
+      <c r="R9" s="153"/>
+      <c r="S9" s="153"/>
+      <c r="T9" s="153"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="153"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="152"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="153"/>
+      <c r="AA9" s="153"/>
+      <c r="AB9" s="153"/>
+      <c r="AC9" s="153"/>
+      <c r="AD9" s="153"/>
+      <c r="AE9" s="153"/>
+      <c r="AF9" s="153"/>
+      <c r="AG9" s="153"/>
+      <c r="AH9" s="153"/>
+      <c r="AI9" s="153"/>
+      <c r="AJ9" s="153"/>
+      <c r="AK9" s="153"/>
+      <c r="AL9" s="153"/>
+      <c r="AM9" s="152"/>
+      <c r="AN9" s="153"/>
+      <c r="AO9" s="153"/>
+      <c r="AP9" s="153"/>
+      <c r="AQ9" s="153"/>
+      <c r="AR9" s="153"/>
+      <c r="AS9" s="153"/>
+      <c r="AT9" s="153"/>
+      <c r="AU9" s="153"/>
+      <c r="AV9" s="153"/>
+      <c r="AW9" s="153"/>
+      <c r="AX9" s="153"/>
+      <c r="AY9" s="153"/>
+      <c r="AZ9" s="153"/>
+      <c r="BA9" s="153"/>
+      <c r="BB9" s="152"/>
+      <c r="BC9" s="153"/>
+      <c r="BD9" s="153"/>
+      <c r="BE9" s="153"/>
+      <c r="BF9" s="153"/>
+      <c r="BG9" s="153"/>
+      <c r="BH9" s="153"/>
+      <c r="BI9" s="153"/>
+      <c r="BJ9" s="153"/>
+      <c r="BK9" s="153"/>
+      <c r="BL9" s="153"/>
+      <c r="BM9" s="153"/>
+      <c r="BN9" s="153"/>
+      <c r="BO9" s="153"/>
+      <c r="BP9" s="153"/>
+      <c r="BQ9" s="153"/>
+      <c r="BR9" s="153"/>
+      <c r="BS9" s="153"/>
+      <c r="BT9" s="153"/>
+      <c r="BU9" s="153"/>
+      <c r="BV9" s="153"/>
+      <c r="BW9" s="153"/>
+      <c r="BX9" s="153"/>
+      <c r="BY9" s="153"/>
+      <c r="BZ9" s="154"/>
     </row>
-    <row r="10" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25"/>
-      <c r="B10" s="152"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="167" t="s">
+      <c r="B10" s="164"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="168"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="169"/>
-      <c r="N10" s="167" t="s">
+      <c r="J10" s="156"/>
+      <c r="K10" s="156"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="157"/>
+      <c r="N10" s="155" t="s">
         <v>96</v>
       </c>
-      <c r="O10" s="168"/>
-      <c r="P10" s="168"/>
-      <c r="Q10" s="168"/>
-      <c r="R10" s="169"/>
-      <c r="S10" s="167" t="s">
+      <c r="O10" s="156"/>
+      <c r="P10" s="156"/>
+      <c r="Q10" s="156"/>
+      <c r="R10" s="157"/>
+      <c r="S10" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="T10" s="168"/>
-      <c r="U10" s="168"/>
-      <c r="V10" s="168"/>
-      <c r="W10" s="169"/>
-      <c r="X10" s="167" t="s">
+      <c r="T10" s="156"/>
+      <c r="U10" s="156"/>
+      <c r="V10" s="156"/>
+      <c r="W10" s="157"/>
+      <c r="X10" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="Y10" s="168"/>
-      <c r="Z10" s="168"/>
-      <c r="AA10" s="168"/>
-      <c r="AB10" s="169"/>
-      <c r="AC10" s="167" t="s">
+      <c r="Y10" s="156"/>
+      <c r="Z10" s="156"/>
+      <c r="AA10" s="156"/>
+      <c r="AB10" s="157"/>
+      <c r="AC10" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="AD10" s="168"/>
-      <c r="AE10" s="168"/>
-      <c r="AF10" s="168"/>
-      <c r="AG10" s="169"/>
-      <c r="AH10" s="167" t="s">
+      <c r="AD10" s="156"/>
+      <c r="AE10" s="156"/>
+      <c r="AF10" s="156"/>
+      <c r="AG10" s="157"/>
+      <c r="AH10" s="155" t="s">
         <v>81</v>
       </c>
-      <c r="AI10" s="168"/>
-      <c r="AJ10" s="168"/>
-      <c r="AK10" s="168"/>
-      <c r="AL10" s="169"/>
-      <c r="AM10" s="167" t="s">
+      <c r="AI10" s="156"/>
+      <c r="AJ10" s="156"/>
+      <c r="AK10" s="156"/>
+      <c r="AL10" s="157"/>
+      <c r="AM10" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="AN10" s="168"/>
-      <c r="AO10" s="168"/>
-      <c r="AP10" s="168"/>
-      <c r="AQ10" s="169"/>
-      <c r="AR10" s="167" t="s">
+      <c r="AN10" s="156"/>
+      <c r="AO10" s="156"/>
+      <c r="AP10" s="156"/>
+      <c r="AQ10" s="157"/>
+      <c r="AR10" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="AS10" s="168"/>
-      <c r="AT10" s="168"/>
-      <c r="AU10" s="168"/>
-      <c r="AV10" s="169"/>
-      <c r="AW10" s="167" t="s">
+      <c r="AS10" s="156"/>
+      <c r="AT10" s="156"/>
+      <c r="AU10" s="156"/>
+      <c r="AV10" s="157"/>
+      <c r="AW10" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="AX10" s="168"/>
-      <c r="AY10" s="168"/>
-      <c r="AZ10" s="168"/>
-      <c r="BA10" s="169"/>
-      <c r="BB10" s="167" t="s">
+      <c r="AX10" s="156"/>
+      <c r="AY10" s="156"/>
+      <c r="AZ10" s="156"/>
+      <c r="BA10" s="157"/>
+      <c r="BB10" s="155" t="s">
         <v>136</v>
       </c>
-      <c r="BC10" s="168"/>
-      <c r="BD10" s="168"/>
-      <c r="BE10" s="168"/>
-      <c r="BF10" s="169"/>
-      <c r="BG10" s="167" t="s">
+      <c r="BC10" s="156"/>
+      <c r="BD10" s="156"/>
+      <c r="BE10" s="156"/>
+      <c r="BF10" s="157"/>
+      <c r="BG10" s="155" t="s">
         <v>137</v>
       </c>
-      <c r="BH10" s="168"/>
-      <c r="BI10" s="168"/>
-      <c r="BJ10" s="168"/>
-      <c r="BK10" s="169"/>
-      <c r="BL10" s="167" t="s">
+      <c r="BH10" s="156"/>
+      <c r="BI10" s="156"/>
+      <c r="BJ10" s="156"/>
+      <c r="BK10" s="157"/>
+      <c r="BL10" s="155" t="s">
         <v>138</v>
       </c>
-      <c r="BM10" s="168"/>
-      <c r="BN10" s="168"/>
-      <c r="BO10" s="168"/>
-      <c r="BP10" s="169"/>
-      <c r="BQ10" s="167" t="s">
+      <c r="BM10" s="156"/>
+      <c r="BN10" s="156"/>
+      <c r="BO10" s="156"/>
+      <c r="BP10" s="157"/>
+      <c r="BQ10" s="155" t="s">
         <v>139</v>
       </c>
-      <c r="BR10" s="168"/>
-      <c r="BS10" s="168"/>
-      <c r="BT10" s="168"/>
-      <c r="BU10" s="169"/>
-      <c r="BV10" s="167" t="s">
+      <c r="BR10" s="156"/>
+      <c r="BS10" s="156"/>
+      <c r="BT10" s="156"/>
+      <c r="BU10" s="157"/>
+      <c r="BV10" s="155" t="s">
         <v>140</v>
       </c>
-      <c r="BW10" s="168"/>
-      <c r="BX10" s="168"/>
-      <c r="BY10" s="168"/>
-      <c r="BZ10" s="169"/>
+      <c r="BW10" s="156"/>
+      <c r="BX10" s="156"/>
+      <c r="BY10" s="156"/>
+      <c r="BZ10" s="157"/>
     </row>
-    <row r="11" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="26">
         <v>1</v>
@@ -3022,7 +3025,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A12" s="32"/>
       <c r="B12" s="33">
         <v>1.1000000000000001</v>
@@ -3117,7 +3120,7 @@
       <c r="BY12" s="38"/>
       <c r="BZ12" s="38"/>
     </row>
-    <row r="13" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32"/>
       <c r="B13" s="33" t="s">
         <v>12</v>
@@ -3212,7 +3215,7 @@
       <c r="BY13" s="38"/>
       <c r="BZ13" s="38"/>
     </row>
-    <row r="14" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A14" s="32"/>
       <c r="B14" s="33">
         <v>1.2</v>
@@ -3307,7 +3310,7 @@
       <c r="BY14" s="38"/>
       <c r="BZ14" s="38"/>
     </row>
-    <row r="15" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A15" s="32"/>
       <c r="B15" s="33">
         <v>1.3</v>
@@ -3402,7 +3405,7 @@
       <c r="BY15" s="38"/>
       <c r="BZ15" s="38"/>
     </row>
-    <row r="16" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A16" s="32"/>
       <c r="B16" s="33">
         <v>1.4</v>
@@ -3497,7 +3500,7 @@
       <c r="BY16" s="38"/>
       <c r="BZ16" s="38"/>
     </row>
-    <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A17" s="32"/>
       <c r="B17" s="33">
         <v>1.5</v>
@@ -3592,7 +3595,7 @@
       <c r="BY17" s="38"/>
       <c r="BZ17" s="38"/>
     </row>
-    <row r="18" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A18" s="32"/>
       <c r="B18" s="33">
         <v>1.6</v>
@@ -3687,7 +3690,7 @@
       <c r="BY18" s="38"/>
       <c r="BZ18" s="38"/>
     </row>
-    <row r="19" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A19" s="32"/>
       <c r="B19" s="33">
         <v>1.7</v>
@@ -3782,7 +3785,7 @@
       <c r="BY19" s="38"/>
       <c r="BZ19" s="38"/>
     </row>
-    <row r="20" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A20" s="32"/>
       <c r="B20" s="33"/>
       <c r="C20" s="34"/>
@@ -3862,7 +3865,7 @@
       <c r="BY20" s="38"/>
       <c r="BZ20" s="38"/>
     </row>
-    <row r="21" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A21" s="32"/>
       <c r="B21" s="33"/>
       <c r="C21" s="34"/>
@@ -3942,7 +3945,7 @@
       <c r="BY21" s="38"/>
       <c r="BZ21" s="38"/>
     </row>
-    <row r="22" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="21"/>
       <c r="B22" s="26">
         <v>2</v>
@@ -4026,7 +4029,7 @@
       <c r="BY22" s="29"/>
       <c r="BZ22" s="29"/>
     </row>
-    <row r="23" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A23" s="32"/>
       <c r="B23" s="33">
         <v>2.1</v>
@@ -4116,7 +4119,7 @@
       <c r="BY23" s="38"/>
       <c r="BZ23" s="38"/>
     </row>
-    <row r="24" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A24" s="32"/>
       <c r="B24" s="33">
         <v>2.2000000000000002</v>
@@ -4207,7 +4210,7 @@
       <c r="BY24" s="38"/>
       <c r="BZ24" s="38"/>
     </row>
-    <row r="25" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A25" s="32"/>
       <c r="B25" s="33">
         <v>2.2999999999999998</v>
@@ -4298,7 +4301,7 @@
       <c r="BY25" s="38"/>
       <c r="BZ25" s="38"/>
     </row>
-    <row r="26" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A26" s="32"/>
       <c r="B26" s="33" t="s">
         <v>13</v>
@@ -4388,7 +4391,7 @@
       <c r="BY26" s="38"/>
       <c r="BZ26" s="38"/>
     </row>
-    <row r="27" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A27" s="32"/>
       <c r="B27" s="33">
         <v>2.4</v>
@@ -4479,7 +4482,7 @@
       <c r="BY27" s="38"/>
       <c r="BZ27" s="38"/>
     </row>
-    <row r="28" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A28" s="32"/>
       <c r="B28" s="33">
         <v>2.5</v>
@@ -4570,7 +4573,7 @@
       <c r="BY28" s="38"/>
       <c r="BZ28" s="38"/>
     </row>
-    <row r="29" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A29" s="32"/>
       <c r="B29" s="33">
         <v>2.6</v>
@@ -4660,7 +4663,7 @@
       <c r="BY29" s="38"/>
       <c r="BZ29" s="38"/>
     </row>
-    <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A30" s="32"/>
       <c r="B30" s="33">
         <v>2.7</v>
@@ -4751,7 +4754,7 @@
       <c r="BY30" s="38"/>
       <c r="BZ30" s="38"/>
     </row>
-    <row r="31" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A31" s="32"/>
       <c r="B31" s="33">
         <v>2.8</v>
@@ -4842,7 +4845,7 @@
       <c r="BY31" s="38"/>
       <c r="BZ31" s="38"/>
     </row>
-    <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A32" s="32"/>
       <c r="B32" s="33">
         <v>2.9</v>
@@ -4932,7 +4935,7 @@
       <c r="BY32" s="38"/>
       <c r="BZ32" s="38"/>
     </row>
-    <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A33" s="32"/>
       <c r="B33" s="46">
         <v>2.1</v>
@@ -5022,7 +5025,7 @@
       <c r="BY33" s="38"/>
       <c r="BZ33" s="38"/>
     </row>
-    <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A34" s="32"/>
       <c r="B34" s="46">
         <v>2.11</v>
@@ -5104,7 +5107,7 @@
       <c r="BY34" s="38"/>
       <c r="BZ34" s="38"/>
     </row>
-    <row r="35" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="26">
         <v>3</v>
@@ -5188,7 +5191,7 @@
       <c r="BY35" s="29"/>
       <c r="BZ35" s="29"/>
     </row>
-    <row r="36" spans="1:78" s="75" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:78" s="75" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="78"/>
       <c r="B36" s="79"/>
       <c r="C36" s="80" t="s">
@@ -5270,7 +5273,7 @@
       <c r="BY36" s="82"/>
       <c r="BZ36" s="82"/>
     </row>
-    <row r="37" spans="1:78" s="105" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:78" s="105" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="134"/>
       <c r="B37" s="135"/>
       <c r="C37" s="136" t="s">
@@ -5352,7 +5355,7 @@
       <c r="BY37" s="138"/>
       <c r="BZ37" s="138"/>
     </row>
-    <row r="38" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="85"/>
       <c r="C38" s="120" t="s">
@@ -5434,7 +5437,7 @@
       <c r="BY38" s="88"/>
       <c r="BZ38" s="88"/>
     </row>
-    <row r="39" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="85"/>
       <c r="C39" s="120" t="s">
@@ -5515,7 +5518,7 @@
       <c r="BY39" s="88"/>
       <c r="BZ39" s="88"/>
     </row>
-    <row r="40" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="85"/>
       <c r="C40" s="120" t="s">
@@ -5597,7 +5600,7 @@
       <c r="BY40" s="88"/>
       <c r="BZ40" s="88"/>
     </row>
-    <row r="41" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="85"/>
       <c r="C41" s="120" t="s">
@@ -5679,7 +5682,7 @@
       <c r="BY41" s="88"/>
       <c r="BZ41" s="88"/>
     </row>
-    <row r="42" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="85"/>
       <c r="C42" s="120" t="s">
@@ -5761,7 +5764,7 @@
       <c r="BY42" s="88"/>
       <c r="BZ42" s="88"/>
     </row>
-    <row r="43" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="85"/>
       <c r="C43" s="120"/>
@@ -5841,7 +5844,7 @@
       <c r="BY43" s="88"/>
       <c r="BZ43" s="88"/>
     </row>
-    <row r="44" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="85"/>
       <c r="C44" s="120"/>
@@ -5921,7 +5924,7 @@
       <c r="BY44" s="88"/>
       <c r="BZ44" s="88"/>
     </row>
-    <row r="45" spans="1:78" s="105" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:78" s="105" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="134"/>
       <c r="B45" s="142"/>
       <c r="C45" s="143" t="s">
@@ -6003,7 +6006,7 @@
       <c r="BY45" s="141"/>
       <c r="BZ45" s="141"/>
     </row>
-    <row r="46" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="85"/>
       <c r="C46" s="120" t="s">
@@ -6085,7 +6088,7 @@
       <c r="BY46" s="88"/>
       <c r="BZ46" s="88"/>
     </row>
-    <row r="47" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="85"/>
       <c r="C47" s="120" t="s">
@@ -6167,7 +6170,7 @@
       <c r="BY47" s="88"/>
       <c r="BZ47" s="88"/>
     </row>
-    <row r="48" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="85"/>
       <c r="C48" s="120" t="s">
@@ -6210,14 +6213,14 @@
       <c r="AL48" s="88"/>
       <c r="AM48" s="88"/>
       <c r="AN48" s="88"/>
-      <c r="AO48" s="173"/>
-      <c r="AP48" s="173"/>
-      <c r="AQ48" s="173"/>
-      <c r="AR48" s="173"/>
-      <c r="AS48" s="173"/>
-      <c r="AT48" s="173"/>
-      <c r="AU48" s="173"/>
-      <c r="AV48" s="173"/>
+      <c r="AO48" s="151"/>
+      <c r="AP48" s="151"/>
+      <c r="AQ48" s="151"/>
+      <c r="AR48" s="151"/>
+      <c r="AS48" s="151"/>
+      <c r="AT48" s="151"/>
+      <c r="AU48" s="151"/>
+      <c r="AV48" s="151"/>
       <c r="AW48" s="121"/>
       <c r="AX48" s="121"/>
       <c r="AY48" s="121"/>
@@ -6249,7 +6252,7 @@
       <c r="BY48" s="88"/>
       <c r="BZ48" s="88"/>
     </row>
-    <row r="49" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="85"/>
       <c r="C49" s="120"/>
@@ -6290,14 +6293,14 @@
       <c r="AL49" s="88"/>
       <c r="AM49" s="88"/>
       <c r="AN49" s="88"/>
-      <c r="AO49" s="173"/>
-      <c r="AP49" s="173"/>
-      <c r="AQ49" s="173"/>
-      <c r="AR49" s="173"/>
-      <c r="AS49" s="173"/>
-      <c r="AT49" s="173"/>
-      <c r="AU49" s="173"/>
-      <c r="AV49" s="173"/>
+      <c r="AO49" s="151"/>
+      <c r="AP49" s="151"/>
+      <c r="AQ49" s="151"/>
+      <c r="AR49" s="151"/>
+      <c r="AS49" s="151"/>
+      <c r="AT49" s="151"/>
+      <c r="AU49" s="151"/>
+      <c r="AV49" s="151"/>
       <c r="AW49" s="88"/>
       <c r="AX49" s="88"/>
       <c r="AY49" s="88"/>
@@ -6329,7 +6332,7 @@
       <c r="BY49" s="88"/>
       <c r="BZ49" s="88"/>
     </row>
-    <row r="50" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
       <c r="B50" s="85"/>
       <c r="C50" s="120"/>
@@ -6370,14 +6373,14 @@
       <c r="AL50" s="88"/>
       <c r="AM50" s="88"/>
       <c r="AN50" s="88"/>
-      <c r="AO50" s="173"/>
-      <c r="AP50" s="173"/>
-      <c r="AQ50" s="173"/>
-      <c r="AR50" s="173"/>
-      <c r="AS50" s="173"/>
-      <c r="AT50" s="173"/>
-      <c r="AU50" s="173"/>
-      <c r="AV50" s="173"/>
+      <c r="AO50" s="151"/>
+      <c r="AP50" s="151"/>
+      <c r="AQ50" s="151"/>
+      <c r="AR50" s="151"/>
+      <c r="AS50" s="151"/>
+      <c r="AT50" s="151"/>
+      <c r="AU50" s="151"/>
+      <c r="AV50" s="151"/>
       <c r="AW50" s="88"/>
       <c r="AX50" s="88"/>
       <c r="AY50" s="88"/>
@@ -6409,7 +6412,7 @@
       <c r="BY50" s="88"/>
       <c r="BZ50" s="88"/>
     </row>
-    <row r="51" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
       <c r="B51" s="85"/>
       <c r="C51" s="86"/>
@@ -6489,7 +6492,7 @@
       <c r="BY51" s="88"/>
       <c r="BZ51" s="88"/>
     </row>
-    <row r="52" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
       <c r="B52" s="85"/>
       <c r="C52" s="86"/>
@@ -6569,7 +6572,7 @@
       <c r="BY52" s="88"/>
       <c r="BZ52" s="88"/>
     </row>
-    <row r="53" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A53" s="72"/>
       <c r="B53" s="73"/>
       <c r="C53" s="76" t="s">
@@ -6651,7 +6654,7 @@
       <c r="BY53" s="67"/>
       <c r="BZ53" s="67"/>
     </row>
-    <row r="54" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A54" s="32"/>
       <c r="B54" s="53"/>
       <c r="C54" s="56" t="s">
@@ -6733,7 +6736,7 @@
       <c r="BY54" s="38"/>
       <c r="BZ54" s="38"/>
     </row>
-    <row r="55" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A55" s="32"/>
       <c r="B55" s="53"/>
       <c r="C55" s="56" t="s">
@@ -6815,7 +6818,7 @@
       <c r="BY55" s="38"/>
       <c r="BZ55" s="38"/>
     </row>
-    <row r="56" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A56" s="32"/>
       <c r="B56" s="53"/>
       <c r="C56" s="56" t="s">
@@ -6897,7 +6900,7 @@
       <c r="BY56" s="38"/>
       <c r="BZ56" s="38"/>
     </row>
-    <row r="57" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A57" s="32"/>
       <c r="B57" s="53"/>
       <c r="C57" s="56" t="s">
@@ -6979,7 +6982,7 @@
       <c r="BY57" s="38"/>
       <c r="BZ57" s="38"/>
     </row>
-    <row r="58" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A58" s="32"/>
       <c r="B58" s="53"/>
       <c r="C58" s="56" t="s">
@@ -7061,7 +7064,7 @@
       <c r="BY58" s="38"/>
       <c r="BZ58" s="38"/>
     </row>
-    <row r="59" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A59" s="32"/>
       <c r="B59" s="53"/>
       <c r="C59" s="56" t="s">
@@ -7142,7 +7145,7 @@
       <c r="BY59" s="38"/>
       <c r="BZ59" s="38"/>
     </row>
-    <row r="60" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A60" s="32"/>
       <c r="B60" s="53"/>
       <c r="C60" s="56" t="s">
@@ -7224,7 +7227,7 @@
       <c r="BY60" s="38"/>
       <c r="BZ60" s="38"/>
     </row>
-    <row r="61" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A61" s="32"/>
       <c r="B61" s="53"/>
       <c r="C61" s="56" t="s">
@@ -7306,7 +7309,7 @@
       <c r="BY61" s="38"/>
       <c r="BZ61" s="38"/>
     </row>
-    <row r="62" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A62" s="32"/>
       <c r="B62" s="53"/>
       <c r="C62" s="56" t="s">
@@ -7388,7 +7391,7 @@
       <c r="BY62" s="38"/>
       <c r="BZ62" s="38"/>
     </row>
-    <row r="63" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A63" s="32"/>
       <c r="B63" s="53"/>
       <c r="C63" s="56" t="s">
@@ -7470,7 +7473,7 @@
       <c r="BY63" s="38"/>
       <c r="BZ63" s="38"/>
     </row>
-    <row r="64" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A64" s="32"/>
       <c r="B64" s="53"/>
       <c r="C64" s="56" t="s">
@@ -7552,7 +7555,7 @@
       <c r="BY64" s="38"/>
       <c r="BZ64" s="38"/>
     </row>
-    <row r="65" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A65" s="32"/>
       <c r="B65" s="53"/>
       <c r="C65" s="56" t="s">
@@ -7634,7 +7637,7 @@
       <c r="BY65" s="38"/>
       <c r="BZ65" s="38"/>
     </row>
-    <row r="66" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A66" s="32"/>
       <c r="B66" s="53"/>
       <c r="C66" s="56" t="s">
@@ -7716,7 +7719,7 @@
       <c r="BY66" s="38"/>
       <c r="BZ66" s="38"/>
     </row>
-    <row r="67" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A67" s="32"/>
       <c r="B67" s="53"/>
       <c r="C67" s="56"/>
@@ -7796,7 +7799,7 @@
       <c r="BY67" s="38"/>
       <c r="BZ67" s="38"/>
     </row>
-    <row r="68" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A68" s="32"/>
       <c r="B68" s="53"/>
       <c r="C68" s="56"/>
@@ -7876,7 +7879,7 @@
       <c r="BY68" s="38"/>
       <c r="BZ68" s="38"/>
     </row>
-    <row r="69" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A69" s="32"/>
       <c r="B69" s="59"/>
       <c r="C69" s="60" t="s">
@@ -7958,7 +7961,7 @@
       <c r="BY69" s="67"/>
       <c r="BZ69" s="67"/>
     </row>
-    <row r="70" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A70" s="32"/>
       <c r="B70" s="53"/>
       <c r="C70" s="56" t="s">
@@ -8040,7 +8043,7 @@
       <c r="BY70" s="38"/>
       <c r="BZ70" s="38"/>
     </row>
-    <row r="71" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A71" s="32"/>
       <c r="B71" s="53"/>
       <c r="C71" s="56" t="s">
@@ -8122,7 +8125,7 @@
       <c r="BY71" s="38"/>
       <c r="BZ71" s="38"/>
     </row>
-    <row r="72" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A72" s="32"/>
       <c r="B72" s="53"/>
       <c r="C72" s="56" t="s">
@@ -8204,7 +8207,7 @@
       <c r="BY72" s="38"/>
       <c r="BZ72" s="38"/>
     </row>
-    <row r="73" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A73" s="32"/>
       <c r="B73" s="53"/>
       <c r="C73" s="56" t="s">
@@ -8286,7 +8289,7 @@
       <c r="BY73" s="38"/>
       <c r="BZ73" s="38"/>
     </row>
-    <row r="74" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A74" s="32"/>
       <c r="B74" s="53"/>
       <c r="C74" s="56" t="s">
@@ -8368,7 +8371,7 @@
       <c r="BY74" s="38"/>
       <c r="BZ74" s="38"/>
     </row>
-    <row r="75" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A75" s="32"/>
       <c r="B75" s="53"/>
       <c r="C75" s="56" t="s">
@@ -8450,7 +8453,7 @@
       <c r="BY75" s="38"/>
       <c r="BZ75" s="38"/>
     </row>
-    <row r="76" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A76" s="32"/>
       <c r="B76" s="53"/>
       <c r="C76" s="56" t="s">
@@ -8532,7 +8535,7 @@
       <c r="BY76" s="38"/>
       <c r="BZ76" s="38"/>
     </row>
-    <row r="77" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A77" s="32"/>
       <c r="B77" s="53"/>
       <c r="C77" s="56" t="s">
@@ -8614,7 +8617,7 @@
       <c r="BY77" s="38"/>
       <c r="BZ77" s="38"/>
     </row>
-    <row r="78" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A78" s="32"/>
       <c r="B78" s="53"/>
       <c r="C78" s="56"/>
@@ -8694,7 +8697,7 @@
       <c r="BY78" s="38"/>
       <c r="BZ78" s="38"/>
     </row>
-    <row r="79" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A79" s="72"/>
       <c r="B79" s="59"/>
       <c r="C79" s="60" t="s">
@@ -8776,7 +8779,7 @@
       <c r="BY79" s="67"/>
       <c r="BZ79" s="67"/>
     </row>
-    <row r="80" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A80" s="91"/>
       <c r="B80" s="92"/>
       <c r="C80" s="93" t="s">
@@ -8858,7 +8861,7 @@
       <c r="BY80" s="100"/>
       <c r="BZ80" s="100"/>
     </row>
-    <row r="81" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A81" s="32"/>
       <c r="B81" s="53"/>
       <c r="C81" s="56" t="s">
@@ -8940,7 +8943,7 @@
       <c r="BY81" s="38"/>
       <c r="BZ81" s="38"/>
     </row>
-    <row r="82" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A82" s="32"/>
       <c r="B82" s="53"/>
       <c r="C82" s="56" t="s">
@@ -9022,7 +9025,7 @@
       <c r="BY82" s="38"/>
       <c r="BZ82" s="38"/>
     </row>
-    <row r="83" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A83" s="32"/>
       <c r="B83" s="53"/>
       <c r="C83" s="56" t="s">
@@ -9104,7 +9107,7 @@
       <c r="BY83" s="38"/>
       <c r="BZ83" s="38"/>
     </row>
-    <row r="84" spans="1:78" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:78" ht="16.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A84" s="32"/>
       <c r="B84" s="53"/>
       <c r="C84" s="56" t="s">
@@ -9186,7 +9189,7 @@
       <c r="BY84" s="38"/>
       <c r="BZ84" s="38"/>
     </row>
-    <row r="85" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A85" s="32"/>
       <c r="B85" s="53"/>
       <c r="C85" s="56" t="s">
@@ -9268,7 +9271,7 @@
       <c r="BY85" s="38"/>
       <c r="BZ85" s="38"/>
     </row>
-    <row r="86" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A86" s="32"/>
       <c r="B86" s="53"/>
       <c r="C86" s="56" t="s">
@@ -9350,7 +9353,7 @@
       <c r="BY86" s="38"/>
       <c r="BZ86" s="38"/>
     </row>
-    <row r="87" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A87" s="32"/>
       <c r="B87" s="53"/>
       <c r="C87" s="56" t="s">
@@ -9432,7 +9435,7 @@
       <c r="BY87" s="38"/>
       <c r="BZ87" s="38"/>
     </row>
-    <row r="88" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A88" s="32"/>
       <c r="B88" s="53"/>
       <c r="C88" s="56" t="s">
@@ -9514,7 +9517,7 @@
       <c r="BY88" s="38"/>
       <c r="BZ88" s="38"/>
     </row>
-    <row r="89" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A89" s="32"/>
       <c r="B89" s="53"/>
       <c r="C89" s="57" t="s">
@@ -9596,7 +9599,7 @@
       <c r="BY89" s="38"/>
       <c r="BZ89" s="38"/>
     </row>
-    <row r="90" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A90" s="32"/>
       <c r="B90" s="53"/>
       <c r="C90" s="56" t="s">
@@ -9678,7 +9681,7 @@
       <c r="BY90" s="38"/>
       <c r="BZ90" s="38"/>
     </row>
-    <row r="91" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A91" s="32"/>
       <c r="B91" s="53"/>
       <c r="C91" s="56" t="s">
@@ -9760,7 +9763,7 @@
       <c r="BY91" s="38"/>
       <c r="BZ91" s="38"/>
     </row>
-    <row r="92" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A92" s="32"/>
       <c r="B92" s="53"/>
       <c r="C92" s="56" t="s">
@@ -9842,7 +9845,7 @@
       <c r="BY92" s="38"/>
       <c r="BZ92" s="38"/>
     </row>
-    <row r="93" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A93" s="32"/>
       <c r="B93" s="53"/>
       <c r="C93" s="56" t="s">
@@ -9924,7 +9927,7 @@
       <c r="BY93" s="38"/>
       <c r="BZ93" s="38"/>
     </row>
-    <row r="94" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A94" s="91"/>
       <c r="B94" s="92"/>
       <c r="C94" s="93" t="s">
@@ -10006,7 +10009,7 @@
       <c r="BY94" s="100"/>
       <c r="BZ94" s="100"/>
     </row>
-    <row r="95" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A95" s="32"/>
       <c r="B95" s="53"/>
       <c r="C95" s="56" t="s">
@@ -10088,7 +10091,7 @@
       <c r="BY95" s="38"/>
       <c r="BZ95" s="38"/>
     </row>
-    <row r="96" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A96" s="32"/>
       <c r="B96" s="53"/>
       <c r="C96" s="56" t="s">
@@ -10170,7 +10173,7 @@
       <c r="BY96" s="38"/>
       <c r="BZ96" s="38"/>
     </row>
-    <row r="97" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A97" s="32"/>
       <c r="B97" s="53"/>
       <c r="C97" s="56" t="s">
@@ -10252,10 +10255,12 @@
       <c r="BY97" s="38"/>
       <c r="BZ97" s="38"/>
     </row>
-    <row r="98" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A98" s="32"/>
       <c r="B98" s="53"/>
-      <c r="C98" s="56"/>
+      <c r="C98" s="56" t="s">
+        <v>141</v>
+      </c>
       <c r="D98" s="54"/>
       <c r="E98" s="35"/>
       <c r="F98" s="35"/>
@@ -10332,7 +10337,7 @@
       <c r="BY98" s="38"/>
       <c r="BZ98" s="38"/>
     </row>
-    <row r="99" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A99" s="72"/>
       <c r="B99" s="59"/>
       <c r="C99" s="77" t="s">
@@ -10414,7 +10419,7 @@
       <c r="BY99" s="67"/>
       <c r="BZ99" s="67"/>
     </row>
-    <row r="100" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A100" s="32"/>
       <c r="B100" s="53"/>
       <c r="C100" s="56" t="s">
@@ -10496,7 +10501,7 @@
       <c r="BY100" s="38"/>
       <c r="BZ100" s="38"/>
     </row>
-    <row r="101" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A101" s="32"/>
       <c r="B101" s="53"/>
       <c r="C101" s="56" t="s">
@@ -10578,7 +10583,7 @@
       <c r="BY101" s="38"/>
       <c r="BZ101" s="38"/>
     </row>
-    <row r="102" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A102" s="32"/>
       <c r="B102" s="53"/>
       <c r="C102" s="56" t="s">
@@ -10660,7 +10665,7 @@
       <c r="BY102" s="38"/>
       <c r="BZ102" s="38"/>
     </row>
-    <row r="103" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A103" s="32"/>
       <c r="B103" s="53"/>
       <c r="C103" s="56" t="s">
@@ -10742,7 +10747,7 @@
       <c r="BY103" s="38"/>
       <c r="BZ103" s="38"/>
     </row>
-    <row r="104" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A104" s="32"/>
       <c r="B104" s="53"/>
       <c r="C104" s="56" t="s">
@@ -10824,7 +10829,7 @@
       <c r="BY104" s="38"/>
       <c r="BZ104" s="38"/>
     </row>
-    <row r="105" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A105" s="32"/>
       <c r="B105" s="53"/>
       <c r="C105" s="56"/>
@@ -10904,7 +10909,7 @@
       <c r="BY105" s="38"/>
       <c r="BZ105" s="38"/>
     </row>
-    <row r="106" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A106" s="32"/>
       <c r="B106" s="53"/>
       <c r="C106" s="57"/>
@@ -10984,7 +10989,7 @@
       <c r="BY106" s="38"/>
       <c r="BZ106" s="38"/>
     </row>
-    <row r="107" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B107" s="26">
         <v>4</v>
       </c>
@@ -11067,7 +11072,7 @@
       <c r="BY107" s="29"/>
       <c r="BZ107" s="29"/>
     </row>
-    <row r="108" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="33">
         <v>4.0999999999999996</v>
       </c>
@@ -11161,7 +11166,7 @@
       <c r="BY108" s="38"/>
       <c r="BZ108" s="38"/>
     </row>
-    <row r="109" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B109" s="33">
         <v>4.2</v>
       </c>
@@ -11254,7 +11259,7 @@
       <c r="BY109" s="38"/>
       <c r="BZ109" s="38"/>
     </row>
-    <row r="110" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="33" t="s">
         <v>47</v>
       </c>
@@ -11348,7 +11353,7 @@
       <c r="BY110" s="38"/>
       <c r="BZ110" s="38"/>
     </row>
-    <row r="111" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="33" t="s">
         <v>49</v>
       </c>
@@ -11442,7 +11447,7 @@
       <c r="BY111" s="38"/>
       <c r="BZ111" s="38"/>
     </row>
-    <row r="112" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="33" t="s">
         <v>48</v>
       </c>
@@ -11536,7 +11541,7 @@
       <c r="BY112" s="38"/>
       <c r="BZ112" s="38"/>
     </row>
-    <row r="113" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="33" t="s">
         <v>62</v>
       </c>
@@ -11630,7 +11635,7 @@
       <c r="BY113" s="38"/>
       <c r="BZ113" s="38"/>
     </row>
-    <row r="114" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="33"/>
       <c r="C114" s="47" t="s">
         <v>65</v>
@@ -11722,7 +11727,7 @@
       <c r="BY114" s="38"/>
       <c r="BZ114" s="38"/>
     </row>
-    <row r="115" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B115" s="33" t="s">
         <v>62</v>
       </c>
@@ -11816,7 +11821,7 @@
       <c r="BY115" s="38"/>
       <c r="BZ115" s="38"/>
     </row>
-    <row r="116" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="107"/>
       <c r="C116" s="108"/>
       <c r="D116" s="109"/>
@@ -11897,6 +11902,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:W9"/>
+    <mergeCell ref="X9:AL9"/>
+    <mergeCell ref="AM9:BA9"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AH10:AL10"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="AR10:AV10"/>
+    <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="BB9:BZ9"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="N10:R10"/>
@@ -11913,26 +11938,6 @@
     <mergeCell ref="BQ10:BU10"/>
     <mergeCell ref="BV10:BZ10"/>
     <mergeCell ref="S10:W10"/>
-    <mergeCell ref="AM9:BA9"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AL10"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AR10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:W9"/>
-    <mergeCell ref="X9:AL9"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <conditionalFormatting sqref="H12:H21 H23:H116">
@@ -11961,21 +11966,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7EF2104F2CEFE4DACFBF5BA7D93FB4D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb0ed258f694207805e211ca255f9b46">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6b71f768-6d8b-468c-a986-1e1afc74f0e3" xmlns:ns4="d07d918a-d172-4450-8f4a-7b087689ff85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c03c9fe975be0719773112499dde791" ns3:_="" ns4:_="">
     <xsd:import namespace="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
@@ -12204,10 +12194,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABC364-430D-422C-AD85-145699D2125C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
+    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12230,20 +12246,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABC364-430D-422C-AD85-145699D2125C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
-    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/planningdocuments/gannt/GanttChart_POS_9.xlsx
+++ b/docs/planningdocuments/gannt/GanttChart_POS_9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/planningdocuments/gannt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CPS353-POS\docs\planningdocuments\gannt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B54FF2F-C912-DA4B-947B-7B852691CD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28CC6F5-487D-4ACD-B770-40F3A2C63C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="1780" windowWidth="23260" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="146">
   <si>
     <t>GANTT CHART</t>
   </si>
@@ -542,6 +542,18 @@
   </si>
   <si>
     <t>Meet with Denizard to Discuss Tables in XAMPP</t>
+  </si>
+  <si>
+    <t>Add Timeout method to the sessions class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Error Handling method to the sessions class </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensure safe queries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protect against IP Spoofing </t>
   </si>
 </sst>
 </file>
@@ -943,7 +955,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1119,11 +1131,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1334,7 +1357,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1359,9 +1381,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1545,30 +1564,6 @@
     <xf numFmtId="0" fontId="27" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1583,9 +1578,14 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1594,6 +1594,41 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1914,26 +1949,26 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BZ116"/>
+  <dimension ref="A1:BZ119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="33" width="3.5" hidden="1" customWidth="1"/>
-    <col min="34" max="78" width="3.5" customWidth="1"/>
+    <col min="9" max="33" width="3.44140625" hidden="1" customWidth="1"/>
+    <col min="34" max="78" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2013,45 +2048,45 @@
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
-    <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="166"/>
-      <c r="AB2" s="166"/>
-      <c r="AC2" s="166"/>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="152"/>
+      <c r="T2" s="152"/>
+      <c r="U2" s="152"/>
+      <c r="V2" s="152"/>
+      <c r="W2" s="152"/>
+      <c r="X2" s="152"/>
+      <c r="Y2" s="152"/>
+      <c r="Z2" s="152"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="152"/>
+      <c r="AD2" s="152"/>
+      <c r="AE2" s="152"/>
       <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
-      <c r="AJ2" s="125"/>
+      <c r="AJ2" s="123"/>
       <c r="AK2" s="11"/>
       <c r="AL2" s="11"/>
       <c r="AM2" s="1"/>
@@ -2095,7 +2130,7 @@
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
-    <row r="3" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -2175,43 +2210,43 @@
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
     </row>
-    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="159"/>
-      <c r="D4" s="169" t="s">
+      <c r="C4" s="156"/>
+      <c r="D4" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="158" t="s">
+      <c r="I4" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="170" t="s">
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="159" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="161"/>
-      <c r="T4" s="161"/>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="161"/>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
+      <c r="Q4" s="158"/>
+      <c r="R4" s="158"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="158"/>
+      <c r="U4" s="158"/>
+      <c r="V4" s="158"/>
+      <c r="W4" s="158"/>
+      <c r="X4" s="158"/>
+      <c r="Y4" s="158"/>
+      <c r="Z4" s="158"/>
+      <c r="AA4" s="158"/>
+      <c r="AB4" s="158"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -2263,42 +2298,42 @@
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
     </row>
-    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160" t="s">
+      <c r="C5" s="156"/>
+      <c r="D5" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="158" t="s">
+      <c r="I5" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="162">
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="170">
         <v>44858</v>
       </c>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="161"/>
-      <c r="S5" s="161"/>
-      <c r="T5" s="161"/>
-      <c r="U5" s="161"/>
-      <c r="V5" s="161"/>
-      <c r="W5" s="161"/>
-      <c r="X5" s="161"/>
-      <c r="Y5" s="161"/>
-      <c r="Z5" s="161"/>
-      <c r="AA5" s="161"/>
+      <c r="Q5" s="158"/>
+      <c r="R5" s="158"/>
+      <c r="S5" s="158"/>
+      <c r="T5" s="158"/>
+      <c r="U5" s="158"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="158"/>
+      <c r="X5" s="158"/>
+      <c r="Y5" s="158"/>
+      <c r="Z5" s="158"/>
+      <c r="AA5" s="158"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -2351,7 +2386,7 @@
       <c r="BY5" s="1"/>
       <c r="BZ5" s="1"/>
     </row>
-    <row r="6" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="48" t="s">
         <v>44</v>
@@ -2435,7 +2470,7 @@
       <c r="BY6" s="21"/>
       <c r="BZ6" s="21"/>
     </row>
-    <row r="7" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="s">
         <v>45</v>
@@ -2519,7 +2554,7 @@
       <c r="BY7" s="21"/>
       <c r="BZ7" s="21"/>
     </row>
-    <row r="8" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -2599,209 +2634,209 @@
       <c r="BY8" s="21"/>
       <c r="BZ8" s="21"/>
     </row>
-    <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="163" t="s">
+      <c r="C9" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="163" t="s">
+      <c r="D9" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="163" t="s">
+      <c r="E9" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="163" t="s">
+      <c r="F9" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="163" t="s">
+      <c r="G9" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="171" t="s">
+      <c r="H9" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="173"/>
-      <c r="J9" s="153"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="153"/>
-      <c r="M9" s="153"/>
-      <c r="N9" s="153"/>
-      <c r="O9" s="153"/>
-      <c r="P9" s="153"/>
-      <c r="Q9" s="153"/>
-      <c r="R9" s="153"/>
-      <c r="S9" s="153"/>
-      <c r="T9" s="153"/>
-      <c r="U9" s="153"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="153"/>
-      <c r="AA9" s="153"/>
-      <c r="AB9" s="153"/>
-      <c r="AC9" s="153"/>
-      <c r="AD9" s="153"/>
-      <c r="AE9" s="153"/>
-      <c r="AF9" s="153"/>
-      <c r="AG9" s="153"/>
-      <c r="AH9" s="153"/>
-      <c r="AI9" s="153"/>
-      <c r="AJ9" s="153"/>
-      <c r="AK9" s="153"/>
-      <c r="AL9" s="153"/>
-      <c r="AM9" s="152"/>
-      <c r="AN9" s="153"/>
-      <c r="AO9" s="153"/>
-      <c r="AP9" s="153"/>
-      <c r="AQ9" s="153"/>
-      <c r="AR9" s="153"/>
-      <c r="AS9" s="153"/>
-      <c r="AT9" s="153"/>
-      <c r="AU9" s="153"/>
-      <c r="AV9" s="153"/>
-      <c r="AW9" s="153"/>
-      <c r="AX9" s="153"/>
-      <c r="AY9" s="153"/>
-      <c r="AZ9" s="153"/>
-      <c r="BA9" s="153"/>
-      <c r="BB9" s="152"/>
-      <c r="BC9" s="153"/>
-      <c r="BD9" s="153"/>
-      <c r="BE9" s="153"/>
-      <c r="BF9" s="153"/>
-      <c r="BG9" s="153"/>
-      <c r="BH9" s="153"/>
-      <c r="BI9" s="153"/>
-      <c r="BJ9" s="153"/>
-      <c r="BK9" s="153"/>
-      <c r="BL9" s="153"/>
-      <c r="BM9" s="153"/>
-      <c r="BN9" s="153"/>
-      <c r="BO9" s="153"/>
-      <c r="BP9" s="153"/>
-      <c r="BQ9" s="153"/>
-      <c r="BR9" s="153"/>
-      <c r="BS9" s="153"/>
-      <c r="BT9" s="153"/>
-      <c r="BU9" s="153"/>
-      <c r="BV9" s="153"/>
-      <c r="BW9" s="153"/>
-      <c r="BX9" s="153"/>
-      <c r="BY9" s="153"/>
-      <c r="BZ9" s="154"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="163"/>
+      <c r="N9" s="163"/>
+      <c r="O9" s="163"/>
+      <c r="P9" s="163"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="163"/>
+      <c r="S9" s="163"/>
+      <c r="T9" s="163"/>
+      <c r="U9" s="163"/>
+      <c r="V9" s="163"/>
+      <c r="W9" s="163"/>
+      <c r="X9" s="164"/>
+      <c r="Y9" s="163"/>
+      <c r="Z9" s="163"/>
+      <c r="AA9" s="163"/>
+      <c r="AB9" s="163"/>
+      <c r="AC9" s="163"/>
+      <c r="AD9" s="163"/>
+      <c r="AE9" s="163"/>
+      <c r="AF9" s="163"/>
+      <c r="AG9" s="163"/>
+      <c r="AH9" s="163"/>
+      <c r="AI9" s="163"/>
+      <c r="AJ9" s="163"/>
+      <c r="AK9" s="163"/>
+      <c r="AL9" s="163"/>
+      <c r="AM9" s="164"/>
+      <c r="AN9" s="163"/>
+      <c r="AO9" s="163"/>
+      <c r="AP9" s="163"/>
+      <c r="AQ9" s="163"/>
+      <c r="AR9" s="163"/>
+      <c r="AS9" s="163"/>
+      <c r="AT9" s="163"/>
+      <c r="AU9" s="163"/>
+      <c r="AV9" s="163"/>
+      <c r="AW9" s="163"/>
+      <c r="AX9" s="163"/>
+      <c r="AY9" s="163"/>
+      <c r="AZ9" s="163"/>
+      <c r="BA9" s="163"/>
+      <c r="BB9" s="164"/>
+      <c r="BC9" s="163"/>
+      <c r="BD9" s="163"/>
+      <c r="BE9" s="163"/>
+      <c r="BF9" s="163"/>
+      <c r="BG9" s="163"/>
+      <c r="BH9" s="163"/>
+      <c r="BI9" s="163"/>
+      <c r="BJ9" s="163"/>
+      <c r="BK9" s="163"/>
+      <c r="BL9" s="163"/>
+      <c r="BM9" s="163"/>
+      <c r="BN9" s="163"/>
+      <c r="BO9" s="163"/>
+      <c r="BP9" s="163"/>
+      <c r="BQ9" s="163"/>
+      <c r="BR9" s="163"/>
+      <c r="BS9" s="163"/>
+      <c r="BT9" s="163"/>
+      <c r="BU9" s="163"/>
+      <c r="BV9" s="163"/>
+      <c r="BW9" s="163"/>
+      <c r="BX9" s="163"/>
+      <c r="BY9" s="163"/>
+      <c r="BZ9" s="168"/>
     </row>
-    <row r="10" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="155" t="s">
+      <c r="B10" s="150"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="156"/>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="157"/>
-      <c r="N10" s="155" t="s">
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="167"/>
+      <c r="N10" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="157"/>
-      <c r="S10" s="155" t="s">
+      <c r="O10" s="166"/>
+      <c r="P10" s="166"/>
+      <c r="Q10" s="166"/>
+      <c r="R10" s="167"/>
+      <c r="S10" s="165" t="s">
         <v>97</v>
       </c>
-      <c r="T10" s="156"/>
-      <c r="U10" s="156"/>
-      <c r="V10" s="156"/>
-      <c r="W10" s="157"/>
-      <c r="X10" s="155" t="s">
+      <c r="T10" s="166"/>
+      <c r="U10" s="166"/>
+      <c r="V10" s="166"/>
+      <c r="W10" s="167"/>
+      <c r="X10" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="Y10" s="156"/>
-      <c r="Z10" s="156"/>
-      <c r="AA10" s="156"/>
-      <c r="AB10" s="157"/>
-      <c r="AC10" s="155" t="s">
+      <c r="Y10" s="166"/>
+      <c r="Z10" s="166"/>
+      <c r="AA10" s="166"/>
+      <c r="AB10" s="167"/>
+      <c r="AC10" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="AD10" s="156"/>
-      <c r="AE10" s="156"/>
-      <c r="AF10" s="156"/>
-      <c r="AG10" s="157"/>
-      <c r="AH10" s="155" t="s">
+      <c r="AD10" s="166"/>
+      <c r="AE10" s="166"/>
+      <c r="AF10" s="166"/>
+      <c r="AG10" s="167"/>
+      <c r="AH10" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="AI10" s="156"/>
-      <c r="AJ10" s="156"/>
-      <c r="AK10" s="156"/>
-      <c r="AL10" s="157"/>
-      <c r="AM10" s="155" t="s">
+      <c r="AI10" s="166"/>
+      <c r="AJ10" s="166"/>
+      <c r="AK10" s="166"/>
+      <c r="AL10" s="167"/>
+      <c r="AM10" s="165" t="s">
         <v>131</v>
       </c>
-      <c r="AN10" s="156"/>
-      <c r="AO10" s="156"/>
-      <c r="AP10" s="156"/>
-      <c r="AQ10" s="157"/>
-      <c r="AR10" s="155" t="s">
+      <c r="AN10" s="166"/>
+      <c r="AO10" s="166"/>
+      <c r="AP10" s="166"/>
+      <c r="AQ10" s="167"/>
+      <c r="AR10" s="165" t="s">
         <v>132</v>
       </c>
-      <c r="AS10" s="156"/>
-      <c r="AT10" s="156"/>
-      <c r="AU10" s="156"/>
-      <c r="AV10" s="157"/>
-      <c r="AW10" s="155" t="s">
+      <c r="AS10" s="166"/>
+      <c r="AT10" s="166"/>
+      <c r="AU10" s="166"/>
+      <c r="AV10" s="167"/>
+      <c r="AW10" s="165" t="s">
         <v>135</v>
       </c>
-      <c r="AX10" s="156"/>
-      <c r="AY10" s="156"/>
-      <c r="AZ10" s="156"/>
-      <c r="BA10" s="157"/>
-      <c r="BB10" s="155" t="s">
+      <c r="AX10" s="166"/>
+      <c r="AY10" s="166"/>
+      <c r="AZ10" s="166"/>
+      <c r="BA10" s="167"/>
+      <c r="BB10" s="165" t="s">
         <v>136</v>
       </c>
-      <c r="BC10" s="156"/>
-      <c r="BD10" s="156"/>
-      <c r="BE10" s="156"/>
-      <c r="BF10" s="157"/>
-      <c r="BG10" s="155" t="s">
+      <c r="BC10" s="166"/>
+      <c r="BD10" s="166"/>
+      <c r="BE10" s="166"/>
+      <c r="BF10" s="167"/>
+      <c r="BG10" s="165" t="s">
         <v>137</v>
       </c>
-      <c r="BH10" s="156"/>
-      <c r="BI10" s="156"/>
-      <c r="BJ10" s="156"/>
-      <c r="BK10" s="157"/>
-      <c r="BL10" s="155" t="s">
+      <c r="BH10" s="166"/>
+      <c r="BI10" s="166"/>
+      <c r="BJ10" s="166"/>
+      <c r="BK10" s="167"/>
+      <c r="BL10" s="165" t="s">
         <v>138</v>
       </c>
-      <c r="BM10" s="156"/>
-      <c r="BN10" s="156"/>
-      <c r="BO10" s="156"/>
-      <c r="BP10" s="157"/>
-      <c r="BQ10" s="155" t="s">
+      <c r="BM10" s="166"/>
+      <c r="BN10" s="166"/>
+      <c r="BO10" s="166"/>
+      <c r="BP10" s="167"/>
+      <c r="BQ10" s="165" t="s">
         <v>139</v>
       </c>
-      <c r="BR10" s="156"/>
-      <c r="BS10" s="156"/>
-      <c r="BT10" s="156"/>
-      <c r="BU10" s="157"/>
-      <c r="BV10" s="155" t="s">
+      <c r="BR10" s="166"/>
+      <c r="BS10" s="166"/>
+      <c r="BT10" s="166"/>
+      <c r="BU10" s="167"/>
+      <c r="BV10" s="165" t="s">
         <v>140</v>
       </c>
-      <c r="BW10" s="156"/>
-      <c r="BX10" s="156"/>
-      <c r="BY10" s="156"/>
-      <c r="BZ10" s="157"/>
+      <c r="BW10" s="166"/>
+      <c r="BX10" s="166"/>
+      <c r="BY10" s="166"/>
+      <c r="BZ10" s="167"/>
     </row>
-    <row r="11" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="26">
         <v>1</v>
@@ -2895,7 +2930,7 @@
       <c r="AI11" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="AJ11" s="126" t="s">
+      <c r="AJ11" s="124" t="s">
         <v>100</v>
       </c>
       <c r="AK11" s="31" t="s">
@@ -3025,7 +3060,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="33">
         <v>1.1000000000000001</v>
@@ -3069,11 +3104,11 @@
       <c r="Z12" s="38"/>
       <c r="AA12" s="38"/>
       <c r="AB12" s="38"/>
-      <c r="AC12" s="148"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="148"/>
-      <c r="AF12" s="148"/>
-      <c r="AG12" s="148"/>
+      <c r="AC12" s="146"/>
+      <c r="AD12" s="146"/>
+      <c r="AE12" s="146"/>
+      <c r="AF12" s="146"/>
+      <c r="AG12" s="146"/>
       <c r="AH12" s="38"/>
       <c r="AI12" s="38"/>
       <c r="AJ12" s="38"/>
@@ -3120,7 +3155,7 @@
       <c r="BY12" s="38"/>
       <c r="BZ12" s="38"/>
     </row>
-    <row r="13" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="33" t="s">
         <v>12</v>
@@ -3164,11 +3199,11 @@
       <c r="Z13" s="38"/>
       <c r="AA13" s="38"/>
       <c r="AB13" s="38"/>
-      <c r="AC13" s="148"/>
-      <c r="AD13" s="148"/>
-      <c r="AE13" s="148"/>
-      <c r="AF13" s="148"/>
-      <c r="AG13" s="148"/>
+      <c r="AC13" s="146"/>
+      <c r="AD13" s="146"/>
+      <c r="AE13" s="146"/>
+      <c r="AF13" s="146"/>
+      <c r="AG13" s="146"/>
       <c r="AH13" s="38"/>
       <c r="AI13" s="38"/>
       <c r="AJ13" s="38"/>
@@ -3215,7 +3250,7 @@
       <c r="BY13" s="38"/>
       <c r="BZ13" s="38"/>
     </row>
-    <row r="14" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="33">
         <v>1.2</v>
@@ -3259,11 +3294,11 @@
       <c r="Z14" s="38"/>
       <c r="AA14" s="38"/>
       <c r="AB14" s="38"/>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="148"/>
-      <c r="AE14" s="148"/>
-      <c r="AF14" s="148"/>
-      <c r="AG14" s="148"/>
+      <c r="AC14" s="146"/>
+      <c r="AD14" s="146"/>
+      <c r="AE14" s="146"/>
+      <c r="AF14" s="146"/>
+      <c r="AG14" s="146"/>
       <c r="AH14" s="38"/>
       <c r="AI14" s="38"/>
       <c r="AJ14" s="38"/>
@@ -3310,7 +3345,7 @@
       <c r="BY14" s="38"/>
       <c r="BZ14" s="38"/>
     </row>
-    <row r="15" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="33">
         <v>1.3</v>
@@ -3354,11 +3389,11 @@
       <c r="Z15" s="38"/>
       <c r="AA15" s="38"/>
       <c r="AB15" s="38"/>
-      <c r="AC15" s="148"/>
-      <c r="AD15" s="148"/>
-      <c r="AE15" s="148"/>
-      <c r="AF15" s="148"/>
-      <c r="AG15" s="148"/>
+      <c r="AC15" s="146"/>
+      <c r="AD15" s="146"/>
+      <c r="AE15" s="146"/>
+      <c r="AF15" s="146"/>
+      <c r="AG15" s="146"/>
       <c r="AH15" s="38"/>
       <c r="AI15" s="38"/>
       <c r="AJ15" s="38"/>
@@ -3405,7 +3440,7 @@
       <c r="BY15" s="38"/>
       <c r="BZ15" s="38"/>
     </row>
-    <row r="16" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="33">
         <v>1.4</v>
@@ -3449,11 +3484,11 @@
       <c r="Z16" s="38"/>
       <c r="AA16" s="38"/>
       <c r="AB16" s="38"/>
-      <c r="AC16" s="148"/>
-      <c r="AD16" s="148"/>
-      <c r="AE16" s="148"/>
-      <c r="AF16" s="148"/>
-      <c r="AG16" s="148"/>
+      <c r="AC16" s="146"/>
+      <c r="AD16" s="146"/>
+      <c r="AE16" s="146"/>
+      <c r="AF16" s="146"/>
+      <c r="AG16" s="146"/>
       <c r="AH16" s="38"/>
       <c r="AI16" s="38"/>
       <c r="AJ16" s="38"/>
@@ -3500,7 +3535,7 @@
       <c r="BY16" s="38"/>
       <c r="BZ16" s="38"/>
     </row>
-    <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="33">
         <v>1.5</v>
@@ -3544,11 +3579,11 @@
       <c r="Z17" s="38"/>
       <c r="AA17" s="38"/>
       <c r="AB17" s="38"/>
-      <c r="AC17" s="148"/>
-      <c r="AD17" s="148"/>
-      <c r="AE17" s="148"/>
-      <c r="AF17" s="148"/>
-      <c r="AG17" s="148"/>
+      <c r="AC17" s="146"/>
+      <c r="AD17" s="146"/>
+      <c r="AE17" s="146"/>
+      <c r="AF17" s="146"/>
+      <c r="AG17" s="146"/>
       <c r="AH17" s="38"/>
       <c r="AI17" s="38"/>
       <c r="AJ17" s="38"/>
@@ -3595,7 +3630,7 @@
       <c r="BY17" s="38"/>
       <c r="BZ17" s="38"/>
     </row>
-    <row r="18" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="33">
         <v>1.6</v>
@@ -3639,11 +3674,11 @@
       <c r="Z18" s="38"/>
       <c r="AA18" s="38"/>
       <c r="AB18" s="38"/>
-      <c r="AC18" s="148"/>
-      <c r="AD18" s="148"/>
-      <c r="AE18" s="148"/>
-      <c r="AF18" s="148"/>
-      <c r="AG18" s="148"/>
+      <c r="AC18" s="146"/>
+      <c r="AD18" s="146"/>
+      <c r="AE18" s="146"/>
+      <c r="AF18" s="146"/>
+      <c r="AG18" s="146"/>
       <c r="AH18" s="38"/>
       <c r="AI18" s="38"/>
       <c r="AJ18" s="38"/>
@@ -3690,7 +3725,7 @@
       <c r="BY18" s="38"/>
       <c r="BZ18" s="38"/>
     </row>
-    <row r="19" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32"/>
       <c r="B19" s="33">
         <v>1.7</v>
@@ -3734,11 +3769,11 @@
       <c r="Z19" s="38"/>
       <c r="AA19" s="38"/>
       <c r="AB19" s="38"/>
-      <c r="AC19" s="148"/>
-      <c r="AD19" s="148"/>
-      <c r="AE19" s="148"/>
-      <c r="AF19" s="148"/>
-      <c r="AG19" s="148"/>
+      <c r="AC19" s="146"/>
+      <c r="AD19" s="146"/>
+      <c r="AE19" s="146"/>
+      <c r="AF19" s="146"/>
+      <c r="AG19" s="146"/>
       <c r="AH19" s="38"/>
       <c r="AI19" s="38"/>
       <c r="AJ19" s="38"/>
@@ -3785,7 +3820,7 @@
       <c r="BY19" s="38"/>
       <c r="BZ19" s="38"/>
     </row>
-    <row r="20" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32"/>
       <c r="B20" s="33"/>
       <c r="C20" s="34"/>
@@ -3814,11 +3849,11 @@
       <c r="Z20" s="38"/>
       <c r="AA20" s="38"/>
       <c r="AB20" s="38"/>
-      <c r="AC20" s="148"/>
-      <c r="AD20" s="148"/>
-      <c r="AE20" s="148"/>
-      <c r="AF20" s="148"/>
-      <c r="AG20" s="148"/>
+      <c r="AC20" s="146"/>
+      <c r="AD20" s="146"/>
+      <c r="AE20" s="146"/>
+      <c r="AF20" s="146"/>
+      <c r="AG20" s="146"/>
       <c r="AH20" s="38"/>
       <c r="AI20" s="38"/>
       <c r="AJ20" s="38"/>
@@ -3865,7 +3900,7 @@
       <c r="BY20" s="38"/>
       <c r="BZ20" s="38"/>
     </row>
-    <row r="21" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32"/>
       <c r="B21" s="33"/>
       <c r="C21" s="34"/>
@@ -3894,11 +3929,11 @@
       <c r="Z21" s="38"/>
       <c r="AA21" s="38"/>
       <c r="AB21" s="38"/>
-      <c r="AC21" s="148"/>
-      <c r="AD21" s="148"/>
-      <c r="AE21" s="148"/>
-      <c r="AF21" s="148"/>
-      <c r="AG21" s="148"/>
+      <c r="AC21" s="146"/>
+      <c r="AD21" s="146"/>
+      <c r="AE21" s="146"/>
+      <c r="AF21" s="146"/>
+      <c r="AG21" s="146"/>
       <c r="AH21" s="38"/>
       <c r="AI21" s="38"/>
       <c r="AJ21" s="38"/>
@@ -3945,7 +3980,7 @@
       <c r="BY21" s="38"/>
       <c r="BZ21" s="38"/>
     </row>
-    <row r="22" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="26">
         <v>2</v>
@@ -3985,7 +4020,7 @@
       <c r="AG22" s="29"/>
       <c r="AH22" s="29"/>
       <c r="AI22" s="29"/>
-      <c r="AJ22" s="127"/>
+      <c r="AJ22" s="125"/>
       <c r="AK22" s="29"/>
       <c r="AL22" s="29"/>
       <c r="AM22" s="29"/>
@@ -4029,7 +4064,7 @@
       <c r="BY22" s="29"/>
       <c r="BZ22" s="29"/>
     </row>
-    <row r="23" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32"/>
       <c r="B23" s="33">
         <v>2.1</v>
@@ -4119,7 +4154,7 @@
       <c r="BY23" s="38"/>
       <c r="BZ23" s="38"/>
     </row>
-    <row r="24" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32"/>
       <c r="B24" s="33">
         <v>2.2000000000000002</v>
@@ -4210,7 +4245,7 @@
       <c r="BY24" s="38"/>
       <c r="BZ24" s="38"/>
     </row>
-    <row r="25" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="33">
         <v>2.2999999999999998</v>
@@ -4301,7 +4336,7 @@
       <c r="BY25" s="38"/>
       <c r="BZ25" s="38"/>
     </row>
-    <row r="26" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32"/>
       <c r="B26" s="33" t="s">
         <v>13</v>
@@ -4391,7 +4426,7 @@
       <c r="BY26" s="38"/>
       <c r="BZ26" s="38"/>
     </row>
-    <row r="27" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32"/>
       <c r="B27" s="33">
         <v>2.4</v>
@@ -4482,7 +4517,7 @@
       <c r="BY27" s="38"/>
       <c r="BZ27" s="38"/>
     </row>
-    <row r="28" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32"/>
       <c r="B28" s="33">
         <v>2.5</v>
@@ -4573,7 +4608,7 @@
       <c r="BY28" s="38"/>
       <c r="BZ28" s="38"/>
     </row>
-    <row r="29" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>
       <c r="B29" s="33">
         <v>2.6</v>
@@ -4663,7 +4698,7 @@
       <c r="BY29" s="38"/>
       <c r="BZ29" s="38"/>
     </row>
-    <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
       <c r="B30" s="33">
         <v>2.7</v>
@@ -4754,7 +4789,7 @@
       <c r="BY30" s="38"/>
       <c r="BZ30" s="38"/>
     </row>
-    <row r="31" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="B31" s="33">
         <v>2.8</v>
@@ -4845,7 +4880,7 @@
       <c r="BY31" s="38"/>
       <c r="BZ31" s="38"/>
     </row>
-    <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="33">
         <v>2.9</v>
@@ -4935,7 +4970,7 @@
       <c r="BY32" s="38"/>
       <c r="BZ32" s="38"/>
     </row>
-    <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="46">
         <v>2.1</v>
@@ -5025,7 +5060,7 @@
       <c r="BY33" s="38"/>
       <c r="BZ33" s="38"/>
     </row>
-    <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
       <c r="B34" s="46">
         <v>2.11</v>
@@ -5107,7 +5142,7 @@
       <c r="BY34" s="38"/>
       <c r="BZ34" s="38"/>
     </row>
-    <row r="35" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="26">
         <v>3</v>
@@ -5147,7 +5182,7 @@
       <c r="AG35" s="29"/>
       <c r="AH35" s="29"/>
       <c r="AI35" s="29"/>
-      <c r="AJ35" s="127"/>
+      <c r="AJ35" s="125"/>
       <c r="AK35" s="29"/>
       <c r="AL35" s="29"/>
       <c r="AM35" s="29"/>
@@ -5191,1758 +5226,1760 @@
       <c r="BY35" s="29"/>
       <c r="BZ35" s="29"/>
     </row>
-    <row r="36" spans="1:78" s="75" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="78"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80" t="s">
+    <row r="36" spans="1:78" s="75" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="77"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="82"/>
-      <c r="V36" s="82"/>
-      <c r="W36" s="82"/>
-      <c r="X36" s="82"/>
-      <c r="Y36" s="82"/>
-      <c r="Z36" s="82"/>
-      <c r="AA36" s="82"/>
-      <c r="AB36" s="82"/>
-      <c r="AC36" s="82"/>
-      <c r="AD36" s="82"/>
-      <c r="AE36" s="82"/>
-      <c r="AF36" s="82"/>
-      <c r="AG36" s="82"/>
-      <c r="AH36" s="82"/>
-      <c r="AI36" s="82"/>
-      <c r="AJ36" s="128"/>
-      <c r="AK36" s="82"/>
-      <c r="AL36" s="82"/>
-      <c r="AM36" s="82"/>
-      <c r="AN36" s="82"/>
-      <c r="AO36" s="82"/>
-      <c r="AP36" s="82"/>
-      <c r="AQ36" s="82"/>
-      <c r="AR36" s="82"/>
-      <c r="AS36" s="82"/>
-      <c r="AT36" s="82"/>
-      <c r="AU36" s="82"/>
-      <c r="AV36" s="82"/>
-      <c r="AW36" s="82"/>
-      <c r="AX36" s="82"/>
-      <c r="AY36" s="82"/>
-      <c r="AZ36" s="82"/>
-      <c r="BA36" s="82"/>
-      <c r="BB36" s="82"/>
-      <c r="BC36" s="82"/>
-      <c r="BD36" s="82"/>
-      <c r="BE36" s="82"/>
-      <c r="BF36" s="82"/>
-      <c r="BG36" s="82"/>
-      <c r="BH36" s="82"/>
-      <c r="BI36" s="82"/>
-      <c r="BJ36" s="82"/>
-      <c r="BK36" s="82"/>
-      <c r="BL36" s="82"/>
-      <c r="BM36" s="82"/>
-      <c r="BN36" s="82"/>
-      <c r="BO36" s="82"/>
-      <c r="BP36" s="82"/>
-      <c r="BQ36" s="82"/>
-      <c r="BR36" s="82"/>
-      <c r="BS36" s="82"/>
-      <c r="BT36" s="82"/>
-      <c r="BU36" s="82"/>
-      <c r="BV36" s="82"/>
-      <c r="BW36" s="82"/>
-      <c r="BX36" s="82"/>
-      <c r="BY36" s="82"/>
-      <c r="BZ36" s="82"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="83"/>
+      <c r="L36" s="83"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="81"/>
+      <c r="S36" s="81"/>
+      <c r="T36" s="81"/>
+      <c r="U36" s="81"/>
+      <c r="V36" s="81"/>
+      <c r="W36" s="81"/>
+      <c r="X36" s="81"/>
+      <c r="Y36" s="81"/>
+      <c r="Z36" s="81"/>
+      <c r="AA36" s="81"/>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="81"/>
+      <c r="AD36" s="81"/>
+      <c r="AE36" s="81"/>
+      <c r="AF36" s="81"/>
+      <c r="AG36" s="81"/>
+      <c r="AH36" s="81"/>
+      <c r="AI36" s="81"/>
+      <c r="AJ36" s="126"/>
+      <c r="AK36" s="81"/>
+      <c r="AL36" s="81"/>
+      <c r="AM36" s="81"/>
+      <c r="AN36" s="81"/>
+      <c r="AO36" s="81"/>
+      <c r="AP36" s="81"/>
+      <c r="AQ36" s="81"/>
+      <c r="AR36" s="81"/>
+      <c r="AS36" s="81"/>
+      <c r="AT36" s="81"/>
+      <c r="AU36" s="81"/>
+      <c r="AV36" s="81"/>
+      <c r="AW36" s="81"/>
+      <c r="AX36" s="81"/>
+      <c r="AY36" s="81"/>
+      <c r="AZ36" s="81"/>
+      <c r="BA36" s="81"/>
+      <c r="BB36" s="81"/>
+      <c r="BC36" s="81"/>
+      <c r="BD36" s="81"/>
+      <c r="BE36" s="81"/>
+      <c r="BF36" s="81"/>
+      <c r="BG36" s="81"/>
+      <c r="BH36" s="81"/>
+      <c r="BI36" s="81"/>
+      <c r="BJ36" s="81"/>
+      <c r="BK36" s="81"/>
+      <c r="BL36" s="81"/>
+      <c r="BM36" s="81"/>
+      <c r="BN36" s="81"/>
+      <c r="BO36" s="81"/>
+      <c r="BP36" s="81"/>
+      <c r="BQ36" s="81"/>
+      <c r="BR36" s="81"/>
+      <c r="BS36" s="81"/>
+      <c r="BT36" s="81"/>
+      <c r="BU36" s="81"/>
+      <c r="BV36" s="81"/>
+      <c r="BW36" s="81"/>
+      <c r="BX36" s="81"/>
+      <c r="BY36" s="81"/>
+      <c r="BZ36" s="81"/>
     </row>
-    <row r="37" spans="1:78" s="105" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="134"/>
-      <c r="B37" s="135"/>
-      <c r="C37" s="136" t="s">
+    <row r="37" spans="1:78" s="103" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="132"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="139"/>
-      <c r="K37" s="140"/>
-      <c r="L37" s="140"/>
-      <c r="M37" s="138"/>
-      <c r="N37" s="138"/>
-      <c r="O37" s="138"/>
-      <c r="P37" s="138"/>
-      <c r="Q37" s="138"/>
-      <c r="R37" s="138"/>
-      <c r="S37" s="138"/>
-      <c r="T37" s="138"/>
-      <c r="U37" s="138"/>
-      <c r="V37" s="138"/>
-      <c r="W37" s="138"/>
-      <c r="X37" s="138"/>
-      <c r="Y37" s="138"/>
-      <c r="Z37" s="138"/>
-      <c r="AA37" s="138"/>
-      <c r="AB37" s="138"/>
-      <c r="AC37" s="138"/>
-      <c r="AD37" s="138"/>
-      <c r="AE37" s="138"/>
-      <c r="AF37" s="138"/>
-      <c r="AG37" s="138"/>
-      <c r="AH37" s="138"/>
-      <c r="AI37" s="138"/>
-      <c r="AJ37" s="141"/>
-      <c r="AK37" s="138"/>
-      <c r="AL37" s="138"/>
-      <c r="AM37" s="138"/>
-      <c r="AN37" s="138"/>
-      <c r="AO37" s="138"/>
-      <c r="AP37" s="138"/>
-      <c r="AQ37" s="138"/>
-      <c r="AR37" s="138"/>
-      <c r="AS37" s="138"/>
-      <c r="AT37" s="138"/>
-      <c r="AU37" s="138"/>
-      <c r="AV37" s="138"/>
-      <c r="AW37" s="138"/>
-      <c r="AX37" s="138"/>
-      <c r="AY37" s="138"/>
-      <c r="AZ37" s="138"/>
-      <c r="BA37" s="138"/>
-      <c r="BB37" s="138"/>
-      <c r="BC37" s="138"/>
-      <c r="BD37" s="138"/>
-      <c r="BE37" s="138"/>
-      <c r="BF37" s="138"/>
-      <c r="BG37" s="138"/>
-      <c r="BH37" s="138"/>
-      <c r="BI37" s="138"/>
-      <c r="BJ37" s="138"/>
-      <c r="BK37" s="138"/>
-      <c r="BL37" s="138"/>
-      <c r="BM37" s="138"/>
-      <c r="BN37" s="138"/>
-      <c r="BO37" s="138"/>
-      <c r="BP37" s="138"/>
-      <c r="BQ37" s="138"/>
-      <c r="BR37" s="138"/>
-      <c r="BS37" s="138"/>
-      <c r="BT37" s="138"/>
-      <c r="BU37" s="138"/>
-      <c r="BV37" s="138"/>
-      <c r="BW37" s="138"/>
-      <c r="BX37" s="138"/>
-      <c r="BY37" s="138"/>
-      <c r="BZ37" s="138"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="137"/>
+      <c r="K37" s="138"/>
+      <c r="L37" s="138"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="136"/>
+      <c r="O37" s="136"/>
+      <c r="P37" s="136"/>
+      <c r="Q37" s="136"/>
+      <c r="R37" s="136"/>
+      <c r="S37" s="136"/>
+      <c r="T37" s="136"/>
+      <c r="U37" s="136"/>
+      <c r="V37" s="136"/>
+      <c r="W37" s="136"/>
+      <c r="X37" s="136"/>
+      <c r="Y37" s="136"/>
+      <c r="Z37" s="136"/>
+      <c r="AA37" s="136"/>
+      <c r="AB37" s="136"/>
+      <c r="AC37" s="136"/>
+      <c r="AD37" s="136"/>
+      <c r="AE37" s="136"/>
+      <c r="AF37" s="136"/>
+      <c r="AG37" s="136"/>
+      <c r="AH37" s="136"/>
+      <c r="AI37" s="136"/>
+      <c r="AJ37" s="139"/>
+      <c r="AK37" s="136"/>
+      <c r="AL37" s="136"/>
+      <c r="AM37" s="136"/>
+      <c r="AN37" s="136"/>
+      <c r="AO37" s="136"/>
+      <c r="AP37" s="136"/>
+      <c r="AQ37" s="136"/>
+      <c r="AR37" s="136"/>
+      <c r="AS37" s="136"/>
+      <c r="AT37" s="136"/>
+      <c r="AU37" s="136"/>
+      <c r="AV37" s="136"/>
+      <c r="AW37" s="136"/>
+      <c r="AX37" s="136"/>
+      <c r="AY37" s="136"/>
+      <c r="AZ37" s="136"/>
+      <c r="BA37" s="136"/>
+      <c r="BB37" s="136"/>
+      <c r="BC37" s="136"/>
+      <c r="BD37" s="136"/>
+      <c r="BE37" s="136"/>
+      <c r="BF37" s="136"/>
+      <c r="BG37" s="136"/>
+      <c r="BH37" s="136"/>
+      <c r="BI37" s="136"/>
+      <c r="BJ37" s="136"/>
+      <c r="BK37" s="136"/>
+      <c r="BL37" s="136"/>
+      <c r="BM37" s="136"/>
+      <c r="BN37" s="136"/>
+      <c r="BO37" s="136"/>
+      <c r="BP37" s="136"/>
+      <c r="BQ37" s="136"/>
+      <c r="BR37" s="136"/>
+      <c r="BS37" s="136"/>
+      <c r="BT37" s="136"/>
+      <c r="BU37" s="136"/>
+      <c r="BV37" s="136"/>
+      <c r="BW37" s="136"/>
+      <c r="BX37" s="136"/>
+      <c r="BY37" s="136"/>
+      <c r="BZ37" s="136"/>
     </row>
-    <row r="38" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="120" t="s">
+      <c r="B38" s="84"/>
+      <c r="C38" s="118" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="90"/>
-      <c r="L38" s="90"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="88"/>
-      <c r="S38" s="88"/>
-      <c r="T38" s="88"/>
-      <c r="U38" s="88"/>
-      <c r="V38" s="88"/>
-      <c r="W38" s="88"/>
-      <c r="X38" s="88"/>
-      <c r="Y38" s="88"/>
-      <c r="Z38" s="88"/>
-      <c r="AA38" s="88"/>
-      <c r="AB38" s="88"/>
-      <c r="AC38" s="88"/>
-      <c r="AD38" s="88"/>
-      <c r="AE38" s="88"/>
-      <c r="AF38" s="88"/>
-      <c r="AG38" s="88"/>
-      <c r="AH38" s="88"/>
-      <c r="AI38" s="88"/>
-      <c r="AJ38" s="121"/>
-      <c r="AK38" s="121"/>
-      <c r="AL38" s="121"/>
-      <c r="AM38" s="122"/>
-      <c r="AN38" s="88"/>
-      <c r="AO38" s="88"/>
-      <c r="AP38" s="88"/>
-      <c r="AQ38" s="88"/>
-      <c r="AR38" s="88"/>
-      <c r="AS38" s="88"/>
-      <c r="AT38" s="88"/>
-      <c r="AU38" s="88"/>
-      <c r="AV38" s="88"/>
-      <c r="AW38" s="88"/>
-      <c r="AX38" s="88"/>
-      <c r="AY38" s="88"/>
-      <c r="AZ38" s="88"/>
-      <c r="BA38" s="88"/>
-      <c r="BB38" s="88"/>
-      <c r="BC38" s="88"/>
-      <c r="BD38" s="88"/>
-      <c r="BE38" s="88"/>
-      <c r="BF38" s="88"/>
-      <c r="BG38" s="88"/>
-      <c r="BH38" s="88"/>
-      <c r="BI38" s="88"/>
-      <c r="BJ38" s="88"/>
-      <c r="BK38" s="88"/>
-      <c r="BL38" s="88"/>
-      <c r="BM38" s="88"/>
-      <c r="BN38" s="88"/>
-      <c r="BO38" s="88"/>
-      <c r="BP38" s="88"/>
-      <c r="BQ38" s="88"/>
-      <c r="BR38" s="88"/>
-      <c r="BS38" s="88"/>
-      <c r="BT38" s="88"/>
-      <c r="BU38" s="88"/>
-      <c r="BV38" s="88"/>
-      <c r="BW38" s="88"/>
-      <c r="BX38" s="88"/>
-      <c r="BY38" s="88"/>
-      <c r="BZ38" s="88"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="86"/>
+      <c r="N38" s="86"/>
+      <c r="O38" s="86"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="86"/>
+      <c r="T38" s="86"/>
+      <c r="U38" s="86"/>
+      <c r="V38" s="86"/>
+      <c r="W38" s="86"/>
+      <c r="X38" s="86"/>
+      <c r="Y38" s="86"/>
+      <c r="Z38" s="86"/>
+      <c r="AA38" s="86"/>
+      <c r="AB38" s="86"/>
+      <c r="AC38" s="86"/>
+      <c r="AD38" s="86"/>
+      <c r="AE38" s="86"/>
+      <c r="AF38" s="86"/>
+      <c r="AG38" s="86"/>
+      <c r="AH38" s="86"/>
+      <c r="AI38" s="86"/>
+      <c r="AJ38" s="119"/>
+      <c r="AK38" s="119"/>
+      <c r="AL38" s="119"/>
+      <c r="AM38" s="120"/>
+      <c r="AN38" s="86"/>
+      <c r="AO38" s="86"/>
+      <c r="AP38" s="86"/>
+      <c r="AQ38" s="86"/>
+      <c r="AR38" s="86"/>
+      <c r="AS38" s="86"/>
+      <c r="AT38" s="86"/>
+      <c r="AU38" s="86"/>
+      <c r="AV38" s="86"/>
+      <c r="AW38" s="86"/>
+      <c r="AX38" s="86"/>
+      <c r="AY38" s="86"/>
+      <c r="AZ38" s="86"/>
+      <c r="BA38" s="86"/>
+      <c r="BB38" s="86"/>
+      <c r="BC38" s="86"/>
+      <c r="BD38" s="86"/>
+      <c r="BE38" s="86"/>
+      <c r="BF38" s="86"/>
+      <c r="BG38" s="86"/>
+      <c r="BH38" s="86"/>
+      <c r="BI38" s="86"/>
+      <c r="BJ38" s="86"/>
+      <c r="BK38" s="86"/>
+      <c r="BL38" s="86"/>
+      <c r="BM38" s="86"/>
+      <c r="BN38" s="86"/>
+      <c r="BO38" s="86"/>
+      <c r="BP38" s="86"/>
+      <c r="BQ38" s="86"/>
+      <c r="BR38" s="86"/>
+      <c r="BS38" s="86"/>
+      <c r="BT38" s="86"/>
+      <c r="BU38" s="86"/>
+      <c r="BV38" s="86"/>
+      <c r="BW38" s="86"/>
+      <c r="BX38" s="86"/>
+      <c r="BY38" s="86"/>
+      <c r="BZ38" s="86"/>
     </row>
-    <row r="39" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="120" t="s">
+      <c r="B39" s="84"/>
+      <c r="C39" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="90"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="88"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="88"/>
-      <c r="T39" s="88"/>
-      <c r="U39" s="88"/>
-      <c r="V39" s="88"/>
-      <c r="W39" s="88"/>
-      <c r="X39" s="88"/>
-      <c r="Y39" s="88"/>
-      <c r="Z39" s="88"/>
-      <c r="AA39" s="88"/>
-      <c r="AB39" s="88"/>
-      <c r="AC39" s="88"/>
-      <c r="AD39" s="88"/>
-      <c r="AE39" s="88"/>
-      <c r="AF39" s="88"/>
-      <c r="AG39" s="88"/>
-      <c r="AH39" s="88"/>
-      <c r="AI39" s="88"/>
-      <c r="AJ39" s="88"/>
-      <c r="AK39" s="88"/>
-      <c r="AL39" s="88"/>
-      <c r="AM39" s="88"/>
-      <c r="AN39" s="88"/>
-      <c r="AO39" s="88"/>
-      <c r="AP39" s="88"/>
-      <c r="AQ39" s="88"/>
-      <c r="AR39" s="88"/>
-      <c r="AS39" s="88"/>
-      <c r="AU39" s="122"/>
-      <c r="AV39" s="88"/>
-      <c r="AW39" s="88"/>
-      <c r="AX39" s="88"/>
-      <c r="AY39" s="88"/>
-      <c r="AZ39" s="88"/>
-      <c r="BA39" s="88"/>
-      <c r="BB39" s="88"/>
-      <c r="BC39" s="88"/>
-      <c r="BD39" s="88"/>
-      <c r="BE39" s="88"/>
-      <c r="BF39" s="88"/>
-      <c r="BG39" s="88"/>
-      <c r="BH39" s="88"/>
-      <c r="BI39" s="88"/>
-      <c r="BJ39" s="88"/>
-      <c r="BK39" s="88"/>
-      <c r="BL39" s="88"/>
-      <c r="BM39" s="88"/>
-      <c r="BN39" s="88"/>
-      <c r="BO39" s="88"/>
-      <c r="BP39" s="88"/>
-      <c r="BQ39" s="88"/>
-      <c r="BR39" s="88"/>
-      <c r="BS39" s="88"/>
-      <c r="BT39" s="88"/>
-      <c r="BU39" s="88"/>
-      <c r="BV39" s="88"/>
-      <c r="BW39" s="88"/>
-      <c r="BX39" s="88"/>
-      <c r="BY39" s="88"/>
-      <c r="BZ39" s="88"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="86"/>
+      <c r="N39" s="86"/>
+      <c r="O39" s="86"/>
+      <c r="P39" s="86"/>
+      <c r="Q39" s="86"/>
+      <c r="R39" s="86"/>
+      <c r="S39" s="86"/>
+      <c r="T39" s="86"/>
+      <c r="U39" s="86"/>
+      <c r="V39" s="86"/>
+      <c r="W39" s="86"/>
+      <c r="X39" s="86"/>
+      <c r="Y39" s="86"/>
+      <c r="Z39" s="86"/>
+      <c r="AA39" s="86"/>
+      <c r="AB39" s="86"/>
+      <c r="AC39" s="86"/>
+      <c r="AD39" s="86"/>
+      <c r="AE39" s="86"/>
+      <c r="AF39" s="86"/>
+      <c r="AG39" s="86"/>
+      <c r="AH39" s="86"/>
+      <c r="AI39" s="86"/>
+      <c r="AJ39" s="86"/>
+      <c r="AK39" s="86"/>
+      <c r="AL39" s="86"/>
+      <c r="AM39" s="86"/>
+      <c r="AN39" s="86"/>
+      <c r="AO39" s="86"/>
+      <c r="AP39" s="86"/>
+      <c r="AQ39" s="86"/>
+      <c r="AR39" s="86"/>
+      <c r="AS39" s="86"/>
+      <c r="AU39" s="120"/>
+      <c r="AV39" s="86"/>
+      <c r="AW39" s="86"/>
+      <c r="AX39" s="86"/>
+      <c r="AY39" s="86"/>
+      <c r="AZ39" s="86"/>
+      <c r="BA39" s="86"/>
+      <c r="BB39" s="86"/>
+      <c r="BC39" s="86"/>
+      <c r="BD39" s="86"/>
+      <c r="BE39" s="86"/>
+      <c r="BF39" s="86"/>
+      <c r="BG39" s="86"/>
+      <c r="BH39" s="86"/>
+      <c r="BI39" s="86"/>
+      <c r="BJ39" s="86"/>
+      <c r="BK39" s="86"/>
+      <c r="BL39" s="86"/>
+      <c r="BM39" s="86"/>
+      <c r="BN39" s="86"/>
+      <c r="BO39" s="86"/>
+      <c r="BP39" s="86"/>
+      <c r="BQ39" s="86"/>
+      <c r="BR39" s="86"/>
+      <c r="BS39" s="86"/>
+      <c r="BT39" s="86"/>
+      <c r="BU39" s="86"/>
+      <c r="BV39" s="86"/>
+      <c r="BW39" s="86"/>
+      <c r="BX39" s="86"/>
+      <c r="BY39" s="86"/>
+      <c r="BZ39" s="86"/>
     </row>
-    <row r="40" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="120" t="s">
+      <c r="B40" s="84"/>
+      <c r="C40" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="88"/>
-      <c r="T40" s="88"/>
-      <c r="U40" s="88"/>
-      <c r="V40" s="88"/>
-      <c r="W40" s="88"/>
-      <c r="X40" s="88"/>
-      <c r="Y40" s="88"/>
-      <c r="Z40" s="88"/>
-      <c r="AA40" s="88"/>
-      <c r="AB40" s="88"/>
-      <c r="AC40" s="88"/>
-      <c r="AD40" s="88"/>
-      <c r="AE40" s="88"/>
-      <c r="AF40" s="88"/>
-      <c r="AG40" s="88"/>
-      <c r="AH40" s="88"/>
-      <c r="AI40" s="88"/>
-      <c r="AJ40" s="88"/>
-      <c r="AK40" s="88"/>
-      <c r="AL40" s="88"/>
-      <c r="AM40" s="88"/>
-      <c r="AN40" s="88"/>
-      <c r="AO40" s="121"/>
-      <c r="AP40" s="121"/>
-      <c r="AQ40" s="121"/>
-      <c r="AR40" s="122"/>
-      <c r="AS40" s="88"/>
-      <c r="AT40" s="88"/>
-      <c r="AU40" s="88"/>
-      <c r="AV40" s="88"/>
-      <c r="AW40" s="88"/>
-      <c r="AX40" s="88"/>
-      <c r="AY40" s="88"/>
-      <c r="AZ40" s="88"/>
-      <c r="BA40" s="88"/>
-      <c r="BB40" s="88"/>
-      <c r="BC40" s="88"/>
-      <c r="BD40" s="88"/>
-      <c r="BE40" s="88"/>
-      <c r="BF40" s="88"/>
-      <c r="BG40" s="88"/>
-      <c r="BH40" s="88"/>
-      <c r="BI40" s="88"/>
-      <c r="BJ40" s="88"/>
-      <c r="BK40" s="88"/>
-      <c r="BL40" s="88"/>
-      <c r="BM40" s="88"/>
-      <c r="BN40" s="88"/>
-      <c r="BO40" s="88"/>
-      <c r="BP40" s="88"/>
-      <c r="BQ40" s="88"/>
-      <c r="BR40" s="88"/>
-      <c r="BS40" s="88"/>
-      <c r="BT40" s="88"/>
-      <c r="BU40" s="88"/>
-      <c r="BV40" s="88"/>
-      <c r="BW40" s="88"/>
-      <c r="BX40" s="88"/>
-      <c r="BY40" s="88"/>
-      <c r="BZ40" s="88"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="86"/>
+      <c r="N40" s="86"/>
+      <c r="O40" s="86"/>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="86"/>
+      <c r="R40" s="86"/>
+      <c r="S40" s="86"/>
+      <c r="T40" s="86"/>
+      <c r="U40" s="86"/>
+      <c r="V40" s="86"/>
+      <c r="W40" s="86"/>
+      <c r="X40" s="86"/>
+      <c r="Y40" s="86"/>
+      <c r="Z40" s="86"/>
+      <c r="AA40" s="86"/>
+      <c r="AB40" s="86"/>
+      <c r="AC40" s="86"/>
+      <c r="AD40" s="86"/>
+      <c r="AE40" s="86"/>
+      <c r="AF40" s="86"/>
+      <c r="AG40" s="86"/>
+      <c r="AH40" s="86"/>
+      <c r="AI40" s="86"/>
+      <c r="AJ40" s="86"/>
+      <c r="AK40" s="86"/>
+      <c r="AL40" s="86"/>
+      <c r="AM40" s="86"/>
+      <c r="AN40" s="86"/>
+      <c r="AO40" s="119"/>
+      <c r="AP40" s="119"/>
+      <c r="AQ40" s="119"/>
+      <c r="AR40" s="120"/>
+      <c r="AS40" s="86"/>
+      <c r="AT40" s="86"/>
+      <c r="AU40" s="86"/>
+      <c r="AV40" s="86"/>
+      <c r="AW40" s="86"/>
+      <c r="AX40" s="86"/>
+      <c r="AY40" s="86"/>
+      <c r="AZ40" s="86"/>
+      <c r="BA40" s="86"/>
+      <c r="BB40" s="86"/>
+      <c r="BC40" s="86"/>
+      <c r="BD40" s="86"/>
+      <c r="BE40" s="86"/>
+      <c r="BF40" s="86"/>
+      <c r="BG40" s="86"/>
+      <c r="BH40" s="86"/>
+      <c r="BI40" s="86"/>
+      <c r="BJ40" s="86"/>
+      <c r="BK40" s="86"/>
+      <c r="BL40" s="86"/>
+      <c r="BM40" s="86"/>
+      <c r="BN40" s="86"/>
+      <c r="BO40" s="86"/>
+      <c r="BP40" s="86"/>
+      <c r="BQ40" s="86"/>
+      <c r="BR40" s="86"/>
+      <c r="BS40" s="86"/>
+      <c r="BT40" s="86"/>
+      <c r="BU40" s="86"/>
+      <c r="BV40" s="86"/>
+      <c r="BW40" s="86"/>
+      <c r="BX40" s="86"/>
+      <c r="BY40" s="86"/>
+      <c r="BZ40" s="86"/>
     </row>
-    <row r="41" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="120" t="s">
+      <c r="B41" s="84"/>
+      <c r="C41" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="88"/>
-      <c r="V41" s="88"/>
-      <c r="W41" s="88"/>
-      <c r="X41" s="88"/>
-      <c r="Y41" s="88"/>
-      <c r="Z41" s="88"/>
-      <c r="AA41" s="88"/>
-      <c r="AB41" s="88"/>
-      <c r="AC41" s="88"/>
-      <c r="AD41" s="88"/>
-      <c r="AE41" s="88"/>
-      <c r="AF41" s="88"/>
-      <c r="AG41" s="88"/>
-      <c r="AH41" s="88"/>
-      <c r="AI41" s="88"/>
-      <c r="AJ41" s="88"/>
-      <c r="AK41" s="88"/>
-      <c r="AL41" s="88"/>
-      <c r="AM41" s="88"/>
-      <c r="AN41" s="88"/>
-      <c r="AO41" s="121"/>
-      <c r="AP41" s="121"/>
-      <c r="AQ41" s="121"/>
-      <c r="AR41" s="121"/>
-      <c r="AS41" s="121"/>
-      <c r="AT41" s="122"/>
-      <c r="AU41" s="88"/>
-      <c r="AV41" s="88"/>
-      <c r="AW41" s="88"/>
-      <c r="AX41" s="88"/>
-      <c r="AY41" s="88"/>
-      <c r="AZ41" s="88"/>
-      <c r="BA41" s="88"/>
-      <c r="BB41" s="88"/>
-      <c r="BC41" s="88"/>
-      <c r="BD41" s="88"/>
-      <c r="BE41" s="88"/>
-      <c r="BF41" s="88"/>
-      <c r="BG41" s="88"/>
-      <c r="BH41" s="88"/>
-      <c r="BI41" s="88"/>
-      <c r="BJ41" s="88"/>
-      <c r="BK41" s="88"/>
-      <c r="BL41" s="88"/>
-      <c r="BM41" s="88"/>
-      <c r="BN41" s="88"/>
-      <c r="BO41" s="88"/>
-      <c r="BP41" s="88"/>
-      <c r="BQ41" s="88"/>
-      <c r="BR41" s="88"/>
-      <c r="BS41" s="88"/>
-      <c r="BT41" s="88"/>
-      <c r="BU41" s="88"/>
-      <c r="BV41" s="88"/>
-      <c r="BW41" s="88"/>
-      <c r="BX41" s="88"/>
-      <c r="BY41" s="88"/>
-      <c r="BZ41" s="88"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="86"/>
+      <c r="O41" s="86"/>
+      <c r="P41" s="86"/>
+      <c r="Q41" s="86"/>
+      <c r="R41" s="86"/>
+      <c r="S41" s="86"/>
+      <c r="T41" s="86"/>
+      <c r="U41" s="86"/>
+      <c r="V41" s="86"/>
+      <c r="W41" s="86"/>
+      <c r="X41" s="86"/>
+      <c r="Y41" s="86"/>
+      <c r="Z41" s="86"/>
+      <c r="AA41" s="86"/>
+      <c r="AB41" s="86"/>
+      <c r="AC41" s="86"/>
+      <c r="AD41" s="86"/>
+      <c r="AE41" s="86"/>
+      <c r="AF41" s="86"/>
+      <c r="AG41" s="86"/>
+      <c r="AH41" s="86"/>
+      <c r="AI41" s="86"/>
+      <c r="AJ41" s="86"/>
+      <c r="AK41" s="86"/>
+      <c r="AL41" s="86"/>
+      <c r="AM41" s="86"/>
+      <c r="AN41" s="86"/>
+      <c r="AO41" s="119"/>
+      <c r="AP41" s="119"/>
+      <c r="AQ41" s="119"/>
+      <c r="AR41" s="119"/>
+      <c r="AS41" s="119"/>
+      <c r="AT41" s="120"/>
+      <c r="AU41" s="86"/>
+      <c r="AV41" s="86"/>
+      <c r="AW41" s="86"/>
+      <c r="AX41" s="86"/>
+      <c r="AY41" s="86"/>
+      <c r="AZ41" s="86"/>
+      <c r="BA41" s="86"/>
+      <c r="BB41" s="86"/>
+      <c r="BC41" s="86"/>
+      <c r="BD41" s="86"/>
+      <c r="BE41" s="86"/>
+      <c r="BF41" s="86"/>
+      <c r="BG41" s="86"/>
+      <c r="BH41" s="86"/>
+      <c r="BI41" s="86"/>
+      <c r="BJ41" s="86"/>
+      <c r="BK41" s="86"/>
+      <c r="BL41" s="86"/>
+      <c r="BM41" s="86"/>
+      <c r="BN41" s="86"/>
+      <c r="BO41" s="86"/>
+      <c r="BP41" s="86"/>
+      <c r="BQ41" s="86"/>
+      <c r="BR41" s="86"/>
+      <c r="BS41" s="86"/>
+      <c r="BT41" s="86"/>
+      <c r="BU41" s="86"/>
+      <c r="BV41" s="86"/>
+      <c r="BW41" s="86"/>
+      <c r="BX41" s="86"/>
+      <c r="BY41" s="86"/>
+      <c r="BZ41" s="86"/>
     </row>
-    <row r="42" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="120" t="s">
+      <c r="B42" s="84"/>
+      <c r="C42" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="88"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="88"/>
-      <c r="V42" s="88"/>
-      <c r="W42" s="88"/>
-      <c r="X42" s="88"/>
-      <c r="Y42" s="88"/>
-      <c r="Z42" s="88"/>
-      <c r="AA42" s="88"/>
-      <c r="AB42" s="88"/>
-      <c r="AC42" s="88"/>
-      <c r="AD42" s="88"/>
-      <c r="AE42" s="88"/>
-      <c r="AF42" s="88"/>
-      <c r="AG42" s="88"/>
-      <c r="AH42" s="88"/>
-      <c r="AI42" s="88"/>
-      <c r="AJ42" s="88"/>
-      <c r="AK42" s="88"/>
-      <c r="AL42" s="88"/>
-      <c r="AM42" s="88"/>
-      <c r="AN42" s="88"/>
-      <c r="AO42" s="88"/>
-      <c r="AP42" s="88"/>
-      <c r="AQ42" s="88"/>
-      <c r="AR42" s="88"/>
-      <c r="AS42" s="88"/>
-      <c r="AT42" s="121"/>
-      <c r="AU42" s="121"/>
-      <c r="AV42" s="121"/>
-      <c r="AW42" s="122"/>
-      <c r="AX42" s="122"/>
-      <c r="AY42" s="122"/>
-      <c r="AZ42" s="88"/>
-      <c r="BA42" s="88"/>
-      <c r="BB42" s="88"/>
-      <c r="BC42" s="88"/>
-      <c r="BD42" s="88"/>
-      <c r="BE42" s="88"/>
-      <c r="BF42" s="88"/>
-      <c r="BG42" s="88"/>
-      <c r="BH42" s="88"/>
-      <c r="BI42" s="88"/>
-      <c r="BJ42" s="88"/>
-      <c r="BK42" s="88"/>
-      <c r="BL42" s="88"/>
-      <c r="BM42" s="88"/>
-      <c r="BN42" s="88"/>
-      <c r="BO42" s="88"/>
-      <c r="BP42" s="88"/>
-      <c r="BQ42" s="88"/>
-      <c r="BR42" s="88"/>
-      <c r="BS42" s="88"/>
-      <c r="BT42" s="88"/>
-      <c r="BU42" s="88"/>
-      <c r="BV42" s="88"/>
-      <c r="BW42" s="88"/>
-      <c r="BX42" s="88"/>
-      <c r="BY42" s="88"/>
-      <c r="BZ42" s="88"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="86"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="86"/>
+      <c r="O42" s="86"/>
+      <c r="P42" s="86"/>
+      <c r="Q42" s="86"/>
+      <c r="R42" s="86"/>
+      <c r="S42" s="86"/>
+      <c r="T42" s="86"/>
+      <c r="U42" s="86"/>
+      <c r="V42" s="86"/>
+      <c r="W42" s="86"/>
+      <c r="X42" s="86"/>
+      <c r="Y42" s="86"/>
+      <c r="Z42" s="86"/>
+      <c r="AA42" s="86"/>
+      <c r="AB42" s="86"/>
+      <c r="AC42" s="86"/>
+      <c r="AD42" s="86"/>
+      <c r="AE42" s="86"/>
+      <c r="AF42" s="86"/>
+      <c r="AG42" s="86"/>
+      <c r="AH42" s="86"/>
+      <c r="AI42" s="86"/>
+      <c r="AJ42" s="86"/>
+      <c r="AK42" s="86"/>
+      <c r="AL42" s="86"/>
+      <c r="AM42" s="86"/>
+      <c r="AN42" s="86"/>
+      <c r="AO42" s="86"/>
+      <c r="AP42" s="86"/>
+      <c r="AQ42" s="86"/>
+      <c r="AR42" s="86"/>
+      <c r="AS42" s="86"/>
+      <c r="AT42" s="119"/>
+      <c r="AU42" s="119"/>
+      <c r="AV42" s="119"/>
+      <c r="AW42" s="120"/>
+      <c r="AX42" s="120"/>
+      <c r="AY42" s="120"/>
+      <c r="AZ42" s="86"/>
+      <c r="BA42" s="86"/>
+      <c r="BB42" s="86"/>
+      <c r="BC42" s="86"/>
+      <c r="BD42" s="86"/>
+      <c r="BE42" s="86"/>
+      <c r="BF42" s="86"/>
+      <c r="BG42" s="86"/>
+      <c r="BH42" s="86"/>
+      <c r="BI42" s="86"/>
+      <c r="BJ42" s="86"/>
+      <c r="BK42" s="86"/>
+      <c r="BL42" s="86"/>
+      <c r="BM42" s="86"/>
+      <c r="BN42" s="86"/>
+      <c r="BO42" s="86"/>
+      <c r="BP42" s="86"/>
+      <c r="BQ42" s="86"/>
+      <c r="BR42" s="86"/>
+      <c r="BS42" s="86"/>
+      <c r="BT42" s="86"/>
+      <c r="BU42" s="86"/>
+      <c r="BV42" s="86"/>
+      <c r="BW42" s="86"/>
+      <c r="BX42" s="86"/>
+      <c r="BY42" s="86"/>
+      <c r="BZ42" s="86"/>
     </row>
-    <row r="43" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88"/>
-      <c r="Q43" s="88"/>
-      <c r="R43" s="88"/>
-      <c r="S43" s="88"/>
-      <c r="T43" s="88"/>
-      <c r="U43" s="88"/>
-      <c r="V43" s="88"/>
-      <c r="W43" s="88"/>
-      <c r="X43" s="88"/>
-      <c r="Y43" s="88"/>
-      <c r="Z43" s="88"/>
-      <c r="AA43" s="88"/>
-      <c r="AB43" s="88"/>
-      <c r="AC43" s="88"/>
-      <c r="AD43" s="88"/>
-      <c r="AE43" s="88"/>
-      <c r="AF43" s="88"/>
-      <c r="AG43" s="88"/>
-      <c r="AH43" s="88"/>
-      <c r="AI43" s="88"/>
-      <c r="AJ43" s="88"/>
-      <c r="AK43" s="88"/>
-      <c r="AL43" s="88"/>
-      <c r="AM43" s="88"/>
-      <c r="AN43" s="88"/>
-      <c r="AO43" s="88"/>
-      <c r="AP43" s="88"/>
-      <c r="AQ43" s="88"/>
-      <c r="AR43" s="88"/>
-      <c r="AS43" s="88"/>
-      <c r="AT43" s="88"/>
-      <c r="AU43" s="88"/>
-      <c r="AV43" s="88"/>
-      <c r="AW43" s="88"/>
-      <c r="AX43" s="88"/>
-      <c r="AY43" s="88"/>
-      <c r="AZ43" s="88"/>
-      <c r="BA43" s="88"/>
-      <c r="BB43" s="88"/>
-      <c r="BC43" s="88"/>
-      <c r="BD43" s="88"/>
-      <c r="BE43" s="88"/>
-      <c r="BF43" s="88"/>
-      <c r="BG43" s="88"/>
-      <c r="BH43" s="88"/>
-      <c r="BI43" s="88"/>
-      <c r="BJ43" s="88"/>
-      <c r="BK43" s="88"/>
-      <c r="BL43" s="88"/>
-      <c r="BM43" s="88"/>
-      <c r="BN43" s="88"/>
-      <c r="BO43" s="88"/>
-      <c r="BP43" s="88"/>
-      <c r="BQ43" s="88"/>
-      <c r="BR43" s="88"/>
-      <c r="BS43" s="88"/>
-      <c r="BT43" s="88"/>
-      <c r="BU43" s="88"/>
-      <c r="BV43" s="88"/>
-      <c r="BW43" s="88"/>
-      <c r="BX43" s="88"/>
-      <c r="BY43" s="88"/>
-      <c r="BZ43" s="88"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="86"/>
+      <c r="N43" s="86"/>
+      <c r="O43" s="86"/>
+      <c r="P43" s="86"/>
+      <c r="Q43" s="86"/>
+      <c r="R43" s="86"/>
+      <c r="S43" s="86"/>
+      <c r="T43" s="86"/>
+      <c r="U43" s="86"/>
+      <c r="V43" s="86"/>
+      <c r="W43" s="86"/>
+      <c r="X43" s="86"/>
+      <c r="Y43" s="86"/>
+      <c r="Z43" s="86"/>
+      <c r="AA43" s="86"/>
+      <c r="AB43" s="86"/>
+      <c r="AC43" s="86"/>
+      <c r="AD43" s="86"/>
+      <c r="AE43" s="86"/>
+      <c r="AF43" s="86"/>
+      <c r="AG43" s="86"/>
+      <c r="AH43" s="86"/>
+      <c r="AI43" s="86"/>
+      <c r="AJ43" s="86"/>
+      <c r="AK43" s="86"/>
+      <c r="AL43" s="86"/>
+      <c r="AM43" s="86"/>
+      <c r="AN43" s="86"/>
+      <c r="AO43" s="86"/>
+      <c r="AP43" s="86"/>
+      <c r="AQ43" s="86"/>
+      <c r="AR43" s="86"/>
+      <c r="AS43" s="86"/>
+      <c r="AT43" s="86"/>
+      <c r="AU43" s="86"/>
+      <c r="AV43" s="86"/>
+      <c r="AW43" s="119"/>
+      <c r="AX43" s="119"/>
+      <c r="AY43" s="119"/>
+      <c r="AZ43" s="119"/>
+      <c r="BA43" s="119"/>
+      <c r="BB43" s="120"/>
+      <c r="BC43" s="86"/>
+      <c r="BD43" s="86"/>
+      <c r="BE43" s="86"/>
+      <c r="BF43" s="86"/>
+      <c r="BG43" s="86"/>
+      <c r="BH43" s="86"/>
+      <c r="BI43" s="86"/>
+      <c r="BJ43" s="86"/>
+      <c r="BK43" s="86"/>
+      <c r="BL43" s="86"/>
+      <c r="BM43" s="86"/>
+      <c r="BN43" s="86"/>
+      <c r="BO43" s="86"/>
+      <c r="BP43" s="86"/>
+      <c r="BQ43" s="86"/>
+      <c r="BR43" s="86"/>
+      <c r="BS43" s="86"/>
+      <c r="BT43" s="86"/>
+      <c r="BU43" s="86"/>
+      <c r="BV43" s="86"/>
+      <c r="BW43" s="86"/>
+      <c r="BX43" s="86"/>
+      <c r="BY43" s="86"/>
+      <c r="BZ43" s="86"/>
     </row>
-    <row r="44" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="120"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="88"/>
-      <c r="U44" s="88"/>
-      <c r="V44" s="88"/>
-      <c r="W44" s="88"/>
-      <c r="X44" s="88"/>
-      <c r="Y44" s="88"/>
-      <c r="Z44" s="88"/>
-      <c r="AA44" s="88"/>
-      <c r="AB44" s="88"/>
-      <c r="AC44" s="88"/>
-      <c r="AD44" s="88"/>
-      <c r="AE44" s="88"/>
-      <c r="AF44" s="88"/>
-      <c r="AG44" s="88"/>
-      <c r="AH44" s="88"/>
-      <c r="AI44" s="88"/>
-      <c r="AJ44" s="88"/>
-      <c r="AK44" s="88"/>
-      <c r="AL44" s="88"/>
-      <c r="AM44" s="88"/>
-      <c r="AN44" s="88"/>
-      <c r="AO44" s="88"/>
-      <c r="AP44" s="88"/>
-      <c r="AQ44" s="88"/>
-      <c r="AR44" s="88"/>
-      <c r="AS44" s="88"/>
-      <c r="AT44" s="88"/>
-      <c r="AU44" s="88"/>
-      <c r="AV44" s="88"/>
-      <c r="AW44" s="88"/>
-      <c r="AX44" s="88"/>
-      <c r="AY44" s="88"/>
-      <c r="AZ44" s="88"/>
-      <c r="BA44" s="88"/>
-      <c r="BB44" s="88"/>
-      <c r="BC44" s="88"/>
-      <c r="BD44" s="88"/>
-      <c r="BE44" s="88"/>
-      <c r="BF44" s="88"/>
-      <c r="BG44" s="88"/>
-      <c r="BH44" s="88"/>
-      <c r="BI44" s="88"/>
-      <c r="BJ44" s="88"/>
-      <c r="BK44" s="88"/>
-      <c r="BL44" s="88"/>
-      <c r="BM44" s="88"/>
-      <c r="BN44" s="88"/>
-      <c r="BO44" s="88"/>
-      <c r="BP44" s="88"/>
-      <c r="BQ44" s="88"/>
-      <c r="BR44" s="88"/>
-      <c r="BS44" s="88"/>
-      <c r="BT44" s="88"/>
-      <c r="BU44" s="88"/>
-      <c r="BV44" s="88"/>
-      <c r="BW44" s="88"/>
-      <c r="BX44" s="88"/>
-      <c r="BY44" s="88"/>
-      <c r="BZ44" s="88"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="86"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="86"/>
+      <c r="N44" s="86"/>
+      <c r="O44" s="86"/>
+      <c r="P44" s="86"/>
+      <c r="Q44" s="86"/>
+      <c r="R44" s="86"/>
+      <c r="S44" s="86"/>
+      <c r="T44" s="86"/>
+      <c r="U44" s="86"/>
+      <c r="V44" s="86"/>
+      <c r="W44" s="86"/>
+      <c r="X44" s="86"/>
+      <c r="Y44" s="86"/>
+      <c r="Z44" s="86"/>
+      <c r="AA44" s="86"/>
+      <c r="AB44" s="86"/>
+      <c r="AC44" s="86"/>
+      <c r="AD44" s="86"/>
+      <c r="AE44" s="86"/>
+      <c r="AF44" s="86"/>
+      <c r="AG44" s="86"/>
+      <c r="AH44" s="86"/>
+      <c r="AI44" s="86"/>
+      <c r="AJ44" s="86"/>
+      <c r="AK44" s="86"/>
+      <c r="AL44" s="86"/>
+      <c r="AM44" s="86"/>
+      <c r="AN44" s="86"/>
+      <c r="AO44" s="86"/>
+      <c r="AP44" s="86"/>
+      <c r="AQ44" s="86"/>
+      <c r="AR44" s="86"/>
+      <c r="AS44" s="86"/>
+      <c r="AT44" s="86"/>
+      <c r="AU44" s="86"/>
+      <c r="AV44" s="86"/>
+      <c r="AW44" s="119"/>
+      <c r="AX44" s="119"/>
+      <c r="AY44" s="119"/>
+      <c r="AZ44" s="119"/>
+      <c r="BA44" s="119"/>
+      <c r="BB44" s="120"/>
+      <c r="BC44" s="86"/>
+      <c r="BD44" s="86"/>
+      <c r="BE44" s="86"/>
+      <c r="BF44" s="86"/>
+      <c r="BG44" s="86"/>
+      <c r="BH44" s="86"/>
+      <c r="BI44" s="86"/>
+      <c r="BJ44" s="86"/>
+      <c r="BK44" s="86"/>
+      <c r="BL44" s="86"/>
+      <c r="BM44" s="86"/>
+      <c r="BN44" s="86"/>
+      <c r="BO44" s="86"/>
+      <c r="BP44" s="86"/>
+      <c r="BQ44" s="86"/>
+      <c r="BR44" s="86"/>
+      <c r="BS44" s="86"/>
+      <c r="BT44" s="86"/>
+      <c r="BU44" s="86"/>
+      <c r="BV44" s="86"/>
+      <c r="BW44" s="86"/>
+      <c r="BX44" s="86"/>
+      <c r="BY44" s="86"/>
+      <c r="BZ44" s="86"/>
     </row>
-    <row r="45" spans="1:78" s="105" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="134"/>
-      <c r="B45" s="142"/>
-      <c r="C45" s="143" t="s">
+    <row r="45" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="86"/>
+      <c r="N45" s="86"/>
+      <c r="O45" s="86"/>
+      <c r="P45" s="86"/>
+      <c r="Q45" s="86"/>
+      <c r="R45" s="86"/>
+      <c r="S45" s="86"/>
+      <c r="T45" s="86"/>
+      <c r="U45" s="86"/>
+      <c r="V45" s="86"/>
+      <c r="W45" s="86"/>
+      <c r="X45" s="86"/>
+      <c r="Y45" s="86"/>
+      <c r="Z45" s="86"/>
+      <c r="AA45" s="86"/>
+      <c r="AB45" s="86"/>
+      <c r="AC45" s="86"/>
+      <c r="AD45" s="86"/>
+      <c r="AE45" s="86"/>
+      <c r="AF45" s="86"/>
+      <c r="AG45" s="86"/>
+      <c r="AH45" s="86"/>
+      <c r="AI45" s="86"/>
+      <c r="AJ45" s="86"/>
+      <c r="AK45" s="86"/>
+      <c r="AL45" s="86"/>
+      <c r="AM45" s="86"/>
+      <c r="AN45" s="86"/>
+      <c r="AO45" s="86"/>
+      <c r="AP45" s="86"/>
+      <c r="AQ45" s="86"/>
+      <c r="AR45" s="86"/>
+      <c r="AS45" s="86"/>
+      <c r="AT45" s="86"/>
+      <c r="AU45" s="86"/>
+      <c r="AV45" s="86"/>
+      <c r="AW45" s="86"/>
+      <c r="AX45" s="86"/>
+      <c r="AY45" s="86"/>
+      <c r="AZ45" s="86"/>
+      <c r="BA45" s="86"/>
+      <c r="BB45" s="86"/>
+      <c r="BC45" s="86"/>
+      <c r="BD45" s="86"/>
+      <c r="BE45" s="86"/>
+      <c r="BF45" s="86"/>
+      <c r="BG45" s="86"/>
+      <c r="BH45" s="86"/>
+      <c r="BI45" s="86"/>
+      <c r="BJ45" s="86"/>
+      <c r="BK45" s="86"/>
+      <c r="BL45" s="86"/>
+      <c r="BM45" s="86"/>
+      <c r="BN45" s="86"/>
+      <c r="BO45" s="86"/>
+      <c r="BP45" s="86"/>
+      <c r="BQ45" s="86"/>
+      <c r="BR45" s="86"/>
+      <c r="BS45" s="86"/>
+      <c r="BT45" s="86"/>
+      <c r="BU45" s="86"/>
+      <c r="BV45" s="86"/>
+      <c r="BW45" s="86"/>
+      <c r="BX45" s="86"/>
+      <c r="BY45" s="86"/>
+      <c r="BZ45" s="86"/>
+    </row>
+    <row r="46" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="86"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="86"/>
+      <c r="N46" s="86"/>
+      <c r="O46" s="86"/>
+      <c r="P46" s="86"/>
+      <c r="Q46" s="86"/>
+      <c r="R46" s="86"/>
+      <c r="S46" s="86"/>
+      <c r="T46" s="86"/>
+      <c r="U46" s="86"/>
+      <c r="V46" s="86"/>
+      <c r="W46" s="86"/>
+      <c r="X46" s="86"/>
+      <c r="Y46" s="86"/>
+      <c r="Z46" s="86"/>
+      <c r="AA46" s="86"/>
+      <c r="AB46" s="86"/>
+      <c r="AC46" s="86"/>
+      <c r="AD46" s="86"/>
+      <c r="AE46" s="86"/>
+      <c r="AF46" s="86"/>
+      <c r="AG46" s="86"/>
+      <c r="AH46" s="86"/>
+      <c r="AI46" s="86"/>
+      <c r="AJ46" s="86"/>
+      <c r="AK46" s="86"/>
+      <c r="AL46" s="86"/>
+      <c r="AM46" s="86"/>
+      <c r="AN46" s="86"/>
+      <c r="AO46" s="86"/>
+      <c r="AP46" s="86"/>
+      <c r="AQ46" s="86"/>
+      <c r="AR46" s="86"/>
+      <c r="AS46" s="86"/>
+      <c r="AT46" s="86"/>
+      <c r="AU46" s="86"/>
+      <c r="AV46" s="86"/>
+      <c r="AW46" s="86"/>
+      <c r="AX46" s="86"/>
+      <c r="AY46" s="86"/>
+      <c r="AZ46" s="86"/>
+      <c r="BA46" s="86"/>
+      <c r="BB46" s="86"/>
+      <c r="BC46" s="86"/>
+      <c r="BD46" s="86"/>
+      <c r="BE46" s="86"/>
+      <c r="BF46" s="86"/>
+      <c r="BG46" s="86"/>
+      <c r="BH46" s="86"/>
+      <c r="BI46" s="86"/>
+      <c r="BJ46" s="86"/>
+      <c r="BK46" s="86"/>
+      <c r="BL46" s="86"/>
+      <c r="BM46" s="86"/>
+      <c r="BN46" s="86"/>
+      <c r="BO46" s="86"/>
+      <c r="BP46" s="86"/>
+      <c r="BQ46" s="86"/>
+      <c r="BR46" s="86"/>
+      <c r="BS46" s="86"/>
+      <c r="BT46" s="86"/>
+      <c r="BU46" s="86"/>
+      <c r="BV46" s="86"/>
+      <c r="BW46" s="86"/>
+      <c r="BX46" s="86"/>
+      <c r="BY46" s="86"/>
+      <c r="BZ46" s="86"/>
+    </row>
+    <row r="47" spans="1:78" s="103" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="132"/>
+      <c r="B47" s="140"/>
+      <c r="C47" s="141" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="141"/>
-      <c r="J45" s="145"/>
-      <c r="K45" s="146"/>
-      <c r="L45" s="146"/>
-      <c r="M45" s="141"/>
-      <c r="N45" s="141"/>
-      <c r="O45" s="141"/>
-      <c r="P45" s="141"/>
-      <c r="Q45" s="141"/>
-      <c r="R45" s="141"/>
-      <c r="S45" s="141"/>
-      <c r="T45" s="141"/>
-      <c r="U45" s="141"/>
-      <c r="V45" s="141"/>
-      <c r="W45" s="141"/>
-      <c r="X45" s="141"/>
-      <c r="Y45" s="141"/>
-      <c r="Z45" s="141"/>
-      <c r="AA45" s="141"/>
-      <c r="AB45" s="141"/>
-      <c r="AC45" s="141"/>
-      <c r="AD45" s="141"/>
-      <c r="AE45" s="141"/>
-      <c r="AF45" s="141"/>
-      <c r="AG45" s="141"/>
-      <c r="AH45" s="141"/>
-      <c r="AI45" s="141"/>
-      <c r="AJ45" s="141"/>
-      <c r="AK45" s="141"/>
-      <c r="AL45" s="141"/>
-      <c r="AM45" s="141"/>
-      <c r="AN45" s="141"/>
-      <c r="AO45" s="141"/>
-      <c r="AP45" s="141"/>
-      <c r="AQ45" s="141"/>
-      <c r="AR45" s="141"/>
-      <c r="AS45" s="141"/>
-      <c r="AT45" s="141"/>
-      <c r="AU45" s="141"/>
-      <c r="AV45" s="141"/>
-      <c r="AW45" s="141"/>
-      <c r="AX45" s="141"/>
-      <c r="AY45" s="141"/>
-      <c r="AZ45" s="141"/>
-      <c r="BA45" s="141"/>
-      <c r="BB45" s="141"/>
-      <c r="BC45" s="141"/>
-      <c r="BD45" s="141"/>
-      <c r="BE45" s="141"/>
-      <c r="BF45" s="141"/>
-      <c r="BG45" s="141"/>
-      <c r="BH45" s="141"/>
-      <c r="BI45" s="141"/>
-      <c r="BJ45" s="141"/>
-      <c r="BK45" s="141"/>
-      <c r="BL45" s="141"/>
-      <c r="BM45" s="141"/>
-      <c r="BN45" s="141"/>
-      <c r="BO45" s="141"/>
-      <c r="BP45" s="141"/>
-      <c r="BQ45" s="141"/>
-      <c r="BR45" s="141"/>
-      <c r="BS45" s="141"/>
-      <c r="BT45" s="141"/>
-      <c r="BU45" s="141"/>
-      <c r="BV45" s="141"/>
-      <c r="BW45" s="141"/>
-      <c r="BX45" s="141"/>
-      <c r="BY45" s="141"/>
-      <c r="BZ45" s="141"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="139"/>
+      <c r="J47" s="143"/>
+      <c r="K47" s="144"/>
+      <c r="L47" s="144"/>
+      <c r="M47" s="139"/>
+      <c r="N47" s="139"/>
+      <c r="O47" s="139"/>
+      <c r="P47" s="139"/>
+      <c r="Q47" s="139"/>
+      <c r="R47" s="139"/>
+      <c r="S47" s="139"/>
+      <c r="T47" s="139"/>
+      <c r="U47" s="139"/>
+      <c r="V47" s="139"/>
+      <c r="W47" s="139"/>
+      <c r="X47" s="139"/>
+      <c r="Y47" s="139"/>
+      <c r="Z47" s="139"/>
+      <c r="AA47" s="139"/>
+      <c r="AB47" s="139"/>
+      <c r="AC47" s="139"/>
+      <c r="AD47" s="139"/>
+      <c r="AE47" s="139"/>
+      <c r="AF47" s="139"/>
+      <c r="AG47" s="139"/>
+      <c r="AH47" s="139"/>
+      <c r="AI47" s="139"/>
+      <c r="AJ47" s="139"/>
+      <c r="AK47" s="139"/>
+      <c r="AL47" s="139"/>
+      <c r="AM47" s="139"/>
+      <c r="AN47" s="139"/>
+      <c r="AO47" s="139"/>
+      <c r="AP47" s="139"/>
+      <c r="AQ47" s="139"/>
+      <c r="AR47" s="139"/>
+      <c r="AS47" s="139"/>
+      <c r="AT47" s="139"/>
+      <c r="AU47" s="139"/>
+      <c r="AV47" s="139"/>
+      <c r="AW47" s="139"/>
+      <c r="AX47" s="139"/>
+      <c r="AY47" s="139"/>
+      <c r="AZ47" s="139"/>
+      <c r="BA47" s="139"/>
+      <c r="BB47" s="139"/>
+      <c r="BC47" s="139"/>
+      <c r="BD47" s="139"/>
+      <c r="BE47" s="139"/>
+      <c r="BF47" s="139"/>
+      <c r="BG47" s="139"/>
+      <c r="BH47" s="139"/>
+      <c r="BI47" s="139"/>
+      <c r="BJ47" s="139"/>
+      <c r="BK47" s="139"/>
+      <c r="BL47" s="139"/>
+      <c r="BM47" s="139"/>
+      <c r="BN47" s="139"/>
+      <c r="BO47" s="139"/>
+      <c r="BP47" s="139"/>
+      <c r="BQ47" s="139"/>
+      <c r="BR47" s="139"/>
+      <c r="BS47" s="139"/>
+      <c r="BT47" s="139"/>
+      <c r="BU47" s="139"/>
+      <c r="BV47" s="139"/>
+      <c r="BW47" s="139"/>
+      <c r="BX47" s="139"/>
+      <c r="BY47" s="139"/>
+      <c r="BZ47" s="139"/>
     </row>
-    <row r="46" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="21"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="120" t="s">
+    <row r="48" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="21"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="118" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="90"/>
-      <c r="L46" s="90"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="88"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="88"/>
-      <c r="T46" s="88"/>
-      <c r="U46" s="88"/>
-      <c r="V46" s="88"/>
-      <c r="W46" s="88"/>
-      <c r="X46" s="88"/>
-      <c r="Y46" s="88"/>
-      <c r="Z46" s="88"/>
-      <c r="AA46" s="88"/>
-      <c r="AB46" s="88"/>
-      <c r="AC46" s="88"/>
-      <c r="AD46" s="88"/>
-      <c r="AE46" s="88"/>
-      <c r="AF46" s="88"/>
-      <c r="AG46" s="88"/>
-      <c r="AH46" s="88"/>
-      <c r="AI46" s="88"/>
-      <c r="AJ46" s="121"/>
-      <c r="AK46" s="121"/>
-      <c r="AL46" s="121"/>
-      <c r="AM46" s="122"/>
-      <c r="AN46" s="88"/>
-      <c r="AO46" s="88"/>
-      <c r="AP46" s="88"/>
-      <c r="AQ46" s="88"/>
-      <c r="AR46" s="88"/>
-      <c r="AS46" s="88"/>
-      <c r="AT46" s="88"/>
-      <c r="AU46" s="88"/>
-      <c r="AV46" s="88"/>
-      <c r="AW46" s="88"/>
-      <c r="AX46" s="88"/>
-      <c r="AY46" s="88"/>
-      <c r="AZ46" s="88"/>
-      <c r="BA46" s="88"/>
-      <c r="BB46" s="88"/>
-      <c r="BC46" s="88"/>
-      <c r="BD46" s="88"/>
-      <c r="BE46" s="88"/>
-      <c r="BF46" s="88"/>
-      <c r="BG46" s="88"/>
-      <c r="BH46" s="88"/>
-      <c r="BI46" s="88"/>
-      <c r="BJ46" s="88"/>
-      <c r="BK46" s="88"/>
-      <c r="BL46" s="88"/>
-      <c r="BM46" s="88"/>
-      <c r="BN46" s="88"/>
-      <c r="BO46" s="88"/>
-      <c r="BP46" s="88"/>
-      <c r="BQ46" s="88"/>
-      <c r="BR46" s="88"/>
-      <c r="BS46" s="88"/>
-      <c r="BT46" s="88"/>
-      <c r="BU46" s="88"/>
-      <c r="BV46" s="88"/>
-      <c r="BW46" s="88"/>
-      <c r="BX46" s="88"/>
-      <c r="BY46" s="88"/>
-      <c r="BZ46" s="88"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="86"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="88"/>
+      <c r="M48" s="86"/>
+      <c r="N48" s="86"/>
+      <c r="O48" s="86"/>
+      <c r="P48" s="86"/>
+      <c r="Q48" s="86"/>
+      <c r="R48" s="86"/>
+      <c r="S48" s="86"/>
+      <c r="T48" s="86"/>
+      <c r="U48" s="86"/>
+      <c r="V48" s="86"/>
+      <c r="W48" s="86"/>
+      <c r="X48" s="86"/>
+      <c r="Y48" s="86"/>
+      <c r="Z48" s="86"/>
+      <c r="AA48" s="86"/>
+      <c r="AB48" s="86"/>
+      <c r="AC48" s="86"/>
+      <c r="AD48" s="86"/>
+      <c r="AE48" s="86"/>
+      <c r="AF48" s="86"/>
+      <c r="AG48" s="86"/>
+      <c r="AH48" s="86"/>
+      <c r="AI48" s="86"/>
+      <c r="AJ48" s="119"/>
+      <c r="AK48" s="119"/>
+      <c r="AL48" s="119"/>
+      <c r="AM48" s="120"/>
+      <c r="AN48" s="86"/>
+      <c r="AO48" s="86"/>
+      <c r="AP48" s="86"/>
+      <c r="AQ48" s="86"/>
+      <c r="AR48" s="86"/>
+      <c r="AS48" s="86"/>
+      <c r="AT48" s="86"/>
+      <c r="AU48" s="86"/>
+      <c r="AV48" s="86"/>
+      <c r="AW48" s="86"/>
+      <c r="AX48" s="86"/>
+      <c r="AY48" s="86"/>
+      <c r="AZ48" s="86"/>
+      <c r="BA48" s="86"/>
+      <c r="BB48" s="86"/>
+      <c r="BC48" s="86"/>
+      <c r="BD48" s="86"/>
+      <c r="BE48" s="86"/>
+      <c r="BF48" s="86"/>
+      <c r="BG48" s="86"/>
+      <c r="BH48" s="86"/>
+      <c r="BI48" s="86"/>
+      <c r="BJ48" s="86"/>
+      <c r="BK48" s="86"/>
+      <c r="BL48" s="86"/>
+      <c r="BM48" s="86"/>
+      <c r="BN48" s="86"/>
+      <c r="BO48" s="86"/>
+      <c r="BP48" s="86"/>
+      <c r="BQ48" s="86"/>
+      <c r="BR48" s="86"/>
+      <c r="BS48" s="86"/>
+      <c r="BT48" s="86"/>
+      <c r="BU48" s="86"/>
+      <c r="BV48" s="86"/>
+      <c r="BW48" s="86"/>
+      <c r="BX48" s="86"/>
+      <c r="BY48" s="86"/>
+      <c r="BZ48" s="86"/>
     </row>
-    <row r="47" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="21"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="120" t="s">
+    <row r="49" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="118" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="90"/>
-      <c r="L47" s="90"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="88"/>
-      <c r="S47" s="88"/>
-      <c r="T47" s="88"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="88"/>
-      <c r="W47" s="88"/>
-      <c r="X47" s="88"/>
-      <c r="Y47" s="88"/>
-      <c r="Z47" s="88"/>
-      <c r="AA47" s="88"/>
-      <c r="AB47" s="88"/>
-      <c r="AC47" s="88"/>
-      <c r="AD47" s="88"/>
-      <c r="AE47" s="88"/>
-      <c r="AF47" s="88"/>
-      <c r="AG47" s="88"/>
-      <c r="AH47" s="88"/>
-      <c r="AI47" s="88"/>
-      <c r="AJ47" s="88"/>
-      <c r="AK47" s="88"/>
-      <c r="AL47" s="88"/>
-      <c r="AM47" s="88"/>
-      <c r="AN47" s="88"/>
-      <c r="AO47" s="121"/>
-      <c r="AP47" s="121"/>
-      <c r="AQ47" s="121"/>
-      <c r="AR47" s="122"/>
-      <c r="AS47" s="88"/>
-      <c r="AT47" s="88"/>
-      <c r="AU47" s="88"/>
-      <c r="AV47" s="88"/>
-      <c r="AW47" s="88"/>
-      <c r="AX47" s="88"/>
-      <c r="AY47" s="88"/>
-      <c r="AZ47" s="88"/>
-      <c r="BA47" s="88"/>
-      <c r="BB47" s="88"/>
-      <c r="BC47" s="88"/>
-      <c r="BD47" s="88"/>
-      <c r="BE47" s="88"/>
-      <c r="BF47" s="88"/>
-      <c r="BG47" s="88"/>
-      <c r="BH47" s="88"/>
-      <c r="BI47" s="88"/>
-      <c r="BJ47" s="88"/>
-      <c r="BK47" s="88"/>
-      <c r="BL47" s="88"/>
-      <c r="BM47" s="88"/>
-      <c r="BN47" s="88"/>
-      <c r="BO47" s="88"/>
-      <c r="BP47" s="88"/>
-      <c r="BQ47" s="88"/>
-      <c r="BR47" s="88"/>
-      <c r="BS47" s="88"/>
-      <c r="BT47" s="88"/>
-      <c r="BU47" s="88"/>
-      <c r="BV47" s="88"/>
-      <c r="BW47" s="88"/>
-      <c r="BX47" s="88"/>
-      <c r="BY47" s="88"/>
-      <c r="BZ47" s="88"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="86"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="86"/>
+      <c r="N49" s="86"/>
+      <c r="O49" s="86"/>
+      <c r="P49" s="86"/>
+      <c r="Q49" s="86"/>
+      <c r="R49" s="86"/>
+      <c r="S49" s="86"/>
+      <c r="T49" s="86"/>
+      <c r="U49" s="86"/>
+      <c r="V49" s="86"/>
+      <c r="W49" s="86"/>
+      <c r="X49" s="86"/>
+      <c r="Y49" s="86"/>
+      <c r="Z49" s="86"/>
+      <c r="AA49" s="86"/>
+      <c r="AB49" s="86"/>
+      <c r="AC49" s="86"/>
+      <c r="AD49" s="86"/>
+      <c r="AE49" s="86"/>
+      <c r="AF49" s="86"/>
+      <c r="AG49" s="86"/>
+      <c r="AH49" s="86"/>
+      <c r="AI49" s="86"/>
+      <c r="AJ49" s="86"/>
+      <c r="AK49" s="86"/>
+      <c r="AL49" s="86"/>
+      <c r="AM49" s="86"/>
+      <c r="AN49" s="86"/>
+      <c r="AO49" s="119"/>
+      <c r="AP49" s="119"/>
+      <c r="AQ49" s="119"/>
+      <c r="AR49" s="120"/>
+      <c r="AS49" s="86"/>
+      <c r="AT49" s="86"/>
+      <c r="AU49" s="86"/>
+      <c r="AV49" s="86"/>
+      <c r="AW49" s="86"/>
+      <c r="AX49" s="86"/>
+      <c r="AY49" s="86"/>
+      <c r="AZ49" s="86"/>
+      <c r="BA49" s="86"/>
+      <c r="BB49" s="86"/>
+      <c r="BC49" s="86"/>
+      <c r="BD49" s="86"/>
+      <c r="BE49" s="86"/>
+      <c r="BF49" s="86"/>
+      <c r="BG49" s="86"/>
+      <c r="BH49" s="86"/>
+      <c r="BI49" s="86"/>
+      <c r="BJ49" s="86"/>
+      <c r="BK49" s="86"/>
+      <c r="BL49" s="86"/>
+      <c r="BM49" s="86"/>
+      <c r="BN49" s="86"/>
+      <c r="BO49" s="86"/>
+      <c r="BP49" s="86"/>
+      <c r="BQ49" s="86"/>
+      <c r="BR49" s="86"/>
+      <c r="BS49" s="86"/>
+      <c r="BT49" s="86"/>
+      <c r="BU49" s="86"/>
+      <c r="BV49" s="86"/>
+      <c r="BW49" s="86"/>
+      <c r="BX49" s="86"/>
+      <c r="BY49" s="86"/>
+      <c r="BZ49" s="86"/>
     </row>
-    <row r="48" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="21"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="120" t="s">
+    <row r="50" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="21"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="118" t="s">
         <v>114</v>
       </c>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="90"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
-      <c r="Q48" s="88"/>
-      <c r="R48" s="88"/>
-      <c r="S48" s="88"/>
-      <c r="T48" s="88"/>
-      <c r="U48" s="88"/>
-      <c r="V48" s="88"/>
-      <c r="W48" s="88"/>
-      <c r="X48" s="88"/>
-      <c r="Y48" s="88"/>
-      <c r="Z48" s="88"/>
-      <c r="AA48" s="88"/>
-      <c r="AB48" s="88"/>
-      <c r="AC48" s="88"/>
-      <c r="AD48" s="88"/>
-      <c r="AE48" s="88"/>
-      <c r="AF48" s="88"/>
-      <c r="AG48" s="88"/>
-      <c r="AH48" s="88"/>
-      <c r="AI48" s="88"/>
-      <c r="AJ48" s="88"/>
-      <c r="AK48" s="88"/>
-      <c r="AL48" s="88"/>
-      <c r="AM48" s="88"/>
-      <c r="AN48" s="88"/>
-      <c r="AO48" s="151"/>
-      <c r="AP48" s="151"/>
-      <c r="AQ48" s="151"/>
-      <c r="AR48" s="151"/>
-      <c r="AS48" s="151"/>
-      <c r="AT48" s="151"/>
-      <c r="AU48" s="151"/>
-      <c r="AV48" s="151"/>
-      <c r="AW48" s="121"/>
-      <c r="AX48" s="121"/>
-      <c r="AY48" s="121"/>
-      <c r="AZ48" s="121"/>
-      <c r="BA48" s="121"/>
-      <c r="BB48" s="121"/>
-      <c r="BC48" s="121"/>
-      <c r="BD48" s="121"/>
-      <c r="BE48" s="121"/>
-      <c r="BF48" s="121"/>
-      <c r="BG48" s="122"/>
-      <c r="BH48" s="88"/>
-      <c r="BI48" s="88"/>
-      <c r="BJ48" s="88"/>
-      <c r="BK48" s="88"/>
-      <c r="BL48" s="88"/>
-      <c r="BM48" s="88"/>
-      <c r="BN48" s="88"/>
-      <c r="BO48" s="88"/>
-      <c r="BP48" s="88"/>
-      <c r="BQ48" s="88"/>
-      <c r="BR48" s="88"/>
-      <c r="BS48" s="88"/>
-      <c r="BT48" s="88"/>
-      <c r="BU48" s="88"/>
-      <c r="BV48" s="88"/>
-      <c r="BW48" s="88"/>
-      <c r="BX48" s="88"/>
-      <c r="BY48" s="88"/>
-      <c r="BZ48" s="88"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="86"/>
+      <c r="N50" s="86"/>
+      <c r="O50" s="86"/>
+      <c r="P50" s="86"/>
+      <c r="Q50" s="86"/>
+      <c r="R50" s="86"/>
+      <c r="S50" s="86"/>
+      <c r="T50" s="86"/>
+      <c r="U50" s="86"/>
+      <c r="V50" s="86"/>
+      <c r="W50" s="86"/>
+      <c r="X50" s="86"/>
+      <c r="Y50" s="86"/>
+      <c r="Z50" s="86"/>
+      <c r="AA50" s="86"/>
+      <c r="AB50" s="86"/>
+      <c r="AC50" s="86"/>
+      <c r="AD50" s="86"/>
+      <c r="AE50" s="86"/>
+      <c r="AF50" s="86"/>
+      <c r="AG50" s="86"/>
+      <c r="AH50" s="86"/>
+      <c r="AI50" s="86"/>
+      <c r="AJ50" s="86"/>
+      <c r="AK50" s="86"/>
+      <c r="AL50" s="86"/>
+      <c r="AM50" s="86"/>
+      <c r="AN50" s="86"/>
+      <c r="AO50" s="86"/>
+      <c r="AP50" s="86"/>
+      <c r="AQ50" s="86"/>
+      <c r="AR50" s="86"/>
+      <c r="AS50" s="86"/>
+      <c r="AT50" s="86"/>
+      <c r="AU50" s="86"/>
+      <c r="AV50" s="86"/>
+      <c r="AW50" s="119"/>
+      <c r="AX50" s="119"/>
+      <c r="AY50" s="119"/>
+      <c r="AZ50" s="119"/>
+      <c r="BA50" s="119"/>
+      <c r="BB50" s="119"/>
+      <c r="BC50" s="119"/>
+      <c r="BD50" s="119"/>
+      <c r="BE50" s="119"/>
+      <c r="BF50" s="119"/>
+      <c r="BG50" s="120"/>
+      <c r="BH50" s="86"/>
+      <c r="BI50" s="86"/>
+      <c r="BJ50" s="86"/>
+      <c r="BK50" s="86"/>
+      <c r="BL50" s="86"/>
+      <c r="BM50" s="86"/>
+      <c r="BN50" s="86"/>
+      <c r="BO50" s="86"/>
+      <c r="BP50" s="86"/>
+      <c r="BQ50" s="86"/>
+      <c r="BR50" s="86"/>
+      <c r="BS50" s="86"/>
+      <c r="BT50" s="86"/>
+      <c r="BU50" s="86"/>
+      <c r="BV50" s="86"/>
+      <c r="BW50" s="86"/>
+      <c r="BX50" s="86"/>
+      <c r="BY50" s="86"/>
+      <c r="BZ50" s="86"/>
     </row>
-    <row r="49" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="21"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="120"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="90"/>
-      <c r="L49" s="90"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="88"/>
-      <c r="P49" s="88"/>
-      <c r="Q49" s="88"/>
-      <c r="R49" s="88"/>
-      <c r="S49" s="88"/>
-      <c r="T49" s="88"/>
-      <c r="U49" s="88"/>
-      <c r="V49" s="88"/>
-      <c r="W49" s="88"/>
-      <c r="X49" s="88"/>
-      <c r="Y49" s="88"/>
-      <c r="Z49" s="88"/>
-      <c r="AA49" s="88"/>
-      <c r="AB49" s="88"/>
-      <c r="AC49" s="88"/>
-      <c r="AD49" s="88"/>
-      <c r="AE49" s="88"/>
-      <c r="AF49" s="88"/>
-      <c r="AG49" s="88"/>
-      <c r="AH49" s="88"/>
-      <c r="AI49" s="88"/>
-      <c r="AJ49" s="88"/>
-      <c r="AK49" s="88"/>
-      <c r="AL49" s="88"/>
-      <c r="AM49" s="88"/>
-      <c r="AN49" s="88"/>
-      <c r="AO49" s="151"/>
-      <c r="AP49" s="151"/>
-      <c r="AQ49" s="151"/>
-      <c r="AR49" s="151"/>
-      <c r="AS49" s="151"/>
-      <c r="AT49" s="151"/>
-      <c r="AU49" s="151"/>
-      <c r="AV49" s="151"/>
-      <c r="AW49" s="88"/>
-      <c r="AX49" s="88"/>
-      <c r="AY49" s="88"/>
-      <c r="AZ49" s="88"/>
-      <c r="BA49" s="88"/>
-      <c r="BB49" s="88"/>
-      <c r="BC49" s="88"/>
-      <c r="BD49" s="88"/>
-      <c r="BE49" s="88"/>
-      <c r="BF49" s="88"/>
-      <c r="BG49" s="88"/>
-      <c r="BH49" s="88"/>
-      <c r="BI49" s="88"/>
-      <c r="BJ49" s="88"/>
-      <c r="BK49" s="88"/>
-      <c r="BL49" s="88"/>
-      <c r="BM49" s="88"/>
-      <c r="BN49" s="88"/>
-      <c r="BO49" s="88"/>
-      <c r="BP49" s="88"/>
-      <c r="BQ49" s="88"/>
-      <c r="BR49" s="88"/>
-      <c r="BS49" s="88"/>
-      <c r="BT49" s="88"/>
-      <c r="BU49" s="88"/>
-      <c r="BV49" s="88"/>
-      <c r="BW49" s="88"/>
-      <c r="BX49" s="88"/>
-      <c r="BY49" s="88"/>
-      <c r="BZ49" s="88"/>
+    <row r="51" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="118" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="86"/>
+      <c r="N51" s="86"/>
+      <c r="O51" s="86"/>
+      <c r="P51" s="86"/>
+      <c r="Q51" s="86"/>
+      <c r="R51" s="86"/>
+      <c r="S51" s="86"/>
+      <c r="T51" s="86"/>
+      <c r="U51" s="86"/>
+      <c r="V51" s="86"/>
+      <c r="W51" s="86"/>
+      <c r="X51" s="86"/>
+      <c r="Y51" s="86"/>
+      <c r="Z51" s="86"/>
+      <c r="AA51" s="86"/>
+      <c r="AB51" s="86"/>
+      <c r="AC51" s="86"/>
+      <c r="AD51" s="86"/>
+      <c r="AE51" s="86"/>
+      <c r="AF51" s="86"/>
+      <c r="AG51" s="86"/>
+      <c r="AH51" s="86"/>
+      <c r="AI51" s="86"/>
+      <c r="AJ51" s="86"/>
+      <c r="AK51" s="86"/>
+      <c r="AL51" s="86"/>
+      <c r="AM51" s="86"/>
+      <c r="AN51" s="86"/>
+      <c r="AO51" s="86"/>
+      <c r="AP51" s="86"/>
+      <c r="AQ51" s="86"/>
+      <c r="AR51" s="86"/>
+      <c r="AS51" s="86"/>
+      <c r="AT51" s="86"/>
+      <c r="AU51" s="86"/>
+      <c r="AV51" s="86"/>
+      <c r="AW51" s="119"/>
+      <c r="AX51" s="119"/>
+      <c r="AY51" s="119"/>
+      <c r="AZ51" s="119"/>
+      <c r="BA51" s="119"/>
+      <c r="BB51" s="120"/>
+      <c r="BC51" s="86"/>
+      <c r="BD51" s="86"/>
+      <c r="BE51" s="86"/>
+      <c r="BF51" s="86"/>
+      <c r="BG51" s="86"/>
+      <c r="BH51" s="86"/>
+      <c r="BI51" s="86"/>
+      <c r="BJ51" s="86"/>
+      <c r="BK51" s="86"/>
+      <c r="BL51" s="86"/>
+      <c r="BM51" s="86"/>
+      <c r="BN51" s="86"/>
+      <c r="BO51" s="86"/>
+      <c r="BP51" s="86"/>
+      <c r="BQ51" s="86"/>
+      <c r="BR51" s="86"/>
+      <c r="BS51" s="86"/>
+      <c r="BT51" s="86"/>
+      <c r="BU51" s="86"/>
+      <c r="BV51" s="86"/>
+      <c r="BW51" s="86"/>
+      <c r="BX51" s="86"/>
+      <c r="BY51" s="86"/>
+      <c r="BZ51" s="86"/>
     </row>
-    <row r="50" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="21"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="120"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="88"/>
-      <c r="P50" s="88"/>
-      <c r="Q50" s="88"/>
-      <c r="R50" s="88"/>
-      <c r="S50" s="88"/>
-      <c r="T50" s="88"/>
-      <c r="U50" s="88"/>
-      <c r="V50" s="88"/>
-      <c r="W50" s="88"/>
-      <c r="X50" s="88"/>
-      <c r="Y50" s="88"/>
-      <c r="Z50" s="88"/>
-      <c r="AA50" s="88"/>
-      <c r="AB50" s="88"/>
-      <c r="AC50" s="88"/>
-      <c r="AD50" s="88"/>
-      <c r="AE50" s="88"/>
-      <c r="AF50" s="88"/>
-      <c r="AG50" s="88"/>
-      <c r="AH50" s="88"/>
-      <c r="AI50" s="88"/>
-      <c r="AJ50" s="88"/>
-      <c r="AK50" s="88"/>
-      <c r="AL50" s="88"/>
-      <c r="AM50" s="88"/>
-      <c r="AN50" s="88"/>
-      <c r="AO50" s="151"/>
-      <c r="AP50" s="151"/>
-      <c r="AQ50" s="151"/>
-      <c r="AR50" s="151"/>
-      <c r="AS50" s="151"/>
-      <c r="AT50" s="151"/>
-      <c r="AU50" s="151"/>
-      <c r="AV50" s="151"/>
-      <c r="AW50" s="88"/>
-      <c r="AX50" s="88"/>
-      <c r="AY50" s="88"/>
-      <c r="AZ50" s="88"/>
-      <c r="BA50" s="88"/>
-      <c r="BB50" s="88"/>
-      <c r="BC50" s="88"/>
-      <c r="BD50" s="88"/>
-      <c r="BE50" s="88"/>
-      <c r="BF50" s="88"/>
-      <c r="BG50" s="88"/>
-      <c r="BH50" s="88"/>
-      <c r="BI50" s="88"/>
-      <c r="BJ50" s="88"/>
-      <c r="BK50" s="88"/>
-      <c r="BL50" s="88"/>
-      <c r="BM50" s="88"/>
-      <c r="BN50" s="88"/>
-      <c r="BO50" s="88"/>
-      <c r="BP50" s="88"/>
-      <c r="BQ50" s="88"/>
-      <c r="BR50" s="88"/>
-      <c r="BS50" s="88"/>
-      <c r="BT50" s="88"/>
-      <c r="BU50" s="88"/>
-      <c r="BV50" s="88"/>
-      <c r="BW50" s="88"/>
-      <c r="BX50" s="88"/>
-      <c r="BY50" s="88"/>
-      <c r="BZ50" s="88"/>
+    <row r="52" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="21"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="118" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="86"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="88"/>
+      <c r="L52" s="88"/>
+      <c r="M52" s="86"/>
+      <c r="N52" s="86"/>
+      <c r="O52" s="86"/>
+      <c r="P52" s="86"/>
+      <c r="Q52" s="86"/>
+      <c r="R52" s="86"/>
+      <c r="S52" s="86"/>
+      <c r="T52" s="86"/>
+      <c r="U52" s="86"/>
+      <c r="V52" s="86"/>
+      <c r="W52" s="86"/>
+      <c r="X52" s="86"/>
+      <c r="Y52" s="86"/>
+      <c r="Z52" s="86"/>
+      <c r="AA52" s="86"/>
+      <c r="AB52" s="86"/>
+      <c r="AC52" s="86"/>
+      <c r="AD52" s="86"/>
+      <c r="AE52" s="86"/>
+      <c r="AF52" s="86"/>
+      <c r="AG52" s="86"/>
+      <c r="AH52" s="86"/>
+      <c r="AI52" s="86"/>
+      <c r="AJ52" s="86"/>
+      <c r="AK52" s="86"/>
+      <c r="AL52" s="86"/>
+      <c r="AM52" s="86"/>
+      <c r="AN52" s="86"/>
+      <c r="AO52" s="86"/>
+      <c r="AP52" s="86"/>
+      <c r="AQ52" s="86"/>
+      <c r="AR52" s="86"/>
+      <c r="AS52" s="86"/>
+      <c r="AT52" s="86"/>
+      <c r="AU52" s="86"/>
+      <c r="AV52" s="86"/>
+      <c r="AW52" s="119"/>
+      <c r="AX52" s="119"/>
+      <c r="AY52" s="119"/>
+      <c r="AZ52" s="119"/>
+      <c r="BA52" s="119"/>
+      <c r="BB52" s="120"/>
+      <c r="BC52" s="86"/>
+      <c r="BD52" s="86"/>
+      <c r="BE52" s="86"/>
+      <c r="BF52" s="86"/>
+      <c r="BG52" s="86"/>
+      <c r="BH52" s="86"/>
+      <c r="BI52" s="86"/>
+      <c r="BJ52" s="86"/>
+      <c r="BK52" s="86"/>
+      <c r="BL52" s="86"/>
+      <c r="BM52" s="86"/>
+      <c r="BN52" s="86"/>
+      <c r="BO52" s="86"/>
+      <c r="BP52" s="86"/>
+      <c r="BQ52" s="86"/>
+      <c r="BR52" s="86"/>
+      <c r="BS52" s="86"/>
+      <c r="BT52" s="86"/>
+      <c r="BU52" s="86"/>
+      <c r="BV52" s="86"/>
+      <c r="BW52" s="86"/>
+      <c r="BX52" s="86"/>
+      <c r="BY52" s="86"/>
+      <c r="BZ52" s="86"/>
     </row>
-    <row r="51" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="21"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="88"/>
-      <c r="Q51" s="88"/>
-      <c r="R51" s="88"/>
-      <c r="S51" s="88"/>
-      <c r="T51" s="88"/>
-      <c r="U51" s="88"/>
-      <c r="V51" s="88"/>
-      <c r="W51" s="88"/>
-      <c r="X51" s="88"/>
-      <c r="Y51" s="88"/>
-      <c r="Z51" s="88"/>
-      <c r="AA51" s="88"/>
-      <c r="AB51" s="88"/>
-      <c r="AC51" s="88"/>
-      <c r="AD51" s="88"/>
-      <c r="AE51" s="88"/>
-      <c r="AF51" s="88"/>
-      <c r="AG51" s="88"/>
-      <c r="AH51" s="88"/>
-      <c r="AI51" s="88"/>
-      <c r="AJ51" s="88"/>
-      <c r="AK51" s="88"/>
-      <c r="AL51" s="88"/>
-      <c r="AM51" s="88"/>
-      <c r="AN51" s="88"/>
-      <c r="AO51" s="88"/>
-      <c r="AP51" s="88"/>
-      <c r="AQ51" s="88"/>
-      <c r="AR51" s="88"/>
-      <c r="AS51" s="88"/>
-      <c r="AT51" s="88"/>
-      <c r="AU51" s="88"/>
-      <c r="AV51" s="88"/>
-      <c r="AW51" s="88"/>
-      <c r="AX51" s="88"/>
-      <c r="AY51" s="88"/>
-      <c r="AZ51" s="88"/>
-      <c r="BA51" s="88"/>
-      <c r="BB51" s="88"/>
-      <c r="BC51" s="88"/>
-      <c r="BD51" s="88"/>
-      <c r="BE51" s="88"/>
-      <c r="BF51" s="88"/>
-      <c r="BG51" s="88"/>
-      <c r="BH51" s="88"/>
-      <c r="BI51" s="88"/>
-      <c r="BJ51" s="88"/>
-      <c r="BK51" s="88"/>
-      <c r="BL51" s="88"/>
-      <c r="BM51" s="88"/>
-      <c r="BN51" s="88"/>
-      <c r="BO51" s="88"/>
-      <c r="BP51" s="88"/>
-      <c r="BQ51" s="88"/>
-      <c r="BR51" s="88"/>
-      <c r="BS51" s="88"/>
-      <c r="BT51" s="88"/>
-      <c r="BU51" s="88"/>
-      <c r="BV51" s="88"/>
-      <c r="BW51" s="88"/>
-      <c r="BX51" s="88"/>
-      <c r="BY51" s="88"/>
-      <c r="BZ51" s="88"/>
+    <row r="53" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="171"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="86"/>
+      <c r="J53" s="87"/>
+      <c r="K53" s="88"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="86"/>
+      <c r="N53" s="86"/>
+      <c r="O53" s="86"/>
+      <c r="P53" s="86"/>
+      <c r="Q53" s="86"/>
+      <c r="R53" s="86"/>
+      <c r="S53" s="86"/>
+      <c r="T53" s="86"/>
+      <c r="U53" s="86"/>
+      <c r="V53" s="86"/>
+      <c r="W53" s="86"/>
+      <c r="X53" s="86"/>
+      <c r="Y53" s="86"/>
+      <c r="Z53" s="86"/>
+      <c r="AA53" s="86"/>
+      <c r="AB53" s="86"/>
+      <c r="AC53" s="86"/>
+      <c r="AD53" s="86"/>
+      <c r="AE53" s="86"/>
+      <c r="AF53" s="86"/>
+      <c r="AG53" s="86"/>
+      <c r="AH53" s="86"/>
+      <c r="AI53" s="86"/>
+      <c r="AJ53" s="86"/>
+      <c r="AK53" s="86"/>
+      <c r="AL53" s="86"/>
+      <c r="AM53" s="86"/>
+      <c r="AN53" s="86"/>
+      <c r="AO53" s="86"/>
+      <c r="AP53" s="86"/>
+      <c r="AQ53" s="86"/>
+      <c r="AR53" s="86"/>
+      <c r="AS53" s="86"/>
+      <c r="AT53" s="86"/>
+      <c r="AU53" s="86"/>
+      <c r="AV53" s="86"/>
+      <c r="AW53" s="86"/>
+      <c r="AX53" s="86"/>
+      <c r="AY53" s="86"/>
+      <c r="AZ53" s="86"/>
+      <c r="BA53" s="86"/>
+      <c r="BB53" s="86"/>
+      <c r="BC53" s="86"/>
+      <c r="BD53" s="86"/>
+      <c r="BE53" s="86"/>
+      <c r="BF53" s="86"/>
+      <c r="BG53" s="86"/>
+      <c r="BH53" s="86"/>
+      <c r="BI53" s="86"/>
+      <c r="BJ53" s="86"/>
+      <c r="BK53" s="86"/>
+      <c r="BL53" s="86"/>
+      <c r="BM53" s="86"/>
+      <c r="BN53" s="86"/>
+      <c r="BO53" s="86"/>
+      <c r="BP53" s="86"/>
+      <c r="BQ53" s="86"/>
+      <c r="BR53" s="86"/>
+      <c r="BS53" s="86"/>
+      <c r="BT53" s="86"/>
+      <c r="BU53" s="86"/>
+      <c r="BV53" s="86"/>
+      <c r="BW53" s="86"/>
+      <c r="BX53" s="86"/>
+      <c r="BY53" s="86"/>
+      <c r="BZ53" s="86"/>
     </row>
-    <row r="52" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="21"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="88"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="90"/>
-      <c r="L52" s="90"/>
-      <c r="M52" s="88"/>
-      <c r="N52" s="88"/>
-      <c r="O52" s="88"/>
-      <c r="P52" s="88"/>
-      <c r="Q52" s="88"/>
-      <c r="R52" s="88"/>
-      <c r="S52" s="88"/>
-      <c r="T52" s="88"/>
-      <c r="U52" s="88"/>
-      <c r="V52" s="88"/>
-      <c r="W52" s="88"/>
-      <c r="X52" s="88"/>
-      <c r="Y52" s="88"/>
-      <c r="Z52" s="88"/>
-      <c r="AA52" s="88"/>
-      <c r="AB52" s="88"/>
-      <c r="AC52" s="88"/>
-      <c r="AD52" s="88"/>
-      <c r="AE52" s="88"/>
-      <c r="AF52" s="88"/>
-      <c r="AG52" s="88"/>
-      <c r="AH52" s="88"/>
-      <c r="AI52" s="88"/>
-      <c r="AJ52" s="88"/>
-      <c r="AK52" s="88"/>
-      <c r="AL52" s="88"/>
-      <c r="AM52" s="88"/>
-      <c r="AN52" s="88"/>
-      <c r="AO52" s="88"/>
-      <c r="AP52" s="88"/>
-      <c r="AQ52" s="88"/>
-      <c r="AR52" s="88"/>
-      <c r="AS52" s="88"/>
-      <c r="AT52" s="88"/>
-      <c r="AU52" s="88"/>
-      <c r="AV52" s="88"/>
-      <c r="AW52" s="88"/>
-      <c r="AX52" s="88"/>
-      <c r="AY52" s="88"/>
-      <c r="AZ52" s="88"/>
-      <c r="BA52" s="88"/>
-      <c r="BB52" s="88"/>
-      <c r="BC52" s="88"/>
-      <c r="BD52" s="88"/>
-      <c r="BE52" s="88"/>
-      <c r="BF52" s="88"/>
-      <c r="BG52" s="88"/>
-      <c r="BH52" s="88"/>
-      <c r="BI52" s="88"/>
-      <c r="BJ52" s="88"/>
-      <c r="BK52" s="88"/>
-      <c r="BL52" s="88"/>
-      <c r="BM52" s="88"/>
-      <c r="BN52" s="88"/>
-      <c r="BO52" s="88"/>
-      <c r="BP52" s="88"/>
-      <c r="BQ52" s="88"/>
-      <c r="BR52" s="88"/>
-      <c r="BS52" s="88"/>
-      <c r="BT52" s="88"/>
-      <c r="BU52" s="88"/>
-      <c r="BV52" s="88"/>
-      <c r="BW52" s="88"/>
-      <c r="BX52" s="88"/>
-      <c r="BY52" s="88"/>
-      <c r="BZ52" s="88"/>
+    <row r="54" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
+      <c r="B54" s="171"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="172"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="86"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="88"/>
+      <c r="L54" s="88"/>
+      <c r="M54" s="86"/>
+      <c r="N54" s="86"/>
+      <c r="O54" s="86"/>
+      <c r="P54" s="86"/>
+      <c r="Q54" s="86"/>
+      <c r="R54" s="86"/>
+      <c r="S54" s="86"/>
+      <c r="T54" s="86"/>
+      <c r="U54" s="86"/>
+      <c r="V54" s="86"/>
+      <c r="W54" s="86"/>
+      <c r="X54" s="86"/>
+      <c r="Y54" s="86"/>
+      <c r="Z54" s="86"/>
+      <c r="AA54" s="86"/>
+      <c r="AB54" s="86"/>
+      <c r="AC54" s="86"/>
+      <c r="AD54" s="86"/>
+      <c r="AE54" s="86"/>
+      <c r="AF54" s="86"/>
+      <c r="AG54" s="86"/>
+      <c r="AH54" s="86"/>
+      <c r="AI54" s="86"/>
+      <c r="AJ54" s="86"/>
+      <c r="AK54" s="86"/>
+      <c r="AL54" s="86"/>
+      <c r="AM54" s="86"/>
+      <c r="AN54" s="86"/>
+      <c r="AO54" s="86"/>
+      <c r="AP54" s="86"/>
+      <c r="AQ54" s="86"/>
+      <c r="AR54" s="86"/>
+      <c r="AS54" s="86"/>
+      <c r="AT54" s="86"/>
+      <c r="AU54" s="86"/>
+      <c r="AV54" s="86"/>
+      <c r="AW54" s="86"/>
+      <c r="AX54" s="86"/>
+      <c r="AY54" s="86"/>
+      <c r="AZ54" s="86"/>
+      <c r="BA54" s="86"/>
+      <c r="BB54" s="86"/>
+      <c r="BC54" s="86"/>
+      <c r="BD54" s="86"/>
+      <c r="BE54" s="86"/>
+      <c r="BF54" s="86"/>
+      <c r="BG54" s="86"/>
+      <c r="BH54" s="86"/>
+      <c r="BI54" s="86"/>
+      <c r="BJ54" s="86"/>
+      <c r="BK54" s="86"/>
+      <c r="BL54" s="86"/>
+      <c r="BM54" s="86"/>
+      <c r="BN54" s="86"/>
+      <c r="BO54" s="86"/>
+      <c r="BP54" s="86"/>
+      <c r="BQ54" s="86"/>
+      <c r="BR54" s="86"/>
+      <c r="BS54" s="86"/>
+      <c r="BT54" s="86"/>
+      <c r="BU54" s="86"/>
+      <c r="BV54" s="86"/>
+      <c r="BW54" s="86"/>
+      <c r="BX54" s="86"/>
+      <c r="BY54" s="86"/>
+      <c r="BZ54" s="86"/>
     </row>
-    <row r="53" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="72"/>
-      <c r="B53" s="73"/>
-      <c r="C53" s="76" t="s">
+    <row r="55" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="171"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="172"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="88"/>
+      <c r="L55" s="88"/>
+      <c r="M55" s="86"/>
+      <c r="N55" s="86"/>
+      <c r="O55" s="86"/>
+      <c r="P55" s="86"/>
+      <c r="Q55" s="86"/>
+      <c r="R55" s="86"/>
+      <c r="S55" s="86"/>
+      <c r="T55" s="86"/>
+      <c r="U55" s="86"/>
+      <c r="V55" s="86"/>
+      <c r="W55" s="86"/>
+      <c r="X55" s="86"/>
+      <c r="Y55" s="86"/>
+      <c r="Z55" s="86"/>
+      <c r="AA55" s="86"/>
+      <c r="AB55" s="86"/>
+      <c r="AC55" s="86"/>
+      <c r="AD55" s="86"/>
+      <c r="AE55" s="86"/>
+      <c r="AF55" s="86"/>
+      <c r="AG55" s="86"/>
+      <c r="AH55" s="86"/>
+      <c r="AI55" s="86"/>
+      <c r="AJ55" s="86"/>
+      <c r="AK55" s="86"/>
+      <c r="AL55" s="86"/>
+      <c r="AM55" s="86"/>
+      <c r="AN55" s="86"/>
+      <c r="AO55" s="86"/>
+      <c r="AP55" s="86"/>
+      <c r="AQ55" s="86"/>
+      <c r="AR55" s="86"/>
+      <c r="AS55" s="86"/>
+      <c r="AT55" s="86"/>
+      <c r="AU55" s="86"/>
+      <c r="AV55" s="86"/>
+      <c r="AW55" s="86"/>
+      <c r="AX55" s="86"/>
+      <c r="AY55" s="86"/>
+      <c r="AZ55" s="86"/>
+      <c r="BA55" s="86"/>
+      <c r="BB55" s="86"/>
+      <c r="BC55" s="86"/>
+      <c r="BD55" s="86"/>
+      <c r="BE55" s="86"/>
+      <c r="BF55" s="86"/>
+      <c r="BG55" s="86"/>
+      <c r="BH55" s="86"/>
+      <c r="BI55" s="86"/>
+      <c r="BJ55" s="86"/>
+      <c r="BK55" s="86"/>
+      <c r="BL55" s="86"/>
+      <c r="BM55" s="86"/>
+      <c r="BN55" s="86"/>
+      <c r="BO55" s="86"/>
+      <c r="BP55" s="86"/>
+      <c r="BQ55" s="86"/>
+      <c r="BR55" s="86"/>
+      <c r="BS55" s="86"/>
+      <c r="BT55" s="86"/>
+      <c r="BU55" s="86"/>
+      <c r="BV55" s="86"/>
+      <c r="BW55" s="86"/>
+      <c r="BX55" s="86"/>
+      <c r="BY55" s="86"/>
+      <c r="BZ55" s="86"/>
+    </row>
+    <row r="56" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="72"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="74"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="67"/>
-      <c r="N53" s="68"/>
-      <c r="O53" s="68"/>
-      <c r="P53" s="68"/>
-      <c r="Q53" s="68"/>
-      <c r="R53" s="68"/>
-      <c r="S53" s="67"/>
-      <c r="T53" s="67"/>
-      <c r="U53" s="67"/>
-      <c r="V53" s="67"/>
-      <c r="W53" s="67"/>
-      <c r="X53" s="67"/>
-      <c r="Y53" s="67"/>
-      <c r="Z53" s="67"/>
-      <c r="AA53" s="67"/>
-      <c r="AB53" s="67"/>
-      <c r="AC53" s="69"/>
-      <c r="AD53" s="69"/>
-      <c r="AE53" s="69"/>
-      <c r="AF53" s="69"/>
-      <c r="AG53" s="69"/>
-      <c r="AH53" s="67"/>
-      <c r="AI53" s="67"/>
-      <c r="AJ53" s="67"/>
-      <c r="AK53" s="67"/>
-      <c r="AL53" s="67"/>
-      <c r="AM53" s="67"/>
-      <c r="AN53" s="67"/>
-      <c r="AO53" s="67"/>
-      <c r="AP53" s="67"/>
-      <c r="AQ53" s="67"/>
-      <c r="AR53" s="70"/>
-      <c r="AS53" s="70"/>
-      <c r="AT53" s="70"/>
-      <c r="AU53" s="70"/>
-      <c r="AV53" s="70"/>
-      <c r="AW53" s="67"/>
-      <c r="AX53" s="67"/>
-      <c r="AY53" s="67"/>
-      <c r="AZ53" s="67"/>
-      <c r="BA53" s="67"/>
-      <c r="BB53" s="67"/>
-      <c r="BC53" s="67"/>
-      <c r="BD53" s="67"/>
-      <c r="BE53" s="67"/>
-      <c r="BF53" s="67"/>
-      <c r="BG53" s="71"/>
-      <c r="BH53" s="71"/>
-      <c r="BI53" s="71"/>
-      <c r="BJ53" s="71"/>
-      <c r="BK53" s="71"/>
-      <c r="BL53" s="67"/>
-      <c r="BM53" s="67"/>
-      <c r="BN53" s="67"/>
-      <c r="BO53" s="67"/>
-      <c r="BP53" s="67"/>
-      <c r="BQ53" s="67"/>
-      <c r="BR53" s="67"/>
-      <c r="BS53" s="67"/>
-      <c r="BT53" s="67"/>
-      <c r="BU53" s="67"/>
-      <c r="BV53" s="67"/>
-      <c r="BW53" s="67"/>
-      <c r="BX53" s="67"/>
-      <c r="BY53" s="67"/>
-      <c r="BZ53" s="67"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="67"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="67"/>
+      <c r="U56" s="67"/>
+      <c r="V56" s="67"/>
+      <c r="W56" s="67"/>
+      <c r="X56" s="67"/>
+      <c r="Y56" s="67"/>
+      <c r="Z56" s="67"/>
+      <c r="AA56" s="67"/>
+      <c r="AB56" s="67"/>
+      <c r="AC56" s="69"/>
+      <c r="AD56" s="69"/>
+      <c r="AE56" s="69"/>
+      <c r="AF56" s="69"/>
+      <c r="AG56" s="69"/>
+      <c r="AH56" s="67"/>
+      <c r="AI56" s="67"/>
+      <c r="AJ56" s="67"/>
+      <c r="AK56" s="67"/>
+      <c r="AL56" s="67"/>
+      <c r="AM56" s="67"/>
+      <c r="AN56" s="67"/>
+      <c r="AO56" s="67"/>
+      <c r="AP56" s="67"/>
+      <c r="AQ56" s="67"/>
+      <c r="AR56" s="70"/>
+      <c r="AS56" s="70"/>
+      <c r="AT56" s="70"/>
+      <c r="AU56" s="70"/>
+      <c r="AV56" s="70"/>
+      <c r="AW56" s="67"/>
+      <c r="AX56" s="67"/>
+      <c r="AY56" s="67"/>
+      <c r="AZ56" s="67"/>
+      <c r="BA56" s="67"/>
+      <c r="BB56" s="67"/>
+      <c r="BC56" s="67"/>
+      <c r="BD56" s="67"/>
+      <c r="BE56" s="67"/>
+      <c r="BF56" s="67"/>
+      <c r="BG56" s="71"/>
+      <c r="BH56" s="71"/>
+      <c r="BI56" s="71"/>
+      <c r="BJ56" s="71"/>
+      <c r="BK56" s="71"/>
+      <c r="BL56" s="67"/>
+      <c r="BM56" s="67"/>
+      <c r="BN56" s="67"/>
+      <c r="BO56" s="67"/>
+      <c r="BP56" s="67"/>
+      <c r="BQ56" s="67"/>
+      <c r="BR56" s="67"/>
+      <c r="BS56" s="67"/>
+      <c r="BT56" s="67"/>
+      <c r="BU56" s="67"/>
+      <c r="BV56" s="67"/>
+      <c r="BW56" s="67"/>
+      <c r="BX56" s="67"/>
+      <c r="BY56" s="67"/>
+      <c r="BZ56" s="67"/>
     </row>
-    <row r="54" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="32"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="54"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="129"/>
-      <c r="K54" s="129"/>
-      <c r="L54" s="129"/>
-      <c r="M54" s="129"/>
-      <c r="N54" s="129"/>
-      <c r="O54" s="129"/>
-      <c r="P54" s="129"/>
-      <c r="Q54" s="129"/>
-      <c r="R54" s="129"/>
-      <c r="S54" s="129"/>
-      <c r="T54" s="129"/>
-      <c r="U54" s="129"/>
-      <c r="V54" s="129"/>
-      <c r="W54" s="129"/>
-      <c r="X54" s="129"/>
-      <c r="Y54" s="129"/>
-      <c r="Z54" s="129"/>
-      <c r="AA54" s="129"/>
-      <c r="AB54" s="129"/>
-      <c r="AC54" s="129"/>
-      <c r="AD54" s="129"/>
-      <c r="AE54" s="129"/>
-      <c r="AF54" s="129"/>
-      <c r="AG54" s="129"/>
-      <c r="AH54" s="38"/>
-      <c r="AI54" s="38"/>
-      <c r="AJ54" s="124"/>
-      <c r="AK54" s="124"/>
-      <c r="AL54" s="124"/>
-      <c r="AM54" s="58"/>
-      <c r="AN54" s="38"/>
-      <c r="AO54" s="38"/>
-      <c r="AP54" s="38"/>
-      <c r="AQ54" s="38"/>
-      <c r="AR54" s="40"/>
-      <c r="AS54" s="40"/>
-      <c r="AT54" s="40"/>
-      <c r="AU54" s="40"/>
-      <c r="AV54" s="40"/>
-      <c r="AW54" s="38"/>
-      <c r="AX54" s="38"/>
-      <c r="AY54" s="38"/>
-      <c r="AZ54" s="38"/>
-      <c r="BA54" s="38"/>
-      <c r="BB54" s="38"/>
-      <c r="BC54" s="38"/>
-      <c r="BD54" s="38"/>
-      <c r="BE54" s="38"/>
-      <c r="BF54" s="38"/>
-      <c r="BG54" s="41"/>
-      <c r="BH54" s="41"/>
-      <c r="BI54" s="41"/>
-      <c r="BJ54" s="41"/>
-      <c r="BK54" s="41"/>
-      <c r="BL54" s="38"/>
-      <c r="BM54" s="38"/>
-      <c r="BN54" s="38"/>
-      <c r="BO54" s="38"/>
-      <c r="BP54" s="38"/>
-      <c r="BQ54" s="38"/>
-      <c r="BR54" s="38"/>
-      <c r="BS54" s="38"/>
-      <c r="BT54" s="38"/>
-      <c r="BU54" s="38"/>
-      <c r="BV54" s="38"/>
-      <c r="BW54" s="38"/>
-      <c r="BX54" s="38"/>
-      <c r="BY54" s="38"/>
-      <c r="BZ54" s="38"/>
-    </row>
-    <row r="55" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="32"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="54"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="129"/>
-      <c r="K55" s="129"/>
-      <c r="L55" s="129"/>
-      <c r="M55" s="129"/>
-      <c r="N55" s="129"/>
-      <c r="O55" s="129"/>
-      <c r="P55" s="129"/>
-      <c r="Q55" s="129"/>
-      <c r="R55" s="129"/>
-      <c r="S55" s="129"/>
-      <c r="T55" s="129"/>
-      <c r="U55" s="129"/>
-      <c r="V55" s="129"/>
-      <c r="W55" s="129"/>
-      <c r="X55" s="129"/>
-      <c r="Y55" s="129"/>
-      <c r="Z55" s="129"/>
-      <c r="AA55" s="129"/>
-      <c r="AB55" s="129"/>
-      <c r="AC55" s="129"/>
-      <c r="AD55" s="129"/>
-      <c r="AE55" s="129"/>
-      <c r="AF55" s="129"/>
-      <c r="AG55" s="129"/>
-      <c r="AH55" s="38"/>
-      <c r="AI55" s="38"/>
-      <c r="AJ55" s="124"/>
-      <c r="AK55" s="124"/>
-      <c r="AL55" s="124"/>
-      <c r="AM55" s="58"/>
-      <c r="AN55" s="38"/>
-      <c r="AO55" s="38"/>
-      <c r="AP55" s="38"/>
-      <c r="AQ55" s="38"/>
-      <c r="AR55" s="40"/>
-      <c r="AS55" s="40"/>
-      <c r="AT55" s="40"/>
-      <c r="AU55" s="40"/>
-      <c r="AV55" s="40"/>
-      <c r="AW55" s="38"/>
-      <c r="AX55" s="38"/>
-      <c r="AY55" s="38"/>
-      <c r="AZ55" s="38"/>
-      <c r="BA55" s="38"/>
-      <c r="BB55" s="38"/>
-      <c r="BC55" s="38"/>
-      <c r="BD55" s="38"/>
-      <c r="BE55" s="38"/>
-      <c r="BF55" s="38"/>
-      <c r="BG55" s="41"/>
-      <c r="BH55" s="41"/>
-      <c r="BI55" s="41"/>
-      <c r="BJ55" s="41"/>
-      <c r="BK55" s="41"/>
-      <c r="BL55" s="38"/>
-      <c r="BM55" s="38"/>
-      <c r="BN55" s="38"/>
-      <c r="BO55" s="38"/>
-      <c r="BP55" s="38"/>
-      <c r="BQ55" s="38"/>
-      <c r="BR55" s="38"/>
-      <c r="BS55" s="38"/>
-      <c r="BT55" s="38"/>
-      <c r="BU55" s="38"/>
-      <c r="BV55" s="38"/>
-      <c r="BW55" s="38"/>
-      <c r="BX55" s="38"/>
-      <c r="BY55" s="38"/>
-      <c r="BZ55" s="38"/>
-    </row>
-    <row r="56" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="32"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="D56" s="54"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="129"/>
-      <c r="J56" s="129"/>
-      <c r="K56" s="129"/>
-      <c r="L56" s="129"/>
-      <c r="M56" s="129"/>
-      <c r="N56" s="129"/>
-      <c r="O56" s="129"/>
-      <c r="P56" s="129"/>
-      <c r="Q56" s="129"/>
-      <c r="R56" s="129"/>
-      <c r="S56" s="129"/>
-      <c r="T56" s="129"/>
-      <c r="U56" s="129"/>
-      <c r="V56" s="129"/>
-      <c r="W56" s="129"/>
-      <c r="X56" s="129"/>
-      <c r="Y56" s="129"/>
-      <c r="Z56" s="129"/>
-      <c r="AA56" s="129"/>
-      <c r="AB56" s="129"/>
-      <c r="AC56" s="129"/>
-      <c r="AD56" s="129"/>
-      <c r="AE56" s="129"/>
-      <c r="AF56" s="129"/>
-      <c r="AG56" s="129"/>
-      <c r="AH56" s="38"/>
-      <c r="AI56" s="38"/>
-      <c r="AJ56" s="124"/>
-      <c r="AK56" s="124"/>
-      <c r="AL56" s="124"/>
-      <c r="AM56" s="58"/>
-      <c r="AN56" s="131"/>
-      <c r="AO56" s="38"/>
-      <c r="AP56" s="38"/>
-      <c r="AQ56" s="38"/>
-      <c r="AR56" s="40"/>
-      <c r="AS56" s="40"/>
-      <c r="AT56" s="40"/>
-      <c r="AU56" s="40"/>
-      <c r="AV56" s="40"/>
-      <c r="AW56" s="38"/>
-      <c r="AX56" s="38"/>
-      <c r="AY56" s="38"/>
-      <c r="AZ56" s="38"/>
-      <c r="BA56" s="38"/>
-      <c r="BB56" s="38"/>
-      <c r="BC56" s="38"/>
-      <c r="BD56" s="38"/>
-      <c r="BE56" s="38"/>
-      <c r="BF56" s="38"/>
-      <c r="BG56" s="41"/>
-      <c r="BH56" s="41"/>
-      <c r="BI56" s="41"/>
-      <c r="BJ56" s="41"/>
-      <c r="BK56" s="41"/>
-      <c r="BL56" s="38"/>
-      <c r="BM56" s="38"/>
-      <c r="BN56" s="38"/>
-      <c r="BO56" s="38"/>
-      <c r="BP56" s="38"/>
-      <c r="BQ56" s="38"/>
-      <c r="BR56" s="38"/>
-      <c r="BS56" s="38"/>
-      <c r="BT56" s="38"/>
-      <c r="BU56" s="38"/>
-      <c r="BV56" s="38"/>
-      <c r="BW56" s="38"/>
-      <c r="BX56" s="38"/>
-      <c r="BY56" s="38"/>
-      <c r="BZ56" s="38"/>
-    </row>
-    <row r="57" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="32"/>
       <c r="B57" s="53"/>
       <c r="C57" s="56" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="D57" s="54"/>
       <c r="E57" s="35"/>
       <c r="F57" s="35"/>
       <c r="G57" s="36"/>
       <c r="H57" s="37"/>
-      <c r="I57" s="129"/>
-      <c r="J57" s="129"/>
-      <c r="K57" s="129"/>
-      <c r="L57" s="129"/>
-      <c r="M57" s="129"/>
-      <c r="N57" s="129"/>
-      <c r="O57" s="129"/>
-      <c r="P57" s="129"/>
-      <c r="Q57" s="129"/>
-      <c r="R57" s="129"/>
-      <c r="S57" s="129"/>
-      <c r="T57" s="129"/>
-      <c r="U57" s="129"/>
-      <c r="V57" s="129"/>
-      <c r="W57" s="129"/>
-      <c r="X57" s="129"/>
-      <c r="Y57" s="129"/>
-      <c r="Z57" s="129"/>
-      <c r="AA57" s="129"/>
-      <c r="AB57" s="129"/>
-      <c r="AC57" s="129"/>
-      <c r="AD57" s="129"/>
-      <c r="AE57" s="129"/>
-      <c r="AF57" s="129"/>
-      <c r="AG57" s="129"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="127"/>
+      <c r="K57" s="127"/>
+      <c r="L57" s="127"/>
+      <c r="M57" s="127"/>
+      <c r="N57" s="127"/>
+      <c r="O57" s="127"/>
+      <c r="P57" s="127"/>
+      <c r="Q57" s="127"/>
+      <c r="R57" s="127"/>
+      <c r="S57" s="127"/>
+      <c r="T57" s="127"/>
+      <c r="U57" s="127"/>
+      <c r="V57" s="127"/>
+      <c r="W57" s="127"/>
+      <c r="X57" s="127"/>
+      <c r="Y57" s="127"/>
+      <c r="Z57" s="127"/>
+      <c r="AA57" s="127"/>
+      <c r="AB57" s="127"/>
+      <c r="AC57" s="127"/>
+      <c r="AD57" s="127"/>
+      <c r="AE57" s="127"/>
+      <c r="AF57" s="127"/>
+      <c r="AG57" s="127"/>
       <c r="AH57" s="38"/>
       <c r="AI57" s="38"/>
-      <c r="AJ57" s="38"/>
-      <c r="AK57" s="38"/>
-      <c r="AL57" s="38"/>
-      <c r="AM57" s="38"/>
-      <c r="AN57" s="130"/>
+      <c r="AJ57" s="122"/>
+      <c r="AK57" s="122"/>
+      <c r="AL57" s="122"/>
+      <c r="AM57" s="58"/>
+      <c r="AN57" s="38"/>
       <c r="AO57" s="38"/>
       <c r="AP57" s="38"/>
       <c r="AQ57" s="38"/>
@@ -6982,48 +7019,48 @@
       <c r="BY57" s="38"/>
       <c r="BZ57" s="38"/>
     </row>
-    <row r="58" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="32"/>
       <c r="B58" s="53"/>
       <c r="C58" s="56" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D58" s="54"/>
       <c r="E58" s="35"/>
       <c r="F58" s="35"/>
       <c r="G58" s="36"/>
       <c r="H58" s="37"/>
-      <c r="I58" s="129"/>
-      <c r="J58" s="129"/>
-      <c r="K58" s="129"/>
-      <c r="L58" s="129"/>
-      <c r="M58" s="129"/>
-      <c r="N58" s="129"/>
-      <c r="O58" s="129"/>
-      <c r="P58" s="129"/>
-      <c r="Q58" s="129"/>
-      <c r="R58" s="129"/>
-      <c r="S58" s="129"/>
-      <c r="T58" s="129"/>
-      <c r="U58" s="129"/>
-      <c r="V58" s="129"/>
-      <c r="W58" s="129"/>
-      <c r="X58" s="129"/>
-      <c r="Y58" s="129"/>
-      <c r="Z58" s="129"/>
-      <c r="AA58" s="129"/>
-      <c r="AB58" s="129"/>
-      <c r="AC58" s="129"/>
-      <c r="AD58" s="129"/>
-      <c r="AE58" s="129"/>
-      <c r="AF58" s="129"/>
-      <c r="AG58" s="129"/>
+      <c r="I58" s="127"/>
+      <c r="J58" s="127"/>
+      <c r="K58" s="127"/>
+      <c r="L58" s="127"/>
+      <c r="M58" s="127"/>
+      <c r="N58" s="127"/>
+      <c r="O58" s="127"/>
+      <c r="P58" s="127"/>
+      <c r="Q58" s="127"/>
+      <c r="R58" s="127"/>
+      <c r="S58" s="127"/>
+      <c r="T58" s="127"/>
+      <c r="U58" s="127"/>
+      <c r="V58" s="127"/>
+      <c r="W58" s="127"/>
+      <c r="X58" s="127"/>
+      <c r="Y58" s="127"/>
+      <c r="Z58" s="127"/>
+      <c r="AA58" s="127"/>
+      <c r="AB58" s="127"/>
+      <c r="AC58" s="127"/>
+      <c r="AD58" s="127"/>
+      <c r="AE58" s="127"/>
+      <c r="AF58" s="127"/>
+      <c r="AG58" s="127"/>
       <c r="AH58" s="38"/>
       <c r="AI58" s="38"/>
-      <c r="AJ58" s="38"/>
-      <c r="AK58" s="38"/>
-      <c r="AL58" s="38"/>
-      <c r="AM58" s="38"/>
+      <c r="AJ58" s="122"/>
+      <c r="AK58" s="122"/>
+      <c r="AL58" s="122"/>
+      <c r="AM58" s="58"/>
       <c r="AN58" s="38"/>
       <c r="AO58" s="38"/>
       <c r="AP58" s="38"/>
@@ -7064,57 +7101,58 @@
       <c r="BY58" s="38"/>
       <c r="BZ58" s="38"/>
     </row>
-    <row r="59" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
       <c r="B59" s="53"/>
       <c r="C59" s="56" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="D59" s="54"/>
       <c r="E59" s="35"/>
       <c r="F59" s="35"/>
       <c r="G59" s="36"/>
       <c r="H59" s="37"/>
-      <c r="I59" s="129"/>
-      <c r="J59" s="129"/>
-      <c r="K59" s="129"/>
-      <c r="L59" s="129"/>
-      <c r="M59" s="129"/>
-      <c r="N59" s="129"/>
-      <c r="O59" s="129"/>
-      <c r="P59" s="129"/>
-      <c r="Q59" s="129"/>
-      <c r="R59" s="129"/>
-      <c r="S59" s="129"/>
-      <c r="T59" s="129"/>
-      <c r="U59" s="129"/>
-      <c r="V59" s="129"/>
-      <c r="W59" s="129"/>
-      <c r="X59" s="129"/>
-      <c r="Y59" s="129"/>
-      <c r="Z59" s="129"/>
-      <c r="AA59" s="129"/>
-      <c r="AB59" s="129"/>
-      <c r="AC59" s="129"/>
-      <c r="AD59" s="129"/>
-      <c r="AE59" s="129"/>
-      <c r="AF59" s="129"/>
-      <c r="AG59" s="129"/>
+      <c r="I59" s="127"/>
+      <c r="J59" s="127"/>
+      <c r="K59" s="127"/>
+      <c r="L59" s="127"/>
+      <c r="M59" s="127"/>
+      <c r="N59" s="127"/>
+      <c r="O59" s="127"/>
+      <c r="P59" s="127"/>
+      <c r="Q59" s="127"/>
+      <c r="R59" s="127"/>
+      <c r="S59" s="127"/>
+      <c r="T59" s="127"/>
+      <c r="U59" s="127"/>
+      <c r="V59" s="127"/>
+      <c r="W59" s="127"/>
+      <c r="X59" s="127"/>
+      <c r="Y59" s="127"/>
+      <c r="Z59" s="127"/>
+      <c r="AA59" s="127"/>
+      <c r="AB59" s="127"/>
+      <c r="AC59" s="127"/>
+      <c r="AD59" s="127"/>
+      <c r="AE59" s="127"/>
+      <c r="AF59" s="127"/>
+      <c r="AG59" s="127"/>
       <c r="AH59" s="38"/>
       <c r="AI59" s="38"/>
-      <c r="AJ59" s="38"/>
-      <c r="AK59" s="38"/>
-      <c r="AL59" s="38"/>
-      <c r="AN59" s="38"/>
+      <c r="AJ59" s="122"/>
+      <c r="AK59" s="122"/>
+      <c r="AL59" s="122"/>
+      <c r="AM59" s="58"/>
+      <c r="AN59" s="129"/>
       <c r="AO59" s="38"/>
       <c r="AP59" s="38"/>
       <c r="AQ59" s="38"/>
-      <c r="AR59" s="150"/>
-      <c r="AS59" s="150"/>
-      <c r="AT59" s="150"/>
-      <c r="AU59" s="150"/>
-      <c r="AV59" s="150"/>
-      <c r="AW59" s="58"/>
+      <c r="AR59" s="40"/>
+      <c r="AS59" s="40"/>
+      <c r="AT59" s="40"/>
+      <c r="AU59" s="40"/>
+      <c r="AV59" s="40"/>
+      <c r="AW59" s="38"/>
       <c r="AX59" s="38"/>
       <c r="AY59" s="38"/>
       <c r="AZ59" s="38"/>
@@ -7145,49 +7183,49 @@
       <c r="BY59" s="38"/>
       <c r="BZ59" s="38"/>
     </row>
-    <row r="60" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="32"/>
       <c r="B60" s="53"/>
       <c r="C60" s="56" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D60" s="54"/>
       <c r="E60" s="35"/>
       <c r="F60" s="35"/>
       <c r="G60" s="36"/>
       <c r="H60" s="37"/>
-      <c r="I60" s="129"/>
-      <c r="J60" s="129"/>
-      <c r="K60" s="129"/>
-      <c r="L60" s="129"/>
-      <c r="M60" s="129"/>
-      <c r="N60" s="129"/>
-      <c r="O60" s="129"/>
-      <c r="P60" s="129"/>
-      <c r="Q60" s="129"/>
-      <c r="R60" s="129"/>
-      <c r="S60" s="129"/>
-      <c r="T60" s="129"/>
-      <c r="U60" s="129"/>
-      <c r="V60" s="129"/>
-      <c r="W60" s="129"/>
-      <c r="X60" s="129"/>
-      <c r="Y60" s="129"/>
-      <c r="Z60" s="129"/>
-      <c r="AA60" s="129"/>
-      <c r="AB60" s="129"/>
-      <c r="AC60" s="129"/>
-      <c r="AD60" s="129"/>
-      <c r="AE60" s="129"/>
-      <c r="AF60" s="129"/>
-      <c r="AG60" s="129"/>
+      <c r="I60" s="127"/>
+      <c r="J60" s="127"/>
+      <c r="K60" s="127"/>
+      <c r="L60" s="127"/>
+      <c r="M60" s="127"/>
+      <c r="N60" s="127"/>
+      <c r="O60" s="127"/>
+      <c r="P60" s="127"/>
+      <c r="Q60" s="127"/>
+      <c r="R60" s="127"/>
+      <c r="S60" s="127"/>
+      <c r="T60" s="127"/>
+      <c r="U60" s="127"/>
+      <c r="V60" s="127"/>
+      <c r="W60" s="127"/>
+      <c r="X60" s="127"/>
+      <c r="Y60" s="127"/>
+      <c r="Z60" s="127"/>
+      <c r="AA60" s="127"/>
+      <c r="AB60" s="127"/>
+      <c r="AC60" s="127"/>
+      <c r="AD60" s="127"/>
+      <c r="AE60" s="127"/>
+      <c r="AF60" s="127"/>
+      <c r="AG60" s="127"/>
       <c r="AH60" s="38"/>
       <c r="AI60" s="38"/>
       <c r="AJ60" s="38"/>
       <c r="AK60" s="38"/>
       <c r="AL60" s="38"/>
       <c r="AM60" s="38"/>
-      <c r="AN60" s="38"/>
+      <c r="AN60" s="128"/>
       <c r="AO60" s="38"/>
       <c r="AP60" s="38"/>
       <c r="AQ60" s="38"/>
@@ -7227,42 +7265,42 @@
       <c r="BY60" s="38"/>
       <c r="BZ60" s="38"/>
     </row>
-    <row r="61" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="32"/>
       <c r="B61" s="53"/>
       <c r="C61" s="56" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="D61" s="54"/>
       <c r="E61" s="35"/>
       <c r="F61" s="35"/>
       <c r="G61" s="36"/>
       <c r="H61" s="37"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="44"/>
-      <c r="O61" s="44"/>
-      <c r="P61" s="44"/>
-      <c r="Q61" s="44"/>
-      <c r="R61" s="44"/>
-      <c r="S61" s="38"/>
-      <c r="T61" s="38"/>
-      <c r="U61" s="38"/>
-      <c r="V61" s="38"/>
-      <c r="W61" s="38"/>
-      <c r="X61" s="38"/>
-      <c r="Y61" s="38"/>
-      <c r="Z61" s="38"/>
-      <c r="AA61" s="38"/>
-      <c r="AB61" s="38"/>
-      <c r="AC61" s="39"/>
-      <c r="AD61" s="39"/>
-      <c r="AE61" s="39"/>
-      <c r="AF61" s="39"/>
-      <c r="AG61" s="39"/>
+      <c r="I61" s="127"/>
+      <c r="J61" s="127"/>
+      <c r="K61" s="127"/>
+      <c r="L61" s="127"/>
+      <c r="M61" s="127"/>
+      <c r="N61" s="127"/>
+      <c r="O61" s="127"/>
+      <c r="P61" s="127"/>
+      <c r="Q61" s="127"/>
+      <c r="R61" s="127"/>
+      <c r="S61" s="127"/>
+      <c r="T61" s="127"/>
+      <c r="U61" s="127"/>
+      <c r="V61" s="127"/>
+      <c r="W61" s="127"/>
+      <c r="X61" s="127"/>
+      <c r="Y61" s="127"/>
+      <c r="Z61" s="127"/>
+      <c r="AA61" s="127"/>
+      <c r="AB61" s="127"/>
+      <c r="AC61" s="127"/>
+      <c r="AD61" s="127"/>
+      <c r="AE61" s="127"/>
+      <c r="AF61" s="127"/>
+      <c r="AG61" s="127"/>
       <c r="AH61" s="38"/>
       <c r="AI61" s="38"/>
       <c r="AJ61" s="38"/>
@@ -7309,58 +7347,57 @@
       <c r="BY61" s="38"/>
       <c r="BZ61" s="38"/>
     </row>
-    <row r="62" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="32"/>
       <c r="B62" s="53"/>
       <c r="C62" s="56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D62" s="54"/>
       <c r="E62" s="35"/>
       <c r="F62" s="35"/>
       <c r="G62" s="36"/>
       <c r="H62" s="37"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="44"/>
-      <c r="O62" s="44"/>
-      <c r="P62" s="44"/>
-      <c r="Q62" s="44"/>
-      <c r="R62" s="44"/>
-      <c r="S62" s="38"/>
-      <c r="T62" s="38"/>
-      <c r="U62" s="38"/>
-      <c r="V62" s="38"/>
-      <c r="W62" s="38"/>
-      <c r="X62" s="38"/>
-      <c r="Y62" s="38"/>
-      <c r="Z62" s="38"/>
-      <c r="AA62" s="38"/>
-      <c r="AB62" s="38"/>
-      <c r="AC62" s="39"/>
-      <c r="AD62" s="39"/>
-      <c r="AE62" s="39"/>
-      <c r="AF62" s="39"/>
-      <c r="AG62" s="39"/>
+      <c r="I62" s="127"/>
+      <c r="J62" s="127"/>
+      <c r="K62" s="127"/>
+      <c r="L62" s="127"/>
+      <c r="M62" s="127"/>
+      <c r="N62" s="127"/>
+      <c r="O62" s="127"/>
+      <c r="P62" s="127"/>
+      <c r="Q62" s="127"/>
+      <c r="R62" s="127"/>
+      <c r="S62" s="127"/>
+      <c r="T62" s="127"/>
+      <c r="U62" s="127"/>
+      <c r="V62" s="127"/>
+      <c r="W62" s="127"/>
+      <c r="X62" s="127"/>
+      <c r="Y62" s="127"/>
+      <c r="Z62" s="127"/>
+      <c r="AA62" s="127"/>
+      <c r="AB62" s="127"/>
+      <c r="AC62" s="127"/>
+      <c r="AD62" s="127"/>
+      <c r="AE62" s="127"/>
+      <c r="AF62" s="127"/>
+      <c r="AG62" s="127"/>
       <c r="AH62" s="38"/>
       <c r="AI62" s="38"/>
       <c r="AJ62" s="38"/>
       <c r="AK62" s="38"/>
       <c r="AL62" s="38"/>
-      <c r="AM62" s="38"/>
       <c r="AN62" s="38"/>
       <c r="AO62" s="38"/>
       <c r="AP62" s="38"/>
       <c r="AQ62" s="38"/>
-      <c r="AR62" s="40"/>
-      <c r="AS62" s="40"/>
-      <c r="AT62" s="40"/>
-      <c r="AU62" s="40"/>
-      <c r="AV62" s="40"/>
-      <c r="AW62" s="38"/>
+      <c r="AR62" s="148"/>
+      <c r="AS62" s="148"/>
+      <c r="AT62" s="148"/>
+      <c r="AU62" s="148"/>
+      <c r="AV62" s="148"/>
+      <c r="AW62" s="58"/>
       <c r="AX62" s="38"/>
       <c r="AY62" s="38"/>
       <c r="AZ62" s="38"/>
@@ -7391,42 +7428,42 @@
       <c r="BY62" s="38"/>
       <c r="BZ62" s="38"/>
     </row>
-    <row r="63" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="32"/>
       <c r="B63" s="53"/>
       <c r="C63" s="56" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="D63" s="54"/>
       <c r="E63" s="35"/>
       <c r="F63" s="35"/>
       <c r="G63" s="36"/>
       <c r="H63" s="37"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="44"/>
-      <c r="O63" s="44"/>
-      <c r="P63" s="44"/>
-      <c r="Q63" s="44"/>
-      <c r="R63" s="44"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="38"/>
-      <c r="V63" s="38"/>
-      <c r="W63" s="38"/>
-      <c r="X63" s="38"/>
-      <c r="Y63" s="38"/>
-      <c r="Z63" s="38"/>
-      <c r="AA63" s="38"/>
-      <c r="AB63" s="38"/>
-      <c r="AC63" s="39"/>
-      <c r="AD63" s="39"/>
-      <c r="AE63" s="39"/>
-      <c r="AF63" s="39"/>
-      <c r="AG63" s="39"/>
+      <c r="I63" s="127"/>
+      <c r="J63" s="127"/>
+      <c r="K63" s="127"/>
+      <c r="L63" s="127"/>
+      <c r="M63" s="127"/>
+      <c r="N63" s="127"/>
+      <c r="O63" s="127"/>
+      <c r="P63" s="127"/>
+      <c r="Q63" s="127"/>
+      <c r="R63" s="127"/>
+      <c r="S63" s="127"/>
+      <c r="T63" s="127"/>
+      <c r="U63" s="127"/>
+      <c r="V63" s="127"/>
+      <c r="W63" s="127"/>
+      <c r="X63" s="127"/>
+      <c r="Y63" s="127"/>
+      <c r="Z63" s="127"/>
+      <c r="AA63" s="127"/>
+      <c r="AB63" s="127"/>
+      <c r="AC63" s="127"/>
+      <c r="AD63" s="127"/>
+      <c r="AE63" s="127"/>
+      <c r="AF63" s="127"/>
+      <c r="AG63" s="127"/>
       <c r="AH63" s="38"/>
       <c r="AI63" s="38"/>
       <c r="AJ63" s="38"/>
@@ -7473,11 +7510,11 @@
       <c r="BY63" s="38"/>
       <c r="BZ63" s="38"/>
     </row>
-    <row r="64" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="32"/>
       <c r="B64" s="53"/>
       <c r="C64" s="56" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D64" s="54"/>
       <c r="E64" s="35"/>
@@ -7555,11 +7592,11 @@
       <c r="BY64" s="38"/>
       <c r="BZ64" s="38"/>
     </row>
-    <row r="65" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="32"/>
       <c r="B65" s="53"/>
       <c r="C65" s="56" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D65" s="54"/>
       <c r="E65" s="35"/>
@@ -7637,11 +7674,11 @@
       <c r="BY65" s="38"/>
       <c r="BZ65" s="38"/>
     </row>
-    <row r="66" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
       <c r="B66" s="53"/>
       <c r="C66" s="56" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="D66" s="54"/>
       <c r="E66" s="35"/>
@@ -7685,12 +7722,12 @@
       <c r="AQ66" s="38"/>
       <c r="AR66" s="40"/>
       <c r="AS66" s="40"/>
-      <c r="AT66" s="124"/>
-      <c r="AU66" s="124"/>
-      <c r="AV66" s="124"/>
-      <c r="AW66" s="124"/>
-      <c r="AX66" s="124"/>
-      <c r="AY66" s="58"/>
+      <c r="AT66" s="40"/>
+      <c r="AU66" s="40"/>
+      <c r="AV66" s="40"/>
+      <c r="AW66" s="38"/>
+      <c r="AX66" s="38"/>
+      <c r="AY66" s="38"/>
       <c r="AZ66" s="38"/>
       <c r="BA66" s="38"/>
       <c r="BB66" s="38"/>
@@ -7719,10 +7756,12 @@
       <c r="BY66" s="38"/>
       <c r="BZ66" s="38"/>
     </row>
-    <row r="67" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="32"/>
       <c r="B67" s="53"/>
-      <c r="C67" s="56"/>
+      <c r="C67" s="56" t="s">
+        <v>72</v>
+      </c>
       <c r="D67" s="54"/>
       <c r="E67" s="35"/>
       <c r="F67" s="35"/>
@@ -7799,10 +7838,12 @@
       <c r="BY67" s="38"/>
       <c r="BZ67" s="38"/>
     </row>
-    <row r="68" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
       <c r="B68" s="53"/>
-      <c r="C68" s="56"/>
+      <c r="C68" s="56" t="s">
+        <v>73</v>
+      </c>
       <c r="D68" s="54"/>
       <c r="E68" s="35"/>
       <c r="F68" s="35"/>
@@ -7879,94 +7920,92 @@
       <c r="BY68" s="38"/>
       <c r="BZ68" s="38"/>
     </row>
-    <row r="69" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="64"/>
-      <c r="I69" s="65"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="67"/>
-      <c r="L69" s="67"/>
-      <c r="M69" s="67"/>
-      <c r="N69" s="68"/>
-      <c r="O69" s="68"/>
-      <c r="P69" s="68"/>
-      <c r="Q69" s="68"/>
-      <c r="R69" s="68"/>
-      <c r="S69" s="67"/>
-      <c r="T69" s="67"/>
-      <c r="U69" s="67"/>
-      <c r="V69" s="67"/>
-      <c r="W69" s="67"/>
-      <c r="X69" s="67"/>
-      <c r="Y69" s="67"/>
-      <c r="Z69" s="67"/>
-      <c r="AA69" s="67"/>
-      <c r="AB69" s="67"/>
-      <c r="AC69" s="69"/>
-      <c r="AD69" s="69"/>
-      <c r="AE69" s="69"/>
-      <c r="AF69" s="69"/>
-      <c r="AG69" s="69"/>
-      <c r="AH69" s="67"/>
-      <c r="AI69" s="67"/>
-      <c r="AJ69" s="67"/>
-      <c r="AK69" s="67"/>
-      <c r="AL69" s="67"/>
-      <c r="AM69" s="67"/>
-      <c r="AN69" s="67"/>
-      <c r="AO69" s="67"/>
-      <c r="AP69" s="67"/>
-      <c r="AQ69" s="67"/>
-      <c r="AR69" s="70"/>
-      <c r="AS69" s="70"/>
-      <c r="AT69" s="70"/>
-      <c r="AU69" s="70"/>
-      <c r="AV69" s="70"/>
-      <c r="AW69" s="67"/>
-      <c r="AX69" s="67"/>
-      <c r="AY69" s="67"/>
-      <c r="AZ69" s="67"/>
-      <c r="BA69" s="67"/>
-      <c r="BB69" s="67"/>
-      <c r="BC69" s="67"/>
-      <c r="BD69" s="67"/>
-      <c r="BE69" s="67"/>
-      <c r="BF69" s="67"/>
-      <c r="BG69" s="71"/>
-      <c r="BH69" s="71"/>
-      <c r="BI69" s="71"/>
-      <c r="BJ69" s="71"/>
-      <c r="BK69" s="71"/>
-      <c r="BL69" s="67"/>
-      <c r="BM69" s="67"/>
-      <c r="BN69" s="67"/>
-      <c r="BO69" s="67"/>
-      <c r="BP69" s="67"/>
-      <c r="BQ69" s="67"/>
-      <c r="BR69" s="67"/>
-      <c r="BS69" s="67"/>
-      <c r="BT69" s="67"/>
-      <c r="BU69" s="67"/>
-      <c r="BV69" s="67"/>
-      <c r="BW69" s="67"/>
-      <c r="BX69" s="67"/>
-      <c r="BY69" s="67"/>
-      <c r="BZ69" s="67"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="54"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="44"/>
+      <c r="R69" s="44"/>
+      <c r="S69" s="38"/>
+      <c r="T69" s="38"/>
+      <c r="U69" s="38"/>
+      <c r="V69" s="38"/>
+      <c r="W69" s="38"/>
+      <c r="X69" s="38"/>
+      <c r="Y69" s="38"/>
+      <c r="Z69" s="38"/>
+      <c r="AA69" s="38"/>
+      <c r="AB69" s="38"/>
+      <c r="AC69" s="39"/>
+      <c r="AD69" s="39"/>
+      <c r="AE69" s="39"/>
+      <c r="AF69" s="39"/>
+      <c r="AG69" s="39"/>
+      <c r="AH69" s="38"/>
+      <c r="AI69" s="38"/>
+      <c r="AJ69" s="38"/>
+      <c r="AK69" s="38"/>
+      <c r="AL69" s="38"/>
+      <c r="AM69" s="38"/>
+      <c r="AN69" s="38"/>
+      <c r="AO69" s="38"/>
+      <c r="AP69" s="38"/>
+      <c r="AQ69" s="38"/>
+      <c r="AR69" s="40"/>
+      <c r="AS69" s="40"/>
+      <c r="AT69" s="122"/>
+      <c r="AU69" s="122"/>
+      <c r="AV69" s="122"/>
+      <c r="AW69" s="122"/>
+      <c r="AX69" s="122"/>
+      <c r="AY69" s="58"/>
+      <c r="AZ69" s="38"/>
+      <c r="BA69" s="38"/>
+      <c r="BB69" s="38"/>
+      <c r="BC69" s="38"/>
+      <c r="BD69" s="38"/>
+      <c r="BE69" s="38"/>
+      <c r="BF69" s="38"/>
+      <c r="BG69" s="41"/>
+      <c r="BH69" s="41"/>
+      <c r="BI69" s="41"/>
+      <c r="BJ69" s="41"/>
+      <c r="BK69" s="41"/>
+      <c r="BL69" s="38"/>
+      <c r="BM69" s="38"/>
+      <c r="BN69" s="38"/>
+      <c r="BO69" s="38"/>
+      <c r="BP69" s="38"/>
+      <c r="BQ69" s="38"/>
+      <c r="BR69" s="38"/>
+      <c r="BS69" s="38"/>
+      <c r="BT69" s="38"/>
+      <c r="BU69" s="38"/>
+      <c r="BV69" s="38"/>
+      <c r="BW69" s="38"/>
+      <c r="BX69" s="38"/>
+      <c r="BY69" s="38"/>
+      <c r="BZ69" s="38"/>
     </row>
-    <row r="70" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32"/>
       <c r="B70" s="53"/>
-      <c r="C70" s="56" t="s">
-        <v>74</v>
-      </c>
+      <c r="C70" s="56"/>
       <c r="D70" s="54"/>
       <c r="E70" s="35"/>
       <c r="F70" s="35"/>
@@ -7998,11 +8037,11 @@
       <c r="AF70" s="39"/>
       <c r="AG70" s="39"/>
       <c r="AH70" s="38"/>
-      <c r="AI70" s="124"/>
-      <c r="AJ70" s="124"/>
-      <c r="AK70" s="124"/>
-      <c r="AL70" s="124"/>
-      <c r="AM70" s="58"/>
+      <c r="AI70" s="38"/>
+      <c r="AJ70" s="38"/>
+      <c r="AK70" s="38"/>
+      <c r="AL70" s="38"/>
+      <c r="AM70" s="38"/>
       <c r="AN70" s="38"/>
       <c r="AO70" s="38"/>
       <c r="AP70" s="38"/>
@@ -8043,12 +8082,10 @@
       <c r="BY70" s="38"/>
       <c r="BZ70" s="38"/>
     </row>
-    <row r="71" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="32"/>
       <c r="B71" s="53"/>
-      <c r="C71" s="56" t="s">
-        <v>75</v>
-      </c>
+      <c r="C71" s="56"/>
       <c r="D71" s="54"/>
       <c r="E71" s="35"/>
       <c r="F71" s="35"/>
@@ -8074,17 +8111,17 @@
       <c r="Z71" s="38"/>
       <c r="AA71" s="38"/>
       <c r="AB71" s="38"/>
-      <c r="AC71" s="38"/>
-      <c r="AD71" s="38"/>
-      <c r="AE71" s="38"/>
-      <c r="AF71" s="38"/>
-      <c r="AG71" s="38"/>
+      <c r="AC71" s="39"/>
+      <c r="AD71" s="39"/>
+      <c r="AE71" s="39"/>
+      <c r="AF71" s="39"/>
+      <c r="AG71" s="39"/>
       <c r="AH71" s="38"/>
-      <c r="AI71" s="124"/>
-      <c r="AJ71" s="124"/>
-      <c r="AK71" s="124"/>
-      <c r="AL71" s="124"/>
-      <c r="AM71" s="58"/>
+      <c r="AI71" s="38"/>
+      <c r="AJ71" s="38"/>
+      <c r="AK71" s="38"/>
+      <c r="AL71" s="38"/>
+      <c r="AM71" s="38"/>
       <c r="AN71" s="38"/>
       <c r="AO71" s="38"/>
       <c r="AP71" s="38"/>
@@ -8125,93 +8162,93 @@
       <c r="BY71" s="38"/>
       <c r="BZ71" s="38"/>
     </row>
-    <row r="72" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="32"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="54"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="44"/>
-      <c r="O72" s="44"/>
-      <c r="P72" s="44"/>
-      <c r="Q72" s="44"/>
-      <c r="R72" s="44"/>
-      <c r="S72" s="38"/>
-      <c r="T72" s="38"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="38"/>
-      <c r="W72" s="38"/>
-      <c r="X72" s="38"/>
-      <c r="Y72" s="38"/>
-      <c r="Z72" s="38"/>
-      <c r="AA72" s="38"/>
-      <c r="AB72" s="38"/>
-      <c r="AC72" s="38"/>
-      <c r="AD72" s="38"/>
-      <c r="AE72" s="38"/>
-      <c r="AF72" s="38"/>
-      <c r="AG72" s="38"/>
-      <c r="AH72" s="38"/>
-      <c r="AI72" s="124"/>
-      <c r="AJ72" s="124"/>
-      <c r="AK72" s="124"/>
-      <c r="AL72" s="124"/>
-      <c r="AM72" s="58"/>
-      <c r="AN72" s="38"/>
-      <c r="AO72" s="38"/>
-      <c r="AP72" s="38"/>
-      <c r="AQ72" s="38"/>
-      <c r="AR72" s="40"/>
-      <c r="AS72" s="40"/>
-      <c r="AT72" s="40"/>
-      <c r="AU72" s="40"/>
-      <c r="AV72" s="40"/>
-      <c r="AW72" s="38"/>
-      <c r="AX72" s="38"/>
-      <c r="AY72" s="38"/>
-      <c r="AZ72" s="38"/>
-      <c r="BA72" s="38"/>
-      <c r="BB72" s="38"/>
-      <c r="BC72" s="38"/>
-      <c r="BD72" s="38"/>
-      <c r="BE72" s="38"/>
-      <c r="BF72" s="38"/>
-      <c r="BG72" s="41"/>
-      <c r="BH72" s="41"/>
-      <c r="BI72" s="41"/>
-      <c r="BJ72" s="41"/>
-      <c r="BK72" s="41"/>
-      <c r="BL72" s="38"/>
-      <c r="BM72" s="38"/>
-      <c r="BN72" s="38"/>
-      <c r="BO72" s="38"/>
-      <c r="BP72" s="38"/>
-      <c r="BQ72" s="38"/>
-      <c r="BR72" s="38"/>
-      <c r="BS72" s="38"/>
-      <c r="BT72" s="38"/>
-      <c r="BU72" s="38"/>
-      <c r="BV72" s="38"/>
-      <c r="BW72" s="38"/>
-      <c r="BX72" s="38"/>
-      <c r="BY72" s="38"/>
-      <c r="BZ72" s="38"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="61"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="67"/>
+      <c r="L72" s="67"/>
+      <c r="M72" s="67"/>
+      <c r="N72" s="68"/>
+      <c r="O72" s="68"/>
+      <c r="P72" s="68"/>
+      <c r="Q72" s="68"/>
+      <c r="R72" s="68"/>
+      <c r="S72" s="67"/>
+      <c r="T72" s="67"/>
+      <c r="U72" s="67"/>
+      <c r="V72" s="67"/>
+      <c r="W72" s="67"/>
+      <c r="X72" s="67"/>
+      <c r="Y72" s="67"/>
+      <c r="Z72" s="67"/>
+      <c r="AA72" s="67"/>
+      <c r="AB72" s="67"/>
+      <c r="AC72" s="69"/>
+      <c r="AD72" s="69"/>
+      <c r="AE72" s="69"/>
+      <c r="AF72" s="69"/>
+      <c r="AG72" s="69"/>
+      <c r="AH72" s="67"/>
+      <c r="AI72" s="67"/>
+      <c r="AJ72" s="67"/>
+      <c r="AK72" s="67"/>
+      <c r="AL72" s="67"/>
+      <c r="AM72" s="67"/>
+      <c r="AN72" s="67"/>
+      <c r="AO72" s="67"/>
+      <c r="AP72" s="67"/>
+      <c r="AQ72" s="67"/>
+      <c r="AR72" s="70"/>
+      <c r="AS72" s="70"/>
+      <c r="AT72" s="70"/>
+      <c r="AU72" s="70"/>
+      <c r="AV72" s="70"/>
+      <c r="AW72" s="67"/>
+      <c r="AX72" s="67"/>
+      <c r="AY72" s="67"/>
+      <c r="AZ72" s="67"/>
+      <c r="BA72" s="67"/>
+      <c r="BB72" s="67"/>
+      <c r="BC72" s="67"/>
+      <c r="BD72" s="67"/>
+      <c r="BE72" s="67"/>
+      <c r="BF72" s="67"/>
+      <c r="BG72" s="71"/>
+      <c r="BH72" s="71"/>
+      <c r="BI72" s="71"/>
+      <c r="BJ72" s="71"/>
+      <c r="BK72" s="71"/>
+      <c r="BL72" s="67"/>
+      <c r="BM72" s="67"/>
+      <c r="BN72" s="67"/>
+      <c r="BO72" s="67"/>
+      <c r="BP72" s="67"/>
+      <c r="BQ72" s="67"/>
+      <c r="BR72" s="67"/>
+      <c r="BS72" s="67"/>
+      <c r="BT72" s="67"/>
+      <c r="BU72" s="67"/>
+      <c r="BV72" s="67"/>
+      <c r="BW72" s="67"/>
+      <c r="BX72" s="67"/>
+      <c r="BY72" s="67"/>
+      <c r="BZ72" s="67"/>
     </row>
-    <row r="73" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="32"/>
       <c r="B73" s="53"/>
       <c r="C73" s="56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D73" s="54"/>
       <c r="E73" s="35"/>
@@ -8244,10 +8281,10 @@
       <c r="AF73" s="39"/>
       <c r="AG73" s="39"/>
       <c r="AH73" s="38"/>
-      <c r="AI73" s="124"/>
-      <c r="AJ73" s="124"/>
-      <c r="AK73" s="124"/>
-      <c r="AL73" s="124"/>
+      <c r="AI73" s="122"/>
+      <c r="AJ73" s="122"/>
+      <c r="AK73" s="122"/>
+      <c r="AL73" s="122"/>
       <c r="AM73" s="58"/>
       <c r="AN73" s="38"/>
       <c r="AO73" s="38"/>
@@ -8289,11 +8326,11 @@
       <c r="BY73" s="38"/>
       <c r="BZ73" s="38"/>
     </row>
-    <row r="74" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="32"/>
       <c r="B74" s="53"/>
       <c r="C74" s="56" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D74" s="54"/>
       <c r="E74" s="35"/>
@@ -8320,16 +8357,16 @@
       <c r="Z74" s="38"/>
       <c r="AA74" s="38"/>
       <c r="AB74" s="38"/>
-      <c r="AC74" s="39"/>
-      <c r="AD74" s="39"/>
-      <c r="AE74" s="39"/>
-      <c r="AF74" s="39"/>
-      <c r="AG74" s="39"/>
+      <c r="AC74" s="38"/>
+      <c r="AD74" s="38"/>
+      <c r="AE74" s="38"/>
+      <c r="AF74" s="38"/>
+      <c r="AG74" s="38"/>
       <c r="AH74" s="38"/>
-      <c r="AI74" s="124"/>
-      <c r="AJ74" s="124"/>
-      <c r="AK74" s="124"/>
-      <c r="AL74" s="124"/>
+      <c r="AI74" s="122"/>
+      <c r="AJ74" s="122"/>
+      <c r="AK74" s="122"/>
+      <c r="AL74" s="122"/>
       <c r="AM74" s="58"/>
       <c r="AN74" s="38"/>
       <c r="AO74" s="38"/>
@@ -8371,11 +8408,11 @@
       <c r="BY74" s="38"/>
       <c r="BZ74" s="38"/>
     </row>
-    <row r="75" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
       <c r="B75" s="53"/>
       <c r="C75" s="56" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="D75" s="54"/>
       <c r="E75" s="35"/>
@@ -8402,17 +8439,17 @@
       <c r="Z75" s="38"/>
       <c r="AA75" s="38"/>
       <c r="AB75" s="38"/>
-      <c r="AC75" s="39"/>
-      <c r="AD75" s="39"/>
-      <c r="AE75" s="39"/>
-      <c r="AF75" s="39"/>
-      <c r="AG75" s="39"/>
+      <c r="AC75" s="38"/>
+      <c r="AD75" s="38"/>
+      <c r="AE75" s="38"/>
+      <c r="AF75" s="38"/>
+      <c r="AG75" s="38"/>
       <c r="AH75" s="38"/>
-      <c r="AI75" s="132"/>
-      <c r="AJ75" s="132"/>
-      <c r="AK75" s="132"/>
-      <c r="AL75" s="132"/>
-      <c r="AM75" s="133"/>
+      <c r="AI75" s="122"/>
+      <c r="AJ75" s="122"/>
+      <c r="AK75" s="122"/>
+      <c r="AL75" s="122"/>
+      <c r="AM75" s="58"/>
       <c r="AN75" s="38"/>
       <c r="AO75" s="38"/>
       <c r="AP75" s="38"/>
@@ -8453,11 +8490,11 @@
       <c r="BY75" s="38"/>
       <c r="BZ75" s="38"/>
     </row>
-    <row r="76" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
       <c r="B76" s="53"/>
       <c r="C76" s="56" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="D76" s="54"/>
       <c r="E76" s="35"/>
@@ -8490,17 +8527,17 @@
       <c r="AF76" s="39"/>
       <c r="AG76" s="39"/>
       <c r="AH76" s="38"/>
-      <c r="AI76" s="38"/>
-      <c r="AJ76" s="38"/>
-      <c r="AK76" s="38"/>
-      <c r="AL76" s="38"/>
-      <c r="AM76" s="38"/>
+      <c r="AI76" s="122"/>
+      <c r="AJ76" s="122"/>
+      <c r="AK76" s="122"/>
+      <c r="AL76" s="122"/>
+      <c r="AM76" s="58"/>
       <c r="AN76" s="38"/>
       <c r="AO76" s="38"/>
       <c r="AP76" s="38"/>
-      <c r="AQ76" s="124"/>
-      <c r="AR76" s="150"/>
-      <c r="AS76" s="147"/>
+      <c r="AQ76" s="38"/>
+      <c r="AR76" s="40"/>
+      <c r="AS76" s="40"/>
       <c r="AT76" s="40"/>
       <c r="AU76" s="40"/>
       <c r="AV76" s="40"/>
@@ -8535,11 +8572,11 @@
       <c r="BY76" s="38"/>
       <c r="BZ76" s="38"/>
     </row>
-    <row r="77" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
       <c r="B77" s="53"/>
       <c r="C77" s="56" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D77" s="54"/>
       <c r="E77" s="35"/>
@@ -8572,21 +8609,21 @@
       <c r="AF77" s="39"/>
       <c r="AG77" s="39"/>
       <c r="AH77" s="38"/>
-      <c r="AI77" s="38"/>
-      <c r="AJ77" s="38"/>
-      <c r="AK77" s="38"/>
-      <c r="AL77" s="38"/>
-      <c r="AM77" s="38"/>
+      <c r="AI77" s="122"/>
+      <c r="AJ77" s="122"/>
+      <c r="AK77" s="122"/>
+      <c r="AL77" s="122"/>
+      <c r="AM77" s="58"/>
       <c r="AN77" s="38"/>
       <c r="AO77" s="38"/>
       <c r="AP77" s="38"/>
       <c r="AQ77" s="38"/>
-      <c r="AR77" s="38"/>
+      <c r="AR77" s="40"/>
       <c r="AS77" s="40"/>
       <c r="AT77" s="40"/>
-      <c r="AU77" s="150"/>
-      <c r="AV77" s="150"/>
-      <c r="AW77" s="58"/>
+      <c r="AU77" s="40"/>
+      <c r="AV77" s="40"/>
+      <c r="AW77" s="38"/>
       <c r="AX77" s="38"/>
       <c r="AY77" s="38"/>
       <c r="AZ77" s="38"/>
@@ -8617,10 +8654,12 @@
       <c r="BY77" s="38"/>
       <c r="BZ77" s="38"/>
     </row>
-    <row r="78" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
       <c r="B78" s="53"/>
-      <c r="C78" s="56"/>
+      <c r="C78" s="56" t="s">
+        <v>106</v>
+      </c>
       <c r="D78" s="54"/>
       <c r="E78" s="35"/>
       <c r="F78" s="35"/>
@@ -8652,11 +8691,11 @@
       <c r="AF78" s="39"/>
       <c r="AG78" s="39"/>
       <c r="AH78" s="38"/>
-      <c r="AI78" s="38"/>
-      <c r="AJ78" s="38"/>
-      <c r="AK78" s="38"/>
-      <c r="AL78" s="38"/>
-      <c r="AM78" s="38"/>
+      <c r="AI78" s="130"/>
+      <c r="AJ78" s="130"/>
+      <c r="AK78" s="130"/>
+      <c r="AL78" s="130"/>
+      <c r="AM78" s="131"/>
       <c r="AN78" s="38"/>
       <c r="AO78" s="38"/>
       <c r="AP78" s="38"/>
@@ -8697,176 +8736,174 @@
       <c r="BY78" s="38"/>
       <c r="BZ78" s="38"/>
     </row>
-    <row r="79" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="72"/>
-      <c r="B79" s="59"/>
-      <c r="C79" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D79" s="61"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="64"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="66"/>
-      <c r="K79" s="67"/>
-      <c r="L79" s="67"/>
-      <c r="M79" s="67"/>
-      <c r="N79" s="68"/>
-      <c r="O79" s="68"/>
-      <c r="P79" s="68"/>
-      <c r="Q79" s="68"/>
-      <c r="R79" s="68"/>
-      <c r="S79" s="67"/>
-      <c r="T79" s="67"/>
-      <c r="U79" s="67"/>
-      <c r="V79" s="67"/>
-      <c r="W79" s="67"/>
-      <c r="X79" s="67"/>
-      <c r="Y79" s="67"/>
-      <c r="Z79" s="67"/>
-      <c r="AA79" s="67"/>
-      <c r="AB79" s="67"/>
-      <c r="AC79" s="69"/>
-      <c r="AD79" s="69"/>
-      <c r="AE79" s="69"/>
-      <c r="AF79" s="69"/>
-      <c r="AG79" s="69"/>
-      <c r="AH79" s="67"/>
-      <c r="AI79" s="67"/>
-      <c r="AJ79" s="69"/>
-      <c r="AK79" s="67"/>
-      <c r="AL79" s="67"/>
-      <c r="AM79" s="67"/>
-      <c r="AN79" s="67"/>
-      <c r="AO79" s="67"/>
-      <c r="AP79" s="67"/>
-      <c r="AQ79" s="67"/>
-      <c r="AR79" s="70"/>
-      <c r="AS79" s="70"/>
-      <c r="AT79" s="70"/>
-      <c r="AU79" s="70"/>
-      <c r="AV79" s="70"/>
-      <c r="AW79" s="67"/>
-      <c r="AX79" s="67"/>
-      <c r="AY79" s="67"/>
-      <c r="AZ79" s="67"/>
-      <c r="BA79" s="67"/>
-      <c r="BB79" s="67"/>
-      <c r="BC79" s="67"/>
-      <c r="BD79" s="67"/>
-      <c r="BE79" s="67"/>
-      <c r="BF79" s="67"/>
-      <c r="BG79" s="71"/>
-      <c r="BH79" s="71"/>
-      <c r="BI79" s="71"/>
-      <c r="BJ79" s="71"/>
-      <c r="BK79" s="71"/>
-      <c r="BL79" s="67"/>
-      <c r="BM79" s="67"/>
-      <c r="BN79" s="67"/>
-      <c r="BO79" s="67"/>
-      <c r="BP79" s="67"/>
-      <c r="BQ79" s="67"/>
-      <c r="BR79" s="67"/>
-      <c r="BS79" s="67"/>
-      <c r="BT79" s="67"/>
-      <c r="BU79" s="67"/>
-      <c r="BV79" s="67"/>
-      <c r="BW79" s="67"/>
-      <c r="BX79" s="67"/>
-      <c r="BY79" s="67"/>
-      <c r="BZ79" s="67"/>
+    <row r="79" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="32"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" s="54"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="43"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
+      <c r="M79" s="38"/>
+      <c r="N79" s="44"/>
+      <c r="O79" s="44"/>
+      <c r="P79" s="44"/>
+      <c r="Q79" s="44"/>
+      <c r="R79" s="44"/>
+      <c r="S79" s="38"/>
+      <c r="T79" s="38"/>
+      <c r="U79" s="38"/>
+      <c r="V79" s="38"/>
+      <c r="W79" s="38"/>
+      <c r="X79" s="38"/>
+      <c r="Y79" s="38"/>
+      <c r="Z79" s="38"/>
+      <c r="AA79" s="38"/>
+      <c r="AB79" s="38"/>
+      <c r="AC79" s="39"/>
+      <c r="AD79" s="39"/>
+      <c r="AE79" s="39"/>
+      <c r="AF79" s="39"/>
+      <c r="AG79" s="39"/>
+      <c r="AH79" s="38"/>
+      <c r="AI79" s="38"/>
+      <c r="AJ79" s="38"/>
+      <c r="AK79" s="38"/>
+      <c r="AL79" s="38"/>
+      <c r="AM79" s="38"/>
+      <c r="AN79" s="38"/>
+      <c r="AO79" s="38"/>
+      <c r="AP79" s="175"/>
+      <c r="AQ79" s="38"/>
+      <c r="AR79" s="40"/>
+      <c r="AS79" s="40"/>
+      <c r="AT79" s="177"/>
+      <c r="AU79" s="148"/>
+      <c r="AV79" s="148"/>
+      <c r="AW79" s="58"/>
+      <c r="AX79" s="122"/>
+      <c r="AY79" s="122"/>
+      <c r="AZ79" s="122"/>
+      <c r="BA79" s="122"/>
+      <c r="BB79" s="58"/>
+      <c r="BC79" s="38"/>
+      <c r="BD79" s="38"/>
+      <c r="BE79" s="38"/>
+      <c r="BF79" s="38"/>
+      <c r="BG79" s="41"/>
+      <c r="BH79" s="41"/>
+      <c r="BI79" s="41"/>
+      <c r="BJ79" s="41"/>
+      <c r="BK79" s="41"/>
+      <c r="BL79" s="38"/>
+      <c r="BM79" s="38"/>
+      <c r="BN79" s="38"/>
+      <c r="BO79" s="38"/>
+      <c r="BP79" s="38"/>
+      <c r="BQ79" s="38"/>
+      <c r="BR79" s="38"/>
+      <c r="BS79" s="38"/>
+      <c r="BT79" s="38"/>
+      <c r="BU79" s="38"/>
+      <c r="BV79" s="38"/>
+      <c r="BW79" s="38"/>
+      <c r="BX79" s="38"/>
+      <c r="BY79" s="38"/>
+      <c r="BZ79" s="38"/>
     </row>
-    <row r="80" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="91"/>
-      <c r="B80" s="92"/>
-      <c r="C80" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="D80" s="94"/>
-      <c r="E80" s="95"/>
-      <c r="F80" s="95"/>
-      <c r="G80" s="96"/>
-      <c r="H80" s="97"/>
-      <c r="I80" s="98"/>
-      <c r="J80" s="99"/>
-      <c r="K80" s="100"/>
-      <c r="L80" s="100"/>
-      <c r="M80" s="100"/>
-      <c r="N80" s="101"/>
-      <c r="O80" s="101"/>
-      <c r="P80" s="101"/>
-      <c r="Q80" s="101"/>
-      <c r="R80" s="101"/>
-      <c r="S80" s="100"/>
-      <c r="T80" s="100"/>
-      <c r="U80" s="100"/>
-      <c r="V80" s="100"/>
-      <c r="W80" s="100"/>
-      <c r="X80" s="100"/>
-      <c r="Y80" s="100"/>
-      <c r="Z80" s="100"/>
-      <c r="AA80" s="100"/>
-      <c r="AB80" s="100"/>
-      <c r="AC80" s="102"/>
-      <c r="AD80" s="102"/>
-      <c r="AE80" s="102"/>
-      <c r="AF80" s="102"/>
-      <c r="AG80" s="102"/>
-      <c r="AH80" s="100"/>
-      <c r="AI80" s="100"/>
-      <c r="AJ80" s="102"/>
-      <c r="AK80" s="100"/>
-      <c r="AL80" s="100"/>
-      <c r="AM80" s="100"/>
-      <c r="AN80" s="100"/>
-      <c r="AO80" s="100"/>
-      <c r="AP80" s="100"/>
-      <c r="AQ80" s="100"/>
-      <c r="AR80" s="103"/>
-      <c r="AS80" s="103"/>
-      <c r="AT80" s="103"/>
-      <c r="AU80" s="103"/>
-      <c r="AV80" s="103"/>
-      <c r="AW80" s="100"/>
-      <c r="AX80" s="100"/>
-      <c r="AY80" s="100"/>
-      <c r="AZ80" s="100"/>
-      <c r="BA80" s="100"/>
-      <c r="BB80" s="100"/>
-      <c r="BC80" s="100"/>
-      <c r="BD80" s="100"/>
-      <c r="BE80" s="100"/>
-      <c r="BF80" s="100"/>
-      <c r="BG80" s="104"/>
-      <c r="BH80" s="104"/>
-      <c r="BI80" s="104"/>
-      <c r="BJ80" s="104"/>
-      <c r="BK80" s="104"/>
-      <c r="BL80" s="100"/>
-      <c r="BM80" s="100"/>
-      <c r="BN80" s="100"/>
-      <c r="BO80" s="100"/>
-      <c r="BP80" s="100"/>
-      <c r="BQ80" s="100"/>
-      <c r="BR80" s="100"/>
-      <c r="BS80" s="100"/>
-      <c r="BT80" s="100"/>
-      <c r="BU80" s="100"/>
-      <c r="BV80" s="100"/>
-      <c r="BW80" s="100"/>
-      <c r="BX80" s="100"/>
-      <c r="BY80" s="100"/>
-      <c r="BZ80" s="100"/>
+    <row r="80" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="32"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" s="54"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
+      <c r="M80" s="38"/>
+      <c r="N80" s="44"/>
+      <c r="O80" s="44"/>
+      <c r="P80" s="44"/>
+      <c r="Q80" s="44"/>
+      <c r="R80" s="44"/>
+      <c r="S80" s="38"/>
+      <c r="T80" s="38"/>
+      <c r="U80" s="38"/>
+      <c r="V80" s="38"/>
+      <c r="W80" s="38"/>
+      <c r="X80" s="38"/>
+      <c r="Y80" s="38"/>
+      <c r="Z80" s="38"/>
+      <c r="AA80" s="38"/>
+      <c r="AB80" s="38"/>
+      <c r="AC80" s="39"/>
+      <c r="AD80" s="39"/>
+      <c r="AE80" s="39"/>
+      <c r="AF80" s="39"/>
+      <c r="AG80" s="39"/>
+      <c r="AH80" s="38"/>
+      <c r="AI80" s="38"/>
+      <c r="AJ80" s="38"/>
+      <c r="AK80" s="38"/>
+      <c r="AL80" s="38"/>
+      <c r="AM80" s="38"/>
+      <c r="AN80" s="38"/>
+      <c r="AO80" s="38"/>
+      <c r="AP80" s="38"/>
+      <c r="AQ80" s="128"/>
+      <c r="AR80" s="40"/>
+      <c r="AS80" s="176"/>
+      <c r="AT80" s="148"/>
+      <c r="AU80" s="148"/>
+      <c r="AV80" s="148"/>
+      <c r="AW80" s="58"/>
+      <c r="AX80" s="122"/>
+      <c r="AY80" s="122"/>
+      <c r="AZ80" s="122"/>
+      <c r="BA80" s="122"/>
+      <c r="BB80" s="58"/>
+      <c r="BC80" s="38"/>
+      <c r="BD80" s="38"/>
+      <c r="BE80" s="38"/>
+      <c r="BF80" s="38"/>
+      <c r="BG80" s="41"/>
+      <c r="BH80" s="41"/>
+      <c r="BI80" s="41"/>
+      <c r="BJ80" s="41"/>
+      <c r="BK80" s="41"/>
+      <c r="BL80" s="38"/>
+      <c r="BM80" s="38"/>
+      <c r="BN80" s="38"/>
+      <c r="BO80" s="38"/>
+      <c r="BP80" s="38"/>
+      <c r="BQ80" s="38"/>
+      <c r="BR80" s="38"/>
+      <c r="BS80" s="38"/>
+      <c r="BT80" s="38"/>
+      <c r="BU80" s="38"/>
+      <c r="BV80" s="38"/>
+      <c r="BW80" s="38"/>
+      <c r="BX80" s="38"/>
+      <c r="BY80" s="38"/>
+      <c r="BZ80" s="38"/>
     </row>
-    <row r="81" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
       <c r="B81" s="53"/>
-      <c r="C81" s="56" t="s">
-        <v>118</v>
-      </c>
+      <c r="C81" s="56"/>
       <c r="D81" s="54"/>
       <c r="E81" s="35"/>
       <c r="F81" s="35"/>
@@ -8892,17 +8929,17 @@
       <c r="Z81" s="38"/>
       <c r="AA81" s="38"/>
       <c r="AB81" s="38"/>
-      <c r="AC81" s="38"/>
-      <c r="AD81" s="38"/>
-      <c r="AE81" s="38"/>
-      <c r="AF81" s="38"/>
-      <c r="AG81" s="38"/>
-      <c r="AH81" s="123"/>
-      <c r="AI81" s="123"/>
-      <c r="AJ81" s="123"/>
-      <c r="AK81" s="123"/>
-      <c r="AL81" s="123"/>
-      <c r="AM81" s="58"/>
+      <c r="AC81" s="39"/>
+      <c r="AD81" s="39"/>
+      <c r="AE81" s="39"/>
+      <c r="AF81" s="39"/>
+      <c r="AG81" s="39"/>
+      <c r="AH81" s="38"/>
+      <c r="AI81" s="38"/>
+      <c r="AJ81" s="38"/>
+      <c r="AK81" s="38"/>
+      <c r="AL81" s="38"/>
+      <c r="AM81" s="38"/>
       <c r="AN81" s="38"/>
       <c r="AO81" s="38"/>
       <c r="AP81" s="38"/>
@@ -8943,175 +8980,175 @@
       <c r="BY81" s="38"/>
       <c r="BZ81" s="38"/>
     </row>
-    <row r="82" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="32"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" s="54"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="36"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="38"/>
-      <c r="M82" s="38"/>
-      <c r="N82" s="44"/>
-      <c r="O82" s="44"/>
-      <c r="P82" s="44"/>
-      <c r="Q82" s="44"/>
-      <c r="R82" s="44"/>
-      <c r="S82" s="38"/>
-      <c r="T82" s="38"/>
-      <c r="U82" s="38"/>
-      <c r="V82" s="38"/>
-      <c r="W82" s="38"/>
-      <c r="X82" s="38"/>
-      <c r="Y82" s="38"/>
-      <c r="Z82" s="38"/>
-      <c r="AA82" s="38"/>
-      <c r="AB82" s="38"/>
-      <c r="AC82" s="38"/>
-      <c r="AD82" s="38"/>
-      <c r="AE82" s="38"/>
-      <c r="AF82" s="38"/>
-      <c r="AG82" s="38"/>
-      <c r="AH82" s="38"/>
-      <c r="AI82" s="38"/>
-      <c r="AJ82" s="38"/>
-      <c r="AK82" s="38"/>
-      <c r="AL82" s="38"/>
-      <c r="AM82" s="38"/>
-      <c r="AN82" s="38"/>
-      <c r="AO82" s="38"/>
-      <c r="AP82" s="38"/>
-      <c r="AQ82" s="38"/>
-      <c r="AR82" s="40"/>
-      <c r="AS82" s="40"/>
-      <c r="AT82" s="40"/>
-      <c r="AU82" s="40"/>
-      <c r="AV82" s="40"/>
-      <c r="AW82" s="38"/>
-      <c r="AX82" s="38"/>
-      <c r="AY82" s="38"/>
-      <c r="AZ82" s="38"/>
-      <c r="BA82" s="38"/>
-      <c r="BB82" s="38"/>
-      <c r="BC82" s="38"/>
-      <c r="BD82" s="38"/>
-      <c r="BE82" s="38"/>
-      <c r="BF82" s="38"/>
-      <c r="BG82" s="41"/>
-      <c r="BH82" s="41"/>
-      <c r="BI82" s="41"/>
-      <c r="BJ82" s="41"/>
-      <c r="BK82" s="41"/>
-      <c r="BL82" s="38"/>
-      <c r="BM82" s="38"/>
-      <c r="BN82" s="38"/>
-      <c r="BO82" s="38"/>
-      <c r="BP82" s="38"/>
-      <c r="BQ82" s="38"/>
-      <c r="BR82" s="38"/>
-      <c r="BS82" s="38"/>
-      <c r="BT82" s="38"/>
-      <c r="BU82" s="38"/>
-      <c r="BV82" s="38"/>
-      <c r="BW82" s="38"/>
-      <c r="BX82" s="38"/>
-      <c r="BY82" s="38"/>
-      <c r="BZ82" s="38"/>
+    <row r="82" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="72"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" s="61"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="67"/>
+      <c r="L82" s="67"/>
+      <c r="M82" s="67"/>
+      <c r="N82" s="68"/>
+      <c r="O82" s="68"/>
+      <c r="P82" s="68"/>
+      <c r="Q82" s="68"/>
+      <c r="R82" s="68"/>
+      <c r="S82" s="67"/>
+      <c r="T82" s="67"/>
+      <c r="U82" s="67"/>
+      <c r="V82" s="67"/>
+      <c r="W82" s="67"/>
+      <c r="X82" s="67"/>
+      <c r="Y82" s="67"/>
+      <c r="Z82" s="67"/>
+      <c r="AA82" s="67"/>
+      <c r="AB82" s="67"/>
+      <c r="AC82" s="69"/>
+      <c r="AD82" s="69"/>
+      <c r="AE82" s="69"/>
+      <c r="AF82" s="69"/>
+      <c r="AG82" s="69"/>
+      <c r="AH82" s="67"/>
+      <c r="AI82" s="67"/>
+      <c r="AJ82" s="69"/>
+      <c r="AK82" s="67"/>
+      <c r="AL82" s="67"/>
+      <c r="AM82" s="67"/>
+      <c r="AN82" s="67"/>
+      <c r="AO82" s="67"/>
+      <c r="AP82" s="67"/>
+      <c r="AQ82" s="67"/>
+      <c r="AR82" s="70"/>
+      <c r="AS82" s="70"/>
+      <c r="AT82" s="70"/>
+      <c r="AU82" s="70"/>
+      <c r="AV82" s="70"/>
+      <c r="AW82" s="67"/>
+      <c r="AX82" s="67"/>
+      <c r="AY82" s="67"/>
+      <c r="AZ82" s="67"/>
+      <c r="BA82" s="67"/>
+      <c r="BB82" s="67"/>
+      <c r="BC82" s="67"/>
+      <c r="BD82" s="67"/>
+      <c r="BE82" s="67"/>
+      <c r="BF82" s="67"/>
+      <c r="BG82" s="71"/>
+      <c r="BH82" s="71"/>
+      <c r="BI82" s="71"/>
+      <c r="BJ82" s="71"/>
+      <c r="BK82" s="71"/>
+      <c r="BL82" s="67"/>
+      <c r="BM82" s="67"/>
+      <c r="BN82" s="67"/>
+      <c r="BO82" s="67"/>
+      <c r="BP82" s="67"/>
+      <c r="BQ82" s="67"/>
+      <c r="BR82" s="67"/>
+      <c r="BS82" s="67"/>
+      <c r="BT82" s="67"/>
+      <c r="BU82" s="67"/>
+      <c r="BV82" s="67"/>
+      <c r="BW82" s="67"/>
+      <c r="BX82" s="67"/>
+      <c r="BY82" s="67"/>
+      <c r="BZ82" s="67"/>
     </row>
-    <row r="83" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="32"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" s="54"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="36"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="42"/>
-      <c r="J83" s="43"/>
-      <c r="K83" s="38"/>
-      <c r="L83" s="38"/>
-      <c r="M83" s="38"/>
-      <c r="N83" s="44"/>
-      <c r="O83" s="44"/>
-      <c r="P83" s="44"/>
-      <c r="Q83" s="44"/>
-      <c r="R83" s="44"/>
-      <c r="S83" s="38"/>
-      <c r="T83" s="38"/>
-      <c r="U83" s="38"/>
-      <c r="V83" s="38"/>
-      <c r="W83" s="38"/>
-      <c r="X83" s="38"/>
-      <c r="Y83" s="38"/>
-      <c r="Z83" s="38"/>
-      <c r="AA83" s="38"/>
-      <c r="AB83" s="38"/>
-      <c r="AC83" s="38"/>
-      <c r="AD83" s="38"/>
-      <c r="AE83" s="38"/>
-      <c r="AF83" s="38"/>
-      <c r="AG83" s="38"/>
-      <c r="AH83" s="38"/>
-      <c r="AI83" s="38"/>
-      <c r="AJ83" s="38"/>
-      <c r="AK83" s="38"/>
-      <c r="AL83" s="38"/>
-      <c r="AM83" s="38"/>
-      <c r="AN83" s="38"/>
-      <c r="AO83" s="38"/>
-      <c r="AP83" s="38"/>
-      <c r="AQ83" s="38"/>
-      <c r="AR83" s="40"/>
-      <c r="AS83" s="40"/>
-      <c r="AT83" s="150"/>
-      <c r="AU83" s="150"/>
-      <c r="AV83" s="147"/>
-      <c r="AW83" s="38"/>
-      <c r="AX83" s="38"/>
-      <c r="AY83" s="38"/>
-      <c r="AZ83" s="38"/>
-      <c r="BA83" s="38"/>
-      <c r="BB83" s="38"/>
-      <c r="BC83" s="38"/>
-      <c r="BD83" s="38"/>
-      <c r="BE83" s="38"/>
-      <c r="BF83" s="38"/>
-      <c r="BG83" s="41"/>
-      <c r="BH83" s="41"/>
-      <c r="BI83" s="41"/>
-      <c r="BJ83" s="41"/>
-      <c r="BK83" s="41"/>
-      <c r="BL83" s="38"/>
-      <c r="BM83" s="38"/>
-      <c r="BN83" s="38"/>
-      <c r="BO83" s="38"/>
-      <c r="BP83" s="38"/>
-      <c r="BQ83" s="38"/>
-      <c r="BR83" s="38"/>
-      <c r="BS83" s="38"/>
-      <c r="BT83" s="38"/>
-      <c r="BU83" s="38"/>
-      <c r="BV83" s="38"/>
-      <c r="BW83" s="38"/>
-      <c r="BX83" s="38"/>
-      <c r="BY83" s="38"/>
-      <c r="BZ83" s="38"/>
+    <row r="83" spans="1:78" s="103" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="89"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="92"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="94"/>
+      <c r="H83" s="95"/>
+      <c r="I83" s="96"/>
+      <c r="J83" s="97"/>
+      <c r="K83" s="98"/>
+      <c r="L83" s="98"/>
+      <c r="M83" s="98"/>
+      <c r="N83" s="99"/>
+      <c r="O83" s="99"/>
+      <c r="P83" s="99"/>
+      <c r="Q83" s="99"/>
+      <c r="R83" s="99"/>
+      <c r="S83" s="98"/>
+      <c r="T83" s="98"/>
+      <c r="U83" s="98"/>
+      <c r="V83" s="98"/>
+      <c r="W83" s="98"/>
+      <c r="X83" s="98"/>
+      <c r="Y83" s="98"/>
+      <c r="Z83" s="98"/>
+      <c r="AA83" s="98"/>
+      <c r="AB83" s="98"/>
+      <c r="AC83" s="100"/>
+      <c r="AD83" s="100"/>
+      <c r="AE83" s="100"/>
+      <c r="AF83" s="100"/>
+      <c r="AG83" s="100"/>
+      <c r="AH83" s="98"/>
+      <c r="AI83" s="98"/>
+      <c r="AJ83" s="100"/>
+      <c r="AK83" s="98"/>
+      <c r="AL83" s="98"/>
+      <c r="AM83" s="98"/>
+      <c r="AN83" s="98"/>
+      <c r="AO83" s="98"/>
+      <c r="AP83" s="98"/>
+      <c r="AQ83" s="98"/>
+      <c r="AR83" s="101"/>
+      <c r="AS83" s="101"/>
+      <c r="AT83" s="101"/>
+      <c r="AU83" s="101"/>
+      <c r="AV83" s="101"/>
+      <c r="AW83" s="98"/>
+      <c r="AX83" s="98"/>
+      <c r="AY83" s="98"/>
+      <c r="AZ83" s="98"/>
+      <c r="BA83" s="98"/>
+      <c r="BB83" s="98"/>
+      <c r="BC83" s="98"/>
+      <c r="BD83" s="98"/>
+      <c r="BE83" s="98"/>
+      <c r="BF83" s="98"/>
+      <c r="BG83" s="102"/>
+      <c r="BH83" s="102"/>
+      <c r="BI83" s="102"/>
+      <c r="BJ83" s="102"/>
+      <c r="BK83" s="102"/>
+      <c r="BL83" s="98"/>
+      <c r="BM83" s="98"/>
+      <c r="BN83" s="98"/>
+      <c r="BO83" s="98"/>
+      <c r="BP83" s="98"/>
+      <c r="BQ83" s="98"/>
+      <c r="BR83" s="98"/>
+      <c r="BS83" s="98"/>
+      <c r="BT83" s="98"/>
+      <c r="BU83" s="98"/>
+      <c r="BV83" s="98"/>
+      <c r="BW83" s="98"/>
+      <c r="BX83" s="98"/>
+      <c r="BY83" s="98"/>
+      <c r="BZ83" s="98"/>
     </row>
-    <row r="84" spans="1:78" ht="16.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
       <c r="B84" s="53"/>
       <c r="C84" s="56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D84" s="54"/>
       <c r="E84" s="35"/>
@@ -9143,11 +9180,11 @@
       <c r="AE84" s="38"/>
       <c r="AF84" s="38"/>
       <c r="AG84" s="38"/>
-      <c r="AH84" s="38"/>
-      <c r="AI84" s="38"/>
-      <c r="AJ84" s="38"/>
-      <c r="AK84" s="123"/>
-      <c r="AL84" s="123"/>
+      <c r="AH84" s="121"/>
+      <c r="AI84" s="121"/>
+      <c r="AJ84" s="121"/>
+      <c r="AK84" s="121"/>
+      <c r="AL84" s="121"/>
       <c r="AM84" s="58"/>
       <c r="AN84" s="38"/>
       <c r="AO84" s="38"/>
@@ -9189,11 +9226,11 @@
       <c r="BY84" s="38"/>
       <c r="BZ84" s="38"/>
     </row>
-    <row r="85" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="32"/>
       <c r="B85" s="53"/>
       <c r="C85" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D85" s="54"/>
       <c r="E85" s="35"/>
@@ -9228,9 +9265,9 @@
       <c r="AH85" s="38"/>
       <c r="AI85" s="38"/>
       <c r="AJ85" s="38"/>
-      <c r="AK85" s="123"/>
-      <c r="AL85" s="123"/>
-      <c r="AM85" s="58"/>
+      <c r="AK85" s="38"/>
+      <c r="AL85" s="38"/>
+      <c r="AM85" s="38"/>
       <c r="AN85" s="38"/>
       <c r="AO85" s="38"/>
       <c r="AP85" s="38"/>
@@ -9271,11 +9308,11 @@
       <c r="BY85" s="38"/>
       <c r="BZ85" s="38"/>
     </row>
-    <row r="86" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="32"/>
       <c r="B86" s="53"/>
       <c r="C86" s="56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D86" s="54"/>
       <c r="E86" s="35"/>
@@ -9310,18 +9347,18 @@
       <c r="AH86" s="38"/>
       <c r="AI86" s="38"/>
       <c r="AJ86" s="38"/>
-      <c r="AK86" s="123"/>
-      <c r="AL86" s="123"/>
-      <c r="AM86" s="58"/>
+      <c r="AK86" s="38"/>
+      <c r="AL86" s="38"/>
+      <c r="AM86" s="38"/>
       <c r="AN86" s="38"/>
       <c r="AO86" s="38"/>
       <c r="AP86" s="38"/>
       <c r="AQ86" s="38"/>
       <c r="AR86" s="40"/>
       <c r="AS86" s="40"/>
-      <c r="AT86" s="40"/>
-      <c r="AU86" s="40"/>
-      <c r="AV86" s="40"/>
+      <c r="AT86" s="148"/>
+      <c r="AU86" s="148"/>
+      <c r="AV86" s="145"/>
       <c r="AW86" s="38"/>
       <c r="AX86" s="38"/>
       <c r="AY86" s="38"/>
@@ -9353,11 +9390,11 @@
       <c r="BY86" s="38"/>
       <c r="BZ86" s="38"/>
     </row>
-    <row r="87" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:78" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="32"/>
       <c r="B87" s="53"/>
       <c r="C87" s="56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D87" s="54"/>
       <c r="E87" s="35"/>
@@ -9392,19 +9429,19 @@
       <c r="AH87" s="38"/>
       <c r="AI87" s="38"/>
       <c r="AJ87" s="38"/>
-      <c r="AK87" s="38"/>
-      <c r="AL87" s="38"/>
-      <c r="AM87" s="38"/>
+      <c r="AK87" s="121"/>
+      <c r="AL87" s="121"/>
+      <c r="AM87" s="58"/>
       <c r="AN87" s="38"/>
-      <c r="AO87" s="124"/>
-      <c r="AP87" s="124"/>
-      <c r="AQ87" s="124"/>
-      <c r="AR87" s="150"/>
-      <c r="AS87" s="150"/>
-      <c r="AT87" s="150"/>
-      <c r="AU87" s="150"/>
-      <c r="AV87" s="150"/>
-      <c r="AW87" s="58"/>
+      <c r="AO87" s="38"/>
+      <c r="AP87" s="38"/>
+      <c r="AQ87" s="38"/>
+      <c r="AR87" s="40"/>
+      <c r="AS87" s="40"/>
+      <c r="AT87" s="40"/>
+      <c r="AU87" s="40"/>
+      <c r="AV87" s="40"/>
+      <c r="AW87" s="38"/>
       <c r="AX87" s="38"/>
       <c r="AY87" s="38"/>
       <c r="AZ87" s="38"/>
@@ -9435,11 +9472,11 @@
       <c r="BY87" s="38"/>
       <c r="BZ87" s="38"/>
     </row>
-    <row r="88" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32"/>
       <c r="B88" s="53"/>
       <c r="C88" s="56" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="D88" s="54"/>
       <c r="E88" s="35"/>
@@ -9474,14 +9511,14 @@
       <c r="AH88" s="38"/>
       <c r="AI88" s="38"/>
       <c r="AJ88" s="38"/>
-      <c r="AK88" s="38"/>
-      <c r="AL88" s="38"/>
-      <c r="AM88" s="38"/>
+      <c r="AK88" s="121"/>
+      <c r="AL88" s="121"/>
+      <c r="AM88" s="58"/>
       <c r="AN88" s="38"/>
-      <c r="AO88" s="124"/>
-      <c r="AP88" s="124"/>
-      <c r="AQ88" s="124"/>
-      <c r="AR88" s="147"/>
+      <c r="AO88" s="38"/>
+      <c r="AP88" s="38"/>
+      <c r="AQ88" s="38"/>
+      <c r="AR88" s="40"/>
       <c r="AS88" s="40"/>
       <c r="AT88" s="40"/>
       <c r="AU88" s="40"/>
@@ -9517,11 +9554,11 @@
       <c r="BY88" s="38"/>
       <c r="BZ88" s="38"/>
     </row>
-    <row r="89" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="53"/>
-      <c r="C89" s="57" t="s">
-        <v>128</v>
+      <c r="C89" s="56" t="s">
+        <v>89</v>
       </c>
       <c r="D89" s="54"/>
       <c r="E89" s="35"/>
@@ -9556,14 +9593,14 @@
       <c r="AH89" s="38"/>
       <c r="AI89" s="38"/>
       <c r="AJ89" s="38"/>
-      <c r="AK89" s="38"/>
-      <c r="AL89" s="38"/>
-      <c r="AM89" s="38"/>
+      <c r="AK89" s="121"/>
+      <c r="AL89" s="121"/>
+      <c r="AM89" s="58"/>
       <c r="AN89" s="38"/>
       <c r="AO89" s="38"/>
       <c r="AP89" s="38"/>
       <c r="AQ89" s="38"/>
-      <c r="AR89" s="147"/>
+      <c r="AR89" s="40"/>
       <c r="AS89" s="40"/>
       <c r="AT89" s="40"/>
       <c r="AU89" s="40"/>
@@ -9599,11 +9636,11 @@
       <c r="BY89" s="38"/>
       <c r="BZ89" s="38"/>
     </row>
-    <row r="90" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="32"/>
       <c r="B90" s="53"/>
       <c r="C90" s="56" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D90" s="54"/>
       <c r="E90" s="35"/>
@@ -9630,11 +9667,11 @@
       <c r="Z90" s="38"/>
       <c r="AA90" s="38"/>
       <c r="AB90" s="38"/>
-      <c r="AC90" s="39"/>
-      <c r="AD90" s="39"/>
-      <c r="AE90" s="39"/>
-      <c r="AF90" s="39"/>
-      <c r="AG90" s="39"/>
+      <c r="AC90" s="38"/>
+      <c r="AD90" s="38"/>
+      <c r="AE90" s="38"/>
+      <c r="AF90" s="38"/>
+      <c r="AG90" s="38"/>
       <c r="AH90" s="38"/>
       <c r="AI90" s="38"/>
       <c r="AJ90" s="38"/>
@@ -9642,15 +9679,15 @@
       <c r="AL90" s="38"/>
       <c r="AM90" s="38"/>
       <c r="AN90" s="38"/>
-      <c r="AO90" s="38"/>
-      <c r="AP90" s="38"/>
-      <c r="AQ90" s="38"/>
-      <c r="AR90" s="150"/>
-      <c r="AS90" s="150"/>
-      <c r="AT90" s="150"/>
-      <c r="AU90" s="150"/>
-      <c r="AV90" s="147"/>
-      <c r="AW90" s="38"/>
+      <c r="AO90" s="122"/>
+      <c r="AP90" s="122"/>
+      <c r="AQ90" s="122"/>
+      <c r="AR90" s="148"/>
+      <c r="AS90" s="148"/>
+      <c r="AT90" s="148"/>
+      <c r="AU90" s="148"/>
+      <c r="AV90" s="148"/>
+      <c r="AW90" s="58"/>
       <c r="AX90" s="38"/>
       <c r="AY90" s="38"/>
       <c r="AZ90" s="38"/>
@@ -9681,11 +9718,11 @@
       <c r="BY90" s="38"/>
       <c r="BZ90" s="38"/>
     </row>
-    <row r="91" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
       <c r="B91" s="53"/>
       <c r="C91" s="56" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="D91" s="54"/>
       <c r="E91" s="35"/>
@@ -9712,11 +9749,11 @@
       <c r="Z91" s="38"/>
       <c r="AA91" s="38"/>
       <c r="AB91" s="38"/>
-      <c r="AC91" s="39"/>
-      <c r="AD91" s="39"/>
-      <c r="AE91" s="39"/>
-      <c r="AF91" s="39"/>
-      <c r="AG91" s="39"/>
+      <c r="AC91" s="38"/>
+      <c r="AD91" s="38"/>
+      <c r="AE91" s="38"/>
+      <c r="AF91" s="38"/>
+      <c r="AG91" s="38"/>
       <c r="AH91" s="38"/>
       <c r="AI91" s="38"/>
       <c r="AJ91" s="38"/>
@@ -9724,14 +9761,14 @@
       <c r="AL91" s="38"/>
       <c r="AM91" s="38"/>
       <c r="AN91" s="38"/>
-      <c r="AO91" s="38"/>
-      <c r="AP91" s="38"/>
-      <c r="AQ91" s="38"/>
-      <c r="AR91" s="150"/>
-      <c r="AS91" s="150"/>
-      <c r="AT91" s="150"/>
-      <c r="AU91" s="150"/>
-      <c r="AV91" s="147"/>
+      <c r="AO91" s="122"/>
+      <c r="AP91" s="122"/>
+      <c r="AQ91" s="122"/>
+      <c r="AR91" s="145"/>
+      <c r="AS91" s="40"/>
+      <c r="AT91" s="40"/>
+      <c r="AU91" s="40"/>
+      <c r="AV91" s="40"/>
       <c r="AW91" s="38"/>
       <c r="AX91" s="38"/>
       <c r="AY91" s="38"/>
@@ -9763,11 +9800,11 @@
       <c r="BY91" s="38"/>
       <c r="BZ91" s="38"/>
     </row>
-    <row r="92" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
       <c r="B92" s="53"/>
-      <c r="C92" s="56" t="s">
-        <v>133</v>
+      <c r="C92" s="57" t="s">
+        <v>128</v>
       </c>
       <c r="D92" s="54"/>
       <c r="E92" s="35"/>
@@ -9794,11 +9831,11 @@
       <c r="Z92" s="38"/>
       <c r="AA92" s="38"/>
       <c r="AB92" s="38"/>
-      <c r="AC92" s="39"/>
-      <c r="AD92" s="39"/>
-      <c r="AE92" s="39"/>
-      <c r="AF92" s="39"/>
-      <c r="AG92" s="39"/>
+      <c r="AC92" s="38"/>
+      <c r="AD92" s="38"/>
+      <c r="AE92" s="38"/>
+      <c r="AF92" s="38"/>
+      <c r="AG92" s="38"/>
       <c r="AH92" s="38"/>
       <c r="AI92" s="38"/>
       <c r="AJ92" s="38"/>
@@ -9809,11 +9846,11 @@
       <c r="AO92" s="38"/>
       <c r="AP92" s="38"/>
       <c r="AQ92" s="38"/>
-      <c r="AR92" s="150"/>
-      <c r="AS92" s="150"/>
-      <c r="AT92" s="150"/>
-      <c r="AU92" s="150"/>
-      <c r="AV92" s="147"/>
+      <c r="AR92" s="145"/>
+      <c r="AS92" s="40"/>
+      <c r="AT92" s="40"/>
+      <c r="AU92" s="40"/>
+      <c r="AV92" s="40"/>
       <c r="AW92" s="38"/>
       <c r="AX92" s="38"/>
       <c r="AY92" s="38"/>
@@ -9845,11 +9882,11 @@
       <c r="BY92" s="38"/>
       <c r="BZ92" s="38"/>
     </row>
-    <row r="93" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="32"/>
       <c r="B93" s="53"/>
       <c r="C93" s="56" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D93" s="54"/>
       <c r="E93" s="35"/>
@@ -9891,11 +9928,11 @@
       <c r="AO93" s="38"/>
       <c r="AP93" s="38"/>
       <c r="AQ93" s="38"/>
-      <c r="AR93" s="150"/>
-      <c r="AS93" s="150"/>
-      <c r="AT93" s="150"/>
-      <c r="AU93" s="150"/>
-      <c r="AV93" s="147"/>
+      <c r="AR93" s="148"/>
+      <c r="AS93" s="148"/>
+      <c r="AT93" s="148"/>
+      <c r="AU93" s="148"/>
+      <c r="AV93" s="145"/>
       <c r="AW93" s="38"/>
       <c r="AX93" s="38"/>
       <c r="AY93" s="38"/>
@@ -9927,93 +9964,93 @@
       <c r="BY93" s="38"/>
       <c r="BZ93" s="38"/>
     </row>
-    <row r="94" spans="1:78" s="105" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="91"/>
-      <c r="B94" s="92"/>
-      <c r="C94" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="D94" s="94"/>
-      <c r="E94" s="95"/>
-      <c r="F94" s="95"/>
-      <c r="G94" s="96"/>
-      <c r="H94" s="97"/>
-      <c r="I94" s="98"/>
-      <c r="J94" s="99"/>
-      <c r="K94" s="100"/>
-      <c r="L94" s="100"/>
-      <c r="M94" s="100"/>
-      <c r="N94" s="101"/>
-      <c r="O94" s="101"/>
-      <c r="P94" s="101"/>
-      <c r="Q94" s="101"/>
-      <c r="R94" s="101"/>
-      <c r="S94" s="100"/>
-      <c r="T94" s="100"/>
-      <c r="U94" s="100"/>
-      <c r="V94" s="100"/>
-      <c r="W94" s="100"/>
-      <c r="X94" s="100"/>
-      <c r="Y94" s="100"/>
-      <c r="Z94" s="100"/>
-      <c r="AA94" s="100"/>
-      <c r="AB94" s="100"/>
-      <c r="AC94" s="102"/>
-      <c r="AD94" s="102"/>
-      <c r="AE94" s="102"/>
-      <c r="AF94" s="102"/>
-      <c r="AG94" s="102"/>
-      <c r="AH94" s="100"/>
-      <c r="AI94" s="100"/>
-      <c r="AJ94" s="100"/>
-      <c r="AK94" s="100"/>
-      <c r="AL94" s="100"/>
-      <c r="AM94" s="100"/>
-      <c r="AN94" s="100"/>
-      <c r="AO94" s="100"/>
-      <c r="AP94" s="100"/>
-      <c r="AQ94" s="100"/>
-      <c r="AR94" s="103"/>
-      <c r="AS94" s="103"/>
-      <c r="AT94" s="103"/>
-      <c r="AU94" s="103"/>
-      <c r="AV94" s="103"/>
-      <c r="AW94" s="100"/>
-      <c r="AX94" s="100"/>
-      <c r="AY94" s="100"/>
-      <c r="AZ94" s="100"/>
-      <c r="BA94" s="100"/>
-      <c r="BB94" s="100"/>
-      <c r="BC94" s="100"/>
-      <c r="BD94" s="100"/>
-      <c r="BE94" s="100"/>
-      <c r="BF94" s="100"/>
-      <c r="BG94" s="104"/>
-      <c r="BH94" s="104"/>
-      <c r="BI94" s="104"/>
-      <c r="BJ94" s="104"/>
-      <c r="BK94" s="104"/>
-      <c r="BL94" s="100"/>
-      <c r="BM94" s="100"/>
-      <c r="BN94" s="100"/>
-      <c r="BO94" s="100"/>
-      <c r="BP94" s="100"/>
-      <c r="BQ94" s="100"/>
-      <c r="BR94" s="100"/>
-      <c r="BS94" s="100"/>
-      <c r="BT94" s="100"/>
-      <c r="BU94" s="100"/>
-      <c r="BV94" s="100"/>
-      <c r="BW94" s="100"/>
-      <c r="BX94" s="100"/>
-      <c r="BY94" s="100"/>
-      <c r="BZ94" s="100"/>
+    <row r="94" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="32"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94" s="54"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="38"/>
+      <c r="L94" s="38"/>
+      <c r="M94" s="38"/>
+      <c r="N94" s="44"/>
+      <c r="O94" s="44"/>
+      <c r="P94" s="44"/>
+      <c r="Q94" s="44"/>
+      <c r="R94" s="44"/>
+      <c r="S94" s="38"/>
+      <c r="T94" s="38"/>
+      <c r="U94" s="38"/>
+      <c r="V94" s="38"/>
+      <c r="W94" s="38"/>
+      <c r="X94" s="38"/>
+      <c r="Y94" s="38"/>
+      <c r="Z94" s="38"/>
+      <c r="AA94" s="38"/>
+      <c r="AB94" s="38"/>
+      <c r="AC94" s="39"/>
+      <c r="AD94" s="39"/>
+      <c r="AE94" s="39"/>
+      <c r="AF94" s="39"/>
+      <c r="AG94" s="39"/>
+      <c r="AH94" s="38"/>
+      <c r="AI94" s="38"/>
+      <c r="AJ94" s="38"/>
+      <c r="AK94" s="38"/>
+      <c r="AL94" s="38"/>
+      <c r="AM94" s="38"/>
+      <c r="AN94" s="38"/>
+      <c r="AO94" s="38"/>
+      <c r="AP94" s="38"/>
+      <c r="AQ94" s="38"/>
+      <c r="AR94" s="148"/>
+      <c r="AS94" s="148"/>
+      <c r="AT94" s="148"/>
+      <c r="AU94" s="148"/>
+      <c r="AV94" s="145"/>
+      <c r="AW94" s="38"/>
+      <c r="AX94" s="38"/>
+      <c r="AY94" s="38"/>
+      <c r="AZ94" s="38"/>
+      <c r="BA94" s="38"/>
+      <c r="BB94" s="38"/>
+      <c r="BC94" s="38"/>
+      <c r="BD94" s="38"/>
+      <c r="BE94" s="38"/>
+      <c r="BF94" s="38"/>
+      <c r="BG94" s="41"/>
+      <c r="BH94" s="41"/>
+      <c r="BI94" s="41"/>
+      <c r="BJ94" s="41"/>
+      <c r="BK94" s="41"/>
+      <c r="BL94" s="38"/>
+      <c r="BM94" s="38"/>
+      <c r="BN94" s="38"/>
+      <c r="BO94" s="38"/>
+      <c r="BP94" s="38"/>
+      <c r="BQ94" s="38"/>
+      <c r="BR94" s="38"/>
+      <c r="BS94" s="38"/>
+      <c r="BT94" s="38"/>
+      <c r="BU94" s="38"/>
+      <c r="BV94" s="38"/>
+      <c r="BW94" s="38"/>
+      <c r="BX94" s="38"/>
+      <c r="BY94" s="38"/>
+      <c r="BZ94" s="38"/>
     </row>
-    <row r="95" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
       <c r="B95" s="53"/>
       <c r="C95" s="56" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="D95" s="54"/>
       <c r="E95" s="35"/>
@@ -10025,11 +10062,11 @@
       <c r="K95" s="38"/>
       <c r="L95" s="38"/>
       <c r="M95" s="38"/>
-      <c r="N95" s="38"/>
-      <c r="O95" s="38"/>
-      <c r="P95" s="38"/>
-      <c r="Q95" s="38"/>
-      <c r="R95" s="38"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="44"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="44"/>
       <c r="S95" s="38"/>
       <c r="T95" s="38"/>
       <c r="U95" s="38"/>
@@ -10040,26 +10077,26 @@
       <c r="Z95" s="38"/>
       <c r="AA95" s="38"/>
       <c r="AB95" s="38"/>
-      <c r="AC95" s="38"/>
-      <c r="AD95" s="38"/>
-      <c r="AE95" s="38"/>
-      <c r="AF95" s="38"/>
-      <c r="AG95" s="38"/>
+      <c r="AC95" s="39"/>
+      <c r="AD95" s="39"/>
+      <c r="AE95" s="39"/>
+      <c r="AF95" s="39"/>
+      <c r="AG95" s="39"/>
       <c r="AH95" s="38"/>
-      <c r="AI95" s="124"/>
-      <c r="AJ95" s="124"/>
-      <c r="AK95" s="124"/>
-      <c r="AL95" s="124"/>
-      <c r="AM95" s="58"/>
+      <c r="AI95" s="38"/>
+      <c r="AJ95" s="38"/>
+      <c r="AK95" s="38"/>
+      <c r="AL95" s="38"/>
+      <c r="AM95" s="38"/>
       <c r="AN95" s="38"/>
       <c r="AO95" s="38"/>
       <c r="AP95" s="38"/>
       <c r="AQ95" s="38"/>
-      <c r="AR95" s="38"/>
-      <c r="AS95" s="38"/>
-      <c r="AT95" s="38"/>
-      <c r="AU95" s="38"/>
-      <c r="AV95" s="38"/>
+      <c r="AR95" s="148"/>
+      <c r="AS95" s="148"/>
+      <c r="AT95" s="148"/>
+      <c r="AU95" s="148"/>
+      <c r="AV95" s="145"/>
       <c r="AW95" s="38"/>
       <c r="AX95" s="38"/>
       <c r="AY95" s="38"/>
@@ -10070,11 +10107,11 @@
       <c r="BD95" s="38"/>
       <c r="BE95" s="38"/>
       <c r="BF95" s="38"/>
-      <c r="BG95" s="38"/>
-      <c r="BH95" s="38"/>
-      <c r="BI95" s="38"/>
-      <c r="BJ95" s="38"/>
-      <c r="BK95" s="38"/>
+      <c r="BG95" s="41"/>
+      <c r="BH95" s="41"/>
+      <c r="BI95" s="41"/>
+      <c r="BJ95" s="41"/>
+      <c r="BK95" s="41"/>
       <c r="BL95" s="38"/>
       <c r="BM95" s="38"/>
       <c r="BN95" s="38"/>
@@ -10091,11 +10128,11 @@
       <c r="BY95" s="38"/>
       <c r="BZ95" s="38"/>
     </row>
-    <row r="96" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32"/>
       <c r="B96" s="53"/>
       <c r="C96" s="56" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="D96" s="54"/>
       <c r="E96" s="35"/>
@@ -10107,11 +10144,11 @@
       <c r="K96" s="38"/>
       <c r="L96" s="38"/>
       <c r="M96" s="38"/>
-      <c r="N96" s="38"/>
-      <c r="O96" s="38"/>
-      <c r="P96" s="38"/>
-      <c r="Q96" s="38"/>
-      <c r="R96" s="38"/>
+      <c r="N96" s="44"/>
+      <c r="O96" s="44"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="44"/>
       <c r="S96" s="38"/>
       <c r="T96" s="38"/>
       <c r="U96" s="38"/>
@@ -10122,11 +10159,11 @@
       <c r="Z96" s="38"/>
       <c r="AA96" s="38"/>
       <c r="AB96" s="38"/>
-      <c r="AC96" s="38"/>
-      <c r="AD96" s="38"/>
-      <c r="AE96" s="38"/>
-      <c r="AF96" s="38"/>
-      <c r="AG96" s="38"/>
+      <c r="AC96" s="39"/>
+      <c r="AD96" s="39"/>
+      <c r="AE96" s="39"/>
+      <c r="AF96" s="39"/>
+      <c r="AG96" s="39"/>
       <c r="AH96" s="38"/>
       <c r="AI96" s="38"/>
       <c r="AJ96" s="38"/>
@@ -10137,11 +10174,11 @@
       <c r="AO96" s="38"/>
       <c r="AP96" s="38"/>
       <c r="AQ96" s="38"/>
-      <c r="AR96" s="38"/>
-      <c r="AS96" s="38"/>
-      <c r="AT96" s="38"/>
-      <c r="AU96" s="38"/>
-      <c r="AV96" s="38"/>
+      <c r="AR96" s="148"/>
+      <c r="AS96" s="148"/>
+      <c r="AT96" s="148"/>
+      <c r="AU96" s="148"/>
+      <c r="AV96" s="145"/>
       <c r="AW96" s="38"/>
       <c r="AX96" s="38"/>
       <c r="AY96" s="38"/>
@@ -10152,11 +10189,11 @@
       <c r="BD96" s="38"/>
       <c r="BE96" s="38"/>
       <c r="BF96" s="38"/>
-      <c r="BG96" s="38"/>
-      <c r="BH96" s="38"/>
-      <c r="BI96" s="38"/>
-      <c r="BJ96" s="38"/>
-      <c r="BK96" s="38"/>
+      <c r="BG96" s="41"/>
+      <c r="BH96" s="41"/>
+      <c r="BI96" s="41"/>
+      <c r="BJ96" s="41"/>
+      <c r="BK96" s="41"/>
       <c r="BL96" s="38"/>
       <c r="BM96" s="38"/>
       <c r="BN96" s="38"/>
@@ -10173,93 +10210,93 @@
       <c r="BY96" s="38"/>
       <c r="BZ96" s="38"/>
     </row>
-    <row r="97" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="32"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="D97" s="54"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="43"/>
-      <c r="K97" s="38"/>
-      <c r="L97" s="38"/>
-      <c r="M97" s="38"/>
-      <c r="N97" s="38"/>
-      <c r="O97" s="38"/>
-      <c r="P97" s="38"/>
-      <c r="Q97" s="38"/>
-      <c r="R97" s="38"/>
-      <c r="S97" s="38"/>
-      <c r="T97" s="38"/>
-      <c r="U97" s="38"/>
-      <c r="V97" s="38"/>
-      <c r="W97" s="38"/>
-      <c r="X97" s="38"/>
-      <c r="Y97" s="38"/>
-      <c r="Z97" s="38"/>
-      <c r="AA97" s="38"/>
-      <c r="AB97" s="38"/>
-      <c r="AC97" s="38"/>
-      <c r="AD97" s="38"/>
-      <c r="AE97" s="38"/>
-      <c r="AF97" s="38"/>
-      <c r="AG97" s="38"/>
-      <c r="AH97" s="38"/>
-      <c r="AI97" s="38"/>
-      <c r="AJ97" s="38"/>
-      <c r="AK97" s="38"/>
-      <c r="AL97" s="38"/>
-      <c r="AM97" s="38"/>
-      <c r="AN97" s="38"/>
-      <c r="AO97" s="38"/>
-      <c r="AP97" s="38"/>
-      <c r="AQ97" s="38"/>
-      <c r="AR97" s="124"/>
-      <c r="AS97" s="124"/>
-      <c r="AT97" s="124"/>
-      <c r="AU97" s="124"/>
-      <c r="AV97" s="124"/>
-      <c r="AW97" s="58"/>
-      <c r="AX97" s="38"/>
-      <c r="AY97" s="38"/>
-      <c r="AZ97" s="38"/>
-      <c r="BA97" s="38"/>
-      <c r="BB97" s="38"/>
-      <c r="BC97" s="38"/>
-      <c r="BD97" s="38"/>
-      <c r="BE97" s="38"/>
-      <c r="BF97" s="38"/>
-      <c r="BG97" s="38"/>
-      <c r="BH97" s="38"/>
-      <c r="BI97" s="38"/>
-      <c r="BJ97" s="38"/>
-      <c r="BK97" s="38"/>
-      <c r="BL97" s="38"/>
-      <c r="BM97" s="38"/>
-      <c r="BN97" s="38"/>
-      <c r="BO97" s="38"/>
-      <c r="BP97" s="38"/>
-      <c r="BQ97" s="38"/>
-      <c r="BR97" s="38"/>
-      <c r="BS97" s="38"/>
-      <c r="BT97" s="38"/>
-      <c r="BU97" s="38"/>
-      <c r="BV97" s="38"/>
-      <c r="BW97" s="38"/>
-      <c r="BX97" s="38"/>
-      <c r="BY97" s="38"/>
-      <c r="BZ97" s="38"/>
+    <row r="97" spans="1:78" s="103" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="89"/>
+      <c r="B97" s="90"/>
+      <c r="C97" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D97" s="92"/>
+      <c r="E97" s="93"/>
+      <c r="F97" s="93"/>
+      <c r="G97" s="94"/>
+      <c r="H97" s="95"/>
+      <c r="I97" s="96"/>
+      <c r="J97" s="97"/>
+      <c r="K97" s="98"/>
+      <c r="L97" s="98"/>
+      <c r="M97" s="98"/>
+      <c r="N97" s="99"/>
+      <c r="O97" s="99"/>
+      <c r="P97" s="99"/>
+      <c r="Q97" s="99"/>
+      <c r="R97" s="99"/>
+      <c r="S97" s="98"/>
+      <c r="T97" s="98"/>
+      <c r="U97" s="98"/>
+      <c r="V97" s="98"/>
+      <c r="W97" s="98"/>
+      <c r="X97" s="98"/>
+      <c r="Y97" s="98"/>
+      <c r="Z97" s="98"/>
+      <c r="AA97" s="98"/>
+      <c r="AB97" s="98"/>
+      <c r="AC97" s="100"/>
+      <c r="AD97" s="100"/>
+      <c r="AE97" s="100"/>
+      <c r="AF97" s="100"/>
+      <c r="AG97" s="100"/>
+      <c r="AH97" s="98"/>
+      <c r="AI97" s="98"/>
+      <c r="AJ97" s="98"/>
+      <c r="AK97" s="98"/>
+      <c r="AL97" s="98"/>
+      <c r="AM97" s="98"/>
+      <c r="AN97" s="98"/>
+      <c r="AO97" s="98"/>
+      <c r="AP97" s="98"/>
+      <c r="AQ97" s="98"/>
+      <c r="AR97" s="101"/>
+      <c r="AS97" s="101"/>
+      <c r="AT97" s="101"/>
+      <c r="AU97" s="101"/>
+      <c r="AV97" s="101"/>
+      <c r="AW97" s="98"/>
+      <c r="AX97" s="98"/>
+      <c r="AY97" s="98"/>
+      <c r="AZ97" s="98"/>
+      <c r="BA97" s="98"/>
+      <c r="BB97" s="98"/>
+      <c r="BC97" s="98"/>
+      <c r="BD97" s="98"/>
+      <c r="BE97" s="98"/>
+      <c r="BF97" s="98"/>
+      <c r="BG97" s="102"/>
+      <c r="BH97" s="102"/>
+      <c r="BI97" s="102"/>
+      <c r="BJ97" s="102"/>
+      <c r="BK97" s="102"/>
+      <c r="BL97" s="98"/>
+      <c r="BM97" s="98"/>
+      <c r="BN97" s="98"/>
+      <c r="BO97" s="98"/>
+      <c r="BP97" s="98"/>
+      <c r="BQ97" s="98"/>
+      <c r="BR97" s="98"/>
+      <c r="BS97" s="98"/>
+      <c r="BT97" s="98"/>
+      <c r="BU97" s="98"/>
+      <c r="BV97" s="98"/>
+      <c r="BW97" s="98"/>
+      <c r="BX97" s="98"/>
+      <c r="BY97" s="98"/>
+      <c r="BZ97" s="98"/>
     </row>
-    <row r="98" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="32"/>
       <c r="B98" s="53"/>
       <c r="C98" s="56" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="D98" s="54"/>
       <c r="E98" s="35"/>
@@ -10292,11 +10329,11 @@
       <c r="AF98" s="38"/>
       <c r="AG98" s="38"/>
       <c r="AH98" s="38"/>
-      <c r="AI98" s="38"/>
-      <c r="AJ98" s="38"/>
-      <c r="AK98" s="38"/>
-      <c r="AL98" s="38"/>
-      <c r="AM98" s="38"/>
+      <c r="AI98" s="122"/>
+      <c r="AJ98" s="122"/>
+      <c r="AK98" s="122"/>
+      <c r="AL98" s="122"/>
+      <c r="AM98" s="58"/>
       <c r="AN98" s="38"/>
       <c r="AO98" s="38"/>
       <c r="AP98" s="38"/>
@@ -10337,93 +10374,93 @@
       <c r="BY98" s="38"/>
       <c r="BZ98" s="38"/>
     </row>
-    <row r="99" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="72"/>
-      <c r="B99" s="59"/>
-      <c r="C99" s="77" t="s">
-        <v>38</v>
-      </c>
-      <c r="D99" s="61"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="63"/>
-      <c r="H99" s="64"/>
-      <c r="I99" s="65"/>
-      <c r="J99" s="66"/>
-      <c r="K99" s="67"/>
-      <c r="L99" s="67"/>
-      <c r="M99" s="67"/>
-      <c r="N99" s="68"/>
-      <c r="O99" s="68"/>
-      <c r="P99" s="68"/>
-      <c r="Q99" s="68"/>
-      <c r="R99" s="68"/>
-      <c r="S99" s="67"/>
-      <c r="T99" s="67"/>
-      <c r="U99" s="67"/>
-      <c r="V99" s="67"/>
-      <c r="W99" s="67"/>
-      <c r="X99" s="67"/>
-      <c r="Y99" s="67"/>
-      <c r="Z99" s="67"/>
-      <c r="AA99" s="67"/>
-      <c r="AB99" s="67"/>
-      <c r="AC99" s="69"/>
-      <c r="AD99" s="69"/>
-      <c r="AE99" s="69"/>
-      <c r="AF99" s="69"/>
-      <c r="AG99" s="69"/>
-      <c r="AH99" s="67"/>
-      <c r="AI99" s="67"/>
-      <c r="AJ99" s="67"/>
-      <c r="AK99" s="67"/>
-      <c r="AL99" s="67"/>
-      <c r="AM99" s="67"/>
-      <c r="AN99" s="67"/>
-      <c r="AO99" s="67"/>
-      <c r="AP99" s="67"/>
-      <c r="AQ99" s="67"/>
-      <c r="AR99" s="70"/>
-      <c r="AS99" s="70"/>
-      <c r="AT99" s="70"/>
-      <c r="AU99" s="70"/>
-      <c r="AV99" s="70"/>
-      <c r="AW99" s="67"/>
-      <c r="AX99" s="67"/>
-      <c r="AY99" s="67"/>
-      <c r="AZ99" s="67"/>
-      <c r="BA99" s="67"/>
-      <c r="BB99" s="67"/>
-      <c r="BC99" s="67"/>
-      <c r="BD99" s="67"/>
-      <c r="BE99" s="67"/>
-      <c r="BF99" s="67"/>
-      <c r="BG99" s="71"/>
-      <c r="BH99" s="71"/>
-      <c r="BI99" s="71"/>
-      <c r="BJ99" s="71"/>
-      <c r="BK99" s="71"/>
-      <c r="BL99" s="67"/>
-      <c r="BM99" s="67"/>
-      <c r="BN99" s="67"/>
-      <c r="BO99" s="67"/>
-      <c r="BP99" s="67"/>
-      <c r="BQ99" s="67"/>
-      <c r="BR99" s="67"/>
-      <c r="BS99" s="67"/>
-      <c r="BT99" s="67"/>
-      <c r="BU99" s="67"/>
-      <c r="BV99" s="67"/>
-      <c r="BW99" s="67"/>
-      <c r="BX99" s="67"/>
-      <c r="BY99" s="67"/>
-      <c r="BZ99" s="67"/>
+    <row r="99" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="32"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D99" s="54"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="43"/>
+      <c r="K99" s="38"/>
+      <c r="L99" s="38"/>
+      <c r="M99" s="38"/>
+      <c r="N99" s="38"/>
+      <c r="O99" s="38"/>
+      <c r="P99" s="38"/>
+      <c r="Q99" s="38"/>
+      <c r="R99" s="38"/>
+      <c r="S99" s="38"/>
+      <c r="T99" s="38"/>
+      <c r="U99" s="38"/>
+      <c r="V99" s="38"/>
+      <c r="W99" s="38"/>
+      <c r="X99" s="38"/>
+      <c r="Y99" s="38"/>
+      <c r="Z99" s="38"/>
+      <c r="AA99" s="38"/>
+      <c r="AB99" s="38"/>
+      <c r="AC99" s="38"/>
+      <c r="AD99" s="38"/>
+      <c r="AE99" s="38"/>
+      <c r="AF99" s="38"/>
+      <c r="AG99" s="38"/>
+      <c r="AH99" s="38"/>
+      <c r="AI99" s="38"/>
+      <c r="AJ99" s="38"/>
+      <c r="AK99" s="38"/>
+      <c r="AL99" s="38"/>
+      <c r="AM99" s="38"/>
+      <c r="AN99" s="38"/>
+      <c r="AO99" s="38"/>
+      <c r="AP99" s="38"/>
+      <c r="AQ99" s="38"/>
+      <c r="AR99" s="38"/>
+      <c r="AS99" s="38"/>
+      <c r="AT99" s="38"/>
+      <c r="AU99" s="38"/>
+      <c r="AV99" s="38"/>
+      <c r="AW99" s="38"/>
+      <c r="AX99" s="38"/>
+      <c r="AY99" s="38"/>
+      <c r="AZ99" s="38"/>
+      <c r="BA99" s="38"/>
+      <c r="BB99" s="38"/>
+      <c r="BC99" s="38"/>
+      <c r="BD99" s="38"/>
+      <c r="BE99" s="38"/>
+      <c r="BF99" s="38"/>
+      <c r="BG99" s="38"/>
+      <c r="BH99" s="38"/>
+      <c r="BI99" s="38"/>
+      <c r="BJ99" s="38"/>
+      <c r="BK99" s="38"/>
+      <c r="BL99" s="38"/>
+      <c r="BM99" s="38"/>
+      <c r="BN99" s="38"/>
+      <c r="BO99" s="38"/>
+      <c r="BP99" s="38"/>
+      <c r="BQ99" s="38"/>
+      <c r="BR99" s="38"/>
+      <c r="BS99" s="38"/>
+      <c r="BT99" s="38"/>
+      <c r="BU99" s="38"/>
+      <c r="BV99" s="38"/>
+      <c r="BW99" s="38"/>
+      <c r="BX99" s="38"/>
+      <c r="BY99" s="38"/>
+      <c r="BZ99" s="38"/>
     </row>
-    <row r="100" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="32"/>
       <c r="B100" s="53"/>
       <c r="C100" s="56" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="D100" s="54"/>
       <c r="E100" s="35"/>
@@ -10435,11 +10472,11 @@
       <c r="K100" s="38"/>
       <c r="L100" s="38"/>
       <c r="M100" s="38"/>
-      <c r="N100" s="44"/>
-      <c r="O100" s="44"/>
-      <c r="P100" s="44"/>
-      <c r="Q100" s="44"/>
-      <c r="R100" s="44"/>
+      <c r="N100" s="38"/>
+      <c r="O100" s="38"/>
+      <c r="P100" s="38"/>
+      <c r="Q100" s="38"/>
+      <c r="R100" s="38"/>
       <c r="S100" s="38"/>
       <c r="T100" s="38"/>
       <c r="U100" s="38"/>
@@ -10450,27 +10487,27 @@
       <c r="Z100" s="38"/>
       <c r="AA100" s="38"/>
       <c r="AB100" s="38"/>
-      <c r="AC100" s="39"/>
-      <c r="AD100" s="39"/>
-      <c r="AE100" s="39"/>
-      <c r="AF100" s="39"/>
-      <c r="AG100" s="39"/>
-      <c r="AH100" s="124"/>
-      <c r="AI100" s="124"/>
-      <c r="AJ100" s="124"/>
-      <c r="AK100" s="124"/>
-      <c r="AL100" s="124"/>
-      <c r="AM100" s="58"/>
+      <c r="AC100" s="38"/>
+      <c r="AD100" s="38"/>
+      <c r="AE100" s="38"/>
+      <c r="AF100" s="38"/>
+      <c r="AG100" s="38"/>
+      <c r="AH100" s="38"/>
+      <c r="AI100" s="38"/>
+      <c r="AJ100" s="38"/>
+      <c r="AK100" s="38"/>
+      <c r="AL100" s="38"/>
+      <c r="AM100" s="38"/>
       <c r="AN100" s="38"/>
       <c r="AO100" s="38"/>
       <c r="AP100" s="38"/>
       <c r="AQ100" s="38"/>
-      <c r="AR100" s="40"/>
-      <c r="AS100" s="40"/>
-      <c r="AT100" s="40"/>
-      <c r="AU100" s="40"/>
-      <c r="AV100" s="40"/>
-      <c r="AW100" s="38"/>
+      <c r="AR100" s="122"/>
+      <c r="AS100" s="122"/>
+      <c r="AT100" s="122"/>
+      <c r="AU100" s="122"/>
+      <c r="AV100" s="122"/>
+      <c r="AW100" s="58"/>
       <c r="AX100" s="38"/>
       <c r="AY100" s="38"/>
       <c r="AZ100" s="38"/>
@@ -10480,11 +10517,11 @@
       <c r="BD100" s="38"/>
       <c r="BE100" s="38"/>
       <c r="BF100" s="38"/>
-      <c r="BG100" s="41"/>
-      <c r="BH100" s="41"/>
-      <c r="BI100" s="41"/>
-      <c r="BJ100" s="41"/>
-      <c r="BK100" s="41"/>
+      <c r="BG100" s="38"/>
+      <c r="BH100" s="38"/>
+      <c r="BI100" s="38"/>
+      <c r="BJ100" s="38"/>
+      <c r="BK100" s="38"/>
       <c r="BL100" s="38"/>
       <c r="BM100" s="38"/>
       <c r="BN100" s="38"/>
@@ -10501,11 +10538,11 @@
       <c r="BY100" s="38"/>
       <c r="BZ100" s="38"/>
     </row>
-    <row r="101" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="32"/>
       <c r="B101" s="53"/>
       <c r="C101" s="56" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="D101" s="54"/>
       <c r="E101" s="35"/>
@@ -10517,11 +10554,11 @@
       <c r="K101" s="38"/>
       <c r="L101" s="38"/>
       <c r="M101" s="38"/>
-      <c r="N101" s="44"/>
-      <c r="O101" s="44"/>
-      <c r="P101" s="44"/>
-      <c r="Q101" s="44"/>
-      <c r="R101" s="44"/>
+      <c r="N101" s="38"/>
+      <c r="O101" s="38"/>
+      <c r="P101" s="38"/>
+      <c r="Q101" s="38"/>
+      <c r="R101" s="38"/>
       <c r="S101" s="38"/>
       <c r="T101" s="38"/>
       <c r="U101" s="38"/>
@@ -10532,26 +10569,26 @@
       <c r="Z101" s="38"/>
       <c r="AA101" s="38"/>
       <c r="AB101" s="38"/>
-      <c r="AC101" s="39"/>
-      <c r="AD101" s="39"/>
-      <c r="AE101" s="39"/>
-      <c r="AF101" s="39"/>
-      <c r="AG101" s="39"/>
-      <c r="AH101" s="124"/>
-      <c r="AI101" s="124"/>
-      <c r="AJ101" s="124"/>
-      <c r="AK101" s="124"/>
-      <c r="AL101" s="124"/>
-      <c r="AM101" s="58"/>
+      <c r="AC101" s="38"/>
+      <c r="AD101" s="38"/>
+      <c r="AE101" s="38"/>
+      <c r="AF101" s="38"/>
+      <c r="AG101" s="38"/>
+      <c r="AH101" s="38"/>
+      <c r="AI101" s="38"/>
+      <c r="AJ101" s="38"/>
+      <c r="AK101" s="38"/>
+      <c r="AL101" s="38"/>
+      <c r="AM101" s="38"/>
       <c r="AN101" s="38"/>
       <c r="AO101" s="38"/>
       <c r="AP101" s="38"/>
       <c r="AQ101" s="38"/>
-      <c r="AR101" s="40"/>
-      <c r="AS101" s="40"/>
-      <c r="AT101" s="40"/>
-      <c r="AU101" s="40"/>
-      <c r="AV101" s="40"/>
+      <c r="AR101" s="38"/>
+      <c r="AS101" s="38"/>
+      <c r="AT101" s="38"/>
+      <c r="AU101" s="38"/>
+      <c r="AV101" s="38"/>
       <c r="AW101" s="38"/>
       <c r="AX101" s="38"/>
       <c r="AY101" s="38"/>
@@ -10562,11 +10599,11 @@
       <c r="BD101" s="38"/>
       <c r="BE101" s="38"/>
       <c r="BF101" s="38"/>
-      <c r="BG101" s="41"/>
-      <c r="BH101" s="41"/>
-      <c r="BI101" s="41"/>
-      <c r="BJ101" s="41"/>
-      <c r="BK101" s="41"/>
+      <c r="BG101" s="38"/>
+      <c r="BH101" s="38"/>
+      <c r="BI101" s="38"/>
+      <c r="BJ101" s="38"/>
+      <c r="BK101" s="38"/>
       <c r="BL101" s="38"/>
       <c r="BM101" s="38"/>
       <c r="BN101" s="38"/>
@@ -10583,93 +10620,93 @@
       <c r="BY101" s="38"/>
       <c r="BZ101" s="38"/>
     </row>
-    <row r="102" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="32"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="D102" s="54"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="37"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="43"/>
-      <c r="K102" s="38"/>
-      <c r="L102" s="38"/>
-      <c r="M102" s="38"/>
-      <c r="N102" s="44"/>
-      <c r="O102" s="44"/>
-      <c r="P102" s="44"/>
-      <c r="Q102" s="44"/>
-      <c r="R102" s="44"/>
-      <c r="S102" s="38"/>
-      <c r="T102" s="38"/>
-      <c r="U102" s="38"/>
-      <c r="V102" s="38"/>
-      <c r="W102" s="38"/>
-      <c r="X102" s="38"/>
-      <c r="Y102" s="38"/>
-      <c r="Z102" s="38"/>
-      <c r="AA102" s="38"/>
-      <c r="AB102" s="38"/>
-      <c r="AC102" s="39"/>
-      <c r="AD102" s="39"/>
-      <c r="AE102" s="39"/>
-      <c r="AF102" s="39"/>
-      <c r="AG102" s="39"/>
-      <c r="AH102" s="38"/>
-      <c r="AI102" s="38"/>
-      <c r="AJ102" s="38"/>
-      <c r="AK102" s="38"/>
-      <c r="AL102" s="38"/>
-      <c r="AM102" s="38"/>
-      <c r="AN102" s="38"/>
-      <c r="AO102" s="149"/>
-      <c r="AP102" s="149"/>
-      <c r="AQ102" s="149"/>
-      <c r="AR102" s="147"/>
-      <c r="AS102" s="40"/>
-      <c r="AT102" s="40"/>
-      <c r="AU102" s="40"/>
-      <c r="AV102" s="40"/>
-      <c r="AW102" s="38"/>
-      <c r="AX102" s="38"/>
-      <c r="AY102" s="38"/>
-      <c r="AZ102" s="38"/>
-      <c r="BA102" s="38"/>
-      <c r="BB102" s="38"/>
-      <c r="BC102" s="38"/>
-      <c r="BD102" s="38"/>
-      <c r="BE102" s="38"/>
-      <c r="BF102" s="38"/>
-      <c r="BG102" s="41"/>
-      <c r="BH102" s="41"/>
-      <c r="BI102" s="41"/>
-      <c r="BJ102" s="41"/>
-      <c r="BK102" s="41"/>
-      <c r="BL102" s="38"/>
-      <c r="BM102" s="38"/>
-      <c r="BN102" s="38"/>
-      <c r="BO102" s="38"/>
-      <c r="BP102" s="38"/>
-      <c r="BQ102" s="38"/>
-      <c r="BR102" s="38"/>
-      <c r="BS102" s="38"/>
-      <c r="BT102" s="38"/>
-      <c r="BU102" s="38"/>
-      <c r="BV102" s="38"/>
-      <c r="BW102" s="38"/>
-      <c r="BX102" s="38"/>
-      <c r="BY102" s="38"/>
-      <c r="BZ102" s="38"/>
+    <row r="102" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="72"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" s="61"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="63"/>
+      <c r="H102" s="64"/>
+      <c r="I102" s="65"/>
+      <c r="J102" s="66"/>
+      <c r="K102" s="67"/>
+      <c r="L102" s="67"/>
+      <c r="M102" s="67"/>
+      <c r="N102" s="68"/>
+      <c r="O102" s="68"/>
+      <c r="P102" s="68"/>
+      <c r="Q102" s="68"/>
+      <c r="R102" s="68"/>
+      <c r="S102" s="67"/>
+      <c r="T102" s="67"/>
+      <c r="U102" s="67"/>
+      <c r="V102" s="67"/>
+      <c r="W102" s="67"/>
+      <c r="X102" s="67"/>
+      <c r="Y102" s="67"/>
+      <c r="Z102" s="67"/>
+      <c r="AA102" s="67"/>
+      <c r="AB102" s="67"/>
+      <c r="AC102" s="69"/>
+      <c r="AD102" s="69"/>
+      <c r="AE102" s="69"/>
+      <c r="AF102" s="69"/>
+      <c r="AG102" s="69"/>
+      <c r="AH102" s="67"/>
+      <c r="AI102" s="67"/>
+      <c r="AJ102" s="67"/>
+      <c r="AK102" s="67"/>
+      <c r="AL102" s="67"/>
+      <c r="AM102" s="67"/>
+      <c r="AN102" s="67"/>
+      <c r="AO102" s="67"/>
+      <c r="AP102" s="67"/>
+      <c r="AQ102" s="67"/>
+      <c r="AR102" s="70"/>
+      <c r="AS102" s="70"/>
+      <c r="AT102" s="70"/>
+      <c r="AU102" s="70"/>
+      <c r="AV102" s="70"/>
+      <c r="AW102" s="67"/>
+      <c r="AX102" s="67"/>
+      <c r="AY102" s="67"/>
+      <c r="AZ102" s="67"/>
+      <c r="BA102" s="67"/>
+      <c r="BB102" s="67"/>
+      <c r="BC102" s="67"/>
+      <c r="BD102" s="67"/>
+      <c r="BE102" s="67"/>
+      <c r="BF102" s="67"/>
+      <c r="BG102" s="71"/>
+      <c r="BH102" s="71"/>
+      <c r="BI102" s="71"/>
+      <c r="BJ102" s="71"/>
+      <c r="BK102" s="71"/>
+      <c r="BL102" s="67"/>
+      <c r="BM102" s="67"/>
+      <c r="BN102" s="67"/>
+      <c r="BO102" s="67"/>
+      <c r="BP102" s="67"/>
+      <c r="BQ102" s="67"/>
+      <c r="BR102" s="67"/>
+      <c r="BS102" s="67"/>
+      <c r="BT102" s="67"/>
+      <c r="BU102" s="67"/>
+      <c r="BV102" s="67"/>
+      <c r="BW102" s="67"/>
+      <c r="BX102" s="67"/>
+      <c r="BY102" s="67"/>
+      <c r="BZ102" s="67"/>
     </row>
-    <row r="103" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="32"/>
       <c r="B103" s="53"/>
       <c r="C103" s="56" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="D103" s="54"/>
       <c r="E103" s="35"/>
@@ -10701,22 +10738,22 @@
       <c r="AE103" s="39"/>
       <c r="AF103" s="39"/>
       <c r="AG103" s="39"/>
-      <c r="AH103" s="38"/>
-      <c r="AI103" s="38"/>
-      <c r="AJ103" s="38"/>
-      <c r="AK103" s="38"/>
-      <c r="AL103" s="38"/>
-      <c r="AM103" s="38"/>
+      <c r="AH103" s="122"/>
+      <c r="AI103" s="122"/>
+      <c r="AJ103" s="122"/>
+      <c r="AK103" s="122"/>
+      <c r="AL103" s="122"/>
+      <c r="AM103" s="58"/>
       <c r="AN103" s="38"/>
-      <c r="AO103" s="149"/>
-      <c r="AP103" s="149"/>
-      <c r="AQ103" s="149"/>
-      <c r="AR103" s="149"/>
-      <c r="AS103" s="149"/>
-      <c r="AT103" s="149"/>
-      <c r="AU103" s="149"/>
-      <c r="AV103" s="149"/>
-      <c r="AW103" s="58"/>
+      <c r="AO103" s="38"/>
+      <c r="AP103" s="38"/>
+      <c r="AQ103" s="38"/>
+      <c r="AR103" s="40"/>
+      <c r="AS103" s="40"/>
+      <c r="AT103" s="40"/>
+      <c r="AU103" s="40"/>
+      <c r="AV103" s="40"/>
+      <c r="AW103" s="38"/>
       <c r="AX103" s="38"/>
       <c r="AY103" s="38"/>
       <c r="AZ103" s="38"/>
@@ -10747,11 +10784,11 @@
       <c r="BY103" s="38"/>
       <c r="BZ103" s="38"/>
     </row>
-    <row r="104" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A104" s="32"/>
       <c r="B104" s="53"/>
       <c r="C104" s="56" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D104" s="54"/>
       <c r="E104" s="35"/>
@@ -10783,17 +10820,17 @@
       <c r="AE104" s="39"/>
       <c r="AF104" s="39"/>
       <c r="AG104" s="39"/>
-      <c r="AH104" s="38"/>
-      <c r="AI104" s="38"/>
-      <c r="AJ104" s="38"/>
-      <c r="AK104" s="38"/>
-      <c r="AL104" s="38"/>
-      <c r="AM104" s="38"/>
+      <c r="AH104" s="122"/>
+      <c r="AI104" s="122"/>
+      <c r="AJ104" s="122"/>
+      <c r="AK104" s="122"/>
+      <c r="AL104" s="122"/>
+      <c r="AM104" s="58"/>
       <c r="AN104" s="38"/>
-      <c r="AO104" s="124"/>
-      <c r="AP104" s="124"/>
-      <c r="AQ104" s="150"/>
-      <c r="AR104" s="147"/>
+      <c r="AO104" s="38"/>
+      <c r="AP104" s="38"/>
+      <c r="AQ104" s="38"/>
+      <c r="AR104" s="40"/>
       <c r="AS104" s="40"/>
       <c r="AT104" s="40"/>
       <c r="AU104" s="40"/>
@@ -10829,10 +10866,12 @@
       <c r="BY104" s="38"/>
       <c r="BZ104" s="38"/>
     </row>
-    <row r="105" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="32"/>
       <c r="B105" s="53"/>
-      <c r="C105" s="56"/>
+      <c r="C105" s="56" t="s">
+        <v>122</v>
+      </c>
       <c r="D105" s="54"/>
       <c r="E105" s="35"/>
       <c r="F105" s="35"/>
@@ -10870,10 +10909,10 @@
       <c r="AL105" s="38"/>
       <c r="AM105" s="38"/>
       <c r="AN105" s="38"/>
-      <c r="AO105" s="38"/>
-      <c r="AP105" s="38"/>
-      <c r="AQ105" s="38"/>
-      <c r="AR105" s="40"/>
+      <c r="AO105" s="147"/>
+      <c r="AP105" s="147"/>
+      <c r="AQ105" s="147"/>
+      <c r="AR105" s="145"/>
       <c r="AS105" s="40"/>
       <c r="AT105" s="40"/>
       <c r="AU105" s="40"/>
@@ -10909,10 +10948,12 @@
       <c r="BY105" s="38"/>
       <c r="BZ105" s="38"/>
     </row>
-    <row r="106" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="32"/>
       <c r="B106" s="53"/>
-      <c r="C106" s="57"/>
+      <c r="C106" s="56" t="s">
+        <v>123</v>
+      </c>
       <c r="D106" s="54"/>
       <c r="E106" s="35"/>
       <c r="F106" s="35"/>
@@ -10950,15 +10991,15 @@
       <c r="AL106" s="38"/>
       <c r="AM106" s="38"/>
       <c r="AN106" s="38"/>
-      <c r="AO106" s="38"/>
-      <c r="AP106" s="38"/>
-      <c r="AQ106" s="38"/>
-      <c r="AR106" s="40"/>
-      <c r="AS106" s="40"/>
-      <c r="AT106" s="40"/>
-      <c r="AU106" s="40"/>
-      <c r="AV106" s="40"/>
-      <c r="AW106" s="38"/>
+      <c r="AO106" s="147"/>
+      <c r="AP106" s="147"/>
+      <c r="AQ106" s="147"/>
+      <c r="AR106" s="147"/>
+      <c r="AS106" s="147"/>
+      <c r="AT106" s="147"/>
+      <c r="AU106" s="147"/>
+      <c r="AV106" s="147"/>
+      <c r="AW106" s="58"/>
       <c r="AX106" s="38"/>
       <c r="AY106" s="38"/>
       <c r="AZ106" s="38"/>
@@ -10989,112 +11030,97 @@
       <c r="BY106" s="38"/>
       <c r="BZ106" s="38"/>
     </row>
-    <row r="107" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="26">
-        <v>4</v>
-      </c>
-      <c r="C107" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="29"/>
-      <c r="J107" s="30"/>
-      <c r="K107" s="31"/>
-      <c r="L107" s="31"/>
-      <c r="M107" s="29"/>
-      <c r="N107" s="29"/>
-      <c r="O107" s="29"/>
-      <c r="P107" s="29"/>
-      <c r="Q107" s="29"/>
-      <c r="R107" s="29"/>
-      <c r="S107" s="29"/>
-      <c r="T107" s="29"/>
-      <c r="U107" s="29"/>
-      <c r="V107" s="29"/>
-      <c r="W107" s="29"/>
-      <c r="X107" s="29"/>
-      <c r="Y107" s="29"/>
-      <c r="Z107" s="29"/>
-      <c r="AA107" s="29"/>
-      <c r="AB107" s="29"/>
-      <c r="AC107" s="29"/>
-      <c r="AD107" s="29"/>
-      <c r="AE107" s="29"/>
-      <c r="AF107" s="29"/>
-      <c r="AG107" s="29"/>
-      <c r="AH107" s="29"/>
-      <c r="AI107" s="29"/>
-      <c r="AJ107" s="29"/>
-      <c r="AK107" s="29"/>
-      <c r="AL107" s="29"/>
-      <c r="AM107" s="29"/>
-      <c r="AN107" s="29"/>
-      <c r="AO107" s="29"/>
-      <c r="AP107" s="29"/>
-      <c r="AQ107" s="29"/>
-      <c r="AR107" s="29"/>
-      <c r="AS107" s="29"/>
-      <c r="AT107" s="29"/>
-      <c r="AU107" s="29"/>
-      <c r="AV107" s="29"/>
-      <c r="AW107" s="29"/>
-      <c r="AX107" s="29"/>
-      <c r="AY107" s="29"/>
-      <c r="AZ107" s="29"/>
-      <c r="BA107" s="29"/>
-      <c r="BB107" s="29"/>
-      <c r="BC107" s="29"/>
-      <c r="BD107" s="29"/>
-      <c r="BE107" s="29"/>
-      <c r="BF107" s="29"/>
-      <c r="BG107" s="29"/>
-      <c r="BH107" s="29"/>
-      <c r="BI107" s="29"/>
-      <c r="BJ107" s="29"/>
-      <c r="BK107" s="29"/>
-      <c r="BL107" s="29"/>
-      <c r="BM107" s="29"/>
-      <c r="BN107" s="29"/>
-      <c r="BO107" s="29"/>
-      <c r="BP107" s="29"/>
-      <c r="BQ107" s="29"/>
-      <c r="BR107" s="29"/>
-      <c r="BS107" s="29"/>
-      <c r="BT107" s="29"/>
-      <c r="BU107" s="29"/>
-      <c r="BV107" s="29"/>
-      <c r="BW107" s="29"/>
-      <c r="BX107" s="29"/>
-      <c r="BY107" s="29"/>
-      <c r="BZ107" s="29"/>
+    <row r="107" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="32"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D107" s="54"/>
+      <c r="E107" s="35"/>
+      <c r="F107" s="35"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="43"/>
+      <c r="K107" s="38"/>
+      <c r="L107" s="38"/>
+      <c r="M107" s="38"/>
+      <c r="N107" s="44"/>
+      <c r="O107" s="44"/>
+      <c r="P107" s="44"/>
+      <c r="Q107" s="44"/>
+      <c r="R107" s="44"/>
+      <c r="S107" s="38"/>
+      <c r="T107" s="38"/>
+      <c r="U107" s="38"/>
+      <c r="V107" s="38"/>
+      <c r="W107" s="38"/>
+      <c r="X107" s="38"/>
+      <c r="Y107" s="38"/>
+      <c r="Z107" s="38"/>
+      <c r="AA107" s="38"/>
+      <c r="AB107" s="38"/>
+      <c r="AC107" s="39"/>
+      <c r="AD107" s="39"/>
+      <c r="AE107" s="39"/>
+      <c r="AF107" s="39"/>
+      <c r="AG107" s="39"/>
+      <c r="AH107" s="38"/>
+      <c r="AI107" s="38"/>
+      <c r="AJ107" s="38"/>
+      <c r="AK107" s="38"/>
+      <c r="AL107" s="38"/>
+      <c r="AM107" s="38"/>
+      <c r="AN107" s="38"/>
+      <c r="AO107" s="122"/>
+      <c r="AP107" s="122"/>
+      <c r="AQ107" s="148"/>
+      <c r="AR107" s="145"/>
+      <c r="AS107" s="40"/>
+      <c r="AT107" s="40"/>
+      <c r="AU107" s="40"/>
+      <c r="AV107" s="40"/>
+      <c r="AW107" s="38"/>
+      <c r="AX107" s="38"/>
+      <c r="AY107" s="38"/>
+      <c r="AZ107" s="38"/>
+      <c r="BA107" s="38"/>
+      <c r="BB107" s="38"/>
+      <c r="BC107" s="38"/>
+      <c r="BD107" s="38"/>
+      <c r="BE107" s="38"/>
+      <c r="BF107" s="38"/>
+      <c r="BG107" s="41"/>
+      <c r="BH107" s="41"/>
+      <c r="BI107" s="41"/>
+      <c r="BJ107" s="41"/>
+      <c r="BK107" s="41"/>
+      <c r="BL107" s="38"/>
+      <c r="BM107" s="38"/>
+      <c r="BN107" s="38"/>
+      <c r="BO107" s="38"/>
+      <c r="BP107" s="38"/>
+      <c r="BQ107" s="38"/>
+      <c r="BR107" s="38"/>
+      <c r="BS107" s="38"/>
+      <c r="BT107" s="38"/>
+      <c r="BU107" s="38"/>
+      <c r="BV107" s="38"/>
+      <c r="BW107" s="38"/>
+      <c r="BX107" s="38"/>
+      <c r="BY107" s="38"/>
+      <c r="BZ107" s="38"/>
     </row>
-    <row r="108" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="33">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C108" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="D108" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E108" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F108" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G108" s="36" t="e">
-        <f>DAYS360(E108,F108)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H108" s="37">
-        <v>1</v>
-      </c>
+    <row r="108" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="32"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="35"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="37"/>
       <c r="I108" s="42"/>
       <c r="J108" s="43"/>
       <c r="K108" s="38"/>
@@ -11166,28 +11192,15 @@
       <c r="BY108" s="38"/>
       <c r="BZ108" s="38"/>
     </row>
-    <row r="109" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="33">
-        <v>4.2</v>
-      </c>
-      <c r="C109" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D109" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E109" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F109" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G109" s="36">
-        <v>0</v>
-      </c>
-      <c r="H109" s="37">
-        <v>1</v>
-      </c>
+    <row r="109" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="32"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="57"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="37"/>
       <c r="I109" s="42"/>
       <c r="J109" s="43"/>
       <c r="K109" s="38"/>
@@ -11259,121 +11272,110 @@
       <c r="BY109" s="38"/>
       <c r="BZ109" s="38"/>
     </row>
-    <row r="110" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C110" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D110" s="34" t="s">
+    <row r="110" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="26">
+        <v>4</v>
+      </c>
+      <c r="C110" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D110" s="28"/>
+      <c r="E110" s="28"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="30"/>
+      <c r="K110" s="31"/>
+      <c r="L110" s="31"/>
+      <c r="M110" s="29"/>
+      <c r="N110" s="29"/>
+      <c r="O110" s="29"/>
+      <c r="P110" s="29"/>
+      <c r="Q110" s="29"/>
+      <c r="R110" s="29"/>
+      <c r="S110" s="29"/>
+      <c r="T110" s="29"/>
+      <c r="U110" s="29"/>
+      <c r="V110" s="29"/>
+      <c r="W110" s="29"/>
+      <c r="X110" s="29"/>
+      <c r="Y110" s="29"/>
+      <c r="Z110" s="29"/>
+      <c r="AA110" s="29"/>
+      <c r="AB110" s="29"/>
+      <c r="AC110" s="29"/>
+      <c r="AD110" s="29"/>
+      <c r="AE110" s="29"/>
+      <c r="AF110" s="29"/>
+      <c r="AG110" s="29"/>
+      <c r="AH110" s="29"/>
+      <c r="AI110" s="29"/>
+      <c r="AJ110" s="29"/>
+      <c r="AK110" s="29"/>
+      <c r="AL110" s="29"/>
+      <c r="AM110" s="29"/>
+      <c r="AN110" s="29"/>
+      <c r="AO110" s="29"/>
+      <c r="AP110" s="29"/>
+      <c r="AQ110" s="29"/>
+      <c r="AR110" s="29"/>
+      <c r="AS110" s="29"/>
+      <c r="AT110" s="29"/>
+      <c r="AU110" s="29"/>
+      <c r="AV110" s="29"/>
+      <c r="AW110" s="29"/>
+      <c r="AX110" s="29"/>
+      <c r="AY110" s="29"/>
+      <c r="AZ110" s="29"/>
+      <c r="BA110" s="29"/>
+      <c r="BB110" s="29"/>
+      <c r="BC110" s="29"/>
+      <c r="BD110" s="29"/>
+      <c r="BE110" s="29"/>
+      <c r="BF110" s="29"/>
+      <c r="BG110" s="29"/>
+      <c r="BH110" s="29"/>
+      <c r="BI110" s="29"/>
+      <c r="BJ110" s="29"/>
+      <c r="BK110" s="29"/>
+      <c r="BL110" s="29"/>
+      <c r="BM110" s="29"/>
+      <c r="BN110" s="29"/>
+      <c r="BO110" s="29"/>
+      <c r="BP110" s="29"/>
+      <c r="BQ110" s="29"/>
+      <c r="BR110" s="29"/>
+      <c r="BS110" s="29"/>
+      <c r="BT110" s="29"/>
+      <c r="BU110" s="29"/>
+      <c r="BV110" s="29"/>
+      <c r="BW110" s="29"/>
+      <c r="BX110" s="29"/>
+      <c r="BY110" s="29"/>
+      <c r="BZ110" s="29"/>
+    </row>
+    <row r="111" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="33">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C111" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D111" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E110" s="35">
-        <v>44823</v>
-      </c>
-      <c r="F110" s="35">
-        <v>44823</v>
-      </c>
-      <c r="G110" s="36">
-        <f t="shared" ref="G110:G114" si="4">DAYS360(E110,F110)</f>
-        <v>0</v>
-      </c>
-      <c r="H110" s="37">
-        <v>1</v>
-      </c>
-      <c r="I110" s="42"/>
-      <c r="J110" s="43"/>
-      <c r="K110" s="38"/>
-      <c r="L110" s="38"/>
-      <c r="M110" s="38"/>
-      <c r="N110" s="44"/>
-      <c r="O110" s="44"/>
-      <c r="P110" s="44"/>
-      <c r="Q110" s="44"/>
-      <c r="R110" s="44"/>
-      <c r="S110" s="38"/>
-      <c r="T110" s="38"/>
-      <c r="U110" s="38"/>
-      <c r="V110" s="38"/>
-      <c r="W110" s="38"/>
-      <c r="X110" s="38"/>
-      <c r="Y110" s="38"/>
-      <c r="Z110" s="38"/>
-      <c r="AA110" s="38"/>
-      <c r="AB110" s="38"/>
-      <c r="AC110" s="39"/>
-      <c r="AD110" s="39"/>
-      <c r="AE110" s="39"/>
-      <c r="AF110" s="39"/>
-      <c r="AG110" s="39"/>
-      <c r="AH110" s="38"/>
-      <c r="AI110" s="38"/>
-      <c r="AJ110" s="38"/>
-      <c r="AK110" s="38"/>
-      <c r="AL110" s="38"/>
-      <c r="AM110" s="38"/>
-      <c r="AN110" s="38"/>
-      <c r="AO110" s="38"/>
-      <c r="AP110" s="38"/>
-      <c r="AQ110" s="38"/>
-      <c r="AR110" s="40"/>
-      <c r="AS110" s="40"/>
-      <c r="AT110" s="40"/>
-      <c r="AU110" s="40"/>
-      <c r="AV110" s="40"/>
-      <c r="AW110" s="38"/>
-      <c r="AX110" s="38"/>
-      <c r="AY110" s="38"/>
-      <c r="AZ110" s="38"/>
-      <c r="BA110" s="38"/>
-      <c r="BB110" s="38"/>
-      <c r="BC110" s="38"/>
-      <c r="BD110" s="38"/>
-      <c r="BE110" s="38"/>
-      <c r="BF110" s="38"/>
-      <c r="BG110" s="41"/>
-      <c r="BH110" s="41"/>
-      <c r="BI110" s="41"/>
-      <c r="BJ110" s="41"/>
-      <c r="BK110" s="41"/>
-      <c r="BL110" s="38"/>
-      <c r="BM110" s="38"/>
-      <c r="BN110" s="38"/>
-      <c r="BO110" s="38"/>
-      <c r="BP110" s="38"/>
-      <c r="BQ110" s="38"/>
-      <c r="BR110" s="38"/>
-      <c r="BS110" s="38"/>
-      <c r="BT110" s="38"/>
-      <c r="BU110" s="38"/>
-      <c r="BV110" s="38"/>
-      <c r="BW110" s="38"/>
-      <c r="BX110" s="38"/>
-      <c r="BY110" s="38"/>
-      <c r="BZ110" s="38"/>
-    </row>
-    <row r="111" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C111" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D111" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E111" s="35">
-        <v>44829</v>
-      </c>
-      <c r="F111" s="35">
-        <v>44829</v>
-      </c>
-      <c r="G111" s="36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H111" s="52">
+      <c r="E111" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F111" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G111" s="36" t="e">
+        <f>DAYS360(E111,F111)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H111" s="37">
         <v>1</v>
       </c>
       <c r="I111" s="42"/>
@@ -11447,24 +11449,23 @@
       <c r="BY111" s="38"/>
       <c r="BZ111" s="38"/>
     </row>
-    <row r="112" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="33" t="s">
-        <v>48</v>
+    <row r="112" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="33">
+        <v>4.2</v>
       </c>
       <c r="C112" s="47" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D112" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E112" s="35">
-        <v>44830</v>
-      </c>
-      <c r="F112" s="35">
-        <v>44830</v>
+      <c r="E112" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F112" s="35" t="s">
+        <v>53</v>
       </c>
       <c r="G112" s="36">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H112" s="37">
@@ -11541,24 +11542,24 @@
       <c r="BY112" s="38"/>
       <c r="BZ112" s="38"/>
     </row>
-    <row r="113" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="33" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C113" s="47" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D113" s="34" t="s">
         <v>18</v>
       </c>
       <c r="E113" s="35">
-        <v>44837</v>
+        <v>44823</v>
       </c>
       <c r="F113" s="35">
-        <v>44837</v>
+        <v>44823</v>
       </c>
       <c r="G113" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G113:G117" si="4">DAYS360(E113,F113)</f>
         <v>0</v>
       </c>
       <c r="H113" s="37">
@@ -11635,25 +11636,27 @@
       <c r="BY113" s="38"/>
       <c r="BZ113" s="38"/>
     </row>
-    <row r="114" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="33"/>
+    <row r="114" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="33" t="s">
+        <v>49</v>
+      </c>
       <c r="C114" s="47" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D114" s="34" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="E114" s="35">
-        <v>44844</v>
+        <v>44829</v>
       </c>
       <c r="F114" s="35">
-        <v>44844</v>
+        <v>44829</v>
       </c>
       <c r="G114" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H114" s="37">
+      <c r="H114" s="52">
         <v>1</v>
       </c>
       <c r="I114" s="42"/>
@@ -11727,24 +11730,24 @@
       <c r="BY114" s="38"/>
       <c r="BZ114" s="38"/>
     </row>
-    <row r="115" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C115" s="106" t="s">
-        <v>92</v>
+        <v>48</v>
+      </c>
+      <c r="C115" s="47" t="s">
+        <v>61</v>
       </c>
       <c r="D115" s="34" t="s">
         <v>18</v>
       </c>
       <c r="E115" s="35">
-        <v>44844</v>
+        <v>44830</v>
       </c>
       <c r="F115" s="35">
-        <v>44844</v>
+        <v>44830</v>
       </c>
       <c r="G115" s="36">
-        <f t="shared" ref="G115" si="5">DAYS360(E115,F115)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H115" s="37">
@@ -11821,107 +11824,367 @@
       <c r="BY115" s="38"/>
       <c r="BZ115" s="38"/>
     </row>
-    <row r="116" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="107"/>
-      <c r="C116" s="108"/>
-      <c r="D116" s="109"/>
-      <c r="E116" s="110"/>
-      <c r="F116" s="110"/>
-      <c r="G116" s="111"/>
-      <c r="H116" s="112"/>
-      <c r="I116" s="113"/>
-      <c r="J116" s="114"/>
-      <c r="K116" s="115"/>
-      <c r="L116" s="115"/>
-      <c r="M116" s="115"/>
-      <c r="N116" s="116"/>
-      <c r="O116" s="116"/>
-      <c r="P116" s="116"/>
-      <c r="Q116" s="116"/>
-      <c r="R116" s="116"/>
-      <c r="S116" s="115"/>
-      <c r="T116" s="115"/>
-      <c r="U116" s="115"/>
-      <c r="V116" s="115"/>
-      <c r="W116" s="115"/>
-      <c r="X116" s="115"/>
-      <c r="Y116" s="115"/>
-      <c r="Z116" s="115"/>
-      <c r="AA116" s="115"/>
-      <c r="AB116" s="115"/>
-      <c r="AC116" s="117"/>
-      <c r="AD116" s="117"/>
-      <c r="AE116" s="117"/>
-      <c r="AF116" s="117"/>
-      <c r="AG116" s="117"/>
-      <c r="AH116" s="115"/>
-      <c r="AI116" s="115"/>
-      <c r="AJ116" s="115"/>
-      <c r="AK116" s="115"/>
-      <c r="AL116" s="115"/>
-      <c r="AM116" s="115"/>
-      <c r="AN116" s="115"/>
-      <c r="AO116" s="115"/>
-      <c r="AP116" s="115"/>
-      <c r="AQ116" s="115"/>
-      <c r="AR116" s="118"/>
-      <c r="AS116" s="118"/>
-      <c r="AT116" s="118"/>
-      <c r="AU116" s="118"/>
-      <c r="AV116" s="118"/>
-      <c r="AW116" s="115"/>
-      <c r="AX116" s="115"/>
-      <c r="AY116" s="115"/>
-      <c r="AZ116" s="115"/>
-      <c r="BA116" s="115"/>
-      <c r="BB116" s="115"/>
-      <c r="BC116" s="115"/>
-      <c r="BD116" s="115"/>
-      <c r="BE116" s="115"/>
-      <c r="BF116" s="115"/>
-      <c r="BG116" s="119"/>
-      <c r="BH116" s="119"/>
-      <c r="BI116" s="119"/>
-      <c r="BJ116" s="119"/>
-      <c r="BK116" s="119"/>
-      <c r="BL116" s="115"/>
-      <c r="BM116" s="115"/>
-      <c r="BN116" s="115"/>
-      <c r="BO116" s="115"/>
-      <c r="BP116" s="115"/>
-      <c r="BQ116" s="115"/>
-      <c r="BR116" s="115"/>
-      <c r="BS116" s="115"/>
-      <c r="BT116" s="115"/>
-      <c r="BU116" s="115"/>
-      <c r="BV116" s="115"/>
-      <c r="BW116" s="115"/>
-      <c r="BX116" s="115"/>
-      <c r="BY116" s="115"/>
-      <c r="BZ116" s="115"/>
+    <row r="116" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="35">
+        <v>44837</v>
+      </c>
+      <c r="F116" s="35">
+        <v>44837</v>
+      </c>
+      <c r="G116" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="37">
+        <v>1</v>
+      </c>
+      <c r="I116" s="42"/>
+      <c r="J116" s="43"/>
+      <c r="K116" s="38"/>
+      <c r="L116" s="38"/>
+      <c r="M116" s="38"/>
+      <c r="N116" s="44"/>
+      <c r="O116" s="44"/>
+      <c r="P116" s="44"/>
+      <c r="Q116" s="44"/>
+      <c r="R116" s="44"/>
+      <c r="S116" s="38"/>
+      <c r="T116" s="38"/>
+      <c r="U116" s="38"/>
+      <c r="V116" s="38"/>
+      <c r="W116" s="38"/>
+      <c r="X116" s="38"/>
+      <c r="Y116" s="38"/>
+      <c r="Z116" s="38"/>
+      <c r="AA116" s="38"/>
+      <c r="AB116" s="38"/>
+      <c r="AC116" s="39"/>
+      <c r="AD116" s="39"/>
+      <c r="AE116" s="39"/>
+      <c r="AF116" s="39"/>
+      <c r="AG116" s="39"/>
+      <c r="AH116" s="38"/>
+      <c r="AI116" s="38"/>
+      <c r="AJ116" s="38"/>
+      <c r="AK116" s="38"/>
+      <c r="AL116" s="38"/>
+      <c r="AM116" s="38"/>
+      <c r="AN116" s="38"/>
+      <c r="AO116" s="38"/>
+      <c r="AP116" s="38"/>
+      <c r="AQ116" s="38"/>
+      <c r="AR116" s="40"/>
+      <c r="AS116" s="40"/>
+      <c r="AT116" s="40"/>
+      <c r="AU116" s="40"/>
+      <c r="AV116" s="40"/>
+      <c r="AW116" s="38"/>
+      <c r="AX116" s="38"/>
+      <c r="AY116" s="38"/>
+      <c r="AZ116" s="38"/>
+      <c r="BA116" s="38"/>
+      <c r="BB116" s="38"/>
+      <c r="BC116" s="38"/>
+      <c r="BD116" s="38"/>
+      <c r="BE116" s="38"/>
+      <c r="BF116" s="38"/>
+      <c r="BG116" s="41"/>
+      <c r="BH116" s="41"/>
+      <c r="BI116" s="41"/>
+      <c r="BJ116" s="41"/>
+      <c r="BK116" s="41"/>
+      <c r="BL116" s="38"/>
+      <c r="BM116" s="38"/>
+      <c r="BN116" s="38"/>
+      <c r="BO116" s="38"/>
+      <c r="BP116" s="38"/>
+      <c r="BQ116" s="38"/>
+      <c r="BR116" s="38"/>
+      <c r="BS116" s="38"/>
+      <c r="BT116" s="38"/>
+      <c r="BU116" s="38"/>
+      <c r="BV116" s="38"/>
+      <c r="BW116" s="38"/>
+      <c r="BX116" s="38"/>
+      <c r="BY116" s="38"/>
+      <c r="BZ116" s="38"/>
+    </row>
+    <row r="117" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="33"/>
+      <c r="C117" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D117" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" s="35">
+        <v>44844</v>
+      </c>
+      <c r="F117" s="35">
+        <v>44844</v>
+      </c>
+      <c r="G117" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="37">
+        <v>1</v>
+      </c>
+      <c r="I117" s="42"/>
+      <c r="J117" s="43"/>
+      <c r="K117" s="38"/>
+      <c r="L117" s="38"/>
+      <c r="M117" s="38"/>
+      <c r="N117" s="44"/>
+      <c r="O117" s="44"/>
+      <c r="P117" s="44"/>
+      <c r="Q117" s="44"/>
+      <c r="R117" s="44"/>
+      <c r="S117" s="38"/>
+      <c r="T117" s="38"/>
+      <c r="U117" s="38"/>
+      <c r="V117" s="38"/>
+      <c r="W117" s="38"/>
+      <c r="X117" s="38"/>
+      <c r="Y117" s="38"/>
+      <c r="Z117" s="38"/>
+      <c r="AA117" s="38"/>
+      <c r="AB117" s="38"/>
+      <c r="AC117" s="39"/>
+      <c r="AD117" s="39"/>
+      <c r="AE117" s="39"/>
+      <c r="AF117" s="39"/>
+      <c r="AG117" s="39"/>
+      <c r="AH117" s="38"/>
+      <c r="AI117" s="38"/>
+      <c r="AJ117" s="38"/>
+      <c r="AK117" s="38"/>
+      <c r="AL117" s="38"/>
+      <c r="AM117" s="38"/>
+      <c r="AN117" s="38"/>
+      <c r="AO117" s="38"/>
+      <c r="AP117" s="38"/>
+      <c r="AQ117" s="38"/>
+      <c r="AR117" s="40"/>
+      <c r="AS117" s="40"/>
+      <c r="AT117" s="40"/>
+      <c r="AU117" s="40"/>
+      <c r="AV117" s="40"/>
+      <c r="AW117" s="38"/>
+      <c r="AX117" s="38"/>
+      <c r="AY117" s="38"/>
+      <c r="AZ117" s="38"/>
+      <c r="BA117" s="38"/>
+      <c r="BB117" s="38"/>
+      <c r="BC117" s="38"/>
+      <c r="BD117" s="38"/>
+      <c r="BE117" s="38"/>
+      <c r="BF117" s="38"/>
+      <c r="BG117" s="41"/>
+      <c r="BH117" s="41"/>
+      <c r="BI117" s="41"/>
+      <c r="BJ117" s="41"/>
+      <c r="BK117" s="41"/>
+      <c r="BL117" s="38"/>
+      <c r="BM117" s="38"/>
+      <c r="BN117" s="38"/>
+      <c r="BO117" s="38"/>
+      <c r="BP117" s="38"/>
+      <c r="BQ117" s="38"/>
+      <c r="BR117" s="38"/>
+      <c r="BS117" s="38"/>
+      <c r="BT117" s="38"/>
+      <c r="BU117" s="38"/>
+      <c r="BV117" s="38"/>
+      <c r="BW117" s="38"/>
+      <c r="BX117" s="38"/>
+      <c r="BY117" s="38"/>
+      <c r="BZ117" s="38"/>
+    </row>
+    <row r="118" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C118" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="D118" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" s="35">
+        <v>44844</v>
+      </c>
+      <c r="F118" s="35">
+        <v>44844</v>
+      </c>
+      <c r="G118" s="36">
+        <f t="shared" ref="G118" si="5">DAYS360(E118,F118)</f>
+        <v>0</v>
+      </c>
+      <c r="H118" s="37">
+        <v>1</v>
+      </c>
+      <c r="I118" s="42"/>
+      <c r="J118" s="43"/>
+      <c r="K118" s="38"/>
+      <c r="L118" s="38"/>
+      <c r="M118" s="38"/>
+      <c r="N118" s="44"/>
+      <c r="O118" s="44"/>
+      <c r="P118" s="44"/>
+      <c r="Q118" s="44"/>
+      <c r="R118" s="44"/>
+      <c r="S118" s="38"/>
+      <c r="T118" s="38"/>
+      <c r="U118" s="38"/>
+      <c r="V118" s="38"/>
+      <c r="W118" s="38"/>
+      <c r="X118" s="38"/>
+      <c r="Y118" s="38"/>
+      <c r="Z118" s="38"/>
+      <c r="AA118" s="38"/>
+      <c r="AB118" s="38"/>
+      <c r="AC118" s="39"/>
+      <c r="AD118" s="39"/>
+      <c r="AE118" s="39"/>
+      <c r="AF118" s="39"/>
+      <c r="AG118" s="39"/>
+      <c r="AH118" s="38"/>
+      <c r="AI118" s="38"/>
+      <c r="AJ118" s="38"/>
+      <c r="AK118" s="38"/>
+      <c r="AL118" s="38"/>
+      <c r="AM118" s="38"/>
+      <c r="AN118" s="38"/>
+      <c r="AO118" s="38"/>
+      <c r="AP118" s="38"/>
+      <c r="AQ118" s="38"/>
+      <c r="AR118" s="40"/>
+      <c r="AS118" s="40"/>
+      <c r="AT118" s="40"/>
+      <c r="AU118" s="40"/>
+      <c r="AV118" s="40"/>
+      <c r="AW118" s="38"/>
+      <c r="AX118" s="38"/>
+      <c r="AY118" s="38"/>
+      <c r="AZ118" s="38"/>
+      <c r="BA118" s="38"/>
+      <c r="BB118" s="38"/>
+      <c r="BC118" s="38"/>
+      <c r="BD118" s="38"/>
+      <c r="BE118" s="38"/>
+      <c r="BF118" s="38"/>
+      <c r="BG118" s="41"/>
+      <c r="BH118" s="41"/>
+      <c r="BI118" s="41"/>
+      <c r="BJ118" s="41"/>
+      <c r="BK118" s="41"/>
+      <c r="BL118" s="38"/>
+      <c r="BM118" s="38"/>
+      <c r="BN118" s="38"/>
+      <c r="BO118" s="38"/>
+      <c r="BP118" s="38"/>
+      <c r="BQ118" s="38"/>
+      <c r="BR118" s="38"/>
+      <c r="BS118" s="38"/>
+      <c r="BT118" s="38"/>
+      <c r="BU118" s="38"/>
+      <c r="BV118" s="38"/>
+      <c r="BW118" s="38"/>
+      <c r="BX118" s="38"/>
+      <c r="BY118" s="38"/>
+      <c r="BZ118" s="38"/>
+    </row>
+    <row r="119" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" s="105"/>
+      <c r="C119" s="106"/>
+      <c r="D119" s="107"/>
+      <c r="E119" s="108"/>
+      <c r="F119" s="108"/>
+      <c r="G119" s="109"/>
+      <c r="H119" s="110"/>
+      <c r="I119" s="111"/>
+      <c r="J119" s="112"/>
+      <c r="K119" s="113"/>
+      <c r="L119" s="113"/>
+      <c r="M119" s="113"/>
+      <c r="N119" s="114"/>
+      <c r="O119" s="114"/>
+      <c r="P119" s="114"/>
+      <c r="Q119" s="114"/>
+      <c r="R119" s="114"/>
+      <c r="S119" s="113"/>
+      <c r="T119" s="113"/>
+      <c r="U119" s="113"/>
+      <c r="V119" s="113"/>
+      <c r="W119" s="113"/>
+      <c r="X119" s="113"/>
+      <c r="Y119" s="113"/>
+      <c r="Z119" s="113"/>
+      <c r="AA119" s="113"/>
+      <c r="AB119" s="113"/>
+      <c r="AC119" s="115"/>
+      <c r="AD119" s="115"/>
+      <c r="AE119" s="115"/>
+      <c r="AF119" s="115"/>
+      <c r="AG119" s="115"/>
+      <c r="AH119" s="113"/>
+      <c r="AI119" s="113"/>
+      <c r="AJ119" s="113"/>
+      <c r="AK119" s="113"/>
+      <c r="AL119" s="113"/>
+      <c r="AM119" s="113"/>
+      <c r="AN119" s="113"/>
+      <c r="AO119" s="113"/>
+      <c r="AP119" s="113"/>
+      <c r="AQ119" s="113"/>
+      <c r="AR119" s="116"/>
+      <c r="AS119" s="116"/>
+      <c r="AT119" s="116"/>
+      <c r="AU119" s="116"/>
+      <c r="AV119" s="116"/>
+      <c r="AW119" s="113"/>
+      <c r="AX119" s="113"/>
+      <c r="AY119" s="113"/>
+      <c r="AZ119" s="113"/>
+      <c r="BA119" s="113"/>
+      <c r="BB119" s="113"/>
+      <c r="BC119" s="113"/>
+      <c r="BD119" s="113"/>
+      <c r="BE119" s="113"/>
+      <c r="BF119" s="113"/>
+      <c r="BG119" s="117"/>
+      <c r="BH119" s="117"/>
+      <c r="BI119" s="117"/>
+      <c r="BJ119" s="117"/>
+      <c r="BK119" s="117"/>
+      <c r="BL119" s="113"/>
+      <c r="BM119" s="113"/>
+      <c r="BN119" s="113"/>
+      <c r="BO119" s="113"/>
+      <c r="BP119" s="113"/>
+      <c r="BQ119" s="113"/>
+      <c r="BR119" s="113"/>
+      <c r="BS119" s="113"/>
+      <c r="BT119" s="113"/>
+      <c r="BU119" s="113"/>
+      <c r="BV119" s="113"/>
+      <c r="BW119" s="113"/>
+      <c r="BX119" s="113"/>
+      <c r="BY119" s="113"/>
+      <c r="BZ119" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:W9"/>
-    <mergeCell ref="X9:AL9"/>
-    <mergeCell ref="AM9:BA9"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AL10"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AR10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="BB9:BZ9"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="N10:R10"/>
@@ -11938,9 +12201,29 @@
     <mergeCell ref="BQ10:BU10"/>
     <mergeCell ref="BV10:BZ10"/>
     <mergeCell ref="S10:W10"/>
+    <mergeCell ref="AM9:BA9"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AH10:AL10"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="AR10:AV10"/>
+    <mergeCell ref="AW10:BA10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:W9"/>
+    <mergeCell ref="X9:AL9"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
-  <conditionalFormatting sqref="H12:H21 H23:H116">
+  <conditionalFormatting sqref="H12:H21 H23:H119">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -11950,7 +12233,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H21 H23:H116">
+  <conditionalFormatting sqref="H12:H21 H23:H119">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -11966,6 +12249,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7EF2104F2CEFE4DACFBF5BA7D93FB4D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bb0ed258f694207805e211ca255f9b46">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6b71f768-6d8b-468c-a986-1e1afc74f0e3" xmlns:ns4="d07d918a-d172-4450-8f4a-7b087689ff85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c03c9fe975be0719773112499dde791" ns3:_="" ns4:_="">
     <xsd:import namespace="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
@@ -12194,36 +12492,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABC364-430D-422C-AD85-145699D2125C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
-    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12246,9 +12518,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FABC364-430D-422C-AD85-145699D2125C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6b71f768-6d8b-468c-a986-1e1afc74f0e3"/>
+    <ds:schemaRef ds:uri="d07d918a-d172-4450-8f4a-7b087689ff85"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/docs/planningdocuments/gannt/GanttChart_POS_9.xlsx
+++ b/docs/planningdocuments/gannt/GanttChart_POS_9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CPS353-POS\docs\planningdocuments\gannt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/CPS353-POS/docs/planningdocuments/gannt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28CC6F5-487D-4ACD-B770-40F3A2C63C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D77AB9-9BC1-E949-8198-1D33AB69E154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -1564,6 +1564,46 @@
     <xf numFmtId="0" fontId="27" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1578,14 +1618,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1594,41 +1629,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1951,24 +1951,24 @@
   </sheetPr>
   <dimension ref="A1:BZ119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F101" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BO124" sqref="BO124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
-    <col min="9" max="33" width="3.44140625" hidden="1" customWidth="1"/>
-    <col min="34" max="78" width="3.44140625" customWidth="1"/>
+    <col min="9" max="33" width="3.5" hidden="1" customWidth="1"/>
+    <col min="34" max="78" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2048,40 +2048,40 @@
       <c r="BY1" s="1"/>
       <c r="BZ1" s="1"/>
     </row>
-    <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="152"/>
-      <c r="Q2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="S2" s="152"/>
-      <c r="T2" s="152"/>
-      <c r="U2" s="152"/>
-      <c r="V2" s="152"/>
-      <c r="W2" s="152"/>
-      <c r="X2" s="152"/>
-      <c r="Y2" s="152"/>
-      <c r="Z2" s="152"/>
-      <c r="AA2" s="152"/>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="152"/>
-      <c r="AD2" s="152"/>
-      <c r="AE2" s="152"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="170"/>
+      <c r="X2" s="170"/>
+      <c r="Y2" s="170"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="170"/>
+      <c r="AB2" s="170"/>
+      <c r="AC2" s="170"/>
+      <c r="AD2" s="170"/>
+      <c r="AE2" s="170"/>
       <c r="AF2" s="11"/>
       <c r="AG2" s="11"/>
       <c r="AH2" s="11"/>
@@ -2130,7 +2130,7 @@
       <c r="BY2" s="1"/>
       <c r="BZ2" s="1"/>
     </row>
-    <row r="3" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -2210,43 +2210,43 @@
       <c r="BY3" s="1"/>
       <c r="BZ3" s="1"/>
     </row>
-    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="157" t="s">
+      <c r="C4" s="163"/>
+      <c r="D4" s="173" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="155" t="s">
+      <c r="I4" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="156"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="159" t="s">
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163"/>
+      <c r="O4" s="163"/>
+      <c r="P4" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="158"/>
-      <c r="R4" s="158"/>
-      <c r="S4" s="158"/>
-      <c r="T4" s="158"/>
-      <c r="U4" s="158"/>
-      <c r="V4" s="158"/>
-      <c r="W4" s="158"/>
-      <c r="X4" s="158"/>
-      <c r="Y4" s="158"/>
-      <c r="Z4" s="158"/>
-      <c r="AA4" s="158"/>
-      <c r="AB4" s="158"/>
+      <c r="Q4" s="165"/>
+      <c r="R4" s="165"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165"/>
+      <c r="X4" s="165"/>
+      <c r="Y4" s="165"/>
+      <c r="Z4" s="165"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -2298,42 +2298,42 @@
       <c r="BY4" s="1"/>
       <c r="BZ4" s="1"/>
     </row>
-    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="155" t="s">
+      <c r="B5" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="169" t="s">
+      <c r="C5" s="163"/>
+      <c r="D5" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="155" t="s">
+      <c r="I5" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="156"/>
-      <c r="K5" s="156"/>
-      <c r="L5" s="156"/>
-      <c r="M5" s="156"/>
-      <c r="N5" s="156"/>
-      <c r="O5" s="156"/>
-      <c r="P5" s="170">
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="166">
         <v>44858</v>
       </c>
-      <c r="Q5" s="158"/>
-      <c r="R5" s="158"/>
-      <c r="S5" s="158"/>
-      <c r="T5" s="158"/>
-      <c r="U5" s="158"/>
-      <c r="V5" s="158"/>
-      <c r="W5" s="158"/>
-      <c r="X5" s="158"/>
-      <c r="Y5" s="158"/>
-      <c r="Z5" s="158"/>
-      <c r="AA5" s="158"/>
+      <c r="Q5" s="165"/>
+      <c r="R5" s="165"/>
+      <c r="S5" s="165"/>
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -2386,7 +2386,7 @@
       <c r="BY5" s="1"/>
       <c r="BZ5" s="1"/>
     </row>
-    <row r="6" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21"/>
       <c r="B6" s="48" t="s">
         <v>44</v>
@@ -2470,7 +2470,7 @@
       <c r="BY6" s="21"/>
       <c r="BZ6" s="21"/>
     </row>
-    <row r="7" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="s">
         <v>45</v>
@@ -2554,7 +2554,7 @@
       <c r="BY7" s="21"/>
       <c r="BZ7" s="21"/>
     </row>
-    <row r="8" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -2634,209 +2634,209 @@
       <c r="BY8" s="21"/>
       <c r="BZ8" s="21"/>
     </row>
-    <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="24"/>
-      <c r="B9" s="149" t="s">
+      <c r="B9" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="149" t="s">
+      <c r="C9" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="149" t="s">
+      <c r="D9" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="149" t="s">
+      <c r="E9" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="149" t="s">
+      <c r="F9" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="149" t="s">
+      <c r="G9" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="160" t="s">
+      <c r="H9" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="162"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
-      <c r="O9" s="163"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="163"/>
-      <c r="R9" s="163"/>
-      <c r="S9" s="163"/>
-      <c r="T9" s="163"/>
-      <c r="U9" s="163"/>
-      <c r="V9" s="163"/>
-      <c r="W9" s="163"/>
-      <c r="X9" s="164"/>
-      <c r="Y9" s="163"/>
-      <c r="Z9" s="163"/>
-      <c r="AA9" s="163"/>
-      <c r="AB9" s="163"/>
-      <c r="AC9" s="163"/>
-      <c r="AD9" s="163"/>
-      <c r="AE9" s="163"/>
-      <c r="AF9" s="163"/>
-      <c r="AG9" s="163"/>
-      <c r="AH9" s="163"/>
-      <c r="AI9" s="163"/>
-      <c r="AJ9" s="163"/>
-      <c r="AK9" s="163"/>
-      <c r="AL9" s="163"/>
-      <c r="AM9" s="164"/>
-      <c r="AN9" s="163"/>
-      <c r="AO9" s="163"/>
-      <c r="AP9" s="163"/>
-      <c r="AQ9" s="163"/>
-      <c r="AR9" s="163"/>
-      <c r="AS9" s="163"/>
-      <c r="AT9" s="163"/>
-      <c r="AU9" s="163"/>
-      <c r="AV9" s="163"/>
-      <c r="AW9" s="163"/>
-      <c r="AX9" s="163"/>
-      <c r="AY9" s="163"/>
-      <c r="AZ9" s="163"/>
-      <c r="BA9" s="163"/>
-      <c r="BB9" s="164"/>
-      <c r="BC9" s="163"/>
-      <c r="BD9" s="163"/>
-      <c r="BE9" s="163"/>
-      <c r="BF9" s="163"/>
-      <c r="BG9" s="163"/>
-      <c r="BH9" s="163"/>
-      <c r="BI9" s="163"/>
-      <c r="BJ9" s="163"/>
-      <c r="BK9" s="163"/>
-      <c r="BL9" s="163"/>
-      <c r="BM9" s="163"/>
-      <c r="BN9" s="163"/>
-      <c r="BO9" s="163"/>
-      <c r="BP9" s="163"/>
-      <c r="BQ9" s="163"/>
-      <c r="BR9" s="163"/>
-      <c r="BS9" s="163"/>
-      <c r="BT9" s="163"/>
-      <c r="BU9" s="163"/>
-      <c r="BV9" s="163"/>
-      <c r="BW9" s="163"/>
-      <c r="BX9" s="163"/>
-      <c r="BY9" s="163"/>
-      <c r="BZ9" s="168"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="157"/>
+      <c r="P9" s="157"/>
+      <c r="Q9" s="157"/>
+      <c r="R9" s="157"/>
+      <c r="S9" s="157"/>
+      <c r="T9" s="157"/>
+      <c r="U9" s="157"/>
+      <c r="V9" s="157"/>
+      <c r="W9" s="157"/>
+      <c r="X9" s="156"/>
+      <c r="Y9" s="157"/>
+      <c r="Z9" s="157"/>
+      <c r="AA9" s="157"/>
+      <c r="AB9" s="157"/>
+      <c r="AC9" s="157"/>
+      <c r="AD9" s="157"/>
+      <c r="AE9" s="157"/>
+      <c r="AF9" s="157"/>
+      <c r="AG9" s="157"/>
+      <c r="AH9" s="157"/>
+      <c r="AI9" s="157"/>
+      <c r="AJ9" s="157"/>
+      <c r="AK9" s="157"/>
+      <c r="AL9" s="157"/>
+      <c r="AM9" s="156"/>
+      <c r="AN9" s="157"/>
+      <c r="AO9" s="157"/>
+      <c r="AP9" s="157"/>
+      <c r="AQ9" s="157"/>
+      <c r="AR9" s="157"/>
+      <c r="AS9" s="157"/>
+      <c r="AT9" s="157"/>
+      <c r="AU9" s="157"/>
+      <c r="AV9" s="157"/>
+      <c r="AW9" s="157"/>
+      <c r="AX9" s="157"/>
+      <c r="AY9" s="157"/>
+      <c r="AZ9" s="157"/>
+      <c r="BA9" s="157"/>
+      <c r="BB9" s="156"/>
+      <c r="BC9" s="157"/>
+      <c r="BD9" s="157"/>
+      <c r="BE9" s="157"/>
+      <c r="BF9" s="157"/>
+      <c r="BG9" s="157"/>
+      <c r="BH9" s="157"/>
+      <c r="BI9" s="157"/>
+      <c r="BJ9" s="157"/>
+      <c r="BK9" s="157"/>
+      <c r="BL9" s="157"/>
+      <c r="BM9" s="157"/>
+      <c r="BN9" s="157"/>
+      <c r="BO9" s="157"/>
+      <c r="BP9" s="157"/>
+      <c r="BQ9" s="157"/>
+      <c r="BR9" s="157"/>
+      <c r="BS9" s="157"/>
+      <c r="BT9" s="157"/>
+      <c r="BU9" s="157"/>
+      <c r="BV9" s="157"/>
+      <c r="BW9" s="157"/>
+      <c r="BX9" s="157"/>
+      <c r="BY9" s="157"/>
+      <c r="BZ9" s="158"/>
     </row>
-    <row r="10" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="165" t="s">
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="166"/>
-      <c r="K10" s="166"/>
-      <c r="L10" s="166"/>
-      <c r="M10" s="167"/>
-      <c r="N10" s="165" t="s">
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="O10" s="166"/>
-      <c r="P10" s="166"/>
-      <c r="Q10" s="166"/>
-      <c r="R10" s="167"/>
-      <c r="S10" s="165" t="s">
+      <c r="O10" s="160"/>
+      <c r="P10" s="160"/>
+      <c r="Q10" s="160"/>
+      <c r="R10" s="161"/>
+      <c r="S10" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="T10" s="166"/>
-      <c r="U10" s="166"/>
-      <c r="V10" s="166"/>
-      <c r="W10" s="167"/>
-      <c r="X10" s="165" t="s">
+      <c r="T10" s="160"/>
+      <c r="U10" s="160"/>
+      <c r="V10" s="160"/>
+      <c r="W10" s="161"/>
+      <c r="X10" s="159" t="s">
         <v>103</v>
       </c>
-      <c r="Y10" s="166"/>
-      <c r="Z10" s="166"/>
-      <c r="AA10" s="166"/>
-      <c r="AB10" s="167"/>
-      <c r="AC10" s="165" t="s">
+      <c r="Y10" s="160"/>
+      <c r="Z10" s="160"/>
+      <c r="AA10" s="160"/>
+      <c r="AB10" s="161"/>
+      <c r="AC10" s="159" t="s">
         <v>104</v>
       </c>
-      <c r="AD10" s="166"/>
-      <c r="AE10" s="166"/>
-      <c r="AF10" s="166"/>
-      <c r="AG10" s="167"/>
-      <c r="AH10" s="165" t="s">
+      <c r="AD10" s="160"/>
+      <c r="AE10" s="160"/>
+      <c r="AF10" s="160"/>
+      <c r="AG10" s="161"/>
+      <c r="AH10" s="159" t="s">
         <v>81</v>
       </c>
-      <c r="AI10" s="166"/>
-      <c r="AJ10" s="166"/>
-      <c r="AK10" s="166"/>
-      <c r="AL10" s="167"/>
-      <c r="AM10" s="165" t="s">
+      <c r="AI10" s="160"/>
+      <c r="AJ10" s="160"/>
+      <c r="AK10" s="160"/>
+      <c r="AL10" s="161"/>
+      <c r="AM10" s="159" t="s">
         <v>131</v>
       </c>
-      <c r="AN10" s="166"/>
-      <c r="AO10" s="166"/>
-      <c r="AP10" s="166"/>
-      <c r="AQ10" s="167"/>
-      <c r="AR10" s="165" t="s">
+      <c r="AN10" s="160"/>
+      <c r="AO10" s="160"/>
+      <c r="AP10" s="160"/>
+      <c r="AQ10" s="161"/>
+      <c r="AR10" s="159" t="s">
         <v>132</v>
       </c>
-      <c r="AS10" s="166"/>
-      <c r="AT10" s="166"/>
-      <c r="AU10" s="166"/>
-      <c r="AV10" s="167"/>
-      <c r="AW10" s="165" t="s">
+      <c r="AS10" s="160"/>
+      <c r="AT10" s="160"/>
+      <c r="AU10" s="160"/>
+      <c r="AV10" s="161"/>
+      <c r="AW10" s="159" t="s">
         <v>135</v>
       </c>
-      <c r="AX10" s="166"/>
-      <c r="AY10" s="166"/>
-      <c r="AZ10" s="166"/>
-      <c r="BA10" s="167"/>
-      <c r="BB10" s="165" t="s">
+      <c r="AX10" s="160"/>
+      <c r="AY10" s="160"/>
+      <c r="AZ10" s="160"/>
+      <c r="BA10" s="161"/>
+      <c r="BB10" s="159" t="s">
         <v>136</v>
       </c>
-      <c r="BC10" s="166"/>
-      <c r="BD10" s="166"/>
-      <c r="BE10" s="166"/>
-      <c r="BF10" s="167"/>
-      <c r="BG10" s="165" t="s">
+      <c r="BC10" s="160"/>
+      <c r="BD10" s="160"/>
+      <c r="BE10" s="160"/>
+      <c r="BF10" s="161"/>
+      <c r="BG10" s="159" t="s">
         <v>137</v>
       </c>
-      <c r="BH10" s="166"/>
-      <c r="BI10" s="166"/>
-      <c r="BJ10" s="166"/>
-      <c r="BK10" s="167"/>
-      <c r="BL10" s="165" t="s">
+      <c r="BH10" s="160"/>
+      <c r="BI10" s="160"/>
+      <c r="BJ10" s="160"/>
+      <c r="BK10" s="161"/>
+      <c r="BL10" s="159" t="s">
         <v>138</v>
       </c>
-      <c r="BM10" s="166"/>
-      <c r="BN10" s="166"/>
-      <c r="BO10" s="166"/>
-      <c r="BP10" s="167"/>
-      <c r="BQ10" s="165" t="s">
+      <c r="BM10" s="160"/>
+      <c r="BN10" s="160"/>
+      <c r="BO10" s="160"/>
+      <c r="BP10" s="161"/>
+      <c r="BQ10" s="159" t="s">
         <v>139</v>
       </c>
-      <c r="BR10" s="166"/>
-      <c r="BS10" s="166"/>
-      <c r="BT10" s="166"/>
-      <c r="BU10" s="167"/>
-      <c r="BV10" s="165" t="s">
+      <c r="BR10" s="160"/>
+      <c r="BS10" s="160"/>
+      <c r="BT10" s="160"/>
+      <c r="BU10" s="161"/>
+      <c r="BV10" s="159" t="s">
         <v>140</v>
       </c>
-      <c r="BW10" s="166"/>
-      <c r="BX10" s="166"/>
-      <c r="BY10" s="166"/>
-      <c r="BZ10" s="167"/>
+      <c r="BW10" s="160"/>
+      <c r="BX10" s="160"/>
+      <c r="BY10" s="160"/>
+      <c r="BZ10" s="161"/>
     </row>
-    <row r="11" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21"/>
       <c r="B11" s="26">
         <v>1</v>
@@ -3060,7 +3060,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A12" s="32"/>
       <c r="B12" s="33">
         <v>1.1000000000000001</v>
@@ -3155,7 +3155,7 @@
       <c r="BY12" s="38"/>
       <c r="BZ12" s="38"/>
     </row>
-    <row r="13" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32"/>
       <c r="B13" s="33" t="s">
         <v>12</v>
@@ -3250,7 +3250,7 @@
       <c r="BY13" s="38"/>
       <c r="BZ13" s="38"/>
     </row>
-    <row r="14" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A14" s="32"/>
       <c r="B14" s="33">
         <v>1.2</v>
@@ -3345,7 +3345,7 @@
       <c r="BY14" s="38"/>
       <c r="BZ14" s="38"/>
     </row>
-    <row r="15" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A15" s="32"/>
       <c r="B15" s="33">
         <v>1.3</v>
@@ -3440,7 +3440,7 @@
       <c r="BY15" s="38"/>
       <c r="BZ15" s="38"/>
     </row>
-    <row r="16" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A16" s="32"/>
       <c r="B16" s="33">
         <v>1.4</v>
@@ -3535,7 +3535,7 @@
       <c r="BY16" s="38"/>
       <c r="BZ16" s="38"/>
     </row>
-    <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A17" s="32"/>
       <c r="B17" s="33">
         <v>1.5</v>
@@ -3630,7 +3630,7 @@
       <c r="BY17" s="38"/>
       <c r="BZ17" s="38"/>
     </row>
-    <row r="18" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A18" s="32"/>
       <c r="B18" s="33">
         <v>1.6</v>
@@ -3725,7 +3725,7 @@
       <c r="BY18" s="38"/>
       <c r="BZ18" s="38"/>
     </row>
-    <row r="19" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A19" s="32"/>
       <c r="B19" s="33">
         <v>1.7</v>
@@ -3820,7 +3820,7 @@
       <c r="BY19" s="38"/>
       <c r="BZ19" s="38"/>
     </row>
-    <row r="20" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A20" s="32"/>
       <c r="B20" s="33"/>
       <c r="C20" s="34"/>
@@ -3900,7 +3900,7 @@
       <c r="BY20" s="38"/>
       <c r="BZ20" s="38"/>
     </row>
-    <row r="21" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A21" s="32"/>
       <c r="B21" s="33"/>
       <c r="C21" s="34"/>
@@ -3980,7 +3980,7 @@
       <c r="BY21" s="38"/>
       <c r="BZ21" s="38"/>
     </row>
-    <row r="22" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="21"/>
       <c r="B22" s="26">
         <v>2</v>
@@ -4064,7 +4064,7 @@
       <c r="BY22" s="29"/>
       <c r="BZ22" s="29"/>
     </row>
-    <row r="23" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A23" s="32"/>
       <c r="B23" s="33">
         <v>2.1</v>
@@ -4154,7 +4154,7 @@
       <c r="BY23" s="38"/>
       <c r="BZ23" s="38"/>
     </row>
-    <row r="24" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A24" s="32"/>
       <c r="B24" s="33">
         <v>2.2000000000000002</v>
@@ -4245,7 +4245,7 @@
       <c r="BY24" s="38"/>
       <c r="BZ24" s="38"/>
     </row>
-    <row r="25" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A25" s="32"/>
       <c r="B25" s="33">
         <v>2.2999999999999998</v>
@@ -4336,7 +4336,7 @@
       <c r="BY25" s="38"/>
       <c r="BZ25" s="38"/>
     </row>
-    <row r="26" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A26" s="32"/>
       <c r="B26" s="33" t="s">
         <v>13</v>
@@ -4426,7 +4426,7 @@
       <c r="BY26" s="38"/>
       <c r="BZ26" s="38"/>
     </row>
-    <row r="27" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A27" s="32"/>
       <c r="B27" s="33">
         <v>2.4</v>
@@ -4517,7 +4517,7 @@
       <c r="BY27" s="38"/>
       <c r="BZ27" s="38"/>
     </row>
-    <row r="28" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A28" s="32"/>
       <c r="B28" s="33">
         <v>2.5</v>
@@ -4608,7 +4608,7 @@
       <c r="BY28" s="38"/>
       <c r="BZ28" s="38"/>
     </row>
-    <row r="29" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A29" s="32"/>
       <c r="B29" s="33">
         <v>2.6</v>
@@ -4698,7 +4698,7 @@
       <c r="BY29" s="38"/>
       <c r="BZ29" s="38"/>
     </row>
-    <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A30" s="32"/>
       <c r="B30" s="33">
         <v>2.7</v>
@@ -4789,7 +4789,7 @@
       <c r="BY30" s="38"/>
       <c r="BZ30" s="38"/>
     </row>
-    <row r="31" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A31" s="32"/>
       <c r="B31" s="33">
         <v>2.8</v>
@@ -4880,7 +4880,7 @@
       <c r="BY31" s="38"/>
       <c r="BZ31" s="38"/>
     </row>
-    <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A32" s="32"/>
       <c r="B32" s="33">
         <v>2.9</v>
@@ -4970,7 +4970,7 @@
       <c r="BY32" s="38"/>
       <c r="BZ32" s="38"/>
     </row>
-    <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A33" s="32"/>
       <c r="B33" s="46">
         <v>2.1</v>
@@ -5060,7 +5060,7 @@
       <c r="BY33" s="38"/>
       <c r="BZ33" s="38"/>
     </row>
-    <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A34" s="32"/>
       <c r="B34" s="46">
         <v>2.11</v>
@@ -5142,7 +5142,7 @@
       <c r="BY34" s="38"/>
       <c r="BZ34" s="38"/>
     </row>
-    <row r="35" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="26">
         <v>3</v>
@@ -5226,7 +5226,7 @@
       <c r="BY35" s="29"/>
       <c r="BZ35" s="29"/>
     </row>
-    <row r="36" spans="1:78" s="75" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:78" s="75" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="77"/>
       <c r="B36" s="78"/>
       <c r="C36" s="79" t="s">
@@ -5308,7 +5308,7 @@
       <c r="BY36" s="81"/>
       <c r="BZ36" s="81"/>
     </row>
-    <row r="37" spans="1:78" s="103" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:78" s="103" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="132"/>
       <c r="B37" s="133"/>
       <c r="C37" s="134" t="s">
@@ -5390,7 +5390,7 @@
       <c r="BY37" s="136"/>
       <c r="BZ37" s="136"/>
     </row>
-    <row r="38" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="84"/>
       <c r="C38" s="118" t="s">
@@ -5472,7 +5472,7 @@
       <c r="BY38" s="86"/>
       <c r="BZ38" s="86"/>
     </row>
-    <row r="39" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="84"/>
       <c r="C39" s="118" t="s">
@@ -5553,7 +5553,7 @@
       <c r="BY39" s="86"/>
       <c r="BZ39" s="86"/>
     </row>
-    <row r="40" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="84"/>
       <c r="C40" s="118" t="s">
@@ -5635,7 +5635,7 @@
       <c r="BY40" s="86"/>
       <c r="BZ40" s="86"/>
     </row>
-    <row r="41" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="84"/>
       <c r="C41" s="118" t="s">
@@ -5717,7 +5717,7 @@
       <c r="BY41" s="86"/>
       <c r="BZ41" s="86"/>
     </row>
-    <row r="42" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="84"/>
       <c r="C42" s="118" t="s">
@@ -5799,7 +5799,7 @@
       <c r="BY42" s="86"/>
       <c r="BZ42" s="86"/>
     </row>
-    <row r="43" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="84"/>
       <c r="C43" s="118" t="s">
@@ -5881,7 +5881,7 @@
       <c r="BY43" s="86"/>
       <c r="BZ43" s="86"/>
     </row>
-    <row r="44" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="84"/>
       <c r="C44" s="118" t="s">
@@ -5963,7 +5963,7 @@
       <c r="BY44" s="86"/>
       <c r="BZ44" s="86"/>
     </row>
-    <row r="45" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="84"/>
       <c r="C45" s="118"/>
@@ -6043,7 +6043,7 @@
       <c r="BY45" s="86"/>
       <c r="BZ45" s="86"/>
     </row>
-    <row r="46" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="84"/>
       <c r="C46" s="118"/>
@@ -6123,7 +6123,7 @@
       <c r="BY46" s="86"/>
       <c r="BZ46" s="86"/>
     </row>
-    <row r="47" spans="1:78" s="103" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:78" s="103" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="132"/>
       <c r="B47" s="140"/>
       <c r="C47" s="141" t="s">
@@ -6205,7 +6205,7 @@
       <c r="BY47" s="139"/>
       <c r="BZ47" s="139"/>
     </row>
-    <row r="48" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="84"/>
       <c r="C48" s="118" t="s">
@@ -6287,7 +6287,7 @@
       <c r="BY48" s="86"/>
       <c r="BZ48" s="86"/>
     </row>
-    <row r="49" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="84"/>
       <c r="C49" s="118" t="s">
@@ -6369,7 +6369,7 @@
       <c r="BY49" s="86"/>
       <c r="BZ49" s="86"/>
     </row>
-    <row r="50" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="21"/>
       <c r="B50" s="84"/>
       <c r="C50" s="118" t="s">
@@ -6451,7 +6451,7 @@
       <c r="BY50" s="86"/>
       <c r="BZ50" s="86"/>
     </row>
-    <row r="51" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="21"/>
       <c r="B51" s="84"/>
       <c r="C51" s="118" t="s">
@@ -6533,7 +6533,7 @@
       <c r="BY51" s="86"/>
       <c r="BZ51" s="86"/>
     </row>
-    <row r="52" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="21"/>
       <c r="B52" s="84"/>
       <c r="C52" s="118" t="s">
@@ -6615,11 +6615,11 @@
       <c r="BY52" s="86"/>
       <c r="BZ52" s="86"/>
     </row>
-    <row r="53" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="21"/>
-      <c r="B53" s="171"/>
-      <c r="C53" s="174"/>
-      <c r="D53" s="172"/>
+      <c r="B53" s="149"/>
+      <c r="C53" s="152"/>
+      <c r="D53" s="150"/>
       <c r="E53" s="85"/>
       <c r="F53" s="85"/>
       <c r="G53" s="85"/>
@@ -6695,11 +6695,11 @@
       <c r="BY53" s="86"/>
       <c r="BZ53" s="86"/>
     </row>
-    <row r="54" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="21"/>
-      <c r="B54" s="171"/>
+      <c r="B54" s="149"/>
       <c r="C54" s="57"/>
-      <c r="D54" s="172"/>
+      <c r="D54" s="150"/>
       <c r="E54" s="85"/>
       <c r="F54" s="85"/>
       <c r="G54" s="85"/>
@@ -6775,11 +6775,11 @@
       <c r="BY54" s="86"/>
       <c r="BZ54" s="86"/>
     </row>
-    <row r="55" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:78" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="21"/>
-      <c r="B55" s="171"/>
+      <c r="B55" s="149"/>
       <c r="C55" s="57"/>
-      <c r="D55" s="172"/>
+      <c r="D55" s="150"/>
       <c r="E55" s="85"/>
       <c r="F55" s="85"/>
       <c r="G55" s="85"/>
@@ -6855,10 +6855,10 @@
       <c r="BY55" s="86"/>
       <c r="BZ55" s="86"/>
     </row>
-    <row r="56" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A56" s="72"/>
       <c r="B56" s="73"/>
-      <c r="C56" s="173" t="s">
+      <c r="C56" s="151" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="74"/>
@@ -6937,7 +6937,7 @@
       <c r="BY56" s="67"/>
       <c r="BZ56" s="67"/>
     </row>
-    <row r="57" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A57" s="32"/>
       <c r="B57" s="53"/>
       <c r="C57" s="56" t="s">
@@ -7019,7 +7019,7 @@
       <c r="BY57" s="38"/>
       <c r="BZ57" s="38"/>
     </row>
-    <row r="58" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A58" s="32"/>
       <c r="B58" s="53"/>
       <c r="C58" s="56" t="s">
@@ -7101,7 +7101,7 @@
       <c r="BY58" s="38"/>
       <c r="BZ58" s="38"/>
     </row>
-    <row r="59" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A59" s="32"/>
       <c r="B59" s="53"/>
       <c r="C59" s="56" t="s">
@@ -7183,7 +7183,7 @@
       <c r="BY59" s="38"/>
       <c r="BZ59" s="38"/>
     </row>
-    <row r="60" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A60" s="32"/>
       <c r="B60" s="53"/>
       <c r="C60" s="56" t="s">
@@ -7265,7 +7265,7 @@
       <c r="BY60" s="38"/>
       <c r="BZ60" s="38"/>
     </row>
-    <row r="61" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A61" s="32"/>
       <c r="B61" s="53"/>
       <c r="C61" s="56" t="s">
@@ -7347,7 +7347,7 @@
       <c r="BY61" s="38"/>
       <c r="BZ61" s="38"/>
     </row>
-    <row r="62" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A62" s="32"/>
       <c r="B62" s="53"/>
       <c r="C62" s="56" t="s">
@@ -7428,7 +7428,7 @@
       <c r="BY62" s="38"/>
       <c r="BZ62" s="38"/>
     </row>
-    <row r="63" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A63" s="32"/>
       <c r="B63" s="53"/>
       <c r="C63" s="56" t="s">
@@ -7510,7 +7510,7 @@
       <c r="BY63" s="38"/>
       <c r="BZ63" s="38"/>
     </row>
-    <row r="64" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A64" s="32"/>
       <c r="B64" s="53"/>
       <c r="C64" s="56" t="s">
@@ -7592,7 +7592,7 @@
       <c r="BY64" s="38"/>
       <c r="BZ64" s="38"/>
     </row>
-    <row r="65" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A65" s="32"/>
       <c r="B65" s="53"/>
       <c r="C65" s="56" t="s">
@@ -7674,7 +7674,7 @@
       <c r="BY65" s="38"/>
       <c r="BZ65" s="38"/>
     </row>
-    <row r="66" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A66" s="32"/>
       <c r="B66" s="53"/>
       <c r="C66" s="56" t="s">
@@ -7756,7 +7756,7 @@
       <c r="BY66" s="38"/>
       <c r="BZ66" s="38"/>
     </row>
-    <row r="67" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A67" s="32"/>
       <c r="B67" s="53"/>
       <c r="C67" s="56" t="s">
@@ -7838,7 +7838,7 @@
       <c r="BY67" s="38"/>
       <c r="BZ67" s="38"/>
     </row>
-    <row r="68" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A68" s="32"/>
       <c r="B68" s="53"/>
       <c r="C68" s="56" t="s">
@@ -7920,7 +7920,7 @@
       <c r="BY68" s="38"/>
       <c r="BZ68" s="38"/>
     </row>
-    <row r="69" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A69" s="32"/>
       <c r="B69" s="53"/>
       <c r="C69" s="56" t="s">
@@ -8002,7 +8002,7 @@
       <c r="BY69" s="38"/>
       <c r="BZ69" s="38"/>
     </row>
-    <row r="70" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A70" s="32"/>
       <c r="B70" s="53"/>
       <c r="C70" s="56"/>
@@ -8082,7 +8082,7 @@
       <c r="BY70" s="38"/>
       <c r="BZ70" s="38"/>
     </row>
-    <row r="71" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A71" s="32"/>
       <c r="B71" s="53"/>
       <c r="C71" s="56"/>
@@ -8162,7 +8162,7 @@
       <c r="BY71" s="38"/>
       <c r="BZ71" s="38"/>
     </row>
-    <row r="72" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A72" s="32"/>
       <c r="B72" s="59"/>
       <c r="C72" s="60" t="s">
@@ -8244,7 +8244,7 @@
       <c r="BY72" s="67"/>
       <c r="BZ72" s="67"/>
     </row>
-    <row r="73" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A73" s="32"/>
       <c r="B73" s="53"/>
       <c r="C73" s="56" t="s">
@@ -8326,7 +8326,7 @@
       <c r="BY73" s="38"/>
       <c r="BZ73" s="38"/>
     </row>
-    <row r="74" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A74" s="32"/>
       <c r="B74" s="53"/>
       <c r="C74" s="56" t="s">
@@ -8408,7 +8408,7 @@
       <c r="BY74" s="38"/>
       <c r="BZ74" s="38"/>
     </row>
-    <row r="75" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A75" s="32"/>
       <c r="B75" s="53"/>
       <c r="C75" s="56" t="s">
@@ -8490,7 +8490,7 @@
       <c r="BY75" s="38"/>
       <c r="BZ75" s="38"/>
     </row>
-    <row r="76" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A76" s="32"/>
       <c r="B76" s="53"/>
       <c r="C76" s="56" t="s">
@@ -8572,7 +8572,7 @@
       <c r="BY76" s="38"/>
       <c r="BZ76" s="38"/>
     </row>
-    <row r="77" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A77" s="32"/>
       <c r="B77" s="53"/>
       <c r="C77" s="56" t="s">
@@ -8654,7 +8654,7 @@
       <c r="BY77" s="38"/>
       <c r="BZ77" s="38"/>
     </row>
-    <row r="78" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A78" s="32"/>
       <c r="B78" s="53"/>
       <c r="C78" s="56" t="s">
@@ -8736,7 +8736,7 @@
       <c r="BY78" s="38"/>
       <c r="BZ78" s="38"/>
     </row>
-    <row r="79" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A79" s="32"/>
       <c r="B79" s="53"/>
       <c r="C79" s="56" t="s">
@@ -8780,11 +8780,11 @@
       <c r="AM79" s="38"/>
       <c r="AN79" s="38"/>
       <c r="AO79" s="38"/>
-      <c r="AP79" s="175"/>
+      <c r="AP79" s="153"/>
       <c r="AQ79" s="38"/>
       <c r="AR79" s="40"/>
       <c r="AS79" s="40"/>
-      <c r="AT79" s="177"/>
+      <c r="AT79" s="155"/>
       <c r="AU79" s="148"/>
       <c r="AV79" s="148"/>
       <c r="AW79" s="58"/>
@@ -8818,7 +8818,7 @@
       <c r="BY79" s="38"/>
       <c r="BZ79" s="38"/>
     </row>
-    <row r="80" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A80" s="32"/>
       <c r="B80" s="53"/>
       <c r="C80" s="56" t="s">
@@ -8865,7 +8865,7 @@
       <c r="AP80" s="38"/>
       <c r="AQ80" s="128"/>
       <c r="AR80" s="40"/>
-      <c r="AS80" s="176"/>
+      <c r="AS80" s="154"/>
       <c r="AT80" s="148"/>
       <c r="AU80" s="148"/>
       <c r="AV80" s="148"/>
@@ -8900,7 +8900,7 @@
       <c r="BY80" s="38"/>
       <c r="BZ80" s="38"/>
     </row>
-    <row r="81" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A81" s="32"/>
       <c r="B81" s="53"/>
       <c r="C81" s="56"/>
@@ -8980,7 +8980,7 @@
       <c r="BY81" s="38"/>
       <c r="BZ81" s="38"/>
     </row>
-    <row r="82" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A82" s="72"/>
       <c r="B82" s="59"/>
       <c r="C82" s="60" t="s">
@@ -9062,7 +9062,7 @@
       <c r="BY82" s="67"/>
       <c r="BZ82" s="67"/>
     </row>
-    <row r="83" spans="1:78" s="103" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:78" s="103" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A83" s="89"/>
       <c r="B83" s="90"/>
       <c r="C83" s="91" t="s">
@@ -9144,7 +9144,7 @@
       <c r="BY83" s="98"/>
       <c r="BZ83" s="98"/>
     </row>
-    <row r="84" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A84" s="32"/>
       <c r="B84" s="53"/>
       <c r="C84" s="56" t="s">
@@ -9226,7 +9226,7 @@
       <c r="BY84" s="38"/>
       <c r="BZ84" s="38"/>
     </row>
-    <row r="85" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A85" s="32"/>
       <c r="B85" s="53"/>
       <c r="C85" s="56" t="s">
@@ -9308,7 +9308,7 @@
       <c r="BY85" s="38"/>
       <c r="BZ85" s="38"/>
     </row>
-    <row r="86" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A86" s="32"/>
       <c r="B86" s="53"/>
       <c r="C86" s="56" t="s">
@@ -9390,7 +9390,7 @@
       <c r="BY86" s="38"/>
       <c r="BZ86" s="38"/>
     </row>
-    <row r="87" spans="1:78" ht="16.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:78" ht="16.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A87" s="32"/>
       <c r="B87" s="53"/>
       <c r="C87" s="56" t="s">
@@ -9472,7 +9472,7 @@
       <c r="BY87" s="38"/>
       <c r="BZ87" s="38"/>
     </row>
-    <row r="88" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A88" s="32"/>
       <c r="B88" s="53"/>
       <c r="C88" s="56" t="s">
@@ -9554,7 +9554,7 @@
       <c r="BY88" s="38"/>
       <c r="BZ88" s="38"/>
     </row>
-    <row r="89" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A89" s="32"/>
       <c r="B89" s="53"/>
       <c r="C89" s="56" t="s">
@@ -9636,7 +9636,7 @@
       <c r="BY89" s="38"/>
       <c r="BZ89" s="38"/>
     </row>
-    <row r="90" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A90" s="32"/>
       <c r="B90" s="53"/>
       <c r="C90" s="56" t="s">
@@ -9718,7 +9718,7 @@
       <c r="BY90" s="38"/>
       <c r="BZ90" s="38"/>
     </row>
-    <row r="91" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A91" s="32"/>
       <c r="B91" s="53"/>
       <c r="C91" s="56" t="s">
@@ -9800,7 +9800,7 @@
       <c r="BY91" s="38"/>
       <c r="BZ91" s="38"/>
     </row>
-    <row r="92" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A92" s="32"/>
       <c r="B92" s="53"/>
       <c r="C92" s="57" t="s">
@@ -9882,7 +9882,7 @@
       <c r="BY92" s="38"/>
       <c r="BZ92" s="38"/>
     </row>
-    <row r="93" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A93" s="32"/>
       <c r="B93" s="53"/>
       <c r="C93" s="56" t="s">
@@ -9964,7 +9964,7 @@
       <c r="BY93" s="38"/>
       <c r="BZ93" s="38"/>
     </row>
-    <row r="94" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A94" s="32"/>
       <c r="B94" s="53"/>
       <c r="C94" s="56" t="s">
@@ -10046,7 +10046,7 @@
       <c r="BY94" s="38"/>
       <c r="BZ94" s="38"/>
     </row>
-    <row r="95" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A95" s="32"/>
       <c r="B95" s="53"/>
       <c r="C95" s="56" t="s">
@@ -10128,7 +10128,7 @@
       <c r="BY95" s="38"/>
       <c r="BZ95" s="38"/>
     </row>
-    <row r="96" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A96" s="32"/>
       <c r="B96" s="53"/>
       <c r="C96" s="56" t="s">
@@ -10210,7 +10210,7 @@
       <c r="BY96" s="38"/>
       <c r="BZ96" s="38"/>
     </row>
-    <row r="97" spans="1:78" s="103" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:78" s="103" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A97" s="89"/>
       <c r="B97" s="90"/>
       <c r="C97" s="91" t="s">
@@ -10292,7 +10292,7 @@
       <c r="BY97" s="98"/>
       <c r="BZ97" s="98"/>
     </row>
-    <row r="98" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A98" s="32"/>
       <c r="B98" s="53"/>
       <c r="C98" s="56" t="s">
@@ -10374,7 +10374,7 @@
       <c r="BY98" s="38"/>
       <c r="BZ98" s="38"/>
     </row>
-    <row r="99" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A99" s="32"/>
       <c r="B99" s="53"/>
       <c r="C99" s="56" t="s">
@@ -10456,7 +10456,7 @@
       <c r="BY99" s="38"/>
       <c r="BZ99" s="38"/>
     </row>
-    <row r="100" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A100" s="32"/>
       <c r="B100" s="53"/>
       <c r="C100" s="56" t="s">
@@ -10538,7 +10538,7 @@
       <c r="BY100" s="38"/>
       <c r="BZ100" s="38"/>
     </row>
-    <row r="101" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A101" s="32"/>
       <c r="B101" s="53"/>
       <c r="C101" s="56" t="s">
@@ -10620,7 +10620,7 @@
       <c r="BY101" s="38"/>
       <c r="BZ101" s="38"/>
     </row>
-    <row r="102" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:78" s="75" customFormat="1" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A102" s="72"/>
       <c r="B102" s="59"/>
       <c r="C102" s="76" t="s">
@@ -10702,7 +10702,7 @@
       <c r="BY102" s="67"/>
       <c r="BZ102" s="67"/>
     </row>
-    <row r="103" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A103" s="32"/>
       <c r="B103" s="53"/>
       <c r="C103" s="56" t="s">
@@ -10784,7 +10784,7 @@
       <c r="BY103" s="38"/>
       <c r="BZ103" s="38"/>
     </row>
-    <row r="104" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A104" s="32"/>
       <c r="B104" s="53"/>
       <c r="C104" s="56" t="s">
@@ -10866,7 +10866,7 @@
       <c r="BY104" s="38"/>
       <c r="BZ104" s="38"/>
     </row>
-    <row r="105" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A105" s="32"/>
       <c r="B105" s="53"/>
       <c r="C105" s="56" t="s">
@@ -10948,7 +10948,7 @@
       <c r="BY105" s="38"/>
       <c r="BZ105" s="38"/>
     </row>
-    <row r="106" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A106" s="32"/>
       <c r="B106" s="53"/>
       <c r="C106" s="56" t="s">
@@ -11030,7 +11030,7 @@
       <c r="BY106" s="38"/>
       <c r="BZ106" s="38"/>
     </row>
-    <row r="107" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A107" s="32"/>
       <c r="B107" s="53"/>
       <c r="C107" s="56" t="s">
@@ -11076,22 +11076,22 @@
       <c r="AO107" s="122"/>
       <c r="AP107" s="122"/>
       <c r="AQ107" s="148"/>
-      <c r="AR107" s="145"/>
-      <c r="AS107" s="40"/>
-      <c r="AT107" s="40"/>
-      <c r="AU107" s="40"/>
-      <c r="AV107" s="40"/>
-      <c r="AW107" s="38"/>
-      <c r="AX107" s="38"/>
-      <c r="AY107" s="38"/>
-      <c r="AZ107" s="38"/>
-      <c r="BA107" s="38"/>
-      <c r="BB107" s="38"/>
-      <c r="BC107" s="38"/>
-      <c r="BD107" s="38"/>
-      <c r="BE107" s="38"/>
-      <c r="BF107" s="38"/>
-      <c r="BG107" s="41"/>
+      <c r="AR107" s="148"/>
+      <c r="AS107" s="148"/>
+      <c r="AT107" s="148"/>
+      <c r="AU107" s="148"/>
+      <c r="AV107" s="148"/>
+      <c r="AW107" s="148"/>
+      <c r="AX107" s="148"/>
+      <c r="AY107" s="148"/>
+      <c r="AZ107" s="148"/>
+      <c r="BA107" s="148"/>
+      <c r="BB107" s="148"/>
+      <c r="BC107" s="148"/>
+      <c r="BD107" s="148"/>
+      <c r="BE107" s="148"/>
+      <c r="BF107" s="148"/>
+      <c r="BG107" s="58"/>
       <c r="BH107" s="41"/>
       <c r="BI107" s="41"/>
       <c r="BJ107" s="41"/>
@@ -11112,7 +11112,7 @@
       <c r="BY107" s="38"/>
       <c r="BZ107" s="38"/>
     </row>
-    <row r="108" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A108" s="32"/>
       <c r="B108" s="53"/>
       <c r="C108" s="56"/>
@@ -11192,7 +11192,7 @@
       <c r="BY108" s="38"/>
       <c r="BZ108" s="38"/>
     </row>
-    <row r="109" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:78" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="A109" s="32"/>
       <c r="B109" s="53"/>
       <c r="C109" s="57"/>
@@ -11272,7 +11272,7 @@
       <c r="BY109" s="38"/>
       <c r="BZ109" s="38"/>
     </row>
-    <row r="110" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B110" s="26">
         <v>4</v>
       </c>
@@ -11355,7 +11355,7 @@
       <c r="BY110" s="29"/>
       <c r="BZ110" s="29"/>
     </row>
-    <row r="111" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="33">
         <v>4.0999999999999996</v>
       </c>
@@ -11449,7 +11449,7 @@
       <c r="BY111" s="38"/>
       <c r="BZ111" s="38"/>
     </row>
-    <row r="112" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="33">
         <v>4.2</v>
       </c>
@@ -11542,7 +11542,7 @@
       <c r="BY112" s="38"/>
       <c r="BZ112" s="38"/>
     </row>
-    <row r="113" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B113" s="33" t="s">
         <v>47</v>
       </c>
@@ -11636,7 +11636,7 @@
       <c r="BY113" s="38"/>
       <c r="BZ113" s="38"/>
     </row>
-    <row r="114" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B114" s="33" t="s">
         <v>49</v>
       </c>
@@ -11730,7 +11730,7 @@
       <c r="BY114" s="38"/>
       <c r="BZ114" s="38"/>
     </row>
-    <row r="115" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B115" s="33" t="s">
         <v>48</v>
       </c>
@@ -11824,7 +11824,7 @@
       <c r="BY115" s="38"/>
       <c r="BZ115" s="38"/>
     </row>
-    <row r="116" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="33" t="s">
         <v>62</v>
       </c>
@@ -11918,7 +11918,7 @@
       <c r="BY116" s="38"/>
       <c r="BZ116" s="38"/>
     </row>
-    <row r="117" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B117" s="33"/>
       <c r="C117" s="47" t="s">
         <v>65</v>
@@ -12010,7 +12010,7 @@
       <c r="BY117" s="38"/>
       <c r="BZ117" s="38"/>
     </row>
-    <row r="118" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B118" s="33" t="s">
         <v>62</v>
       </c>
@@ -12104,7 +12104,7 @@
       <c r="BY118" s="38"/>
       <c r="BZ118" s="38"/>
     </row>
-    <row r="119" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B119" s="105"/>
       <c r="C119" s="106"/>
       <c r="D119" s="107"/>
@@ -12185,6 +12185,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:W9"/>
+    <mergeCell ref="X9:AL9"/>
+    <mergeCell ref="AM9:BA9"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="AH10:AL10"/>
+    <mergeCell ref="AM10:AQ10"/>
+    <mergeCell ref="AR10:AV10"/>
+    <mergeCell ref="AW10:BA10"/>
     <mergeCell ref="BB9:BZ9"/>
     <mergeCell ref="I10:M10"/>
     <mergeCell ref="N10:R10"/>
@@ -12201,26 +12221,6 @@
     <mergeCell ref="BQ10:BU10"/>
     <mergeCell ref="BV10:BZ10"/>
     <mergeCell ref="S10:W10"/>
-    <mergeCell ref="AM9:BA9"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="AH10:AL10"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AR10:AV10"/>
-    <mergeCell ref="AW10:BA10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:W9"/>
-    <mergeCell ref="X9:AL9"/>
   </mergeCells>
   <phoneticPr fontId="35" type="noConversion"/>
   <conditionalFormatting sqref="H12:H21 H23:H119">
@@ -12249,18 +12249,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12493,14 +12493,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14D564B3-5264-41FC-B8E0-395B567D9994}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -12513,6 +12505,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7F187D4-7552-4664-8374-8AA9CBDA3C6B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
